--- a/news_data/2020_04.xlsx
+++ b/news_data/2020_04.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="105">
   <si>
     <t>naver_news_title</t>
   </si>
@@ -22,6 +22,147 @@
     <t>naver_news_articles</t>
   </si>
   <si>
+    <t>제주도 하루 관광객 4만명 ‘돌파’…더운 날씨에 마스크 벗은 시민도</t>
+  </si>
+  <si>
+    <t>제주도 치료제 나오기 전까지 안전관광 기조 유지</t>
+  </si>
+  <si>
+    <t>황금연휴 첫날, 제주도 주요 관광지 '북적'</t>
+  </si>
+  <si>
+    <t>제주도의회, 코로나19 고용 사각 ‘관광안내사’ 실태 점검</t>
+  </si>
+  <si>
+    <t>“돌하르방도 마스크” 관광객 몰려드는 제주도의 호소</t>
+  </si>
+  <si>
+    <t>황금연휴, 제주도 관광객 몰린다…렌터카업계 방역 비상</t>
+  </si>
+  <si>
+    <t>"황금연휴 관광객 쏠린 강원도·제주도 방역관리 강화"</t>
+  </si>
+  <si>
+    <t>제주도는 오지 말라는데…금·토 4만 관광객 상륙</t>
+  </si>
+  <si>
+    <t>약 25만 명 예상... 제주도 관광객, '이것' 기준 바뀌어 확인해야 한다</t>
+  </si>
+  <si>
+    <t>마스크 쓴 제주도 돌하르방...황금연휴 관광객 특별관리 돌입</t>
+  </si>
+  <si>
+    <t>5월 황금연휴, 물밀듯 몰아치는 관광객에 제주도 '긴장'</t>
+  </si>
+  <si>
+    <t>예상보다 많은 관광객 제주도 물론 정부도 긴장</t>
+  </si>
+  <si>
+    <t>제주도, 관광업소에 "마스크 안 쓴 손님 받지마"</t>
+  </si>
+  <si>
+    <t>황금연휴 기간, 제주도 관광객 18만명 몰린다</t>
+  </si>
+  <si>
+    <t>마스크 미착용 관광객은 'NO'...제주도 방역지침 업소 권고</t>
+  </si>
+  <si>
+    <t>황금연휴 첫날, 제주도를 찾은 관광객은 신종 코로나 사태 이후 가장 많았다</t>
+  </si>
+  <si>
+    <t>제주도처럼…골든위크 맞은 日오키나와도 '관광객 공포'</t>
+  </si>
+  <si>
+    <t>황금연휴 시작, 제주도 방역 강화…"관광객 18만명..마스크 미착용자 제한"</t>
+  </si>
+  <si>
+    <t>제주도 축제·문화예술·관광 활성화 위한 업무협약 체결</t>
+  </si>
+  <si>
+    <t>코로나19 경기회복, 제주도 관광에 치킨집이 견인</t>
+  </si>
+  <si>
+    <t>종교행사·시험 재개…제주도 관광객, 지난주보다 37% 늘어</t>
+  </si>
+  <si>
+    <t>'황금연휴' 코로나 19 비상...제주도로 18만 관광객 이동</t>
+  </si>
+  <si>
+    <t>황금연휴 관광객 폭발에 제주도 공항 '워크스루' 강화</t>
+  </si>
+  <si>
+    <t>제주도 중문관광단지 맛집 ‘색달식당 중문본점’, 황금연휴 갈치조림 가족 식...</t>
+  </si>
+  <si>
+    <t>제주도 “지역화폐에 관광 포인트 결합”</t>
+  </si>
+  <si>
+    <t>제주도 등 관광객 급증…각 지자체, 방역조치 마련 중</t>
+  </si>
+  <si>
+    <t>제주도, 황금연휴 관광객 입도행렬 '비상'...비상체제 돌입</t>
+  </si>
+  <si>
+    <t>“과잉관광으로 고통”…제주도, 면세점 추가 진입에 결사 반대</t>
+  </si>
+  <si>
+    <t>제주도관광협회, 제주국제관광마라톤축제 9월로 연기</t>
+  </si>
+  <si>
+    <t>황금연휴에 관광객 대거 몰릴라…제주도, 고강도 ‘거리 두기’ 고삐</t>
+  </si>
+  <si>
+    <t>제주도관광협회 사랑나눔봉사단, 이웃 사랑 기부금 전달</t>
+  </si>
+  <si>
+    <t>제주도-황금연휴 대비 ‘청정제주 안전관광’ 사수 총력</t>
+  </si>
+  <si>
+    <t>황금연휴 제주도 관광객 17만명 온다...코로나 방역 '비상'</t>
+  </si>
+  <si>
+    <t>제주도 중문관광단지 맛집 ‘색달식당 중문본점’ 황금연휴 가족과 향토 갈치...</t>
+  </si>
+  <si>
+    <t>제주도, 신혼 여행지 급부상..숙박시설들도 관광객 특별행사</t>
+  </si>
+  <si>
+    <t>제주도 관광진흥기금 특별융자 지원 확대</t>
+  </si>
+  <si>
+    <t>제주도 중문관광단지 맛집 ‘색달식당 중문본점’ 다가오는 황금연휴 6일간 필...</t>
+  </si>
+  <si>
+    <t>제주도 중문관광단지 맛집 ‘색달식당 중문본점’ 황금연휴 여러 관광지 둘러...</t>
+  </si>
+  <si>
+    <t>제주도 "중국 춘추항공 통해 제주 오는 해외 관광객 없다"</t>
+  </si>
+  <si>
+    <t>확산 차단…제주도 대표 관광 ‘유채꽃 길’ 갈아엎어</t>
+  </si>
+  <si>
+    <t>[포토데스크]'관광명소 제주도의 역설'… 갈아엎는 유채꽃 밭</t>
+  </si>
+  <si>
+    <t>제주도 폭설에 관광객 7명 고립됐다 전원 구조</t>
+  </si>
+  <si>
+    <t>제주도문화관광해설사협회, 코로나19 성금 기탁</t>
+  </si>
+  <si>
+    <t>제주도관광협회, 관광지 편의시설 지원사업 공모</t>
+  </si>
+  <si>
+    <t>사시사철 제주도의 다양한 매력. 다양한 관광지와 산방산 에 펜션에서 먹고 놀...</t>
+  </si>
+  <si>
+    <t>제주도 · 道관광협회 ″제주국제관광마라톤축제″9월로 개최 연기</t>
+  </si>
+  <si>
+    <t>'유학생 모녀' 논란 직격탄 제주도, 관광객 발길 뚝… 하루 만명 아래 ‘눈앞...</t>
+  </si>
+  <si>
     <t>'코로나19' 뚫고 제주도 놀러 갔다가 어제(12일) 내린 폭설에 고립된 관광객 ...</t>
   </si>
   <si>
@@ -49,34 +190,145 @@
     <t>제주도 관광약자 리프트 차량 지원 사업 참여 열기 '후끈'</t>
   </si>
   <si>
-    <t>‘코로나19’ 뚫고 제주도 놀러 갔다가 어제(12일) 내린 폭설에 고립된 관광객 7명 - 인사이트 Insight 정치 경제 핫이슈 엔터 라이프 문화·스포츠 사람들 산업 헬스 증권·금융 20℃ 서울 17℃ 인천 20℃ 춘천 17℃ 강릉 19℃ 수원 18℃ 청주 19℃ 대전 17℃ 전주 19℃ 광주 23℃ 대구 24℃ 부산 20℃ 제주 '코로나19' 뚫고 제주도 놀러 갔다가 어제(12일) 내린 폭설에 고립된 관광객 7명 제주도로 관광을 떠난 관광객 7명이 엄청난 폭설로 인해 고립되는 사고를 당했지만 119구조대에 구조됐다. 최동수 기자 입력 2020.04.13 10:37 글자크기 설정 가 가 가 가 가 공유 카카오톡 페이스북 트위터 카카오스토리 밴드 핀터레스트 URL 복사 메일 기사와 관련 없는 자료 사진 / 뉴스1[인사이트] 최동수 기자 = 제주도에서 관광을 즐기던 관광객 7명이 엄청난 폭설로 인해 고립되는 사고를 당했다.지난 12일 제주소방안전본부에 따르면 이날 A씨 등 관광객 7명은 오후 5시 26분쯤 제주 1100도로 어리목 입구 삼거리에서 내린 눈으로 인해 고립됐다.인천에서 온 A씨는 자동차가 움직이지 못 할 정도로 쌓인 눈에 고립되자 119에 구조 요청을 한 것으로 전해진다.이후 신고를 받은 119구조대가 눈길을 뚫고 와 A씨 등 7명을 모두 구조했으며 이들을 제주 시내로 옮겼다.뉴스1이날 제주 산지에는 뜻밖의 4월 폭설이 내렸으며 제주지방기상청은 오후 7시를 기해 대설경보를 발효했다.이후 밤사이 눈발이 약해져 오후 10시 30분께 산지에 내려진 대설경보를 해제했다.한편, 제주도는 물론 강원 산간에도 4월 폭설이 내리며 대설주의보가 발효되는 상황까지 이어졌다.강원지방기상청은 13일 오전 6시 기준 태백 4.1㎝, 용평 2.9㎝, 왕산(강릉) 2.6㎝,대관령 2.5㎝ 등이라고 밝혔다.현재는 모든 대설주의보가 해제된 상황이며, 밤사이 내린 눈으로 강원 남부를 제외한 지역의 건조주의보 역시 해제됐다.기사와 관련 없는 자료 사진 / 뉴스1 최동수 기자 · webmaster@insight.co.kr 베스트클릭 방송·드라마 “내 딸은 못 준다”...김지민 없는 사이 쓰레기장으로 변한 김준호의 충격적인 집상태 방송·드라마 임신 후 ‘27kg’ 찐 소이현에게 남편 인교진이 매일 해준 말...모든 여자를 울렸다 방송·드라마 6년 만난 전남친은 모르는데 2일 만난 썸남은 기억하는 ‘환연2’ 여자 출연자의 식성 사회 오늘(1일)은 20대 청춘을 바쳐 나라 지킨 군인들을 위한 '국군의날' 입니다 국제 스몰웨딩 한다며 ‘코스트코’ 음식 100만원 어치로 피로연 뷔페 준비한 커플 사회 윤석열 대통령, ‘마약과의 전쟁’ 선포하고 대규모 소탕 작업 벌인다 스타 돈스파이크, 2010년에도 마약으로 ‘징역’ 1년형...“직접 대량 구매해 주변에 무료나눔” 사회 검사가 자기 ‘성관계 영상’ 봤다며 억울해한 이은해...검찰은 이렇게 반응했다 연예 최진실 14주기 맞아 묘소 찾은 최준희...오빠 최환희에 갑자기 ‘일침’ 날렸다 스포츠 부진 빠진 FC서울 선수들에 '욕설' 날리는 팬들과 충돌한 기성용..."개XX까지 나왔다" 연예 최진실 14주기 맞아 묘소 찾은 최환희...“준희는 교통사고로 입원” 방송·드라마 남녀 출연자들이 하룻밤 같이 자는 ‘29금’ 연애 리얼리티 나왔다 국제 “히잡 쓰지 않겠다”...시위 참여한 23살 유명 틱톡커, 1시간 만에 총 맞아 결국 사망 비디오 입대 앞두고 전역일 봤다가 눈앞이 캄캄해진 BJ 저라뎃의 찐 반응 (영상) 연예 “E열 3, 4번 누구랑 봤을까요?” 전남친 나오는 영화 ‘공조2’ 관람 인증한 손예진 회사소개 이용약관 개인정보 취급방침 윤리강령 독자의견 고충처리인 청소년 보호정책(책임자:김희진) 사업 제휴 문의 광고 안내 문의 서울특별시 강남구 논현로99길 23, 인사이트빌딩 (주)인사이트컴퍼니 | 사업자번호: 119-86-62226 | 02-6734-2207 | 등록번호: 서울 아 02953 | 등록일자: 2014.01.02 | 발행・편집인: 안길수 | 편집국장: 이유리 인사이트의 모든 콘텐츠(기사·사진)는 저작권법의 보호를 받은 바, 무단 전재, 복사, 배포 등을 금합니다. 이를 어길 시 법적 제재를 받을 수 있습니다. Copyright ⓒ 인사이트, Ltd. All Rights Reserved. Insight 정치 정치일반 사회 청와대 국회·정당 전국 경제 생활경제 소비자 정책 외환 부동산 핫이슈 이슈 과학 국제 환경 사건사고 스토리 동물 엔터 연예 방송·드라마 영화 비디오 스타 라이프 라이프 패션 여행 음식·맛집 쇼핑 연애 건강 문화·스포츠 문화·예술 코믹 책·서평 스포츠 공연·전시 게임 사람들 사람들 인사 동정 부음 산업 기업 CEO IT·전자 자동차 모바일·통신 항공·물류 중기·벤처 헬스 제약 의료 뷰티 증권·금융 증시 금융 보험·카드 베스트클릭 “내 딸은 못 준다”...김지민 없는 사이 쓰레기장으로 변한 김준호의 충격적인 집상태 임신 후 ‘27kg’ 찐 소이현에게 남편 인교진이 매일 해준 말...모든 여자를 울렸다 6년 만난 전남친은 모르는데 2일 만난 썸남은 기억하는 ‘환연2’ 여자 출연자의 식성 오늘(1일)은 20대 청춘을 바쳐 나라 지킨 군인들을 위한 '국군의날' 입니다 스몰웨딩 한다며 ‘코스트코’ 음식 100만원 어치로 피로연 뷔페 준비한 커플 회사소개 이용약관 개인정보 취급방침 윤리강령 독자의견 고충처리인 청소년 보호정책(책임자:김희진) 사업 제휴 문의 광고 안내 문의 Copyright ⓒ 인사이트, Ltd. All Rights Reserved.</t>
-  </si>
-  <si>
-    <t>제주도, 관광진흥기금 특별융자 지원 확대 &lt; 제주 &lt; 전국 &lt; 기사본문 - 시사매거진 주요서비스 바로가기 본문 바로가기 매체정보 바로가기 로그인 바로가기 기사검색 바로가기 전체서비스 바로가기 상단영역 시작페이지 즐겨찾기 홈 로그인 회원가입 English 中文 日本語 العربية Español Français 번역 제공 검색 기사검색 검색 UPDATED.2022-10-04 10:31 (화) 실시간 뉴스 교황, 푸틴 핵 위협에 "전쟁 멈출 것" 경고 윤웅석 전 국기원 연수원장 국기원장 출마 전라북도 장애인 럭비팀 선수단 결단식 예고 '돌싱글즈3' 조예영♥한정민 애틋한 이별..."조심히 가" 티엔 아카데미, ‘초·중·고 미국 유학 부산 설명회’ 부산 벡스코에서 개최 윤석열 대통령·김건희 여사 풍자 '윤석열차' 전시 화제...작가는 고교생? 문송희, ‘사랑나눔자선콘서트’ 화려한 오프닝 공연 예고 아이피샵, 2022 광주국제아트페어 참여 김해 민간 장기 임대아파트 '용두지구 성원상떼빌' 분양 코요태 빽가, 지석진과 한솥밥 먹는다...컴백 일정은? [이만수의 야구 이야기] 꿈에 그리던 동남아시아 야구 대회 개최 오에스피 공모주 청약일정·수요예측·상장일은? '공모가 8400원 확정' HOME 뉴스 정치 경제 사회 생활/문화 교육 세계 IT과학 만화 동영상 보도자료 오피니언 인터뷰 칼럼 스페셜 인물열전 명인명사 포토 포토 엔터테인먼트 연예 스포츠 방송 오늘의 날씨 책 여행·레저 제 291호(2022-09) 작은 승리 거둔 이준석 구독하기 본문영역 이전 기사보기 다음 기사보기 제주도, 관광진흥기금 특별융자 지원 확대 바로가기 복사하기 본문 글씨 줄이기 본문 글씨 키우기 스크롤 이동 상태바 현재위치 홈 전국 제주 제주도, 관광진흥기금 특별융자 지원 확대 기자명 김연화 기자 입력 2020.04.11 17:37 댓글 0 바로가기 복사하기 본문 글씨 줄이기 본문 글씨 키우기 SNS 기사보내기 페이스북(으)로 기사보내기 트위터(으)로 기사보내기 URL복사(으)로 기사보내기 이메일(으)로 기사보내기 다른 공유 찾기 기사스크랩하기 이 기사를 공유합니다 페이스북(으)로 기사보내기 트위터(으)로 기사보내기 URL복사(으)로 기사보내기 닫기 신청자격 완화·업종확대 담은 2차 변경계획 마련 10일 공고 만기 상환유예 1→2년 연장… 융자 금리 0.75%→0.62% 인하 제주특별자치도청사 전경 [시사매거진/제주=김연화 기자] 제주특별자치도는 코로나19 장기화로 인한 관광업계 경영난 해소를 위해 제주관광진흥기금 특별융자 대상과 업종별 범위를 확대한다. 앞서 제주도는 지난 2월 28일 중복 지원과 호텔 지원 요건, 농어촌민박 인증시기 등을 완화한 바 있다. 도는 관광사업체 의견과 금융기관과의 협의를 거쳐 융자 대상 및 업종제한 등의 신청자격을 완화하는 관광진흥기금 지원 2차 변경계획을 마련하고 10일 공고했다. 2차 변경 계획에는 ▲대상자 자격제한 완화 ▲업종 확대 ▲경영안정자금 거치기간 연장 ▲융자 추천 최저한도 설정 ▲융자상환 유예 2년 연장 ▲융자금리 인하 등이 담겨 있다. 대상자 자격제한 완화에 따라 2년 이내 과징금·영업정지 등 행정처분 및 융자지침 위반 이력을 지닌 사업체와 투자진흥지구 지정 사업체도 신청 가능하다. 자본금 50억 원 미만의 융자신청 자격 폐지에 따라 도내에 본점 또는 지점이 등록된 관광사업체와 5성 호텔도 대상에 포함됐다. 지원 대상 업종 확대에 따라 생활형‧분양형 숙박시설, 국제회의기획업, 관광식당업, 관광사진업, 마리나 업종, 수상‧수중레저업, 관광지원서비스업 등도 융자지원이 가능해졌다. 이 밖에 경영안정자금 거치기간을 현행 1년 거치 3년 상환에서 2년 거치 3년으로 연장했고, 매출이 적은 업체에 대해서도 최저 5,000만 원의 융자추천서도 발급키로 했다. 제주도는 지난 2월 17일 관광진흥기금을 융자받은 업체에 대해 만기 상환기간을 1년 연장한데 이어 추가로 1년 더 연장했고, 금리도 종전(1분기) 0.75%에서 0.62%(2분기)로 인하했다. 제주도는 이번 제주관광진흥기금 특별융자 지원 확대에 따라 330여 사업체(대상자 제한 완화 76, 생활형/분양형 숙박시설 66, 국제회의기획업 32, 관광식당업 40, 미등급 관광호텔 50, 관광지원서비스업 50, 5성급호텔 15 등) 가 혜택을 볼 것으로 예상하고 있다. 한편, 제주관광진흥기금 융자규모는 5,700억 원(특별융자 3,000억 원, 상환유예 2,700억 원)이며, 신청은 오는 5월 18일까지다. 4월 9일 현재 총 1,101건 1,412억 원이 접수됐고, 이 중 989건 1,208억 원의 융자추천서가 발급됐다. 김연화 기자 kyh5667@daum.net 다른기사 보기 저작권자 © 시사매거진 무단전재 및 재배포 금지 당신만 안 본 뉴스 돈스파이크, 필로폰 투약혐의로 체포... 결혼·와이프·어머니·프로필 주목 '빗썸' 실소유주 의혹 강종현 회장, 재산·나이·직업은? '김종민 결혼설' 신지, 축하 꽃다발 선물 누가 줬을까 [전국노래자랑 방송일정] 故 송해 후임 MC 김신영 연달아 광주 찾는다 '손흥민 교체아웃, 이메르송 퇴장' 아스널·토트넘 경기일정·중계시간 신지, 김종민과 결혼설 후 물 오른 미모... 더 예뻐진 근황 눈길 상생소비복권 '당첨자발표일' 제외업종 공개 돈스파이크, 필로폰 투약혐의로 체포... 결혼·와이프·어머니·프로필 주목 주요기사 정부조직 개편안 조만간 발표...여가부 폐지 중점 논의 [오늘날씨] 일본기상청 '첫눈·상현 반월' 서울날씨 '19도 기온뚝' 비소식, 2022년 단풍시기·명소 정진석 "국정동력 확보 위해 정부 조직개편 논의해야" 尹정부 첫 국정감사 4일 개막...여야 격돌 전망 여야, 감사원 '文 서면조사' 요구 놓고 공방 격화 [속보]러시아, 우크라이나 전쟁 중 핵 사용할까 '서방 경계심 강화' 최신뉴스 윤웅석 전 국기원 연수원장 국기원장 출마 전라북도 장애인 럭비팀 선수단 결단식 예고 '돌싱글즈3' 조예영♥한정민 애틋한 이별..."조심히 가" 티엔 아카데미, ‘초·중·고 미국 유학 부산 설명회’ 부산 벡스코에서 개최 윤석열 대통령·김건희 여사 풍자 '윤석열차' 전시 화제...작가는 고교생? 포토뉴스 윤웅석 전 국기원 연수원장 국기원장 출마 전라북도 장애인 럭비팀 선수단 결단식 예고 '돌싱글즈3' 조예영♥한정민 애틋한 이별..."조심히 가" 티엔 아카데미, ‘초·중·고 미국 유학 부산 설명회’ 부산 벡스코에서 개최 인기뉴스 1 돈스파이크, 필로폰 투약혐의로 체포... 결혼·와이프·어머니·프로필 주목 2 '빗썸' 실소유주 의혹 강종현 회장, 재산·나이·직업은? 3 '김종민 결혼설' 신지, 축하 꽃다발 선물 누가 줬을까 4 [전국노래자랑 방송일정] 故 송해 후임 MC 김신영 연달아 광주 찾는다 5 '손흥민 교체아웃, 이메르송 퇴장' 아스널·토트넘 경기일정·중계시간 6 신지, 김종민과 결혼설 후 물 오른 미모... 더 예뻐진 근황 눈길 7 상생소비복권 '당첨자발표일' 제외업종 공개 8 애플 아이폰14·PRO 통신 3사 사전예약 혜택·가격·출시일·색상 화제 하단영역 하단메뉴 매체소개 기사제보 광고문의 이용약관 개인정보처리방침 청소년보호정책 저작권보호정책 이메일무단수집거부 매체정보 서울특별시 강남구 테헤란로25길 20, 8층 813호(역삼동,역삼현대벤쳐텔) 대표전화 : 02-790-5116 팩스 : 02-2086-7272 청소년보호책임자 : 김길수 법인명 : 시사매거진 제호 : 시사매거진 등록번호 : 강남 라 00906 등록일 : 1997-09-12 발행일 : 2017-05-01 발행인 : 김길수 편집인 : 김영규 사장 : 천진철 시사매거진 모든 콘텐츠(영상,기사, 사진)는 저작권법의 보호를 받는 바, 무단 전재와 복사, 배포 등을 금합니다. Copyright © 2022 시사매거진. All rights reserved. mail to webmaster@sisamagazine.co.kr 위로 전체메뉴 전체기사 뉴스 전체 정치 경제 사회 생활/문화 교육 세계 IT과학 만화 동영상 오피니언 전체 인터뷰 칼럼 스페셜 인물열전 명인명사 포토 전체 포토 엔터테인먼트 전체 연예 스포츠 방송 책 여행·레저 전체메뉴닫기</t>
-  </si>
-  <si>
-    <t>[전국]제주도, 자가격리 거부 해외방문 관광객 4명 돌려보내 | YTN 메뉴 바로가기 본문 바로가기 푸터 바로가기 메뉴 YTN HOME 뉴스알림 라이브 편성표 제보 로그인·회원가입 검색하기 분야별 뉴스 와플뉴스 YTN star 다시보기 제보 시청자센터 알립니다 특집 프로젝트 광고·비즈니스 디지털 서비스 분야별뉴스 분야별 뉴스 메인최신뉴스많이 본 뉴스속보·알림단독정치경제사회전국국제과학문화스포츠날씨재난 와플뉴스 와플뉴스 메인최신뉴스자막뉴스제보영상국경 없는 세상한방이슈제보, 그 후뉴스케치소파트래블러와이파일리플레이운세 YTN star YTN star 메인최신뉴스방송가요영화Y이슈해외연예반말인터뷰와이티엔 스타뉴스 다시보기 다시보기 메인 지금 막 올라온 많이 보는 시사 다큐 과학 교양 채널 별 YTN 와플뉴스 YTN 스타 YTN 월드 YTN 코리안 YTN 사이언스 YTN2 YTN 라디오 YTN DMB 제보 제보 메인제보하기제보랭킹최신제보 시청자센터 시청자의견시민데스크시청자브리핑 시시콜콜시청자 위원회고충처리위원회사이버감사실견학신청성폭력 신고센터 알립니다 공지사항채용공고경품이벤트채널 안내위치 및 연락처이용 도움말 특집 프로젝트 리스펙트 프로젝트SMILE TO VOTE뉴미디어 리터러시2020 국회의원선거2021 재보궐선거2020 도쿄올림픽2022 대통령선거2022 베이징올림픽2022 지방선거 광고 비즈니스 TV광고큐톤시간표인터넷·모바일 광고해외 광고사업 제휴동영상 뉴스 판매오디오 음원 판매뉴스·프로그램 공급 디지털 서비스 뉴스알림 모바일APP 리더스 뉴스레터 유튜브 페이스북 트위터 인스타그램 네이버채널 네이버TV 네이버밴드 틱톡 데일리모션 24시간 라이브 방송 [오늘의 운세] 2022년 10월 04일 띠별 운세 [오늘의 운세] 2022년 10월 03일 띠별 운세 [단독] 국세청, 용역업체에 '20억' 반환 소송..."퇴사자까지 임... 중부 이어 남부 전선 돌파..."러시아 방어 능력 곧 상실" 합참 "北, 중거리 탄도미사일 1발 발사...日 상공 통과" 메뉴 닫기 YTN 로그인 로그인 회원가입 검색하기 제주도, 자가격리 거부 해외방문 관광객 4명 돌려보내 댓글 달기 공유하기 LIVE 이 시각 주요뉴스 이 시각 주요뉴스 주요뉴스 닫기 합참 "北, 중거리 탄도미사일 1발 발사...日 상공... 윤석열 정부 첫 국정감사 시작...외통위·국방위 '... '채널A 기자 명예훼손 혐의' 최강욱, 1심 무죄 여자친구 감금·폭행한 20대 남성 체포...마약 추... [현장영상+] 尹 "감사원 독립적 헌법기관...언급 적절... "러, 핵무기 시위 임박...핵장비 수송·북극해 핵실험 ... 공유하기 공유창 닫기 페이스북 트위터 밴드 카카오톡 링크 복사하기 메뉴 닫기 검색하기 LIVE 분야별뉴스 와플뉴스 YTN star 다시보기 제보 코로나19 실시간 주요뉴스 이전 윤석열 정부 첫 국정감사 시작…외통위·국방위 '전운' [속보] NSC 상임위 "北 지속 도발에 대가 따른다…제재 강화 모색" "국민 10명 가운데 7명, 정부 물가 안정 대책 체감 못 해" '채널A 기자 명예훼손 혐의' 최강욱, 1심 무죄 김문수 경사노위원장 취임…"노동개혁 중심축 될 것" 임명부터 삐걱…노사합의 어떻게 이룰까? 英 트러스 굴욕적 유턴·시장은 반색…뉴욕증시 2.5% 급등 유엔 산하 기구, 각국에 금리인상 중단 촉구…"경기침체 위험" 北 외무성, 러시아의 우크라이나 점령지 합병 지지 미성년자 성폭행범 김근식 17일 출소…재범 가능성은? 고물가에 문구·완구시장 손님 '뚝'…일부 폐업 고민 지난해 종부세 '7조' 절반은 납부자 상위 1%가 부담 신규환자 1만 6,423명…화요일 기준 14주 만에 최소 오늘부터 요양병원 접촉면회 가능..."내년 3월쯤 실내 마스크 해제" 인건비 이어 방역물품도 횡령?…"마스크에 방역복까지 빼돌렸다" 트럼프, CNN 명예훼손 고소…"히틀러 비유해 대선 출마 훼방" 중고생 공교육비 OECD 2위…대학생은 30위 여자친구 감금·폭행한 20대 남성 체포…마약 추정 물질도 소지 '핵위협'에도 우크라이나군 이번엔 '남부 전선' 돌파 '전쟁반대' 러 국영TV 직원 가택연금 중 탈출…지명수배 플로리다 '이언' 사망자 100명 넘어…바이든 5일 방문 다음 전국 제주도, 자가격리 거부 해외방문 관광객 4명 돌려보내 2020년 04월 01일 23시 21분 댓글 글자크기 조정하기 글자크기 조정하기 글자 크기 조정창 닫기 매우 작은 크기 폰트 작은 크기 폰트 보통 크기 폰트 큰 크기 폰트 매우 큰 크기 폰트 인쇄하기 공유하기 공유하기 페이스북 트위터 밴드 카카오톡 링크 복사하기 공유창 닫기 제주도는 2주간 자가격리를 거부한 해외여행 이력이 있는 관광객 4명에 대해 공항에서 곧바로 되돌려 보냈습니다. 공항에서 돌려보내진 사람은 필리핀에서 온 가족 3명과 캐나다에서 온 관광객 1명 등입니다. 제주도는 특별 입도 절차에 따라 이들에게 '2주간 자가격리'를 요구했지만, 거부 의사를 밝혀 결국 되돌려 보냈다고 밝혔습니다. 이들은 제주에서 일정 기간 머무른 뒤 서울로 가려고 했던 것으로 알려졌습니다. 제주도는 이와 함께 자가격리 중 무단이탈해 지인과 30여 분 동안 식당에서 식사한 80대 할머니도 무관용 원칙에 따라 고발 조치할 예정입니다. ※ '당신의 제보가 뉴스가 됩니다' YTN은 여러분의 소중한 제보를 기다립니다. [카카오톡] YTN을 검색해 채널 추가 [전화] 02-398-8585 [메일] social@ytn.co.kr [온라인 제보] www.ytn.co.kr[저작권자(c) YTN 무단전재 및 재배포 금지] 전국 기사목록 전체보기 '착한 가격' 학생식당, 고물가에 인상 불가피 여수 앞바다에 기름 유출...8시간 동안 긴급 방제작업 [서울] 서울 노후 공공어린이집 100곳, 내년 저탄소 건물로 전환 "성 밟으며 건강 기원해요"...가을 축제 '북적' YTN 미디어그룹 YTN 회사소개 INSIDE YTN YTN 사이언스 YTN 라디오 YTN2 YTN dmb YTN world YTN korean 남산서울타워 시청자센터 시청자의견 시민데스크 시청자브리핑 시시콜콜 시청자 위원회 고충처리위원회 사이버감사실 견학신청 성폭력신고센터 알립니다 공지사항 채용공고 경품이벤트 채널 안내 해외 리포터단 신청 위치 및 연락처 이용 도움말 광고 및 비즈니스 TV광고 큐톤시간표 인터넷·모바일 광고 해외 광고 사업 제휴 동영상 뉴스 판매 오디오 음원 판매 뉴스·프로그램 공급 약관 및 정책 이용약관 개인정보처리방침 청소년보호정책 기사배열 기본방침 디지털 서비스 모바일 APP 뉴스알림 리더스 뉴스레터 유튜브 페이스북 트위터 인스타그램 네이버채널 네이버TV 네이버밴드 틱톡 데일리모션 ㈜와이티엔 서울특별시 마포구 상암산로 76(상암동) | 대표자: 우장균 | 대표전화: 02-398-8000 | 팩스: 02-398-8129사업자등록번호: 102-81-32883 Copyright (c) YTN. All rights reserved. 모든 컨텐츠(기사)는 저작권법의 보호를 받은바, 무단 전재·복사·배포를 금합니다.</t>
-  </si>
-  <si>
-    <t>제주도 중문관광단지 맛집 ‘색달식당 중문본점’ 조미료 사용하지 않은 전통 갈치조림 선보여 청주19.1℃ 보령17.8℃ 충주20.6℃ 김해시24.9℃ 추풍령21.1℃ 안동21.8℃ 북춘천21.4℃ 군산℃ 북창원25.0℃ 문경21.8℃ 춘천21.1℃ 부산24.3℃ 수원18.7℃ 거창21.6℃ 보성군22.1℃ 대구23.3℃ 서산17.9℃ 강릉19.3℃ 함양군22.0℃ 순천21.9℃ 해남19.6℃ 속초17.6℃ 제천20.8℃ 고산21.1℃ 거제24.9℃ 전주18.5℃ 동해18.7℃ 진도군18.9℃ 홍천19.8℃ 세종19.3℃ 성산26.2℃ 부안18.1℃ 제주22.7℃ 통영25.1℃ 이천19.6℃ 흑산도17.2℃ 여수23.7℃ 산청21.8℃ 영천22.6℃ 상주22.2℃ 강화15.7℃ 순창군19.6℃ 인제19.1℃ 홍성18.8℃ 양평19.6℃ 정읍17.4℃ 양산시25.2℃ 진주23.2℃ 서귀포24.5℃ 강진군20.4℃ 장수19.4℃ 북강릉17.7℃ 동두천16.7℃ 파주16.6℃ 임실18.5℃ 포항25.5℃ 합천22.6℃ 서청주(예)17.8℃ 밀양23.6℃ 인천17.1℃ 서울17.1℃ 대전19.8℃ 원주20.7℃ 고흥22.3℃ 보은19.8℃ 울진20.0℃ 남원19.7℃ 정선군19.8℃ 천안18.0℃ 의령군23.7℃ 봉화20.9℃ 장흥20.3℃ 구미22.2℃ 백령도13.6℃ 목포18.5℃ 울릉도21.7℃ 남해25.5℃ 고창군17.9℃ 청송군21.6℃ 광양시22.8℃ 영월21.3℃ 금산20.5℃ 영주21.6℃ 경주시24.4℃ 영덕21.1℃ 울산25.6℃ 영광군17.6℃ 고창17.6℃ 창원25.4℃ 광주19.3℃ 대관령15.9℃ 완도20.9℃ 부여19.1℃ 철원17.6℃ 태백17.0℃ 의성22.5℃ 2022.10.04 (화) 즐겨찾기 모바일버전 전체기사 LOGIN 회원가입 News Hotel&amp;Resort News Photo News 지자체 Product Beverage&amp;Coffee Chef Chef Story Recipe Column Food&amp;Cook Food Delicious Liquor Bakery&amp;Dessert Academy Opinion 신지식인 People Association 소상공인 Column Ent 여행&amp;축제 미용&amp;건강 골프&amp;당구 문화 MENU 검색 HOME &gt; News &gt; Issue 제주도 중문관광단지 맛집 ‘색달식당 중문본점’ 조미료 사용하지 않은 전통 갈치조림 선보여 박노석 기자 / 기사승인 : 2020-04-20 11:44:40 제주도 여행을 계획하면서 서귀포시를 지나치지 않을 순 없다. 보통 제주도를 한 바퀴 돌아서 여행을 다니기 때문에 남쪽에 위치한 서귀포시를 지나야 하는 것이다. 지나지 않으려면 공항 부근에서만 여행을 해야 하므로, 제주도 여행 필수코스가 서귀포시라 할 수 있다.서귀포에 있는 중문관광단지에는 천지연폭포, 오설록 티뮤지엄, 서귀포항, 카멜리아 힐, 소인국테마파크나 테디베어 뮤지엄, 이중섭거리 등 여러 관광지가 있다. 그리고 유명하지 않아도 초콜렛 만들기나 감귤 수확하기 등 다양한 체험을 할 수 있는 관광지도 충분하다.아시아의 괌 제주도는 국내에서는 신혼여행지로도 유명하며 또한 공기부터 경치까지 여러 광관지를 보며 여행을 즐길 수 있다는 것이 장점이며 특히 각각 지역마다 여러 가지 맛집 먹거리 및 볼거리가 많아 젊은 여행객부터 중년, 노년 여행객까지 4계절 내내 많은 방문이 잦다.요즘 들어서는 인터넷에서 많은 것을 미리 확인 할 수 있어서 여행 전 제주도에서 효율적으로 소비지출을 하기 위해 유명한 맛집과 여행 코스를 미리 정해놓기도 한다.'색달식당 중문본점' 은 관광객들이 많이 방문하기도 하지만 제주도민도 많이 찾는 곳이기도 하다. 조미료를 사용하지 않고 자연적인 원료들로만 사용해 만든 음식을 다양하게 맛볼 수 있다.메뉴로는 통갈치조림, 통갈치구이 종류들로 나뉘어 있고 전복뚝배기, 해물뚝배기, 성게미역국, 옥돔구이, 고등어구이, 창전복죽, 전복돌솥, 영양돌솥, 문어통 등을 선택해 먹을 수 있고 다양하게 맛을 볼 수 있는 세트메뉴가 구성되어 있다. 아울러 미리 예약을 할 경우 관광 전 아침식사도 가능하다.한편, 색달식당은 도로변에 위치해 있으며 주차장이 넓어 접근성이 좋다. 또한 서귀포시 내에 숙소가 있다면 픽업이 가능하다. [저작권자ⓒ 쿡앤셰프(Cook&amp;Chef). 무단전재-재배포 금지] 박노석 기자 기자의 인기기사 그랜드 하얏트 서울 호텔, ‘이태원 페스티벌’ 애프터눈 티 선봬 네스프레소, 커피 경험을 넓혀줄 버츄오 ‘바리스타 크리에이션’ 신제품 출시 캠핑, 레포츠 박람회 ‘2022 국제아웃도어캠핑&amp;레포츠페스티벌’10월 1일부터 킨텍스에서 개최 좋아요 공유하기 페이스북 트위터 카카오톡 라인 카카오스토리 밴드 네이버 http://www.cooknchefnews.com/news/view/1065581095590264 URL복사 URL주소가 복사 되었습니다. 뉴스댓글 &gt; 댓글 0 댓글쓰기 이 름 비밀번호 등록 - 띄어 쓰기를 포함하여 250자 이내로 써주세요.- 건전한 토론문화를 위해, 타인에게 불쾌감을 주는 욕설/비방/허위/명예훼손/도배 등의 댓글은 표시가 제한됩니다. 최신기사 오가나셀, 바이오 액티옴 선스크린 출시메종 글래드 제주, 호텔 내 다양한 이벤트 선보여캐비아, MZ세대 핫플이나 해외 유명 레스토랑까지 미식 스펙트럼 확대코카-콜라 크리에디션, ‘코카-콜라 제로 드림월드’ 한정판 공개㈜일화 / ‘제30회 꿈씨음악회’ 후원사로 참여, 장애 및 비장애인 음악인의 무대청년떡집, 영양 만점 끼니떡 '단백질 찰밥바 흑임자' 출시 주요기사 오가나셀, 바이오 액티옴 선스크린 출시메종 글래드 제주, 호텔 내 다양한 이벤트 선보여캐비아, MZ세대 핫플이나 해외 유명 레스토랑까지 미식 스펙트럼 확대코카-콜라 크리에디션, ‘코카-콜라 제로 드림월드’ 한정판 공개㈜일화 / ‘제30회 꿈씨음악회’ 후원사로 참여, 장애 및 비장애인 음악인의 무대청년떡집, 영양 만점 끼니떡 '단백질 찰밥바 흑임자' 출시 HEADLINE 캐비아, MZ세대 핫플이나 해외 유명 레스토랑까지 미식 스펙트럼 확대 청년떡집, 영양 만점 끼니떡 '단백질 찰밥바 흑임자' 출시 (주)동해식품, 짜지 않은 해살이 멸치 선보여 PHOTO NEWS &lt;Photo News / 김일현 사진작가의 '굴렁쇠가 있는 풍경'&gt; 충남 당진 장고항 &lt;쿡앤셰프 / 포토뉴스&gt; aT센터 박람회장에 등장한 ‘섬섬옥수 유기농 쌀 하이아미’ &lt;Photo News / 노랗게 물드는 제주&gt; 섬 전체 유채꽃 활짝 많이 본 기사 1 KBS 6시 내고향 ‘셰프의 선물’, 안성 당황3통 꽃송이버섯을 이용한 가을요리2캠핑, 레포츠 박람회 ‘2022 국제아웃도어캠핑&amp;레포츠페스티벌’10월 1일부터 킨텍스에서 개최3아머드 프레시, 美 뉴욕 100개 대형마트에 ‘비건 치즈’ 입점4네스프레소, 가을을 알리는 음료 ‘펌프킨 스파이스 케이크향 커피’5(주)동해식품, 짜지 않은 해살이 멸치 선보여 개인정보취급방침 이용약관 청소년보호정책 기사제보 제휴문의 저작권보호정책 경기도 용인시 수지구 진산로 34번길 24 106-302 | 대표전화 : 010-5503-5464 | 팩스 : 0303-0599-1883 제호 : 쿡앤셰프(Cook&amp;Chef) | 등록번호 : 경기, 아51712 | 등록일 : 2017-10-11 | 발행인 : 조용수 | 편집인 : 조용수 | 청소년보호책임자 : 마종수 「열린보도원칙」 당 매체는 독자와 취재원 등 뉴스이용자의 권리 보장을 위해 반론이나 정정보도, 추후보도를 요청할 수 있는 창구를 열어두고 있음을 알려드립니다.고충처리인 조용수 | 010-5503-5464 | cooknchefnews@naver.com 본 콘텐츠의 저작권은 쿡앤셰프(Cook&amp;Chef) 또는 제공처에 있으며 이를 무단 이용하는 경우 저작권법 등에 따라 법적책임을 질 수 있습니다. Copyright ⓒ 쿡앤셰프(Cook&amp;Chef) All rights reserved. 제보메일 : cooknchefnews@naver.com 검색어 입력폼 Category 전체기사 News 전체Hotel&amp;Resort News Photo News 지자체 Product Beverage&amp;Coffee Chef 전체Chef Story Recipe Column Food&amp;Cook 전체Food Delicious Liquor Bakery&amp;Dessert Academy Opinion 전체신지식인 People Association 소상공인 Column Ent 전체여행&amp;축제 미용&amp;건강 골프&amp;당구 문화</t>
-  </si>
-  <si>
-    <t>미디어제주 × 전체기사 뉴스 전체 정치 경제 사회 문화 교육 스포츠 사람들 포토뉴스 Advertorial section 기획특집 전체 생생스포츠현장 박물관, 그리고 제주 이야기 이사람 이주민, 그들을 말한다 다 함께 사는 세상 해외 특파원 보고 교육! 학교 현장 기획특집 미디어누리 전체 어린이기자 시민기자 청소년기자 오피니언 전체 미디어窓 미디어칼럼 건강칼럼 기고 미디어TV 전체 영상뉴스 UCC동영상콘테스트 유치부축구대회 시정가이드 전체 제주시 서귀포시 최종편집 2022-10-04 10:40 (화) 로그인 회원가입 모바일웹 전체 뉴스 전체기사 정치 경제 사회 문화 교육 스포츠 사람들 포토뉴스 Advertorial section 기획특집 박물관, 그리고 제주 이야기 이사람 다 함께 사는 세상 해외 특파원 보고 교육! 학교 현장 미디어누리 어린이기자 시민기자 기사쓰기 오피니언 미디어窓 미디어칼럼 건강칼럼 기고 행사 유치부 축구대회 아름다운 동행 기사검색 검색 S2N14 이전 다음 제주도문화관광해설사협회, 코로나19 고통분담 기사공유하기 프린트 메일보내기 글씨키우기 가나다라마바사 가나다라마바사 가나다라마바사 가나다라마바사 가나다라마바사 가나다라마바사 HOME 미디어누리 시민기자 제주도문화관광해설사협회, 코로나19 고통분담 제주사랑의열매 승인 2020.04.14 10:52 댓글 0 기사공유하기 프린트 메일보내기 글씨키우기 가나다라마바사 가나다라마바사 가나다라마바사 가나다라마바사 가나다라마바사 가나다라마바사 이 기사를 공유합니다 페이스북 트위터 카카오스토리 구글+ 네이버밴드 네이버블로그 네이버폴라 핀터레스트 URL복사 × 제주관광산업이 위기에 빠진 가운데 고용불안과 생계위협에 내몰린 제주관광업계 종사자들이 나눔에 앞장서 훈훈함을 더하고 있다. 제주특별자치도문화관광해설사협회(협회장 김태수)는 최근 제주도청에서 도내 코로나19 확산방지 및 피해지원을 위해 성금 200만원을 제주사회복지공동모금회(회장 김남식)에 기탁했다. 김태수 회장은 “코로나19로 관광객이 줄면서 일자리에 큰 타격을 받고 있다”며 “회원들 모두가 힘든 상황이지만 함께 위기를 극복해나가길 바라는 마음에 성금을 기탁하게 됐다”고 말했다. 이날 기탁된 성금은 제주도문화관광해설사협회 회원들이 코로나19로 어려움을 겪고 있는 제주도민을 위해 십시일반 모아 마련한 것으로, 도내 코로나19 예방 ‧ 치료 및 방역물품 지원 등에 사용될 예정이다. 제주도문화관광해설사협회는 제주도내 관광지 역사 ‧ 문화 ‧ 예술 ‧ 자연 등 관광자원 전반에 대한 전문적인 해설을 제공하며 제주의 아름다음을 널리 알리고 있다. 저작권자 © 미디어제주 무단전재 및 재배포 금지 제주사랑의열매 다른기사 보기 댓글삭제 삭제한 댓글은 다시 복구할 수 없습니다. 그래도 삭제하시겠습니까? 비밀번호 삭제 × 댓글 0 댓글입력 로그인 이름 비밀번호 내용 0 / 400 등록 댓글쓰기 계정을 선택하시면 로그인·계정인증을 통해 댓글을 남기실 수 있습니다. 회원 로그인 비회원 글쓰기 이름 비밀번호 자동등록방지 확인 × 최신순 추천순 실시간 댓글 밥을 같이 먹는 식구가 서로 살아갈 힘을 주고 받듯 책을 함께 공유하는 것이 같은 원리라는 말이 깊이 와 닿네요~ 아이들 어릴적 책을 읽어 주면서 정서적 교감했던 행복한 기억이 있네요. 요즘은 바쁘다는 핑계로 책 읽어주기를 못했는데 다시 도전해봐야 겠네요. 혼자보다 함께 해야 하는 현 시대에 필요한 맞춤형 독서지도라는 생각이 듭니다 잘 읽었습니다. 내년엔 저도 참여해보고 싶네요~~ 여러 권 읽는 것보다 한 권을 여러 명이 토론하는 것이 낫다는 말 공감합니다^^ 가장 많이 읽은 기사 1제19회 賢테니스회장배 전도클럽대항 테니스대회 ‘후끈’ 2한글서예 ‘한평생 한길’, 한곬 현병찬 선생 세종문화상 수상 3서귀포시, '중장년 스타트업 부트캠프' 참가자 모집 4제주의 얼을 담다 ... 탐라문화제, 3년만에 대면행사로 5선흘 동백동산에서 평화의 노래를 "제주4.3 평화음악축제" 6제주TP 생물자원연구, 한국자원식물학회에서도 ‘주목’ 7양덕순 "제주연구원, 실용적인 정책 연구 앞장서야" SPONSORED 신문사소개 기사제보 광고문의 불편신고 개인정보취급방침 청소년보호정책 이메일무단수집거부 RSS 제주특별자치도 제주시 중앙로 270-1 5층(이도이동, 백두빌딩) 대표전화 : 064-725-3456 팩스 : 064-725-3458 명칭 : (주) 미디어제주 제호 : 미디어제주 등록번호 : 제주 아 01003 등록일 : 2005-10-17 발행인 : 고승영 편집인 : 고승영 청소년보호책임자 : 고승영 미디어제주 모든 콘텐츠(영상,기사, 사진)는 저작권법의 보호를 받은바, 무단 전재와 복사, 배포 등을 금합니다. Copyright © 2022 미디어제주. All rights reserved. mail to mediajeju@mediajeju.com 위로</t>
-  </si>
-  <si>
-    <t>관광약자 여행 플랫폼 휴플, 제주도 SW서비스사업화 선정 StartupSquare Startup News Venturesquare 투자 (157+) FAQ × 검색하기 Ventursquare news 2022년 10월 04일 (화) Venturesquare 투자 (157+) 투자포트폴리오 &amp; 관련기사 FAQ 벤처스퀘어에 궁금한 모든 것 관광약자 여행 플랫폼 휴플, 제주도 SW서비스사업화 선정 주승호 기자 2020년 4월 10일 휴플이 정보통신산업진흥원이 공고한 지역 SW서비스 사업화 지원사업에 제주지역의 스타트업 부문에 최종 선정됐다. 본 사업은 4차산업혁명을 주도할 수 있는 지역기반의 SW기업을 육성을 위한 사업으로 제주테크노파크가 위탁운영기관으로 제주지역의 3년 이상 중소기업 2개와 3년 미만 초기스타트업 1개 기업을 최종 선정했다. 선정기업은 2년간 국비와 제주특별자치도청의 지방비로 구성된 지원예산을 통해 제품개발, 품질관리, 시장진출 등의 사업화를 추진한다. 휴플의 관광약자 동반 일정관리 플랫폼 서비스는 관광약자를 위한 사업계획의 취지와 내용이 적절하고 공공데이터 활용을 통한 제주관광객에 유용한 서비스 제공, 특히 보행이 불편한 노약자 등에게 많은 도움이 될 것으로 관광산업발전의 기여 및 기대의 평가를 받았다. 김홍래 휴플 대표는 “지역SW서비스사업화 지원사업을 통해 제주를 찾는 고령자, 임산부, 휠체어 사용자 등 관광약자를 동반한 개별여행자의 여행계획이 수월히 이루어질 수 있도록 제주지역의 데이터 제공기관과 협력하여 관광지역의 안전과 접근성 정보검색이 용이하게 제공되는 플랫폼 서비스로 거듭나겠다”고 밝혔다 한편 휴플은 지난해 11월, 제주창조경제혁신센터의 W360 입주기업 모집에 빅데이터 분야에 사업성을 인정받아 인큐베이팅 지원을 받고 있으며 제주특별자치도 청년일자리사업 참여기업으로도 선정된 바 있다. FacebookTwitterLinkedInPrintLike this:Like Loading... ← 한국신용데이터, 지역별 매출 추이 ‘데이터포털’서 제공 잡플래닛, 뉴스 서비스 ‘컴퍼니타임스’ 오픈 → 뉴스레터신청 광고상품문의 액셀러레이터 등록번호 : 제 2017-24호 I 사업자등록번호 : 211-88-48126 I 인터넷신문 등록번호: 서울, 아01225 I 제호 : 벤처스퀘어 I 발행일자 : 2010년 4월 29일 I 등록일자 2014년 9월 1일 발행, 편집인 : 명승은 액셀러레이션 · 투자 ㅣ서울시 강남구 영동대로 646, 1604호 (위레벤646) 미디어 · 서비스운영 ㅣ서울시 강남구 논현로 337, 304호 (스톤엘리시온) 투자조합 운영 ㅣ경기도 성남시 분당구 대왕판교로 645번길 12, 5층 Copyright © VENTURESQUARE. All Rights Reserved. editor@venturesquare.net %d bloggers like this:</t>
-  </si>
-  <si>
-    <t>초강경 제주도, 자가격리 거부 해외체류 관광객 4명 '출도 조치' &lt; 제주특별자치도 &lt; 행정 &lt; 기사본문 - 제주의소리 상단영역 최종편집 : 2022-10-04 10:35 (화) 뉴스 전체 정치·행정 사회·교육 경제·관광 문화 소리TV 오피니언·매거진 독자의소리 Book世通 기사제보 광고안내 로그인 기사검색 검색 상세검색 NOTICE 양덕순 제주연구원장 예정자 “실용적 정책연구 추진” 제주형 구직청년 재난지원금 8365명 지급...19~29세 60% 제주대-창원대-목포해양대 ‘지역연계 상호발전’ 맞손 ‘인민의 정의’의 혼란: 다중 해석 횡단보도 건너던 중학생 택시 치여 보름만 숨져…60대 기사 입건 더보기 제주의소리 카카오톡 친구가 돼 주세요! 본문영역 이전 기사보기 다음 기사보기 초강경 제주도, 자가격리 거부 해외체류 관광객 4명 '출도 조치' 바로가기 복사하기 본문 글씨 줄이기 본문 글씨 키우기 스크롤 이동 상태바 현재위치 홈 행정 제주특별자치도 초강경 제주도, 자가격리 거부 해외체류 관광객 4명 '출도 조치' 기자명 이승록 기자					(leerevol@naver.com) 입력 2020.04.01 12:09 댓글 48 바로가기 복사하기 본문 글씨 줄이기 본문 글씨 키우기 SNS 기사보내기 페이스북(으)로 기사보내기 페이스북 트위터(으)로 기사보내기 트위터 카카오스토리(으)로 기사보내기 카카오스토리 카카오톡(으)로 기사보내기 카카오톡 네이버밴드(으)로 기사보내기 네이버밴드 URL복사(으)로 기사보내기 URL복사 이메일(으)로 기사보내기 다른 공유 찾기 기사스크랩하기 이 기사를 공유합니다 페이스북(으)로 기사보내기 페이스북 트위터(으)로 기사보내기 트위터 카카오스토리(으)로 기사보내기 카카오스토리 카카오톡(으)로 기사보내기 카카오톡 네이버밴드(으)로 기사보내기 네이버밴드 URL복사(으)로 기사보내기 URL복사 닫기 자가격리 이탈 80대 할머니도 무관용 '고발'...원희룡 "안타깝지만 청정제주 지켜야" 코로나19 브리핑하는 원희룡 제주지사 4박5일 제주여행 후 코로나19 확진 판정을 받은 강남 모녀 탓일까? 제주도가 자가격리 이탈자와 거부한 관광객들에게 '초강력' 조치를 취하고 있다. 제주도는 7번 확진자와 비행기 내 접촉자로 분류돼 3월24일부터 자가격리를 하던 중 무단 이탈한 40대 남성을 고발조치 한 가운데 80대 할머니도 자가격리 위반으로 고발 조치한다.80대 할머니는 강남 모녀 접촉자로 지난 3월25일부터 오는 4월6일까지 자가격리를 시행해야 하는 상태다.하지만 할머니는 31일 낮 12시께 격리장소를 이탈해 지인과 30분 동안 식당에서 머물며 식사를 한 것으로 파악됐다. 원희룡 제주지사는 "80대 할머니가 자가격리를 위반하고, 지인과 점심식사를 했다. 답답한 마음 이해하지만 예외도 있을 수 없다는 차원에서 이 할머니도 형사고발하기로 했다""며 "안타깝고 죄송한 마음이지만 무관용 원칙을 지켜나가겠다"고 말했다.이와 별도로 제주도는 3월31일 제주도에 내려왔던 해외여행 이력이 있는 4명에 대해서도 2주간 자가격리를 거부하자 제주공항에서 곧바로 되돌려 보냈다.제주도에 따르면 31일 필리핀에서 온 가족 3명과 캐나다에서 온 1명이 김포공항에서 제주로 내려왔다. 4월1일부터 해외체류 이력자는 '2주간 의무 자가격리'를 해야 한다.이들은 3월31일 국내에 들어왔고, 제주에 왔기 때문에 '의무 자가격리'는 대상은 아니다.하지만 제주도는 '특별입도절차'에 따라 이들 4명에 대해 '2주간 자가격리'를 요구했다. 이들 4명은 제주도의 조치에 대해 '거부' 의사를 밝혔다.제주공항에서 이들은 제주도의 조치에 항의하기도 했지만 제주도는 결국 이들을 '출도 조치'했다.이들은 코로나19에서 비교적 청정지역이라고 할 수 있는 제주에서 일정기간 체류하다가 서울로 가려고 했던 것으로 알려졌다.원희룡 지사는 "의무적 자가격리 조치가 시행되기 전에 제주에 왔지만 제주도는 특별입도절차를 시행하고 있다"며 "이들 4명에게 자가격리를 요청했고, 거부하자 출도 조치를 했다"고 말했다. 이승록 기자 leerevol@naver.com 다른기사 보기 저작권자 © 제주의소리 무단전재 및 재배포 금지 개의 댓글 회원로그인 작성자 비밀번호 댓글 내용입력 0 / 400 등록 댓글 정렬 최신순 추천순 답글순 더보기 댓글삭제 삭제한 댓글은 다시 복구할 수 없습니다. 그래도 삭제하시겠습니까? 비밀번호 삭제 닫기 댓글수정 댓글 수정은 작성 후 1분내에만 가능합니다. 본문 / 400 비밀번호 수정 닫기 내 댓글 모음 닫기 인기뉴스 댓글설전 실시간댓글 1 제주 한라산 백록담서 60대 관광객, 탈진으로 헬기 이송 2 “윤석열 정부 공공기관 혁신 계획...JDC 정원 28명 감축” 3 민간위탁은 행정의 외주화, 원청 제주도정은 노동자 위한 책무 다해야 4 제주 구좌읍 평대리 단독주택서 화재…인명피해 없어 5 제주 서예가 현병찬, 문체부 선정 제41회 세종문화상 수상 6 12월 제주서 일회용컵 보증금제 개시...단독 매장 11곳은 어떻게? 7 개천절 제주, 30도 넘는 깜짝 더위...5일부터는 찬바람 8 물가는 천정부지..제주 초등돌봄 급식비는 5년 째 5000원? 9 동료 해녀 구한 의용소방대원, 전국 소방대회서 제주 위상 드높여 10 사상검증 논란 제주4.3 특별재심 68명 재판 앞둬 ‘명예회복’ 도민사회 주목 1 미덥지 못한 ‘관광청 제주 설치’ 尹정부 공약, 용두사미 되나? 2 민간위탁은 행정의 외주화, 원청 제주도정은 노동자 위한 책무 다해야 3 “윤석열 정부 공공기관 혁신 계획...JDC 정원 28명 감축” 4 사상검증 논란 제주4.3 특별재심 68명 재판 앞둬 ‘명예회복’ 도민사회 주목 5 동료 해녀 구한 의용소방대원, 전국 소방대회서 제주 위상 드높여 6 제주 한라산 백록담서 60대 관광객, 탈진으로 헬기 이송 7 제주 서예가 현병찬, 문체부 선정 제41회 세종문화상 수상 8 물가는 천정부지..제주 초등돌봄 급식비는 5년 째 5000원? 9 12월 제주서 일회용컵 보증금제 개시...단독 매장 11곳은 어떻게? 10 돌아온 일상, 한층 더 책과 친숙해진 ‘2022 제주독서대전’ 1 니들 역사 잘모르자나 ㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋ그냥 노는 날이 다 정도로 안는 거같음 ㅋㅋㅋㅋ 곰이 사람되고 그런 거야 ㅋㅋㅋ 겨레가 뭐냐? 카자흐스탄좀 갔다와 ㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋ겨레의 뜻도 모르는 것들이 ㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋ고조선이 뭐냐 조선 조선의 뜻이 뭐냐 ㅋㅋㅋㅋㅋㅋ주스야 ㅋㅋㅋ 달 태양 금성 왜 조선이라고 하는줄을 모른 ㅋㅋ그냥 개천절은 노는날 정도임 마늘 처먹은 곰탱이 이러구 알고 있음 ㅋㅋㅋㅋ 조선의 뜻을 알아야 되는거 임 우리의 뿌리 을 알아야되는것임 그런 놈들이 43을 안다고 하냐 ㅋㅋㅋ 우리가 케레이 다 ㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋ 2 왜 이걸 제주도만 시범으로 빠따 맞아야 하나? 만만한 제주도라서 그런가? 시범시범시범 3 제주도의원들은 할일이 없겠음 ㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋ제주자치도인지 서울자치도인지 ㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋ 4 아래 댓처럼 일 못하는 고문관들이 회사와 사회발전의 암이다 이런새끼들의 특징 1. 기본 계산도 못한다 2. 좆도 모르는 일에 나대면서 아는척은 존나게 한다 3. 그런 주제에 양심도 도덕도 없어서 여러사람 눈 찌푸리게 하는걸 지만 모른다 5 급식비가 얼마냐 가 아니라 급식 수준이 봐야 되는거지 ㅋㅋㅋㅋㅋㅋ 급식은 처먹으면서 애들 급식수준이 떨어지면 조사해 보던가 하지 무조건 돈돈하는 건니들 같어 ㅋㅋㅋ 물가가 오르던 말던 급식이 애들 불만 없이 잘되면 그만이지 기준없이 잘만 하는 지역도 많쿠만 ㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋ이런 미친 돈 또라이들 6 썬오브 비치 7 당시 기준에서 재판해야한다. 남로당에 부역한 전원에 대해 엄중한 책임을 부과하고 잘못을 인식시켜야 한다. 용서는 사실인정과 반성이 있어야 가능하다. 당시 재판이 가장 사실에 부합하다. 8 1948년 한림동국민학교에서 조선민주애국청년동맹대회 때 사회를 보아 명예의장으로 남조선노동당 박헌영을 추대함과 동시에 남조선노동당 박헌영 체포령 취소 요구 진정서를 미군정청사령관 하지 중장에 보내는 데 앞장을 선 사람을 무죄를 오늘 선고한다면 대한민국의 정체성은 더욱 더 흔들린다. 9 4.3위원회 폐지법안 원희룡, 제주의 아픔 말할 자격 있나?" 윤철수 headlinejeju@headlinejeju.co.kr 승인 2014.03.21 김우남, "원희룡 4.3위원회 폐지법안 공동발의" 지난 2008년 한나라당 의원들을 중심으로 제주4.3위원회 폐지를 내용으로 하는 제주4.3특별법 개정안의 국회 제출당시 새누리당 원희룡 제주도지사 예비후보도 공동발의한 사실이 확인돼 논란이 일고 있다. 10 묻지도 따지지도 말라 하니 참 ㅋㅋㅋㅋㅋ니들이 말이통하는 세상인게 부럽다 ㅋㅋㅋㅋㅋㅋ예를 들면 역사의 증거는 가물거리고 주변 생존자가 있어 울며 불며 뭐라 하니 동요된 여론과 뭐 잇딴 감성파리로 법을 뒤집는다 ㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋ + 기획/특집/칼럼 혼디 골아봅주 ‘티핑 포인트의 세대’ 지금 우리에게 필요한 것은 대한민국의 역사 4·3 사상검증 논란 제주4.3 특별재심 68명 재판 앞둬 ‘명예회복’ 도민사회 주목 제주특별법 공동기획 68만 중 50만 집중 기형적 제주...“신교통·대중교통 확대 급선무” 제주댁, 음식it수다 제주에선 멩질도 식게도 “먹으러 가게”…함께 나누는 팔월 멩질 제주어로 여는 talk 이듸 일름 적읍서 서명숙의 올레길 편지 제주올레 여행자센터에서 만난 재외 동포들 아시아 섬의 평화예술 ‘인민의 정의’의 혼란: 다중 해석 소리 시선 제주 제2공항, 전·현지사 머리 맞대라 코코어멍 동물愛談 잔혹한 동물학대의 섬 제주도 '이대로는 안 된다' 시인이 쓰는 마을책방 가장 멀고도 가장 가까운 책방 인권왓 칼럼 민간위탁은 행정의 외주화, 원청 제주도정은 노동자 위한 책무 다해야 김경희의 노동세상 사업주 지시 없이 일하다가 발생한 사고, 산업재해일까? 김길웅의 借古述今 어룬 방둥인 애기 이상 엇나 한라산 식물 이야기 척박함에도 꽃 피우는 진실한 사랑·우정 ‘바위떡풀’ BOOK世通, 제주읽기 신실주의(神實主義) 글쓰기의 매혹 살며詩 한 편 가을은 뒷모습의 계절이다 이영웅의 지금 제주는 우리 사회의 지속가능한 미래를 위한 선택 한국전쟁과 제주 제주도·모슬포 ‘부(負)의 유산’ 너머 ‘평화의 길’로 양은희의 예술문화 중광 작고 20주년, 중광미술관의 미래 부모아카데미 “자녀들 글쓰기 습관 어렵죠? 관심과 흥미 갖게 해야” 이어가게, 고치가게 지우개 깎던 ‘목발 소년’ 40여년 수제도장 장인의 길 걷다 장일홍 세상이야기 얼굴에 얽힌 일화 보멍 쉬멍 사람은 나무를 닮는다고 했습니다 주민이 주인이다-제주 마을이야기 ‘풍차와 해녀의 마을’에 깃든 광해의 흔적 양동규의 film·筆·feel 있을 법하지 않은, 낯선 하승수, 제주와 자치 이야기 ‘불편한 이야기’ 제주 국회의원 선거 이대로 좋은가? 고충석의 칼럼과 에세이 사이 후흑의 정치기술과 박근혜의 몰락 독자의소리 새벽녘 제주 하늘에 신비한 ‘빛기둥’ 수십개 “신기하네” 보·받는 사람 올리 추석 멩질상엔 고사리육개장 올렴수다 윤봉택의 탐나는 올레 마음 멍 때리며 순례하는 제주올레 15-A코스 제보안내 광고안내 뉴스스탠드 모바일 카카오톡 카카오스토리 페이스북 트위터 유튜브 회사소개 연혁 개인정보취급방침 이메일무단수집거부 청소년보호정책 댓글 관리운영기준 만드는사람들 제주특별자치도 제주시 첨단로 213-65 제주종합비즈니스센터 4층 제보 및 각종문의 : 064-711-7021~2 팩스 : 064-711-7023 사업자등록번호 : 616-81-46760 등록번호 : 제주 아 01002 등록일 : 2005-10-14 발행인 : 문성윤 편집인 : 김봉현 청소년보호책임자 : 김봉현 제주의소리 모든 콘텐츠(영상,기사, 사진)는 저작권법의 보호를 받는 바, 무단 전재와 복사, 배포 등을 금합니다. Copyright © 2022 제주의소리. All rights reserved. mail to news@jejusori.net 위로 전체메뉴 전체기사 우리동네 전체 제주시 서귀포시 제주도 행정 전체 제주특별자치도 제주시 서귀포시 읍면동 정치 전체 도의회 국회·정당 선거 여론조사 4.11 도의원 보궐선거 시민칼럼 박근혜와 제주 한동주 게이트 6.4지방선거 저 출마합니다 6.1지방선거 6.1지방선거 저, 출마합니다 경제 전체 금융 산업·기업 경제일반 사회적경제 MICE&amp;NICE 제주워터페스티벌 제주한라대, 힘내라 가족회사 1회 조합선거 블루오션 제주 특성화고, 인재들이 뛴다 감귤 1차산업 사회 전체 날씨 사회일반 사건사고 법원·검찰 4.3 해군기지 교육 환경 메르스 제2공항 독자위원회 탄핵 지역이 희망이다 소리多 소리後 창간15주년 독자의소리 탐나는가치 맵핑 맛과여행 문화 전체 문화일반 공연·전시 학술·문화재 책 영상·미디어 제주멋&amp;맛 제주여행 UCC 공모전 인문의 바다 사진으로 본 '야스쿠니' 제주비엔날레-탐라순담(耽羅巡談) 밭담, 디자인으로 제주를 담다 관광 전체 관광일반 여행 축제 맛집·쇼핑 오피니언 전체 김국주의 경제칼럼 강종우의 일요편지 고현승 중국통신 박경훈의 제주담론 신용인 칼럼 양길현 칼럼 양영철 칼럼 이재홍의 데스크칼럼 이지훈 칼럼 하승수의 자치이야기 허진영 칼럼 취재수첩 진관훈 칼럼 김호성 칼럼 김승석 칼럼 기고 고운호 칼럼 김동욱 칼럼 이영권의직설화법 고유기 칼럼 김학준 칼럼 김현돈의살며생각하며 고희범 칼럼 의정칼럼 오성 스님의 편지 고병수 칼럼 홍성직의 또다른 눈으로 세상보기 김한욱 칼럼 고충석 칼럼 김경환 칼럼 현문권 칼럼 신재경 칼럼 허남춘 칼럼 박형근 칼럼 문성종 칼럼 권영후 칼럼 김동현 칼럼 박호범 칼럼 인터뷰 강민철 칼럼 다른 밥상 다른 세상 백승주 칼럼 양상호 칼럼 시민칼럼 허영섭 칼럼 정신지 칼럼 숨, 쉼 고홍철 칼럼 문대림 칼럼 고현수의 복지칼럼 홍영철 칼럼 김관후 칼럼 데스크 칼럼 기자 칼럼 정경호 칼럼 김헌범 칼럼 장일홍 세상이야기 강정홍의 또다른 이야기 뉴욕명랑의 제주살래 주강현 칼럼 신백훈, 史記로부터 배우는 인생 허갑중의 '제주, 세계적인 관광지로의 도약' 이유근 칼럼 고성준 칼럼 건강 365 강문규 칼럼 박형근 칼럼 강영삼 칼럼 김의근 칼럼 김수종 칼럼 이종우 칼럼 신재경 칼럼 김승석 칼럼 양기혁 칼럼 양은희의 예술문화 BOOK世通, 제주읽기 황경수 칼럼 강숙영 칼럼 김종민의 다시쓰는 4·3 강종우의 여럿이 함께 홍경희의 점빵 월령가 전문가 칼럼 허남춘 칼럼 제주풍습 속 숨겨진 금융상식 일자리를 위한 새로운 상상력 이영웅의 지금 제주는 소리 시선 김경희의 노동세상 제주 청진기 하간·소리 공동기획-포토파일 김재원의 영어어휘 톡톡 talk-talk 인권왓 칼럼 평화예술칼럼 강충민의 보·받는 사람 짧은 글, 긴 생각 혼디 골아봅주 고충석의 칼럼과 에세이 사이 안재홍의 교육春秋 양동규의 film·筆·feel 하승수, 제주와 자치 이야기 제주 바람과 바람 매거진 전체 아카데미 대학생 기자단 청소년 인문학 기자단 '와랑' 장태욱의 제주 지질기행 김정숙의 제주신화 이야기 강은미의 문학카페 신재경의 일본야구 A to Z 재일동포 그들은 누구인가 초짜여행가 양기혁의 중국횡단기 길을 걸으며 길을 묻다 이승택의 도시읽기 제주, 몽골을 만나다 몽생이 김홍구, 오름속으로 이승안의 클래식 산책 현대예술의 중심, 베를린에서 보낸 편지 함께하는세상 김강임의 제주 오름기행 한라산 만인보 변방의 섬에서 상생의 길을 찾다 착한 경제 제주民의 저항史 강충민의 사람사는 세상 장태욱의 제주기행 오성스님의편지 오르미의 제주여행 제주여성 문화유적 100 제주 세계7대 자연경관 제주사람이 쓰는 제주이야기 고봉선의 꽃과 함께 망장포 귀촌 이야기 양용진의 제주음식이야기 강충민의 제주맛집 김건석의 바당에 살어리랏다 고현주의 꿈꾸는 카메라 정신지의 걸으멍 보멍 들으멍 바람섬 숨, 쉼 김학준의 교육소비자 협동조합 문무병의 제주, 신화 오승주의 책놀이책 Q&amp;A 장태욱의 '野'한이야기 코코어멍 동물愛談 양기혁이 떠난 러시아 여행 나눔의 기쁨 유배, 꽃을 피우다 눈사람 레코드 김동필의 제주전통목기 건강 365 시를 먹고자라는 식물원 2015 나눔보따리 밥집아줌마의 세상엿보기 사진가 이겸, 제주 중산간을 걷다 제주 생태관광 이야기 김수열 시인의 도시락 산책 전기차 콘셉디자인 어워드 오승주의 어·부·가 윤창훈의 과학이야기 장태욱 여행기 부모아카데미 이야기속 제주 표트르의 도시에 가다 박경호의 제주 사람책 제주 항몽유적의 문화자원화 오승주의 어·부·책 조남희, 제주사름으로 살기 어리숙한 농부의 농사일기 2016 제주시민 인문학 강좌 제주 밥상 이야기 질문이 있는 나의 그림책 살며詩 한 편 논어와 동서양 고전의 향연 제주밭담 시간여행 점빵 월령가 한라산 식물 이야기 제주섬의 산물 제주4·3은 대한민국의 역사입니다 4차 산업혁명 제주 아카데미 영화적 인간 세상을 바꾸는 10대들의 글쓰기 2018년 학생 흡연 등 중독예방·치유 프로그램 오승주의 책놀이책 Q&amp;A 정수진의 About 풋볼 김길웅의 借古述今 정은광의 제주 산책 제리뉴스 우리도 교육주체다 4.3 특별법 개정 촉구 릴레이 시화전 제주댁, 정지에書 시인이 쓰는 마을책방 서명숙의 길 위에서 전하는 편지 제주도롱뇽 관찰일기 윤봉택의 탐나는 올레 남북소통공감아카데미 레포츠 전체 스포츠 연예 제주 Utd 경마 마라톤 전국체전 기획/특집 전체 재선충병 전쟁 지금은 제주 주거복지, 해법은 4.3 기획 4.3과 예술 강정영화제 릴레이 기고 제주 영화인 릴레이 기고 곶자왈의 눈물 꿈틀대는 제주 청년 특별자치 10년, 어디까지 왔나 현대극장을 지켜야하는 이유 아트페어 전성시대 하수처리 대란 제주도의원 선거구획정 빚에 짓눌린 제주 위기의 곶자왈 장미대선, 제주 어젠다 5.9대선, 제주의 선택은? 사각지대 놓인 제주 비지정문화재 4.3 70주년 D-1년 대중교통 개편 제주올레 10년 하와이와 제주, 그리고 다크투어리즘 소리多 클낭 2018 지방화시대, 제주 분권을 말하다 창간15주년 숫자로 보는 제주 클낭 2019 소리後 한국전쟁과 제주 제주 ‘女 氣UP’ 창업현장 제주의소리-제주MBC 공동기획 명쾌한 週 제주특별법 공동기획 대선 예비주자 人터뷰 탐라의 나들목 건들개, 다시 피다 주민이 주인이다-제주 마을이야기 제주 스마트시티 챌린지 사람들 전체 화촉 부고 행사·모임 동정 인사 훈훈뉴스 이재홍이 만난 사람 오늘의 운세 사회복지뉴스 인터뷰 미친이웃 사고 소리TV 공모전 전체 그리운 어머니, 보고싶은 아버지 사랑의 사진 공모전 English News 전체 jejuweekly 이도영의 시사영어 세계 7대자연경관 테스트 생중계 갤러리 소리톡 이슈 테크플러스 제주 행정자치위원회 전체 강경식 박규헌 박원철 윤춘광 위성곤 장동훈 현정화 복지안전위원회 전체 고충홍 박주희 박희수 안창남 오영훈 이선화 환경도시위원회 전체 김경진 김명만 김태석 손유원 신영근 한영호 문화관광위원회 전체 강창수 김용범 김진덕 김희현 소원옥 신관홍 농수축·지식산업위원회 전체 구성지 김도웅 방문추 안동우 좌남수 하민철 교육위원회 전체 강경찬 김영심 문석호 오대익 오충진 윤두호 이석문 허진영 현우범 앱 전체 메인탑뉴스 섹션탑뉴스 중요뉴스 갤러리 제외 한줄뉴스 온라인이슈 전체 정치 경제 사회 문화 스포츠 선거 전체 4.13총선 5·9 대선 6.13 지방선거 연재 협약취재 전체 제주형 도시재생, 길을 묻다 세계중요농업유산 제주밭담 한의약, 건강 제주의 꿈 탐라의 중심, 제주의 관문 '용담' 제주6차산업人 소리-현장 전체메뉴닫기</t>
-  </si>
-  <si>
-    <t>[전국]제주도, 자가격리 거부 해외방문 관광객 4명 돌려보내 | YTN 메뉴 바로가기 본문 바로가기 푸터 바로가기 메뉴 YTN HOME 뉴스알림 라이브 편성표 제보 로그인·회원가입 검색하기 분야별 뉴스 와플뉴스 YTN star 다시보기 제보 시청자센터 알립니다 특집 프로젝트 광고·비즈니스 디지털 서비스 분야별뉴스 분야별 뉴스 메인최신뉴스많이 본 뉴스속보·알림단독정치경제사회전국국제과학문화스포츠날씨재난 와플뉴스 와플뉴스 메인최신뉴스자막뉴스제보영상국경 없는 세상한방이슈제보, 그 후뉴스케치소파트래블러와이파일리플레이운세 YTN star YTN star 메인최신뉴스방송가요영화Y이슈해외연예반말인터뷰와이티엔 스타뉴스 다시보기 다시보기 메인 지금 막 올라온 많이 보는 시사 다큐 과학 교양 채널 별 YTN 와플뉴스 YTN 스타 YTN 월드 YTN 코리안 YTN 사이언스 YTN2 YTN 라디오 YTN DMB 제보 제보 메인제보하기제보랭킹최신제보 시청자센터 시청자의견시민데스크시청자브리핑 시시콜콜시청자 위원회고충처리위원회사이버감사실견학신청성폭력 신고센터 알립니다 공지사항채용공고경품이벤트채널 안내위치 및 연락처이용 도움말 특집 프로젝트 리스펙트 프로젝트SMILE TO VOTE뉴미디어 리터러시2020 국회의원선거2021 재보궐선거2020 도쿄올림픽2022 대통령선거2022 베이징올림픽2022 지방선거 광고 비즈니스 TV광고큐톤시간표인터넷·모바일 광고해외 광고사업 제휴동영상 뉴스 판매오디오 음원 판매뉴스·프로그램 공급 디지털 서비스 뉴스알림 모바일APP 리더스 뉴스레터 유튜브 페이스북 트위터 인스타그램 네이버채널 네이버TV 네이버밴드 틱톡 데일리모션 24시간 라이브 방송 [오늘의 운세] 2022년 10월 04일 띠별 운세 [오늘의 운세] 2022년 10월 03일 띠별 운세 [단독] 국세청, 용역업체에 '20억' 반환 소송..."퇴사자까지 임... 중부 이어 남부 전선 돌파..."러시아 방어 능력 곧 상실" 합참 "北, 중거리 탄도미사일 1발 발사...日 상공 통과" 메뉴 닫기 YTN 로그인 로그인 회원가입 검색하기 제주도, 자가격리 거부 해외방문 관광객 4명 돌려보내 댓글 달기 공유하기 LIVE 이 시각 주요뉴스 이 시각 주요뉴스 주요뉴스 닫기 합참 "北, 중거리 탄도미사일 1발 발사...日 상공... 윤석열 정부 첫 국정감사 시작...외통위·국방위 '... '채널A 기자 명예훼손 혐의' 최강욱, 1심 무죄 여자친구 감금·폭행한 20대 남성 체포...마약 추... [현장영상+] 尹 "감사원 독립적 헌법기관...언급 적절... "러, 핵무기 시위 임박...핵장비 수송·북극해 핵실험 ... 공유하기 공유창 닫기 페이스북 트위터 밴드 카카오톡 링크 복사하기 메뉴 닫기 검색하기 LIVE 분야별뉴스 와플뉴스 YTN star 다시보기 제보 코로나19 실시간 주요뉴스 이전 윤석열 정부 첫 국정감사 시작…외통위·국방위 '전운' [속보] NSC 상임위 "北 지속 도발에 대가 따른다…제재 강화 모색" "국민 10명 가운데 7명, 정부 물가 안정 대책 체감 못 해" '채널A 기자 명예훼손 혐의' 최강욱, 1심 무죄 김문수 경사노위원장 취임…"노동개혁 중심축 될 것" 임명부터 삐걱…노사합의 어떻게 이룰까? 英 트러스 굴욕적 유턴·시장은 반색…뉴욕증시 2.5% 급등 유엔 산하 기구, 각국에 금리인상 중단 촉구…"경기침체 위험" 北 외무성, 러시아의 우크라이나 점령지 합병 지지 미성년자 성폭행범 김근식 17일 출소…재범 가능성은? 고물가에 문구·완구시장 손님 '뚝'…일부 폐업 고민 지난해 종부세 '7조' 절반은 납부자 상위 1%가 부담 신규환자 1만 6,423명…화요일 기준 14주 만에 최소 오늘부터 요양병원 접촉면회 가능..."내년 3월쯤 실내 마스크 해제" 인건비 이어 방역물품도 횡령?…"마스크에 방역복까지 빼돌렸다" 트럼프, CNN 명예훼손 고소…"히틀러 비유해 대선 출마 훼방" 중고생 공교육비 OECD 2위…대학생은 30위 여자친구 감금·폭행한 20대 남성 체포…마약 추정 물질도 소지 '핵위협'에도 우크라이나군 이번엔 '남부 전선' 돌파 '전쟁반대' 러 국영TV 직원 가택연금 중 탈출…지명수배 플로리다 '이언' 사망자 100명 넘어…바이든 5일 방문 다음 전국 제주도, 자가격리 거부 해외방문 관광객 4명 돌려보내 2020년 04월 01일 17시 11분 댓글 글자크기 조정하기 글자크기 조정하기 글자 크기 조정창 닫기 매우 작은 크기 폰트 작은 크기 폰트 보통 크기 폰트 큰 크기 폰트 매우 큰 크기 폰트 인쇄하기 공유하기 공유하기 페이스북 트위터 밴드 카카오톡 링크 복사하기 공유창 닫기 제주도는 2주간 자가격리를 거부한 해외여행 이력이 있는 관광객 4명에 대해 공항에서 곧바로 되돌려 보냈습니다. 공항에서 돌려보내진 사람은 필리핀에서 온 가족 3명과 캐나다에서 온 관광객 1명 등입니다. 제주도는 특별 입도 절차에 따라 이들에게 '2주간 자가격리'를 요구했지만, 거부 의사를 밝혀 결국 되돌려 보냈다고 밝혔습니다. 이들은 제주에서 일정 기간 머무른 뒤 서울로 가려고 했던 것으로 알려졌습니다. 제주도는 이와 함께 자가격리 중 무단이탈해 지인과 30여 분 동안 식당에서 식사한 80대 할머니도 무관용 원칙에 따라 고발 조치할 예정입니다. ※ '당신의 제보가 뉴스가 됩니다' YTN은 여러분의 소중한 제보를 기다립니다. [카카오톡] YTN을 검색해 채널 추가 [전화] 02-398-8585 [메일] social@ytn.co.kr [온라인 제보] www.ytn.co.kr[저작권자(c) YTN 무단전재 및 재배포 금지] 전국 기사목록 전체보기 '착한 가격' 학생식당, 고물가에 인상 불가피 여수 앞바다에 기름 유출...8시간 동안 긴급 방제작업 [서울] 서울 노후 공공어린이집 100곳, 내년 저탄소 건물로 전환 "성 밟으며 건강 기원해요"...가을 축제 '북적' YTN 미디어그룹 YTN 회사소개 INSIDE YTN YTN 사이언스 YTN 라디오 YTN2 YTN dmb YTN world YTN korean 남산서울타워 시청자센터 시청자의견 시민데스크 시청자브리핑 시시콜콜 시청자 위원회 고충처리위원회 사이버감사실 견학신청 성폭력신고센터 알립니다 공지사항 채용공고 경품이벤트 채널 안내 해외 리포터단 신청 위치 및 연락처 이용 도움말 광고 및 비즈니스 TV광고 큐톤시간표 인터넷·모바일 광고 해외 광고 사업 제휴 동영상 뉴스 판매 오디오 음원 판매 뉴스·프로그램 공급 약관 및 정책 이용약관 개인정보처리방침 청소년보호정책 기사배열 기본방침 디지털 서비스 모바일 APP 뉴스알림 리더스 뉴스레터 유튜브 페이스북 트위터 인스타그램 네이버채널 네이버TV 네이버밴드 틱톡 데일리모션 ㈜와이티엔 서울특별시 마포구 상암산로 76(상암동) | 대표자: 우장균 | 대표전화: 02-398-8000 | 팩스: 02-398-8129사업자등록번호: 102-81-32883 Copyright (c) YTN. All rights reserved. 모든 컨텐츠(기사)는 저작권법의 보호를 받은바, 무단 전재·복사·배포를 금합니다.</t>
-  </si>
-  <si>
-    <t>제주도관광협회, ‘관광약자 편의시설 지원사업’ 접수 - 뉴제주일보 × 전체기사 정치/행정 전체 제주도정 청와대 도의회 국회 선거 후보자 정부 도내정가 재·보궐 선거 북한 社告 중앙정가 국정감사 조합장선거 제주시 갑 제주시 을 서귀포시 경제 전체 경제일반 금융 창립기념일 손해사정사 이명헌의보험이야기 사회 전체 사회일반 법원검찰 경찰 기상 사건·사고 사회단체 의료 횡단로 교육/과학 전체 대학 교육청 일반 과학 어린이판 지역 전체 제주시 서귀포시 문화 전체 일반 공연 영화/연예 전시 홈닥터 해연풍 사진으로 본 제주 시와 그림으로 보는 제주어 스포츠 전체 일반 백호기 야구 축구 육상 농구 배구 골프 동계스포츠 태권도 배드민턴 우슈 수영 탁구 체조 레슬링 유도 정구 양궁 격투기 검도 바둑 경마 댄스 올림픽 사람과 사람 전체 동정 프로필 인터뷰 오피니언 전체 사설 부영주 칼럼 "아침" 홍성배 칼럼 제주포럼 기자수첩 기자석 김미영의 뷰티톡 김태윤 박사의 환경, 그리고 인생 이야기 김호성의 정치·행정 이야기 정영민 변호사의 법 이야기 김원현의 아동성장 이야기 제주칼럼 제주시론 제주광장 정흥남 칼럼 강은숙의 가정법률이야기 김종배의 세상털기 배진섭의 공연 이야기 한동명 변호사의 법률 Q&amp;A 제주만평 열린페이지 전체 제주기고 결혼 부음 알림 인사 보도자료 제주 4·3 전체 4.3길을걷다 국제 진행중인 기획 전체 제주어바웃 食(식) 기행 문희주의 제주오롬 스토리 이세끼 주제주일본국총영사가 만난 제주 문화예술산책 송재웅의 책 이야기 김창집의 길이야기 임안순의 농농농 제주&amp;제주인 메이드인 제주 JDC와 함께하는 제주야 시민기자가 뛴다! 창간특집 신년특집 새해설계 기획총괄 특별기획 제주 커피로드 서재철의 섬기행, 섬을 걷다 셰프 인 제주 아이♥제주 제주 농업, 청년이 미래다 종료된 기획 전체 제주미래성장동력,자연에서 찾는다 jdc의 여정과미래 代를 잇는 제주기업 2017 생명을 지키는 약속 내일을 JOB자! 특성화GO! 희망! 나래를 펴다 新제주인 공감愛공간 탐라에서 세계로 제주&amp;제주인 더불어 제주 생존수영 경제매거진 IN제주 메이드인제주ll-향토기업 총선 열전현장 총선 일반 4.13 총선 여론조사 제20대 4.13총선후보에게듣는다 총선브리핑 2017 대권주자에게듣는다 도지사 교육감 도의원(제주시) 도의원(서귀포시) 교육의원 유권자가 주인이다 민심탐방 포토에세이 제주의 독립운동가를 찾아서 제주경제, 위기를 기회로 제주인 life 국제전기자동차 엑스포 나눔ㆍ봉사ㆍ행복 삶다도 실력이 인정받는 제주 시네톡 제주한의약, 그 역사속으로 김창집의 올레이야기 2016 우리는 제주 인포그래픽 제주의 마을속으로 자연의 역습 기후변화 나눔이 희망 입니다 4·3 길을 걷다 희망을 나누는 사람들 특성화고 날개를 달다 10대, 나도 저자다! 위클리 커버 제주동네책방 탐방 사서가 추천하는 이달의 도서 시민 문화기획자를 만나다 서재철의 오지기행 화촉 라이프 전체 레저 건강 출판/문학 부고 동영상 인사 방송동영상 현안 진단 뉴스 전체 방송/연예 6·13 지방선거 LIFE in BIZ 전체 일반 최종편집일. 2022-10-04 10:40 (화) 로그인 회원가입 모바일웹 정치 경제 사회 교육/과학 지역 문화 스포츠 기획 오피니언 화촉 부음 기사검색 검색 신임 제주문화예술진흥원장에 김태관 공연 기획자 내정 신임 제주문화예술진흥원장에 김태관 공연 기획자 내정 신임 제주특별자치도 문화예술진흥원장에 제주 출신 김태관 전문 공연 기획자가 내정됐다.제주도는 지난달 28일 도 문화예술진흥원장 최종 임용후보자를 응시번호로 공개했고, 본지 취재 결... 4일부터 요양시설 접촉면회 재허용 4일부터 요양시설 접촉면회 재허용 4일부터 요양병원·시설 입소자와 가족들이 다시 접촉 면회를 할 수 있게 됐다.3일 정부와 제주특별자치도에 따르면 4일부터 요양병원·시설, 정신병원·시설 등 감염취약시설의 코로나19... SNS P  D  F 지면보기 이전 다음 제주도관광협회, ‘관광약자 편의시설 지원사업’ 접수 기사공유하기 프린트 메일보내기 글씨키우기 가나다라마바사 가나다라마바사 가나다라마바사 가나다라마바사 가나다라마바사 가나다라마바사 HOME 경제 경제일반 제주도관광협회, ‘관광약자 편의시설 지원사업’ 접수 문유미 기자 승인 2020.04.16 18:24 댓글 0 기사공유하기 프린트 메일보내기 글씨키우기 가나다라마바사 가나다라마바사 가나다라마바사 가나다라마바사 가나다라마바사 가나다라마바사 이 기사를 공유합니다 페이스북 트위터 카카오스토리 구글+ 네이버밴드 네이버블로그 네이버폴라 핀터레스트 URL복사 × 도내 관광사업체를 대상으로 관광약자의 접근성 향상을 위한 시설·장비 지원사업이 실시된다. 제주특별자치도와 제주특별자치도관광협회(회장 부동석)는 16일부터 오는 29일까지 ‘사설관광지 관광약자 편의시설 정비지원 사업’에 참여할 업체를을 공개모집한다고 밝혔다. ‘사설관광지 관광약자 편의시설 정비지원 사업’은 관광약자의 이동권 및 접근권 보장을 통해 관광 향유권의 확대와 복지관광 활성화를 도모하기 위한 사업이다. 사업 대상은 사설관광지와 숙박·음식업 등 관광약자 편의시설이 필요하다고 요구되는 도내 관광사업체로, 시설부분(주출입구 접근로 등)과 장비부분(휠체어 등)에 대해 업체당 최대 700만원까지 지원된다. 참여 신청은 제주도관광협회를 직접 방문하거나 팩스·이메일을 통해 접수할 수 있다. 신청서류 등 자세한 내용은 제주도관광협회 홈페이지에서 확인할 수 있다. 문유미 기자  moon@jejuilbo.net 저작권자 © 뉴제주일보 무단전재 및 재배포 금지 문유미 기자 다른기사 보기 댓글삭제 삭제한 댓글은 다시 복구할 수 없습니다. 그래도 삭제하시겠습니까? 비밀번호 삭제 × 댓글 0 제8회 전국동시지방선거 (예비)후보자 및 그의 배우자, 직계존·비속이나 형제자매에 관하여 허위의 사실을 유포하거나, 이들을 비방하는 경우 「공직선거법」에 위반됩니다.대한민국의 깨끗한 선거문화 실현에 동참하여 주시기 바랍니다. - 중앙선거관리위원회- 로그인 이름 비밀번호 내용 0 / 400 등록 댓글쓰기 계정을 선택하시면 로그인·계정인증을 통해 댓글을 남기실 수 있습니다. 회원 로그인 이름 비밀번호 자동등록방지 확인 × 최신순 추천순 인기기사 1암보험 약관에 규정하는 알고 있어야 할 사항들 2디지털 자산 제도화 분기점, 투자는 어떻게(?) 3세계 최초 '국제농기계 전동화.자율주행 엑스포' 한 달 앞으로 4경제 비상사태, 비상한 대처 있어야 한다 5제주고·제주여상, 전도사격대회 고등부 단체전 정상 6버스 준공영제 대폭 손질…도민 부담 전가 ‘우려’ 7깊어가는 가을, 코스모스 활짝 84일부터 요양시설 접촉면회 재허용 9김경학 의장 “도민복지 증진 지방자치 본질…민생의정 구현 총력” 10기업경기 내리막, 민·관 머리 맞대 돌파구 찾아야 신문사소개 고충처리인 기사제보 광고문의 불편신고 개인정보취급방침 청소년보호정책 이메일무단수집거부 RSS 제주특별자치도 제주시 서사로 25 3-5층(삼도이동, 수정빌딩) 대표전화 : 064-757-3114 광고·구독 : 064-757-5000 편집국 FAX : 064-756-7114 영업본부 : 064-702-7114 법인명(단체명) : 주식회사 제주일보방송 등록번호 : 제주 아01134 등록일 : 2021-09-07 대표자 : 김대형 발행인 : 김대형 주필 : 부영주 편집인 : 부영주 편집국장 : 부남철 뉴제주일보 모든 콘텐츠(영상,기사, 사진)는 저작권법의 보호를 받은바, 무단 전재와 복사, 배포 등을 금합니다. 청소년보호책임자 : 김대형 Copyright © 2022 뉴제주일보. All rights reserved. mail to webmaster@jejuilbo.net 위로</t>
-  </si>
-  <si>
-    <t>미디어제주 × 전체기사 뉴스 전체 정치 경제 사회 문화 교육 스포츠 사람들 포토뉴스 Advertorial section 기획특집 전체 생생스포츠현장 박물관, 그리고 제주 이야기 이사람 이주민, 그들을 말한다 다 함께 사는 세상 해외 특파원 보고 교육! 학교 현장 기획특집 미디어누리 전체 어린이기자 시민기자 청소년기자 오피니언 전체 미디어窓 미디어칼럼 건강칼럼 기고 미디어TV 전체 영상뉴스 UCC동영상콘테스트 유치부축구대회 시정가이드 전체 제주시 서귀포시 최종편집 2022-10-04 10:40 (화) 로그인 회원가입 모바일웹 전체 뉴스 전체기사 정치 경제 사회 문화 교육 스포츠 사람들 포토뉴스 Advertorial section 기획특집 박물관, 그리고 제주 이야기 이사람 다 함께 사는 세상 해외 특파원 보고 교육! 학교 현장 미디어누리 어린이기자 시민기자 기사쓰기 오피니언 미디어窓 미디어칼럼 건강칼럼 기고 행사 유치부 축구대회 아름다운 동행 기사검색 검색 S2N2 이전 다음 제주도 관광약자 리프트 차량 지원 사업 참여 열기 ‘후끈’ 기사공유하기 프린트 메일보내기 글씨키우기 가나다라마바사 가나다라마바사 가나다라마바사 가나다라마바사 가나다라마바사 가나다라마바사 HOME 뉴스 경제 관광 제주도 관광약자 리프트 차량 지원 사업 참여 열기 ‘후끈’ 홍석준 기자 승인 2020.04.01 10:52 댓글 0 기사공유하기 프린트 메일보내기 글씨키우기 가나다라마바사 가나다라마바사 가나다라마바사 가나다라마바사 가나다라마바사 가나다라마바사 이 기사를 공유합니다 페이스북 트위터 카카오스토리 구글+ 네이버밴드 네이버블로그 네이버폴라 핀터레스트 URL복사 × 도내 53개 전세버스 업체 중 24곳 공모 신청 … 6대1 경쟁률 [미디어제주 홍석준 기자] 제주도가 추진중인 ‘관광 약자를 위한 리프트차량 지원 사업’에 도내 24개 전세버스 업체가 사업을 신청, 6대1의 높은 경쟁률을 기록했다. 제주특별자치도는 지난 3월 13일부터 27일까지 리프트차량 지원 사업에 대한 공개모집 결과 도내 53개 전세버스 업체 가운데 45%가 공모 사업에 신청했다고 1일 밝혔다. 이에 제주도는 부서 내 정량평가(80%)와 제주복지관광위원회 정성평가(20%)를 거쳐 4개 업체를 선정하기로 했다. 사업자 명단은 오는 9일 도청 홈페이지에 게시된다. 선정된 사업자에게는 최대 2억원 범위 내에서 리프트 차량 도입 비용의 90%까지 지원하게 된다. 이 사업이 마무리되면 기존 전세버스 리프트차량 8대를 포함해 모두 12대까지 늘어나 관광약자들의 제주 나들이가 훨씬 수월해질 것으로 보고 있다. 저작권자 © 미디어제주 무단전재 및 재배포 금지 홍석준 기자 다른기사 보기 댓글삭제 삭제한 댓글은 다시 복구할 수 없습니다. 그래도 삭제하시겠습니까? 비밀번호 삭제 × 댓글 0 댓글입력 로그인 이름 비밀번호 내용 0 / 400 등록 댓글쓰기 계정을 선택하시면 로그인·계정인증을 통해 댓글을 남기실 수 있습니다. 회원 로그인 비회원 글쓰기 이름 비밀번호 자동등록방지 확인 × 최신순 추천순 실시간 댓글 밥을 같이 먹는 식구가 서로 살아갈 힘을 주고 받듯 책을 함께 공유하는 것이 같은 원리라는 말이 깊이 와 닿네요~ 아이들 어릴적 책을 읽어 주면서 정서적 교감했던 행복한 기억이 있네요. 요즘은 바쁘다는 핑계로 책 읽어주기를 못했는데 다시 도전해봐야 겠네요. 혼자보다 함께 해야 하는 현 시대에 필요한 맞춤형 독서지도라는 생각이 듭니다 잘 읽었습니다. 내년엔 저도 참여해보고 싶네요~~ 여러 권 읽는 것보다 한 권을 여러 명이 토론하는 것이 낫다는 말 공감합니다^^ 가장 많이 읽은 기사 1제19회 賢테니스회장배 전도클럽대항 테니스대회 ‘후끈’ 2한글서예 ‘한평생 한길’, 한곬 현병찬 선생 세종문화상 수상 3서귀포시, '중장년 스타트업 부트캠프' 참가자 모집 4제주의 얼을 담다 ... 탐라문화제, 3년만에 대면행사로 5선흘 동백동산에서 평화의 노래를 "제주4.3 평화음악축제" 6제주TP 생물자원연구, 한국자원식물학회에서도 ‘주목’ 7양덕순 "제주연구원, 실용적인 정책 연구 앞장서야" SPONSORED 신문사소개 기사제보 광고문의 불편신고 개인정보취급방침 청소년보호정책 이메일무단수집거부 RSS 제주특별자치도 제주시 중앙로 270-1 5층(이도이동, 백두빌딩) 대표전화 : 064-725-3456 팩스 : 064-725-3458 명칭 : (주) 미디어제주 제호 : 미디어제주 등록번호 : 제주 아 01003 등록일 : 2005-10-17 발행인 : 고승영 편집인 : 고승영 청소년보호책임자 : 고승영 미디어제주 모든 콘텐츠(영상,기사, 사진)는 저작권법의 보호를 받은바, 무단 전재와 복사, 배포 등을 금합니다. Copyright © 2022 미디어제주. All rights reserved. mail to mediajeju@mediajeju.com 위로</t>
+    <t>제주도 치료제 나오기 전까지 안전관광 기조 유지 &lt; 제주 &lt; 전국 &lt; 기사본문 - 국제뉴스 주요서비스 바로가기 본문 바로가기 매체정보 바로가기 로그인 바로가기 기사검색 바로가기 전체서비스 바로가기 상단영역 [급등주] 투비소프트 상승, 투비디티엑스-키월드 MOA 체결 [특징주] 대화제약 주가 하락 '요오드 관련주 수혜 끝났나' [급등주] 켐온, 코아스템과 흡수합병 진행 '27%↑' [특징주] 나노씨엠에스 주가 급등 '바이러스 사멸램프 성능 소개' [특징주] 해성산업 주가 상승 '계양전기 투자부문 분할흡수합병' [급등주] SCI평가정보 상승, 한은 두 번째 빅스텝 전망 [급등주] 코디엠 3거래일 지속 상승 '삼성전자 영향?' [급등주] 테라셈 상장폐지 앞두고 정리매매 '60%↑' [특징주] 알테오젠 주가 하락 '공매도 피해에 무상증자 결정' [특징주] 삼성전자 주가 하락 '세계 반도체 1위 뺏겼다' 2022-10-11 14:38 (화) 김포 사우동 횟집서 불…인명피해 없어 수원 팔달구 음식점서 불…인명피해 없어 전남 도서지역·해상서 응급환자 2명 발생 해경, 진도군 도서지역 골절 환자 '병원 이송' 화천서 SUV 차량 전복…2명 부상 정선서 승합차·화물차 추돌…3명 경상 진도군 도서지역서 응급 환자 발생..해경 육지로 이송 서산경찰서, 대낮 거리에서 아내 살해한 50대 남자 '긴급체포' 동해해경, 위험예보제 '주의보' 발령 인천 남동구 공장 기숙사서 불…인명피해 없어 인천 남동구 음식점서 불…인명피해 없어 원주 단계동 음식점 화재…인명피해 없어 시작페이지 즐겨찾기 홈 로그인 회원가입 정치 정치 대통령실 외교 국방 종합 청와대 경제 경제일반 산업/기업 부동산 종합 사회 사회일반 사건/사고 오피니언·피플 단독 종합 소방 경찰 문화 문화 영화/공연 여행 연예 연예 종합 스포츠 국내스포츠 종합 국제 World News 종합 전쟁/난민 테러/시위 전국 서울 경기남부 경기북부 인천 강원 대전 충남 충북 세종 전북 광주 전남 경남 대구 경북 울산 부산 제주 포토 종합 핫 포토 해외스포츠 해외경제 국제뉴스TV 검색 기사검색 검색 본문영역 이전 기사보기 다음 기사보기 제주도 치료제 나오기 전까지 안전관광 기조 유지 바로가기 복사하기 본문 글씨 줄이기 본문 글씨 키우기 스크롤 이동 상태바 현재위치 홈 전국 제주 제주도 치료제 나오기 전까지 안전관광 기조 유지 기자명 김승환 기자 입력 2020.04.30 14:21 수정 2020.04.30 14:32 댓글 0 바로가기 복사하기 본문 글씨 줄이기 본문 글씨 키우기 SNS 기사보내기 페이스북(으)로 기사보내기 트위터(으)로 기사보내기 카카오스토리(으)로 기사보내기 카카오톡(으)로 기사보내기 네이버밴드(으)로 기사보내기 URL복사(으)로 기사보내기 이메일(으)로 기사보내기 다른 공유 찾기 기사스크랩하기 이 기사를 공유합니다 페이스북(으)로 기사보내기 트위터(으)로 기사보내기 카카오스토리(으)로 기사보내기 카카오톡(으)로 기사보내기 네이버밴드(으)로 기사보내기 URL복사(으)로 기사보내기 닫기 원희룡 제주지사, 30일 오전 제주공항 코로나19 방역현장 방문 (제주=국제뉴스) 김승환 기자 = 원희룡 제주도지사는  “치료제와 백신이 나오기 전까지 제주도는 안전관광 기조를 유지해야 한다”며 “제주도가 코로나19 청정 지역이라는 상징성이 큰 만큼 항공사에서도 공항방역에 적극 협조해달라"고 당부했다.원 지사는 황금연휴 시작일인 30일 오전 방역현장을 점검 후 제주공항 제주공항 코로나19 방역관련 관계기관과 항공사 관계자들이 참여한 간담회를 주재했다.이 자리에서 원 자시는 “치료제와 백신이 나오기 전까지 제주도는 안전관광 기조를 유지해야 한다”며 “제주도가 코로나19 청정 지역이라는 상징성이 큰 만큼 항공사에서도 공항방역에 적극 협조해주길 바란다”고 당부했다.제주도는 도지사를 비롯한 공직자들이 연휴기간동안 특별집중 근무를 실시하고 있으며, 유관기관 및 관계부서와 합동으로 코로나19 방역에 만전을 기하고 있다.원희룡 지사는 이날 오전 9시 40분부터 렌터카 방역현장과 제주국제공항 워크스루 진료소, 제주공항 1층 도착장 발열감시 현장을 찾아 현장을 점검하고, 청정 제주 사수를 위해 애쓰고 있는 방역 담당자들을 격려했다.특히 원희룡 지사는 렌터카 소독과 다목적 음압·양압 검체 채취 부스(일명 초스피드 워크스루)를 직접 시연하면서 불편사항이 없는지 확인하기도 했다. 제주도는 황금연휴기간인 4월 30일부터 오는 5월 5일까지 18만 여명의 관광객들이 입도할 것으로 예상됨에 따라, 코로나19 차단방역을 위한 특별입도절차 시즌 2를 전격 가동하고 있다.제주도는 발열 검사의 온도 기준을 기존 37.5℃에서 37.3℃로 낮춰 코로나19 검사 대상 범위를 넓히고, 모든 입도객을 1:1 수준으로 발열 감시할 수 있도록 방역체계를 한층 강화했다.또한 37.3℃ 이상의 발열자 및 건강 이상자를 대상으로 건강기초조사서를 작성하도록 하고, 이를 기반으로 의사 문진에 따라 필요시 공항 내 워크스루 선별진료소에서 코로나19 검체 검사를 받도록 하고 있다.한편 원희룡 지사는 지난 23일 대국민 담화를 통해 “사회적 거리두기를 완화해도 국민 한 분 한 분이 방역의 주체라는 것을 제주에서부터 증명해보일 수 있도록 수칙을 철저히 지켜주시기 바란다”고 당부한 바 있다 김승환 기자 qjqantk0603@naver.com 다른기사 보기 저작권자 © 국제뉴스 무단전재 및 재배포 금지 당신만 안 본 뉴스 [속보]카카오톡 PC·모바일 전송 오류 현상 발생 "로그인 서버 오류?" 골프선수 박결, 꽃보다 아름다운 미모...나이 등 프로필 궁금증 오늘날씨 '가을축제·단풍, 핑크뮬리명소' 가볼만한곳, 서울날씨 이정후 여동생 이가현, 고우석과 결혼...나이·직업·얼굴·프로필 궁금증 토트넘·아스널 경기일정 "손흥민 무섭다" 중계채널시간 상생소비복권 '당첨자발표일' 100만원 당첨금 지급일 언제 박민영 열애설 주인공은 강종현 회장은 누구? [속보]카카오톡 PC·모바일 전송 오류 현상 발생 "로그인 서버 오류?" 주요기사 이재명 "일본을 한반도에 끌어들이는 자충수 중단해야" 한전KDN, 현장에서 답 찾는다...적극행정문화 확산 이재명 "한미일 군사훈련, 좌시할 수 없는 국방참사·안보자해행위" 성시경 골드버튼, 믿고 보는 유튜버됐다 대화하는 이재명-박홍근 발언하는 이재명 더불어민주당 대표 최신뉴스 이재명 "일본을 한반도에 끌어들이는 자충수 중단해야" 한전KDN, 현장에서 답 찾는다...적극행정문화 확산 이재명 "한미일 군사훈련, 좌시할 수 없는 국방참사·안보자해행위" 성시경 골드버튼, 믿고 보는 유튜버됐다 대화하는 이재명-박홍근 포토뉴스 이재명 "일본을 한반도에 끌어들이는 자충수 중단해야" 한전KDN, 현장에서 답 찾는다...적극행정문화 확산 이재명 "한미일 군사훈련, 좌시할 수 없는 국방참사·안보자해행위" 성시경 골드버튼, 믿고 보는 유튜버됐다 인기뉴스 1 서산경찰서, 대낮 거리에서 아내 살해한 50대 남자 '긴급체포' 2 우크라이나 러시아 전쟁, 노획 러군 탱크 3 [속보] 美 9월 실업률 3.5%…전월 대비 0.2%P 하락 4 러시아 우크라이나 자포리자 공격, 최소 3명 사망 5 해경, 진도군 도서지역 골절 환자 '병원 이송' 6 '뿌리면 옷이 된다' 파리패션위크 화제의 드레스 7 화천서 SUV 차량 전복…2명 부상 8 [지진 속보] 北, 함경북도 길주 39km 지역서 2.4 규모 지진 발생 하단영역 하단메뉴 매체소개 기사제보 광고문의 콘텐츠 판매 이용약관 개인정보처리방침 청소년보호정책 저작권보호정책 이메일무단수집거부 제휴사 매체정보 주소 : 서울특별시 송파구 동남로 103 (청송빌딩) 2층 국제뉴스 본사 정부인가번호 : 문화 나-00021호 등록일 : 2012-04-02 부가통신사업신고번호 : 제 2-01-22-0051 호 발행일 : 2011-11-16 대표전화 : 02-2281-5005 팩스 : 02-6455-5003 청소년보호책임자 : 김택수 법인명 : 국제뉴스 제호 : 국제뉴스 발행·편집인 : 김영규 국제뉴스의 모든 콘텐츠(영상,기사, 사진)는 저작권법의 보호를 받는 바, 무단 전재와 복사, 배포 등을 금합니다. Copyright © 2022 국제뉴스. All rights reserved. mail to webmaster@gukjenews.com 위로 전체메뉴 전체기사 정치 전체 정치 대통령실 외교 국방 종합 청와대 경제 전체 경제일반 산업/기업 부동산 종합 사회 전체 사회일반 사건/사고 오피니언·피플 단독 종합 소방 경찰 문화 전체 문화 영화/공연 여행 연예 전체 연예 종합 스포츠 전체 국내스포츠 종합 국제 전체 World News 종합 해외경제 전쟁/난민 테러/시위 전국 전체 서울 경기남부 인천 강원 충남 대전 충북 세종 전북 광주 전남 경남 대구 경북 울산 부산 제주 종합 경기북부 포토 전체 종합 핫 포토 라이프·헬스 소셜 / sns 영상 세계 전체 Korea News 해외스포츠 미분류 자동차(x) 전체 종합 전체메뉴닫기</t>
+  </si>
+  <si>
+    <t>황금연휴 첫날, 제주도 주요 관광지 '북적' - 컨슈머타임스(Consumertimes) × 전체기사 파이낸셜컨슈머 전체 은행 증권 보험 카드 기타 Wealth 컨슈머 STOCK 타임스 산업 전체 건설부동산 IT 유통 식음료 자동차 기타 라이프 뉴스 전체 정치·사회 스포츠 연예·문화 기타 MZ컨슈머 오피니언 전체 김경한의 세상이야기 김재훈의 늦었슈 기자수첩 채삼석의 컨슈머톡 이길상의 맛있는 와인 글로벌 컨슈머 사람들 전체 컨슈머타임스 초대석 CEO 인사 부고 컨슈머리뷰 전체 컨슈머리뷰 컨슈머서재 전국 UPDATED. 2022-10-11 14:46 (화) 홈 로그인 회원가입 기사제보 기사검색 검색 뉴스 전체 정치·사회 스포츠 연예·문화 MZ컨슈머 기타 파이낸셜컨슈머 전체 은행 증권 보험 카드 기타 Wealth 컨슈머 STOCK 잇슈 산업 전체 건설부동산 IT 유통 식음료 자동차 라이프 기타 컨슈머리뷰 전체 컨슈머리뷰 컨슈머서재 오피니언 전체 김경한의 세상이야기 기자수첩 글로벌 컨슈머 사람들 전체 컨슈머타임스 초대석 CEO 인사 부고 전국 이전 다음 황금연휴 첫날, 제주도 주요 관광지 '북적' 페이스북 트위터 카카오스토리 URL복사 기사공유하기 상태바 HOME 뉴스 기타 황금연휴 첫날, 제주도 주요 관광지 '북적' 이화연 기자 hylee@cstimes.com 기사출고 2020년 04월 30일 18시 04분 댓글 0 페이스북 트위터 카카오스토리 URL복사 기사공유하기 프린트 메일보내기 글씨키우기 이 기사를 공유합니다 페이스북 트위터 카카오스토리 URL복사 × [컨슈머타임스 이화연 기자] 황금연휴 첫날 제주공항과 해변 등 주요 관광지는 관광객들로 인산인해를 이뤘다. 제주관광협회에 따르면 연휴 전날인 29일 이미 3만6587이 제주로 왔고 연휴 첫날인 30일엔 4만500여명이 입도한다. 협회는 29일부터 어린이날인 내달 5일까지 이어지는 황금연휴 기간 18만여명 이상의 내국인 관광객이 제주를 찾을 것으로 예상했다. 코로나19 여파로 해외여행이 불가능해지자 제주로 여행수요가 몰린 영향이다. 이날 함덕, 곽지, 월정, 중문, 김녕 등 주요 해변은 관광객으로 붐볐다. 카페가 밀집한 한담 해변과 월정 해변 일대는 차량 정체가 빚어질 정도였다. 성산일출봉과 중문관광단지 등 주요 관광지에도 관광객들의 발길이 끊이지 않았다. 한라산국립공원과 곳곳의 오름, 숲길에도 탐방 행렬이 이어졌다. 도 방역당국은 특별 입도 절차를 통해 제주를 찾는 모든 방문객에 대한 발열과 증상 여부 대한 검사를 하는 등 방역 태세를 강화하고 있다. 저작권자 © 컨슈머타임스(Consumertimes) 무단전재 및 재배포 금지 이화연 기자 다른기사 보기 페이스북 트위터 카카오스토리 URL복사 기사공유하기 댓글삭제 삭제한 댓글은 다시 복구할 수 없습니다. 그래도 삭제하시겠습니까? 비밀번호 삭제 × 댓글 0 댓글입력 로그인 이름 비밀번호 내용 0 / 400 등록 댓글쓰기 계정을 선택하시면 로그인·계정인증을 통해 댓글을 남기실 수 있습니다. 회원 로그인 비회원 글쓰기 이름 비밀번호 자동등록방지 확인 × 투데이포토 신규 확진자 1만5476명…위중증 313명‧사망 10명 신규 확진자 1만5476명…위중증 313명‧사망 10명 2022.10.11 선우은숙, 4살 연하 아나운서 유영재와 재혼 선우은숙, 4살 연하 아나운서 유영재와 재혼 2022.10.11 트렌드 코리아 2023 트렌드 코리아 2023 2022.10.11 이디야커피, '2022 E-드림 프로모션' 3차 진행 이디야커피, '2022 E-드림 프로모션' 3차 진행 2022.10.11 박원석, 글리치 출연…전여빈·나나와 호흡 박원석, 글리치 출연…전여빈·나나와 호흡 2022.10.11 임한별, 18일 이별송으로 컴백 임한별, 18일 이별송으로 컴백 2022.10.11 다즈비, 국내 정식 데뷔…시티팝 감성 '밤비' 발매 다즈비, 국내 정식 데뷔…시티팝 감성 '밤비' 발매 2022.10.11 스테이씨, 데뷔 첫 팬미팅 성료…"사랑 느꼈던 시간" 스테이씨, 데뷔 첫 팬미팅 성료…"사랑 느꼈던 시간" 2022.10.11 IBK기업은행, 2021 LACP 비전 어워즈 대상 수상 IBK기업은행, 2021 LACP 비전 어워즈 대상 수상 2022.10.11 화순군 ,'밖으로 나온 도서관' 축제 개최 화순군 ,'밖으로 나온 도서관' 축제 개최 2022.10.11 섹션별 인기기사 종합 파이낸셜 컨슈머 산업 1 [MZ컨슈머] 가을패션의 정석 '니트'가 돌아왔다 [MZ컨슈머] 가을패션의 정석 '니트'가 돌아왔다 2 '역사상 최장수 미국 대통령' 지미 카터 98세 생일 맞아 '역사상 최장수 미국 대통령' 지미 카터 98세 생일 맞아 3 인도네시아 축구장서 팬들 난동…인파 깔리며 최소 127명 사망 인도네시아 축구장서 팬들 난동…인파 깔리며 최소 127명 사망 4 [MZ 컨슈머] 가을 패션 제안 '프레피룩'은 어때? [MZ 컨슈머] 가을 패션 제안 '프레피룩'은 어때? 5 빈첸, 20일 신곡 '향기' 발매…"색다른 모습 보여줄 것" 빈첸, 20일 신곡 '향기' 발매…"색다른 모습 보여줄 것" 1 삼성페이 아성 무너뜨릴 '애플페이' 연내 상륙 삼성페이 아성 무너뜨릴 '애플페이' 연내 상륙 2 오에스피, 수요예측 경쟁률 1582.84:1…공모가 8400원 확정 오에스피, 수요예측 경쟁률 1582.84:1…공모가 8400원 확정 3 한일사료, 나홀로 주가 '쑥' 한일사료, 나홀로 주가 '쑥' 4 KB헬스케어, 솔티드와 바른 자세 코칭 서비스 공동 개발 업무협약 KB헬스케어, 솔티드와 바른 자세 코칭 서비스 공동 개발 업무협약 5 엔젯, 증권신고서 제출…11월 코스닥 상장 목표 엔젯, 증권신고서 제출…11월 코스닥 상장 목표 1 롯데칠성, '처음처럼 새로'로 소주시장 승부수 롯데칠성, '처음처럼 새로'로 소주시장 승부수 2 삼성물산, 흑석2구역 무혈입성 눈앞…다음 행보는 삼성물산, 흑석2구역 무혈입성 눈앞…다음 행보는 3 시멘트값 기습 인상…레미콘‧건설사 셧다운 후폭풍 시멘트값 기습 인상…레미콘‧건설사 셧다운 후폭풍 4 내연기관과 전기차 사이 '하이브리드'가 이어줄까 내연기관과 전기차 사이 '하이브리드'가 이어줄까 5 또 가격 오른 테슬라, 성능·서비스 개선은 '제자리' 또 가격 오른 테슬라, 성능·서비스 개선은 '제자리' 포토뉴스 신규 확진자 1만5476명…위중증 313명‧사망 10명 선우은숙, 4살 연하 아나운서 유영재와 재혼 트렌드 코리아 2023 이디야커피, '2022 E-드림 프로모션' 3차 진행 신규 확진자 1만5476명…위중증 313명‧사망 10명 선우은숙, 4살 연하 아나운서 유영재와 재혼 트렌드 코리아 2023 이디야커피, '2022 E-드림 프로모션' 3차 진행 사람들 1 오에스피, 수요예측 경쟁률 1582.84:1…공모가 8400원 확정 오에스피, 수요예측 경쟁률 1582.84:1…공모가 8400원 확정 2 소진공 박성효 이사장 "전통시장은 디지털 혁신 중"…'전국우수시장박람회' 개막식 참석 소진공 박성효 이사장 "전통시장은 디지털 혁신 중"…'전국우수시장박람회' 개막식 참석 3 산림복지진흥원 국립대전숲체원 "고령화 시대 맞춰 지역 노인 복지 활성화 앞장" 산림복지진흥원 국립대전숲체원 "고령화 시대 맞춰 지역 노인 복지 활성화 앞장" 4 인천경제청, '송도국제도시 바람의 연 축제' 송도달빛축제공원서 개최 인천경제청, '송도국제도시 바람의 연 축제' 송도달빛축제공원서 개최 5 "제주도 갈 바에 일본 가지"…소비자 발길 돌린 이유는? "제주도 갈 바에 일본 가지"…소비자 발길 돌린 이유는? 6 '역사상 최장수 미국 대통령' 지미 카터 98세 생일 맞아 '역사상 최장수 미국 대통령' 지미 카터 98세 생일 맞아 7 전기차 열풍, 타이어 시장까지 영향 미칠까 전기차 열풍, 타이어 시장까지 영향 미칠까 8 7%까지 치솟은 기업대출 금리…중소기업 줄도산 위기 7%까지 치솟은 기업대출 금리…중소기업 줄도산 위기 CEO 김인규 하이트진로 대표 "또 다른 100년 위해 ESG 경영 나설 것" 구자은 LS 회장 "GCC와 쌓은 전력인프라, 미래사업 파트너 이어갈 것" 김웅기 글로벌세아 회장, '세계 200대 미술품 컬렉터' 선정 구자은 회장 "LS MnM으로 새출발 니꼬동제련, 그룹 내 영향력 높일 것" 인사 [인사] 한국마사회 클리오라이프케어, 윤성훈 대표이사 신규선임 [인사] 월요신문 네슬레코리아, 토마스 카소 신임 대표 임명 부고 [부고] 장용준(이베스트투자증권 IB금융3팀 이사)씨 모친상 [부고] 심혁(NH투자증권 강남금융센터 WM2 센터장)씨 부친상 매체소개 기사제보 광고문의 불편신고 개인정보취급방침 청소년보호정책 이메일무단수집거부 RSS 제호 : 컨슈머타임스(Consumertimes) 등록번호 : 서울 아 00708 대표전화 : 02-723-6622 팩스 : 02-723-8383 청소년보호책임자 : 곽수지 등록일 : 2008년 11월 17일 발행일 : 2009년 3월 10일 발행·편집인 : 김경한 서울특별시 성동구 성수일로 77, 1405호(성수동1가, 서울숲삼성IT밸리) 컨슈머타임스(Consumertimes) 모든 콘텐츠(영상,기사, 사진)는 저작권법의 보호를 받는 바, 무단 전재와 복사, 배포 등을 금합니다. Copyright © 2022 컨슈머타임스(Consumertimes). All rights reserved. mail to admin@cstimes.com 위로</t>
+  </si>
+  <si>
+    <t>제주도의회, 코로나19 고용 사각 ‘관광안내사’ 실태 점검 - 파이낸셜뉴스 메뉴 펼치기 기사 검색 검색 취소 검색 파이낸셜뉴스닫기 검색 경제 정치 사회 IT 국제 라이프 기자ON 사설 칼럼 fnSURVEY 구독신청 광고/제휴문의 네이버 MY뉴스 설정 부산파이낸셜뉴스 블록포스트 가이드포스트 fn아이포커스 파이낸셜뉴스재팬 fnMICE fn이노에듀 fn투어 파이낸셜뉴스 사회 이벤트메뉴 경제 금융 증권 부동산 산업 경제 일반 정치 청와대 국회·정당 북한 외교·국방 사회 사건·사고 검찰·법원 행정·지자체 교육 IT 통신·방송 게임 인터넷 블록체인 의학·과학 국제 국제경제 국제정치 국제사회 라이프 생활경제 연예 스포츠 푸드·리빙 레저·문화 Special 기자ON 파인애플 fnSurvey 검색 경제 금융 증권 부동산 산업 경제 일반 정치 청와대 국회·정당 북한 외교·국방 사회 사건·사고 검찰·법원 행정·지자체 교육 IT 통신·방송 게임 인터넷 블록체인 의학·과학 국제 국제경제 국제정치 국제사회 라이프 생활경제 연예 스포츠 푸드·리빙 레저·문화 Special 기자ON 파인애플 fnSurvey fn특별기획 검색 사회 &gt; 제주도의회, 코로나19 고용 사각 ‘관광안내사’ 실태 점검 파이낸셜뉴스입력 2020.04.30 09:53수정 2020.04.30 09:53 페이스북 공유하기 트위터 공유하기 블로그 공유하기 카카오톡 공유하기 파인애플 페이지 URL 복사하기 인쇄 글자 작게 글자 크게 페이스북 공유하기 트위터 공유하기 블로그 공유하기 카카오톡 공유하기 파인애플 페이지 URL 복사하기 문화관광체육위, 관광안내사 고용실태 의견 청취를 위한 간담회 가져 관광안내사 고용실태 의견 청취를 위한 간담회 [제주=좌승훈 기자] 코로나19 사태 장기화로 고용위기에 처한 제주도내 관광안내사들이 제주도의회에 고용 안정을 위한 제도 개선을 요구했다. 제주도의회 문화관광체육위원회(위원장 이경용, 미래통합당·서귀포시 서홍·대륜동)는 지난 28일 도의회 소회의실에서 관광안내사(관광통역안내원·국내여행안내사)들이 참석한 가운데 고용실태 의견청취를 위한 간담회를 가졌다. 국내여행안내사협회(회장 김향선) 임원들은 이날 지역고용대응 특별지원사업이 진행 중이지만 근무증빙자료 마련이 쉽지 않아 신청에 어려움을 겪고 있다고 토로했다. 아울러 고용안정을 위한 고용·산재보험 가업을 위한 제도 마련과 함께 보수교육 의무화, 로컬가이드제 도입, 무자격 가이드 단속 강화 등의 개선 방안 마련을 위한 의견도 개진했다. 이경용 위원장은 “코로나19는 관광·여행업계부터 덮쳤다”며 “도의회와 제주도, 관광업계가 머리를 맞대 관광안내사의 고용실태조사와 고용안정화 개선방안 마련하고, 제주관광시장 구조개선 등 관광종사자들의 고용 여건 개선을 위한 노력에 나서야 한다”고 밝혔다. 김향선 국내여행안내사협회장 이경용 제주도의회 문화관광체육위원장 한편 코로나19 팬데믹(세계적 대유행)에 도시 봉쇄와 같은 강력한 이동 제한 조치와 사회적 거리두기 운동이 확산되면서 항공·여행사업·숙박업계가 실업대란 위기에 직면한 가운데 제주도는 고용 사각지대 종사자들을 위한 특별지원사업에 지역특성을 반영해 관광가이드를 지원 대상에 포함시켰다. jpen21@fnnews.com 좌승훈 기자 ※ 저작권자 ⓒ 파이낸셜뉴스, 무단전재-재배포 금지 fn 회사소개 광고/제휴문의 개인정보취급방침 저작권규약 이메일주소무단수집거부 구독신청 고충처리 rss 사이트맵 주소: 서울 서초구 강남대로 315 Tel. 02-2003-7114 인터넷신문 등록번호: 서울 아04510 등록일자: 2017.05.08 회장: 전재호 부회장·발행인: 전선익 사장·인쇄인·편집인: 변동식 편집국장: 양형욱 청소년보호정책(책임자:이대율) Copyright ⓒ파이낸셜뉴스. All rights reserved. 회사소개 지면보기 사이트맵 Copyright ⓒ파이낸셜뉴스. All rights reserved.</t>
+  </si>
+  <si>
+    <t>“돌하르방도 마스크” 관광객 몰려드는 제주도의 호소 Internet Explorer 지원 종료 안내 사용 중이신 인터넷 익스플로러(Internet Explorer)에서는 일부 기능 사용에 제한이 발생할 수 있습니다.크롬(Google Chrome), 엣지(Microsoft Edge) 등 최신 브라우저에 최적화되어 있습니다. 오늘 하루 열지 않기 메뉴 바로가기 본문 바로가기 푸터 바로가기 KBS NEWS 제보 ON AIR 재난포털 로그인 마이페이지 유튜브 페이스북 인스타그램 kbs 찾기 전체메뉴 분야별 뉴스9 TV뉴스 디지털K 스포츠 시사다큐 지역뉴스 어떤 기사를 찾으시나요? 뉴스 검색 검색어 입력 검색 버튼 많이 본 뉴스 동영상 - 검색창 숨기기 분야별 분야별- 대분류타이틀 전체 정치 경제 사회 문화 IT·과학 국제 생활·건강 스포츠 연예 날씨 특보 이슈 TV뉴스 1TV 뉴스 06:00 뉴스광장 1부 07:00 뉴스광장 2부 09:30 930뉴스 12:00 뉴스 12 14:00 뉴스 2 16:00 사사건건 17:00 뉴스 5 19:00 뉴스 7 21:00 뉴스 9 23:30 뉴스라인 2TV 뉴스 09:00 아침뉴스타임 10:40 지구촌뉴스 15:00 뉴스타임 17:50 통합뉴스룸ET 1TV 경인 뉴스광장(경인) 930 뉴스(경인) 뉴스7(경인) 뉴스9(경인) 디지털K 취재K 취재후·사건후 여심야심 데이터룸 팩트체크K 탐사K 스포츠K 글로벌K 특파원 리포트 세계는 지금 영상K 현장영상 속보영상 친절한뉴스K 기타 제대로 보겠습니다 크랩 용감한라이브 속고살지마 News Today(영어뉴스) 시사·다큐 시사 시사기획 창 일요진단 라이브 남북의 창 시사멘터리 추적 특파원 보고 세계는 지금 재난방송센터 인사이드 경인 라디오 최경영의 최강시사 주진우 라이브 최영일의 시사본부 성공예감 김방희입니다 지역뉴스 지역별- 대분류 부산 울산 창원 진주 대구 안동 포항 광주 목포 지역별- 대분류 순천 전주 대전 청주 충주 춘천 강릉 원주 제주 바로가기 바로가기 메뉴 좋아요 클립 제보 재난포털 ON AIR 뉴스 아카이브 정치합시다 글로벌 돋보기 경제한방 2022 지방선거 질문하는 기자들Q 2022 대통령선거 2022 베이징올림픽 2022 베이징패럴림픽 2020 도쿄올림픽 2020 도쿄패럴림픽 4·7 재보궐선거 저널리즘 토크쇼 J 박광식의 건강 365 한국언론 오도독 GO현장 고봉순 여의도 책방 2020 총선 2019 북미정상회담 3.1운동 100년 2018 남북정상회담 2018 북미정상회담 6.13 지방선거 러시아 월드컵 [특집] 평창동계올림픽 [특집] 평창동계패럴림픽 지진대피요령 뉴스 검색 검색어 입력 검색 버튼 기사 본문 영역 상세페이지 이슈 ‘코로나19’ 팬데믹 “돌하르방도 마스크” 관광객 몰려드는 제주도의 호소 입력 2020.04.27 (19:27) 수정 2020.04.27 (19:27) 취재K 댓글 좋아요 공유하기 인쇄하기 글씨 크게보기 가 글씨 작게보기 제주 애월읍 하귀일초등학교 정문 돌하르방 동상에 ‘마스크 착용’ [하귀일초등학교 제공] 고화질 표준화질 자동재생 키보드 컨트롤 안내 동영상영역 시작 동영상 시작 동영상영역 끝 동영상설명 동영상 고정 취소 부처님오신날을 하루 앞둔 오는 29일부터 어린이날인 5월 5일까지 이어지는 황금연휴 기간에 제주를 찾는 관광객이 18만 명을 웃돌 것으로 예상되면서 제주도가 긴장의 끈을 바짝 조이고 있습니다.코로나19 지역감염과 집단감염에 대한 우려 때문입니다.제주도는 제주 상징물인 돌하르방에도 마스크를 씌우는 등 만반의 특별방역체계 구축에 나섰는데, 항공기 탑승 전부터 시작해 렌터카, 대중교통, 관광지, 숙박업소까지 방역을 철저히 하고, 관광객들에게 방역 수칙 준수와 사회적 거리두기 실천을 부탁하고 있습니다.황금연휴 기간 관광객 18만 명 제주로…부처님오신날 '변곡점'오는 30일 부처님오신날을 시작으로 다음 달 1일 노동절과 주말을 거쳐 월요일에 휴가를 내면 어린이날까지, 최장 6일에 달하는 연휴가 이어집니다. 이에 따라 29일 오후부터 제주로 향하는 발길이 부쩍 늘어날 것으로 예상되고 있는데요.제주도에 따르면 부처님오신날 전날인 29일부터 다음 달 5일까지 7일 동안 제주를 찾을 것으로 추정되는 관광객 수는 약 18만 명입니다.이는 지난해 같은 기간 31만 5천여 명에 비하면 43% 감소한 수치이지만, 황금연휴가 본격 시작되는 오는 30일 제주 방문 예상 관광객이 3만 명을 넘기며 코로나19 확산에 중요한 변곡점이 될 것으로 전망되고 있습니다.코로나19 여파로 1만 원대까지 떨어졌던 제주행 항공권 가격은 황금연휴 동안 10만 원을 훌쩍 넘겼으며, 항공사들은 특별기까지 투입해 관광객들을 실어나르기로 했습니다."마스크 착용·2ｍ 간격·방명록 작성 지켜주세요!"제주도가 급기야 황금연휴 대비 실행 계획을 마련했습니다.먼저 제주도는 황금연휴 동안 '관광 비상 상황실'을 운영하면서 관광 유관기관 비상연락 및 협조체계를 유지하기로 했습니다.특히 관계기관 홈페이지와 사회관계망서비스(SNS)를 통해 마스크 사용 등을 철저히 해달라는 '청정 안전관광 제주 홍보글'을 게시하겠다는 계획입니다.또 오늘(27일)부터 내일까지 제주도 내 관광숙박업(419곳)과 휴양펜션업(106곳), 유원시설업(73곳), 이용시설업(97곳), 관광 식당업(170곳), 카지노(8곳) 등 관광사업체 873곳에 대해 방역 특별 지도점검을 진행하고 있습니다.이를 통해 관광지별 방역관리자를 지정하고, 관광객 마스크 착용 의무화, 방문객 2ｍ 간격 유지, 사후 관리를 대비한 방명록 작성 등을 유도하고 있으며, 유증상자 발생 시 반드시 격리 조치 후 보건당국에 즉시 신고하도록 협조를 요청했습니다.아울러 실내관광지 180여 곳에 발열체크기를 배부해 방문객에 대한 발열 체크를 하도록 지도했으며, 손 소독제와 소독약품 등 방역물품도 배부했습니다.또 사회적 거리두기 동참을 유도하기 위해 오는 29일부터 안전한 제주관광 즐기기 캠페인도 병행하고, 관광지 곳곳에 위생수칙 안내 현수막을 설치하는 한편 돌하르방에까지 마스크를 씌워 안전 관광 분위기를 조성한다는 계획입니다."해외여행이력자·37.3도 발열자, 공항 '워킹 스루' 거쳐야"코로나19 확산 예방은 제주행 항공기에 탑승하기 전부터 진행됩니다. 제주도는 코로나19 지역사회 유입 방지를 위해 모든 국내선 항공사에 협조를 얻어 항공기 예약 승객 전체에게 개인위생 수칙 준수 등을 담은 사전 메시지를 보내줄 것을 요청한 상탭니다.또 기내방송을 통해 '제주도 특별입도절차'를 설명해 달라고 요청했는데, 반드시 지정된 좌석에 착석할 것과 최근 14일 이내 해외여행 이력이 있는 방문자는 제주공항 '워킹 스루'에서 진단검사를 받아야 한다는 내용이 담겼습니다.제주공항에 도착하면 해외여행이력자는 공항 내 워킹 스루 선별진료소에서 검체채취와 격리를 지원하는 원스톱 관리를 받게 되며, 공항 내 열화상 카메라를 이용한 발열 검사 결과 체온이 37.3도 이상일 경우 건강기초 조사서를 작성한 뒤 의사 문진에 따라 검체 검사를 받아야 합니다.제주도는 연휴를 맞아 이상 온도 기준을 기존 37.5도에서 37.3도로 강화했는데, 모든 방문자를 1대1 수준으로 발열 감시할 수 있도록 시스템을 정밀화하는 등 더 높은 수준의 방역 체제를 구축하겠다는 계획입니다.원희룡 제주도지사는 "검역절차가 강화된 특별입도절차에 따라 모든 입도객은 국경을 넘는다는 마음가짐으로 임해야 한다"며 "제주는 70만 도민의 터전인 만큼 성숙한 시민 의식으로 방역 절차에 적극적으로 협조해달라"고 요청했습니다.한편 제주항공의 경우 황금연휴에 제주행 모든 국내선 탑승객에 대해 항공편 탑승구에서부터 발열 검사를 하기로 했는데, 발열 검사 결과 체온이 37.5도 이상일 경우 항공기에 탑승할 수 없습니다. 제주항공 측은 발열 검사로 탑승 수속 시간이 평소보다 길어질 수 있다며 탑승객들에게 서둘러 공항으로 출발해 달라고 요청했습니다."렌터카 이용자, 방역 지침 이행 서약서 써야!"제주도는 교통 분야에 대해서는 특별방역을 추진하고 있습니다. 렌터카 이용자를 대상으로 방역 지침 이행 서약서를 받는 건데, 서약서에는 마스크 착용 의무화와 의심증상시 신속한 연락과 동선 기록에 대한 협조 내용 등이 담겼습니다.이용자의 서명이 담긴 서약서를 렌터카 업체가 2주 동안 보관하도록 함으로써 향후 역학 조사가 필요한 경우 신속한 동선 파악에 활용할 계획입니다.또 '뚜벅이' 관광객들을 위해 대중교통현장 특별점검반이 터미널과 주요 정류장 등에 대한 현장 점검도 벌일 계획입니다. 이와 함께 버스 내에서는 안내 방송을 지속적으로 해 마스크 착용 의무화를 유도할 예정입니다.각 운수업체와 택시조합을 통해 택시 내 방역 빈도를 높이도록 하고, 마스크 착용에 대한 점검도 강화해 강도 높은 긴장감을 유지하도록 할 방침입니다.제주도는 도내 버스와 택시 운수종사자 7천1백여 명에게 마스크를 배부해 운행 시 반드시 착용하고, 차량 내에 손 소독제를 비치해 승객들이 수시로 이용할 수 있도록 했습니다.문경진 제주도 교통항공국장은 "황금연휴가 최대 분수령이 될 것으로 예상됨에 따라 버스, 택시 등 대중교통에서 한층 강화된 방역과 예방 활동을 병행할 예정"이라며 "그동안의 노력이 물거품이 되지 않도록 제주를 찾는 모든 분의 자발적인 협조를 부탁한다"고 힘주어 말했습니다."게스트하우스 '사회적 거리두기' 지켜주세요"제주도는 일부 게스트하우스에서 파티 등을 이유로 사회적 거리두기가 지켜지지 않은 것에 대해 적극적으로 대응한다는 방침입니다.일부 업소에서 투숙객들과의 교류를 핑계로 사회적 거리두기를 지키지 않은 사례가 있어 황금연휴를 앞두고 예상수칙을 재홍보하겠다는 겁니다.제주도는 오늘과 내일 제주지역 43개 읍면동에 있는 농어촌민박 4천3백여 개에 대해 고강도 사회적 거리두기 특별 점검에 나섰는데, 제주도 자지경찰단도 함께 하고 있습니다.시설 내 방문객과 악수 금지 등 접촉을 최소화하는 사회적 거리 두기 준수와 손 세정제 등 방역 물품 비치 사항에 대한 점검이 주된 내용입니다.전병화 제주도 농축산식품국장은 "이번 점검을 통해 사회적 거리두기 실천을 강력히 권고하는 한편, 미준수 업소에 대해서는 특단의 조처를 할 예정"이라며 "게스트하우스 등 농어촌민박을 운영하는 관계자분들이 사회적 거리두기에 적극적으로 동참해달라"고 호소했습니다.원희룡 "증상 숨기면 모든 민·형사상 책임 묻겠다"제주에서는 그동안 지역사회 전파가 없어 코로나19 청정 지역으로 손꼽혀왔는데요.오늘 오후 6시 현재까지 제주에서 발생한 코로나19 확진자 13명 중 12명이 모두 제주도 밖에서 감염돼 제주에 온 사례로, '2차 감염'은 가족 간에 옮은 단 1명뿐이었습니다.청정 제주 사수를 위해 제주여행을 자제해달라며 대국민 호소까지 한 원희룡 제주도지사는 "여행 중 예상치 못하게 발열이나 기침 등 조금이라도 미미한 증세가 나타나는 경우에는 즉시 신고해야 한다"며 "증상을 숨기는 경우에는 모든 민·형사상 책임을 철저히 묻겠다"고 강경한 자세를 보였습니다.국내 코로나19 신규 확진자는 10명 안팎으로 줄어들고, 제주는 열흘 넘게 신규 확진자가 나타나지 않고 있습니다. 확산세가 한풀 꺾이긴 했지만, 방심은 금물입니다. 방역지침을 지키지 않는 순간 언제든 지역 전파가 일어날 수 있는 불씨는 남아있습니다.배종면 제주도 감염병관리지원단장은 "아직도 얼마든지 집단으로 폭발할 가능성이 있다"며 "늘 사회적 거리두기를 해서 감염이 되지 않도록 하는 게 최선"이라고 강조했습니다.아직 끝나지 않은 코로나19, 방역 수칙 준수와 사회적 거리두기 실천이 무엇보다 필요한 때입니다. ▶ ‘ 코로나19 확산 우려’ 최신 기사 보기http://news.kbs.co.kr/news/list.do?icd=19588 “돌하르방도 마스크” 관광객 몰려드는 제주도의 호소 입력 2020-04-27 19:27:11 수정2020-04-27 19:27:31 취재K 제주 애월읍 하귀일초등학교 정문 돌하르방 동상에 ‘마스크 착용’ [하귀일초등학교 제공] 부처님오신날을 하루 앞둔 오는 29일부터 어린이날인 5월 5일까지 이어지는 황금연휴 기간에 제주를 찾는 관광객이 18만 명을 웃돌 것으로 예상되면서 제주도가 긴장의 끈을 바짝 조이고 있습니다.코로나19 지역감염과 집단감염에 대한 우려 때문입니다.제주도는 제주 상징물인 돌하르방에도 마스크를 씌우는 등 만반의 특별방역체계 구축에 나섰는데, 항공기 탑승 전부터 시작해 렌터카, 대중교통, 관광지, 숙박업소까지 방역을 철저히 하고, 관광객들에게 방역 수칙 준수와 사회적 거리두기 실천을 부탁하고 있습니다.황금연휴 기간 관광객 18만 명 제주로…부처님오신날 '변곡점'오는 30일 부처님오신날을 시작으로 다음 달 1일 노동절과 주말을 거쳐 월요일에 휴가를 내면 어린이날까지, 최장 6일에 달하는 연휴가 이어집니다. 이에 따라 29일 오후부터 제주로 향하는 발길이 부쩍 늘어날 것으로 예상되고 있는데요.제주도에 따르면 부처님오신날 전날인 29일부터 다음 달 5일까지 7일 동안 제주를 찾을 것으로 추정되는 관광객 수는 약 18만 명입니다.이는 지난해 같은 기간 31만 5천여 명에 비하면 43% 감소한 수치이지만, 황금연휴가 본격 시작되는 오는 30일 제주 방문 예상 관광객이 3만 명을 넘기며 코로나19 확산에 중요한 변곡점이 될 것으로 전망되고 있습니다.코로나19 여파로 1만 원대까지 떨어졌던 제주행 항공권 가격은 황금연휴 동안 10만 원을 훌쩍 넘겼으며, 항공사들은 특별기까지 투입해 관광객들을 실어나르기로 했습니다."마스크 착용·2ｍ 간격·방명록 작성 지켜주세요!"제주도가 급기야 황금연휴 대비 실행 계획을 마련했습니다.먼저 제주도는 황금연휴 동안 '관광 비상 상황실'을 운영하면서 관광 유관기관 비상연락 및 협조체계를 유지하기로 했습니다.특히 관계기관 홈페이지와 사회관계망서비스(SNS)를 통해 마스크 사용 등을 철저히 해달라는 '청정 안전관광 제주 홍보글'을 게시하겠다는 계획입니다.또 오늘(27일)부터 내일까지 제주도 내 관광숙박업(419곳)과 휴양펜션업(106곳), 유원시설업(73곳), 이용시설업(97곳), 관광 식당업(170곳), 카지노(8곳) 등 관광사업체 873곳에 대해 방역 특별 지도점검을 진행하고 있습니다.이를 통해 관광지별 방역관리자를 지정하고, 관광객 마스크 착용 의무화, 방문객 2ｍ 간격 유지, 사후 관리를 대비한 방명록 작성 등을 유도하고 있으며, 유증상자 발생 시 반드시 격리 조치 후 보건당국에 즉시 신고하도록 협조를 요청했습니다.아울러 실내관광지 180여 곳에 발열체크기를 배부해 방문객에 대한 발열 체크를 하도록 지도했으며, 손 소독제와 소독약품 등 방역물품도 배부했습니다.또 사회적 거리두기 동참을 유도하기 위해 오는 29일부터 안전한 제주관광 즐기기 캠페인도 병행하고, 관광지 곳곳에 위생수칙 안내 현수막을 설치하는 한편 돌하르방에까지 마스크를 씌워 안전 관광 분위기를 조성한다는 계획입니다."해외여행이력자·37.3도 발열자, 공항 '워킹 스루' 거쳐야"코로나19 확산 예방은 제주행 항공기에 탑승하기 전부터 진행됩니다. 제주도는 코로나19 지역사회 유입 방지를 위해 모든 국내선 항공사에 협조를 얻어 항공기 예약 승객 전체에게 개인위생 수칙 준수 등을 담은 사전 메시지를 보내줄 것을 요청한 상탭니다.또 기내방송을 통해 '제주도 특별입도절차'를 설명해 달라고 요청했는데, 반드시 지정된 좌석에 착석할 것과 최근 14일 이내 해외여행 이력이 있는 방문자는 제주공항 '워킹 스루'에서 진단검사를 받아야 한다는 내용이 담겼습니다.제주공항에 도착하면 해외여행이력자는 공항 내 워킹 스루 선별진료소에서 검체채취와 격리를 지원하는 원스톱 관리를 받게 되며, 공항 내 열화상 카메라를 이용한 발열 검사 결과 체온이 37.3도 이상일 경우 건강기초 조사서를 작성한 뒤 의사 문진에 따라 검체 검사를 받아야 합니다.제주도는 연휴를 맞아 이상 온도 기준을 기존 37.5도에서 37.3도로 강화했는데, 모든 방문자를 1대1 수준으로 발열 감시할 수 있도록 시스템을 정밀화하는 등 더 높은 수준의 방역 체제를 구축하겠다는 계획입니다.원희룡 제주도지사는 "검역절차가 강화된 특별입도절차에 따라 모든 입도객은 국경을 넘는다는 마음가짐으로 임해야 한다"며 "제주는 70만 도민의 터전인 만큼 성숙한 시민 의식으로 방역 절차에 적극적으로 협조해달라"고 요청했습니다.한편 제주항공의 경우 황금연휴에 제주행 모든 국내선 탑승객에 대해 항공편 탑승구에서부터 발열 검사를 하기로 했는데, 발열 검사 결과 체온이 37.5도 이상일 경우 항공기에 탑승할 수 없습니다. 제주항공 측은 발열 검사로 탑승 수속 시간이 평소보다 길어질 수 있다며 탑승객들에게 서둘러 공항으로 출발해 달라고 요청했습니다."렌터카 이용자, 방역 지침 이행 서약서 써야!"제주도는 교통 분야에 대해서는 특별방역을 추진하고 있습니다. 렌터카 이용자를 대상으로 방역 지침 이행 서약서를 받는 건데, 서약서에는 마스크 착용 의무화와 의심증상시 신속한 연락과 동선 기록에 대한 협조 내용 등이 담겼습니다.이용자의 서명이 담긴 서약서를 렌터카 업체가 2주 동안 보관하도록 함으로써 향후 역학 조사가 필요한 경우 신속한 동선 파악에 활용할 계획입니다.또 '뚜벅이' 관광객들을 위해 대중교통현장 특별점검반이 터미널과 주요 정류장 등에 대한 현장 점검도 벌일 계획입니다. 이와 함께 버스 내에서는 안내 방송을 지속적으로 해 마스크 착용 의무화를 유도할 예정입니다.각 운수업체와 택시조합을 통해 택시 내 방역 빈도를 높이도록 하고, 마스크 착용에 대한 점검도 강화해 강도 높은 긴장감을 유지하도록 할 방침입니다.제주도는 도내 버스와 택시 운수종사자 7천1백여 명에게 마스크를 배부해 운행 시 반드시 착용하고, 차량 내에 손 소독제를 비치해 승객들이 수시로 이용할 수 있도록 했습니다.문경진 제주도 교통항공국장은 "황금연휴가 최대 분수령이 될 것으로 예상됨에 따라 버스, 택시 등 대중교통에서 한층 강화된 방역과 예방 활동을 병행할 예정"이라며 "그동안의 노력이 물거품이 되지 않도록 제주를 찾는 모든 분의 자발적인 협조를 부탁한다"고 힘주어 말했습니다."게스트하우스 '사회적 거리두기' 지켜주세요"제주도는 일부 게스트하우스에서 파티 등을 이유로 사회적 거리두기가 지켜지지 않은 것에 대해 적극적으로 대응한다는 방침입니다.일부 업소에서 투숙객들과의 교류를 핑계로 사회적 거리두기를 지키지 않은 사례가 있어 황금연휴를 앞두고 예상수칙을 재홍보하겠다는 겁니다.제주도는 오늘과 내일 제주지역 43개 읍면동에 있는 농어촌민박 4천3백여 개에 대해 고강도 사회적 거리두기 특별 점검에 나섰는데, 제주도 자지경찰단도 함께 하고 있습니다.시설 내 방문객과 악수 금지 등 접촉을 최소화하는 사회적 거리 두기 준수와 손 세정제 등 방역 물품 비치 사항에 대한 점검이 주된 내용입니다.전병화 제주도 농축산식품국장은 "이번 점검을 통해 사회적 거리두기 실천을 강력히 권고하는 한편, 미준수 업소에 대해서는 특단의 조처를 할 예정"이라며 "게스트하우스 등 농어촌민박을 운영하는 관계자분들이 사회적 거리두기에 적극적으로 동참해달라"고 호소했습니다.원희룡 "증상 숨기면 모든 민·형사상 책임 묻겠다"제주에서는 그동안 지역사회 전파가 없어 코로나19 청정 지역으로 손꼽혀왔는데요.오늘 오후 6시 현재까지 제주에서 발생한 코로나19 확진자 13명 중 12명이 모두 제주도 밖에서 감염돼 제주에 온 사례로, '2차 감염'은 가족 간에 옮은 단 1명뿐이었습니다.청정 제주 사수를 위해 제주여행을 자제해달라며 대국민 호소까지 한 원희룡 제주도지사는 "여행 중 예상치 못하게 발열이나 기침 등 조금이라도 미미한 증세가 나타나는 경우에는 즉시 신고해야 한다"며 "증상을 숨기는 경우에는 모든 민·형사상 책임을 철저히 묻겠다"고 강경한 자세를 보였습니다.국내 코로나19 신규 확진자는 10명 안팎으로 줄어들고, 제주는 열흘 넘게 신규 확진자가 나타나지 않고 있습니다. 확산세가 한풀 꺾이긴 했지만, 방심은 금물입니다. 방역지침을 지키지 않는 순간 언제든 지역 전파가 일어날 수 있는 불씨는 남아있습니다.배종면 제주도 감염병관리지원단장은 "아직도 얼마든지 집단으로 폭발할 가능성이 있다"며 "늘 사회적 거리두기를 해서 감염이 되지 않도록 하는 게 최선"이라고 강조했습니다.아직 끝나지 않은 코로나19, 방역 수칙 준수와 사회적 거리두기 실천이 무엇보다 필요한 때입니다. ▶ ‘ 코로나19 확산 우려’ 최신 기사 보기http://news.kbs.co.kr/news/list.do?icd=19588 ■ 제보하기 ▷ 카카오톡 : 'KBS제보' 검색 ▷ 전화 : 02-781-1234 ▷ 이메일 : kbs1234@kbs.co.kr ▷ 뉴스홈페이지 : https://goo.gl/4bWbkG 기자 정보 안서연 기자 asy0104@kbs.co.kr 안서연 기자의 기사 모음 댓글 좋아요 공유하기 ‘코로나19’ 팬데믹 동영상 신규확진 1만 명대…오늘부터 개량백신 접종 시작 경기 4399명 신규 확진…하루 전보다 1766명 증가 신규 확진 1만 5,476명…사망 10명, 석달 만에 ‘최저’ 동영상 오늘부터 무비자 일본 관광…항공 등 예약 급증 더보기 오늘의 HOT클릭! 동영상 Ai pick 맞춤 뉴스 8개 더보기 이 시각 헤드라인 배너 많이 본 뉴스 푸터영역 KBS소개 주소/연락처 수신료 채용 About KBS KBS소개 시청자권익센터 사이버 감사실 광고 이용약관 법적고지 개인정보처리방침 KBS N 채널 KBS Drama KBS W KBS Kids KBS N Sports KBS Joy KBS N 채널 KBS WORLD Global KBS WORLD KBS WORLD KBS / 07235 서울특별시 영등포구 여의공원로 13(여의도동) / 대표전화 02-781-1000 / 기사배열 책임자, 청소년보호책임자 : 윤상 KBS뉴스 인터넷 서비스 / 서울특별시 마포구 매봉산로 45 KBS미디어센터 / 시청자상담실 02-781-1000 / 등록번호 서울 자00297 (2010년 6월 23일) Copyright © KBS All Rights Reserved.</t>
+  </si>
+  <si>
+    <t>황금연휴, 제주도 관광객 몰린다…렌터카업계 방역 비상 - 이뉴스투데이 × 전체기사 금융 전체 정책·일반 금융공기업 은행 증권 보험 여신 산업 전체 정책·일반 재계 건설·부동산 자동차·항공·철도 조선·해운·철강 에너지·정유·화학 중기·벤처 IT과학 전체 정책·일반 전기·전자 정보통신 게임·방송 소프트웨어·보안 의료·제약 블록체인·암호화폐 스타트업라운지 생활경제 전체 정책·일반 유통소비자 여행레저 뷰티패션 정치사회 전체 정치 사회 국제 윤석열정부 D+@ 문재인정부D+@ 기획 전체 소문e답 신상e후 솔Car말 e분양 주말e여행 주말e영화 신박한 車담 이츠스토리 상권뽀개기 기타 기획 교육문화 전체 교육 문화 연예 스포츠 오피니언 전체 e사람 기자수첩 칼럼 기고 피플 전체 인사 부고 동정 전국 전체 수도권취재본부 경기취재본부 인천취재본부 충청취재본부 충북취재본부 대전세종취재본부 전북취재본부 광주전남취재본부 강원취재본부 대구경북취재본부 부산경남취재본부 기타 포토 이뉴스TV 전체 씨카고 이츠스토리 육갑박살 콕e영상 위클리e뉴스 기타영상 보도자료 최종편집 : 2022-10-11 14:31 (화) 검색어를 입력해주세요. 검색 독서신문·Readersnews 이뉴스TV 에이원뉴스 전체 금융 정책·일반 금융공기업 은행 증권 보험 여신 산업 정책·일반 재계 건설·부동산 자동차·항공·철도 조선·해운·철강 에너지·정유·화학 중기·벤처 IT과학 정책·일반 전기·전자 정보통신 게임·방송 소프트웨어·보안 의료·제약 블록체인·암호화폐 스타트업라운지 생활경제 정책·일반 유통소비자 여행레저 뷰티패션 정치사회 정치 사회 국제 윤석열정부 D+@ 문재인정부D+@ 기획 소문e답 신상e후 솔Car말 e분양 주말e여행 주말e영화 신박한 車담 이츠스토리 상권뽀개기 기타 기획 교육문화 교육 문화 연예 스포츠 오피니언 e사람 기자수첩 칼럼 기고 피플 인사 부고 동정 전국 수도권취재본부 경기취재본부 인천취재본부 충청취재본부 충북취재본부 대전세종취재본부 전북취재본부 광주전남취재본부 강원취재본부 대구경북취재본부 부산경남취재본부 기타 포토 이뉴스TV 씨카고 이츠스토리 육갑박살 콕e영상 위클리e뉴스 기타영상 보도자료 기획 뉴스 영상 이전 다음 황금연휴, 제주도 관광객 몰린다…렌터카업계 방역 비상 페이스북 트위터 카카오톡 URL복사 기사공유하기 상태바 HOME 산업 자동차·항공·철도 헤드라인톱 황금연휴, 제주도 관광객 몰린다…렌터카업계 방역 비상 연휴기간 관광객 약 18만명 제주도 방문 예상 렌터카 업체, 회사별 방역 계획 마련 및 시행 제주도청, 서약서 작성 지침 외 점검 계획 無 윤진웅 기자 승인 2020.04.30 14:51 댓글 0 페이스북 트위터 카카오톡 URL복사 기사공유하기 프린트 메일보내기 글씨키우기 이 기사를 공유합니다 페이스북 트위터 카카오스토리 카카오톡 네이버밴드 네이버블로그 네이버폴라 핀터레스트 URL복사 × 제주시 용담2동의 한 렌터카 업체 주차장. [사진=연합뉴스] [이뉴스투데이 윤진웅 기자] 연휴 기간, 제주도에 관광객들이 대거 몰릴 것으로 예상되는 가운데 제주특별자치도청의 방역 대응이 미흡해 전국을 긴장시키고 있다. 특히, 렌터카업계의 경우 제주도청의 지침에 따라 '방역 지침 이행 서약서'를 작성하고 있지만, 차량 관리가 소홀하다는 지적도 나온다. 제주도청은 연휴 전날까지도 이렇다 할 점검·관리 계획 조차 없었던 것으로 확인됐다. 도청은 업체들에 방역을 전적으로 맡긴 채 책임 회피에만 급급한 모양새다. 30일 제주도관광협회에 따르면 연휴가 시작된 지난 29일 제주 방문객이 코로나19 사태 이후 최다인 3만6587명으로 잠정 집계됐다. 해외여행이 불가능해지면서 관광객들이 제주로 몰렸기 때문이다. 중앙재난안전대책본부(중대본)은 제주도에 이번 연휴 기간에 약 18만명 관광객이 입도할 것으로 보고 있다. 이에 따라 제주공항에서는 발열감지 기준을 37.5℃에서 37.3℃로 하향하는 등 검역을 강화했다. 중대본은 또, 공항 내 도보 이동형 선별진료소에선 기존 해외 입국자뿐 아니라 발열 증상자까지 검사 대상을 확대했다. 여행자·사업주들이 여행경로별 지켜야 할 기본수칙도 마련했다. 특히, 렌터카 업체들이 분주하다. 제주를 찾는 관광객 대부분이 렌터카를 이용하기 때문이다. 이들 업체는 회사별 방역 계획을 마련하고 코로나19 확산 방지를 위해 만전을 기하고 있다. SK렌터카 관계자는 "고객 방문 시 체온 측정을 실시하고 있으며, 세차 시 차량을 소독하고 제주지점과 셔틀 차량에 자체 방역을 시행 중"이라며 "렌터카 이용 고객을 대상으로 지점 데스크에서 방역 지침 서약서를 서명받을 계획"이라고 전했다. 롯데렌터카는 안전관리전담반(TF)을 구성했다. 롯데렌터카 관계자는 "소독용 에탄올을 이용해 차량에 추가 소독을 진행하고 있으며, 전 지점에 손소독제를 배치했다"며 "전 직원 마스크 착용 의무화와 더불어 대응 매뉴얼을 숙지케 했다"고 설명했다. 반면, 제주도청은 이들 업체에 '방역 지침 이행 서약서'를 나눠주는 것이 전부다. 제주도청은 렌터카 업체에 서약서 2부를 작성하고 업체와 고객이 각각 1장씩 나눠 갖도록 권고했다. 서약서에는 '마스크 착용' '관광 중 이상 증상 발생 시 요령' '방명록 작성' 등에 관한 내용이 담겼다. 방역 지침 이행 서약서. 별다른 점검, 관리 계획은 마련되지 않았다. 업체들이 실제로 차량 소독 등 방역을 철저히 하고 있는지에 대해 확인할 길이 없다는 얘기다. 서약서를 받는 행위 자체가 단순히 '보여주기식'에 지나지 않는다는 지적이 나온다. 제주도청 교육정책과 관계자는 "지난 29일 렌터카 업체에 방문해 도 지침을 안내했고, 점검도 하고 있다"면서도 "따로 인원이나 점검 횟수, 날짜 등을 정해놓지는 않은 상태이며, 방역 지침 미이행에 관한 페널티도 없다"고 말했다. 저작권자 © 이뉴스투데이 무단전재 및 재배포 금지 윤진웅 기자 woong@enewstoday.co.kr 다른기사 보기 페이스북 트위터 카카오톡 URL복사 기사공유하기 [[ARTICLEREPLY]] 주요기사 산청군, 주민등록 사실조사 실시... 12월 30일까지 진행 산청군, 주민등록 사실조사 실시... 12월 30일까지 진행 화성시 ‘베트남 하이브리드 시장개척단’, 4300만불 수출상담 성공 화성시 ‘베트남 하이브리드 시장개척단’, 4300만불 수출상담 성공 웰컴저축은행, 정기예금 금리 최고 4.45%로 인상 웰컴저축은행, 정기예금 금리 최고 4.45%로 인상 산청군, 농업소득증대사업 신청·접수 산청군, 농업소득증대사업 신청·접수 토스플레이스, 7인치 터치 디스플레이 단말기 최초 공개 토스플레이스, 7인치 터치 디스플레이 단말기 최초 공개 화성시, ‘2022 화성 반려문화 축제’ 10월 15일 개최 화성시, ‘2022 화성 반려문화 축제’ 10월 15일 개최 댓글삭제 삭제한 댓글은 다시 복구할 수 없습니다. 그래도 삭제하시겠습니까? 비밀번호 삭제 × 댓글 0 댓글입력 로그인 이름 비밀번호 내용 0 / 400 등록 댓글쓰기 비회원 글쓰기 계정인증을 통해 댓글을 남기실 수 있습니다. 비회원 글쓰기 이름 비밀번호 자동등록방지 확인 × 인기뉴스 1김정은, 尹 ‘담대한 구상’ 일축…핵실험 강행 예고 2‘타다 금지법’ 뒤집은 국토부…“타다조차 외면” 3‘킹달러’ 직격탄…철강·해운업계 비상 4방탄소년단 부산 콘서트 특수에 숙박·유통업계도 ‘방긋’ 5[알쓸금융] 왜 1개월 만기 적금은 없을까? 6반도체 생태계 강화 나선 삼성·SK하이닉스…중소 지원해 자생력 키운다 최신뉴스 1산청군, 주민등록 사실조사 실시... 12월 30일까지 진행 2화성시 ‘베트남 하이브리드 시장개척단’, 4300만불 수출상담 성공 3웰컴저축은행, 정기예금 금리 최고 4.45%로 인상 4산청군, 농업소득증대사업 신청·접수 5토스플레이스, 7인치 터치 디스플레이 단말기 최초 공개 매체소개 기사제보 광고문의 불편신고 개인정보취급방침 청소년보호정책 이메일무단수집거부 RSS top 서울특별시 서초구 논현로31길 14 (서울미디어빌딩) 대표전화 : 02-523-8541 팩스 : 02-522-6725 청소년보호책임자 : 김봉연 법인명 : (주)서울미디어그룹 제호 : 이뉴스투데이 등록번호 : 서울 아 00339 등록일 : 2007-03-20 발행일 : 2005-05-23 발행인 : 방재홍 편집인 : 방두철 ⌜열린보도원칙⌟ 당 매체는 독자와 취재원 등 뉴스 이용자의 권리 보장을 위해 반론이나 정정보도, 추후보도를 요청할 수 있는 창구를 열어두고 있음을 알려드립니다. 고충처리인 김봉연 070-4699-7210 tongno@enewstoday.co.kr 이뉴스투데이 모든 콘텐츠(영상,기사, 사진)는 저작권법의 보호를 받는 바, 무단 전재와 복사, 배포 등을 금합니다. Copyright © 2022 이뉴스투데이. All rights reserved. mail to webmaster@enewstoday.co.kr 위로</t>
+  </si>
+  <si>
+    <t>“황금연휴 관광객 쏠린 강원도·제주도 방역관리 강화” - 헬스경향 × 전체기사 뉴스 전체 정책 2020 국정감사 2021 국정감사 2022 국정감사 병원소식 건강강좌 건강정보 전체 건강일반 먹거리건강 한방 헬스신간 산업정보 전체 제약바이오 식품 건강기능식품 의료기기 기타 뷰티 전체 성형 피부미용 클릭! 화장품의 모든 것 카드뉴스 전체 건강일반 반려동물 칼럼 전체 연재칼럼 특별기고 지난 연재 피플 전체 인사 동정 행사 화촉 부음 헬스경향tv 인터뷰 전체 명사의 건강관리 인터뷰 정동수첩 전체 김종수 기자의 먹거리 탐구생활 이보람 기자의 꽃보다 당신 손정은 기자의 약 X-파일 황인태 기자의 똑똑한 의료 전유미 기자의 이슈 바로보기 김치중 기자의 시시비비 김성지 기자의 똑똑한 의료 강인희 기자의 속 보이는 심리학 주혜진 기자의 싼집맛집 신민우 기자의 싼집맛집 최신혜 기자의 당당한 19금 장인선 기자의 싼집맛집 신민우 기자의 정신건강백서 신민우 기자의 불타는 금요일 뜨거운 보건이슈 기획특집 미분류 Multilingual version 전체 健康信息 Thông tin sức khỏe Health 美容信息 Thông tin làm đẹp Beauty 부울경소식 전체 인터뷰 건강·의료 정책 공지사항 한국어 영어 베트남어 중국어 경향신문 스포츠경향 레이디경향 Kpop 플래닛 로그인 회원가입 모바일웹 UPDATED. 2022-10-11 13:50 (화) 기사검색 검색 전체 뉴스 정책 2020 국정감사 2021 국정감사 2022 국정감사 병원소식 건강강좌 건강정보 건강일반 먹거리건강 한방 헬스신간 산업정보 제약바이오 식품 건강기능식품 의료기기 기타 뷰티 성형 피부미용 클릭! 화장품의 모든 것 카드뉴스 건강일반 반려동물 칼럼 연재칼럼 특별기고 지난 연재 사람들 인사 동정 행사 화촉 부음 부울경소식 인터뷰 건강·의료 정책 헬스경향tv Multilingual version 健康信息 Thông tin sức khỏe Health 美容信息 Thông tin làm đẹp Beauty 공지사항 PDF 이전 다음 “황금연휴 관광객 쏠린 강원도·제주도 방역관리 강화” 기사공유하기 프린트 메일보내기 글씨키우기 가나다라마바사 가나다라마바사 가나다라마바사 가나다라마바사 가나다라마바사 가나다라마바사 HOME 뉴스 정책 “황금연휴 관광객 쏠린 강원도·제주도 방역관리 강화” 장인선 기자 (insun@k-health.com) 승인 2020.04.29 15:26 댓글 0 기사공유하기 프린트 메일보내기 글씨키우기 가나다라마바사 가나다라마바사 가나다라마바사 가나다라마바사 가나다라마바사 가나다라마바사 이 기사를 공유합니다 페이스북 트위터 카카오스토리 구글+ 네이버밴드 네이버블로그 네이버폴라 핀터레스트 URL복사 × 생활치료센터 운영은 30일부로 모두 종료 국내 코로나19 확진 환자가 전일 대비 9명 늘어 현재(29일 0시 기준) 총 1만761명으로 증가했다. 격리해제 인원은 68명 증가해 현재 8922명이며 완치율은 약 83%에 이르렀다. 확진자수가 크게 감소했지만 긴 황금연휴를 앞둔 만큼 정부의 방역관리는 한층 더 강화될 전망이다. 사회적 거리두기 완화와 동시에 숙박 및 관광시설 등이 영업을 시작하면서 관광객이 몰릴 것으로 예상되기 때문이다. 이미 이번 연휴기간 강원도에는 지난해 90% 수준의 관광객이(속초, 강릉 지역 숙박시설 예약률 97% 수준), 제주도에는 약 18만여명의 관광객이 방문할 것으로 예상됐다. 이에 중앙재난안전대책본부는 강원도와 제주도에 특별방역대책을 적용해 코로나19 확산 방지에 총력을 기울인다는 각오다. 우선 강원도는 외부 유입이 많은 터미널, 기차역 등에 열화상 카메라를 설치·운영하고 모든 야외활동 관광지에 특별방역이 실시된다. 또 주요 관광지에서는 관람객 간의 거리 유지를 위한 동선을 표시해 2미터 이상 거리를 유지하며 관람할 수 있게 한다. 각 구역별로는 안내요원을 배치해 기본 방역수칙을 안내하고 이용자들의 발열상황을 체크할 예정이다. 제주공항에서는 내일부터 발열감지기준을 37.5도에서 37.3도로 하향해 검역을 강화하고 공항 내 도보 이동형 선별진료소에서는 검사대상을 최근 14일 내 해외입국자뿐 아니라 발열증상자까지로 확대한다. 렌터카 대여 시에는 방역지침 이행 서약서를 작성해야하며 실내 관광지에서 마스크를 착용하지 않으면 관람이 제한될 수 있다. 한편 코로나19 환자 감소에 따라 30일부로 대구·경북 생활치료센터 운영은 모두 종료된다. 중앙재난안전대책본부는 그간 대구·경북에 16개의 생활치료센터를 운영해왔으며 30일까지 마지막 2개소가 운영을 종료하면 모든 생활치료센터가 운영이 마무리된다고 전했다. 생활치료센터는 우리나라가 세계 최초로 도입한 시스템이다. 중증환자를 위한 입원병상을 신속하게 확보하기 위해 경증·무증상환자는 생활치료센터로 별도로 격리해 관리한 것이다. 중앙재난안전대책본부 발표에 따르면 그간 대구·경북 생활치료센터에서 총 3037명의 환자가 완치돼 격리 해제됐으며 이는 대구·경북 완치자(7000명)의 약 42%를 차지한다. 중앙재난안전대책본부는 “그간 기꺼이 시설 사용에 협조해준 기업과 환자를 치료하기 위해 애써주신 모든 의료진 및 현장 근무인력에게 진심으로 감사드린다”며 “마지막 2개소에 남은 환자(72명, 27일 기준) 모두 29일까지 병원으로 이송해 완치될 수 있도록 치료를 계속할 계획”이라고 밝혔다. 이어 “앞으로 생활치료센터의 시설 및 인력기준, 환자관리방법 등을 표준화한 모형을 마련·보급해 앞으로 감염병 발생 시 지방자치단체별로 신속하게 생활치료센터를 설치할 수 있도록 지원할 계획”이라며 “더 나아가 이를 국제기준에 맞게 표준화해 해외에 널리 알려 생활치료센터가 K-방역모델의 핵심으로 작동할 수 있도록 만들겠다”고 덧붙였다. Tag #코로나19 #코로나19발생현황 #코로나19현재환자수 #코로나19확진환자수 #사회적거리두기 #황금연휴기간 #황금연휴기간강원도 #황금연휴기간제주도 #황금연휴기간방역관리 #생활치료센터 #대구경북생활치료센터 저작권자 © 헬스경향 무단전재 및 재배포 금지 장인선 기자 다른기사 보기 댓글삭제 삭제한 댓글은 다시 복구할 수 없습니다. 그래도 삭제하시겠습니까? 비밀번호 삭제 × 댓글 0 댓글입력 로그인 이름 비밀번호 내용 0 / 400 등록 댓글쓰기 계정을 선택하시면 로그인·계정인증을 통해 댓글을 남기실 수 있습니다. 회원 로그인 비회원 글쓰기 이름 비밀번호 자동등록방지 확인 × 최신순 추천순 인기기사 1비염 있는 어르신들, 단순 알레르기 아닙니다 2줄기세포치료제 ‘조인트스템’, 품목허가자료 추가제출 결정 3평생 관리 필요한 ‘골다공증’, 치료기간 이것만은 꼭! 4[유방암 예방의 달] 아는 것이 힘…늘 걱정되는 ‘유방암’ 대비법 5[반려동물 건강이야기] 보호자라면 알아둬야 할 반려견 항문낭 관리법 6규제 풀린 ‘약자판기’...소비자는 기대감, 약사회 강력반발 7유방암, 선행항암치료로 환자 삶의 질 높인다 8젊은 남성들, 아침이면 뻣뻣한 허리…‘강직척추염’ 의심을 9가볍게 넘긴 두피상처, 방치하면 ‘반흔성탈모’ 부른다 10예고된 ‘트윈데믹’…아이들이 위험해 최신기사 축제·콘서트로 물든 풍성한 가을…건강하게 즐기려면? 축제·콘서트로 물든 풍성한 가을…건강하게 즐기려면? “지원 안 해주면서 사명감 바랄 수 있나” “지원 안 해주면서 사명감 바랄 수 있나” [반려동물 건강이야기] 반려견도 큰 고통…‘아토피성 피부염’, 이렇게 관리하세요! [반려동물 건강이야기] 반려견도 큰 고통…‘아토피성 피부염’, 이렇게 관리하세요! 라이온코리아, 질병관리청과 ‘올바른 손 씻기’ 캠페인 전개 라이온코리아, 질병관리청과 ‘올바른 손 씻기’ 캠페인 전개 에프앤디넷 더팜, 임신부‧수유부 영양 위한 ‘마미웰 올포맘’ 출시 에프앤디넷 더팜, 임신부‧수유부 영양 위한 ‘마미웰 올포맘’ 출시 한림대동탄성심병원, 안전·효율성 높인 원격협진 모델 선봬 한림대동탄성심병원, 안전·효율성 높인 원격협진 모델 선봬 의정부성모병원, ‘제10회 호스피스의 날’ 기념행사 동참 의정부성모병원, ‘제10회 호스피스의 날’ 기념행사 동참 신문사소개 기사제보 광고문의 불편신고 개인정보취급방침 청소년보호정책 이메일무단수집거부 RSS 서울시 종로구 새문안로 38, 6층 대표전화 : 02-3701-1582 팩스 : 02-6272-1580 청소년보호책임자 : 조창연 법인명 : 주식회사 헬스경향 등록번호 : 서울 아 02289 등록일 : 2013-01-10 발행일 : 2013-01-18 발행·편집인 : 조창연 헬스경향의 모든 콘텐츠(영상,기사, 사진)는 저작권법의 보호를 받는 바 무단전재와 복사, 배포 등을 금합니다. 헬스경향은 한국신문윤리위원회의 신문윤리강령, 신문윤리실천요강, 신문광고윤리강령, 신문광고윤리실천요강을 준수하고 있습니다. Copyright © 2022 헬스경향. All rights reserved. mail to desk@k-health.com 위로</t>
+  </si>
+  <si>
+    <t>약 25만 명 예상... 제주도 관광객, '이것' 기준 바뀌어 확인해야 한다 | 위키트리 위키트리 사회 menu clear 경제 일반 산업 전자 자동차 IT·통신·게임 에너지·화학 조선·철강·중공업 항공·물류 건설·부동산 유통 금융·증권 제약·바이오 엔터 방송 셀럽 라이프 일반 리빙 푸드 패션뷰티 게임 동물 건강 스포츠 사회 일반 교육 정치 문화 일반 영화 음악 월드 토픽 한류 지역취재본부 전체 부산경남 경기북부 광주전남 경북동부 대구경북 전북 세종대전충청 베스트클릭 제보 경제 엔터 라이프 스포츠 사회 정치 문화 월드 지역취재본부 검색 약 25만 명 예상... 제주도 관광객, '이것' 기준 바뀌어 확인해야 한다 2020-04-29 23:00 add remove print link 황금연휴 제주도 관광객 25만 명 몰려들 전망 특별 입도 절차 강화 발표한 제주도 황금연휴를 이용해 몰려든 관광객에 제주도가 초긴장 상태다. 이하 뉴스1 29일 제주도는 오는 30일부터 특별 입도 절차를 강화하겠다고 밝혔다. 제주공항에서 발열 검사 이상 기준 체온은 기존 37.5도에서 37.3도로 낮췄다. 모든 제주 방문객들은 공항 도착 터미널에서 한 줄 서기로 1대 1 발열 검사를 실시해야 한다. 또한 발열 이상자가 나타날 경우 제주공항 선별 진료소에서 코로나 감염 여부 검사를 안내할 예정이다. 렌터카 이용자들은 방역 지침 이행 서약서를 의무적으로 작성하게 됐다. 음식점 등 다중이용업소 경우 종업원과 관광객 마스크 착용 역시 의무화 됐다. 원희룡 제주도지사는 "가급적 제주 여행을 자제해달라"라며 "그래도 제주에 오겠다면 방역 관점에서 필요한 불편은 감수해야 하고, 발열과 기침 등 코로나 의심 증상을 느껴 신고를 하면 지원을 하겠지만 증상을 숨겼다가 확진 판정을 받을 경우 모든 민형사상 책임을 묻겠다"라고 강조했다. 이날 제주관광공사 관계자는 "서울에서 출발하는 제주행 항공편 경우 전체적으로 예약률이 90% 훌쩍 넘었다"라고 밝혔다. 당초 제주도는 황금연휴 관광객 예상치를 18만 명으로 잡았으나 25만 명으로 늘렸다. 제주신라호텔과 제주롯데호텔 등 일부 특급 호텔은 70% 넘는 예약률을 기록했으며 제주지역 30개 골프장은 예약이 모두 끝났다고 알려졌다. 제주도 코로나19 제주여행 home 한제윤 기자 zezeyun@wikitree.co.kr 기사제보 copyright '위키트리'라는 출처를 표시하는 경우에 한하여, 누구라도 위키트리 컨텐츠를 제한 없이 이용할 수 있습니다. 위키트리는 뉴스 스토리텔링 가이드라인을 엄격히 준수합니다. 서브 콘텐츠 영역 WIKITREE TV 네이티브 광고 베스트 베스트 클릭 푸터 메뉴 keyboard_arrow_down WIKITREE HOME PAGE TAGSHOP 제보 파운데이션 COMPANY SOCIAL AD SERVICE WIKITREE NOW RECRUIT VERTICAL 펫 오늘은머니 새모네모 뉴스마켓 바바바 SITE 약관 및 운영원칙 개인정보취급방침 청소년보호정책 사이트맵 서울시 마포구 성암로 189 (상암동, K-biz DMC타워) 13층 (주)소셜뉴스 | 02-3789-8900 | 등록번호: 서울 아 01019 | 등록일자: 2009. 11. 10 최초 발행일: 2010. 02. 02 | 발행인 · 편집인 : 이원호 | 편집국장 : 서기찬 | 청소년 보호 책임자 : 손기영 크리에이티브커먼즈 저작자표시-동일조건변경허락 2.0에 따라 이용하실수 있습니다. © Social News Co., Ltd. All Right Reserved. 위키트리 페이스북 위키트리 트위터 위키트리 인스타그램 위키트리 유튜브 위키트리 인스타그램</t>
+  </si>
+  <si>
+    <t>마스크 쓴 제주도 돌하르방...황금연휴 관광객 특별관리 돌입 - 헤드라인제주 × 전체기사 정치/행정 전체 도의회 선거 21대 총선 지방선거 제20대 총선 도의원 보궐선거 제19대 대선 경제 전체 소비자상담 Q &amp; A 이성돈의 제주농업의 뿌리를 찾아서 김용호의 제주감귤 이야기 사회 전체 사건사고 날씨 사랑의열매 프로젝트 교육 전체 학교소식 관광 문화 전체 전시·축제 서명숙의 로드 다큐멘터리 최연실의 문학산책 스포츠 오피니언 전체 데스크논단 취재수첩 미디어칼럼 기고 김진옥의 시선: 삶과 경제 양길현의 제주 미래담론 양용호의 시사문화칼럼 장신옥의 가족친화문화로 여는 새 제주 강문상의 미디어칼럼 고성협의 추자도이야기 기획특집 전체 열사람의한걸음 특성화고 세계人제주 기획취재 제주 예술가, 섬에 '혼'을 불어넣다 제주사랑의열매 복지현안지원사업 제주4.3, 김호진 편집국장 생애 타는목마름으로 지방선거 후보자 대담 영상 후보자 토론회 영상 여론조사 마음건강캠페인 미디어 전체 English News 피플 전체 한정선의 작은 프리즘 한정희의 행복한 미술 이성복의 일상 이야기 홍화각 중수기 기문(記文) '궷물' 정호가 조천을 그리며 이상식의 소비자상담 Q &amp; A 양영수의 꽁트 읍면동소식 전체 읍면동소식-제주시 읍면동소식-서귀포시 포토 전체 김환철의 포토뉴스 포토에세이 연예 온라인커뮤니티 국제 연재 전체 제2공항 희망나눔 캠페인 외국인의눈 강정국제평화영화제 신년대담 시민기자 기사쓰기 기사제보 로그인 회원가입 모바일웹 최종편집 : 2022-10-11 14:46 (화) 전체메뉴 뉴스 정치/행정 경제 사회 교육 관광 문화 스포츠 오피니언 미디어 피플 해설/초점 해설 초점 설왕설래 현장취재 논단/칼럼 데스크논단 취재수첩 미디어칼럼 연재칼럼 기고 기획특집 특성화고 열사람의한걸음 외국인커뮤니티제전 타는목마름으로 커뮤니티 시민기자뉴스 읍면동 뉴스 학교뉴스 보도자료 검색 기사검색 검색 검색확장 정치/행정 도의회 선거 21대 총선 지방선거 제20대 총선 도의원 보궐선거 제19대 대선 경제 소비자상담 Q &amp; A 이성돈의 제주농업의 뿌리를 찾아서 김용호의 제주감귤 이야기 사회 사건사고 날씨 사랑의열매 프로젝트 교육 학교소식 관광 문화 전시·축제 서명숙의 로드 다큐멘터리 최연실의 문학산책 스포츠 오피니언 데스크논단 취재수첩 미디어칼럼 기고 김진옥의 시선: 삶과 경제 양길현의 제주 미래담론 양용호의 시사문화칼럼 장신옥의 가족친화문화로 여는 새 제주 강문상의 미디어칼럼 고성협의 추자도이야기 기획특집 동행 특성화고 세계人제주 기획취재 제주 예술가, 섬에 '혼'을 불어넣다 제주사랑의열매 복지현안지원사업 제주4.3, 김호진 편집국장 생애 타는목마름으로 지방선거 후보자 대담 영상 후보자 토론회 영상 여론조사 마음건강캠페인 미디어 English News 피플 한정선의 작은 프리즘 한정희의 행복한 미술 이성복의 일상 이야기 홍화각 중수기 기문(記文) '궷물' 정호가 조천을 그리며 이상식의 소비자상담 Q &amp; A 양영수의 꽁트 읍면동소식 읍면동소식-제주시 읍면동소식-서귀포시 포토 김환철의 포토뉴스 포토에세이 연예 온라인커뮤니티 국제 연재 제2공항 희망나눔 캠페인 외국인의눈 강정국제평화영화제 신년대담 이전 다음 마스크 쓴 제주도 돌하르방...황금연휴 관광객 특별관리 돌입 페이스북 트위터 카카오스토리 URL복사 기사공유하기 상태바 HOME 사회 마스크 쓴 제주도 돌하르방...황금연휴 관광객 특별관리 돌입 홍창빈 기자 headlinejeju@headlinejeju.co.kr 승인 2020.04.28 11:16 댓글 0 페이스북 트위터 카카오스토리 URL복사 기사공유하기 스크랩 프린트 메일보내기 글씨키우기 이 기사를 공유합니다 페이스북 트위터 카카오스토리 URL복사 × 제주국제공항 내 돌하르방에 마스크가 씌워져 있다. ⓒ헤드라인제주 오는 30일 부처님오신날부터 5월5일 어린이날까지 이어지는 황금연휴 기간에 제주를 찾는 관광객이 18만명에 이를 것으로 예상되면서제주도 방역당국에 비상이 걸린 가운데, 제주특별자치도가 28일 제주의 수호신으로 불리는 돌하르방 40기에 마스크를 씌웠다. 황금연휴 기간에 제주도를 찾는 관광객들에게 코로나19 확산방지를 위해 '마스크 착용'은 필수라는 경각심을 고취시키기 위해서다. 제주특별자치도는 29일부터 공항과 항만에서 '마스크를 쓴 돌하르방'을 테마로 한 코로나19 안전한 제주관광 캠페인을 진행한다. 이 기간 제주도 상징물인 돌하르방에 마스크를 씌우고, 관광지 등에 위생수칙 안내 현수막을 설치하는 등 입도객을 대상으로 안전 관광 분위기를 조성할 계획이다. 이와 함께 제주도는 이번 연휴기간에 관광 비상상황실을 운영하며 유관기관 합동으로 초비상적 방역체계를 가동한다. 우선 고강도 방역 강화와 코로나19 예방수칙 이행, 사회적 거리두기 등의 실천을 위해 유관기관과 함께 관광사업체에 대한 특별관리에 돌입했다. 또 내달 5일까지 관광 비상 상황실을 운영하며, 관광 유관 기관 비상연락 및 협조체계를 유지하고 SNS 등을 활용해 '청정 안전관광 제주'를 홍보하기로 했다. 27일과 28일에는 제주도내 관광사업체 873개소를 대상으로 방역 특별점검을 실시한다. 이를 통해 관광지별 방역관리자를 지정하고 실내관광지 관광객 마스크 착용 의무화, 방문객 2m 간격 유지 등을 요청함과 동시에 만일의 경우 사후 관리를 대비한 방명록 작성 등을 강력 시달하고 있다. 아울러, 실내관광지 180여개소에는 방문객 발열 체크를 위해 발열체크기를 배부하는 한편, 손소독제 및 소독약품 등 방역물품 및 업체 대응 매뉴얼을 보급하고 있다.&lt;헤드라인제주&gt; 제주국제공항 내 돌하르방에 마스크가 씌워져 있다. ⓒ헤드라인제주 저작권자 © 헤드라인제주 (headlinejeju@headlinejeju.co.kr) 무단전재 및 재배포 금지 홍창빈 기자 다른기사 보기 페이스북 트위터 카카오스토리 URL복사 기사공유하기 댓글삭제 삭제한 댓글은 다시 복구할 수 없습니다. 그래도 삭제하시겠습니까? 비밀번호 삭제 × 댓글수정 비밀번호 내용 수정 × 댓글 0 로그인 이름 비밀번호 내용 0 / 400 등록 댓글쓰기 계정을 선택하시면 로그인·계정인증을 통해 댓글을 남기실 수 있습니다. 회원 로그인 비회원 글쓰기 이름 비밀번호 자동등록방지 확인 × 오늘의 주요 뉴스 제주 병설유치원 매운급식 논란..."아이들이 밥을 못 먹어" 제주, 택배 추가배송비 부당 요구사례 접수 창구 운영 제주, 전국에서 가장 비싼 기름값 문제 대응 시장조사 나선다 제주도 실업급여 수급자↓...고용상황 회복세 전환 설왕설래 說往說來 '밀어내고 아파트 개발하면서'...제주, 도시숲 확대 조성하겠다? 사건사고 제주 한림읍 목조 펜션에서 화재...인명피해 없어 제주, 구좌읍 단독주택 화재...6300여만원 상당 재산 피해 제주, 인사 안했다고 학생 폭행 모 중학교 교사 입건 제주 함덕서 '탄저균' 우편물 배송 소동...두 차례 키트 검사 '음성' 제주해경, 주유하다 바다에 기름 유출한 어선 적발 많이 본 뉴스 실시간 댓글 1 나의 다짐 2 제103회 전국체전, 제주 선수단 메달 누적 59개 획득 3 서귀포시, 2022년 교통유발부담금 21억원 부과 4 제61회 탐라문화제 폐막...걸궁 '조천읍 민속보존회' 최우수상 5 소방공무원노조, 인사혁신처에 소방공무원 33년 이상 ‘보국훈장’ 수여 요청 6 제주도, 새해 50억원 상당 제주항공 주식 매입 추진 7 세상을 웃게 만드는 친절 8 제주시, 하반기 사무관 승진의결자 6명 승진 임용 9 서귀포시, 사무관 승진의결자 8명 승진임용 10 주민자치 위원이 되기 위한 필수과정 '주민자치 교육' 1 안녕하세요 2 네 3 네 4 지난 회차 이후 오랜만에 글 올려주셔서 너무 반가운 마음에 푹 빠져들어 읽었습니다. 오늘도 공감가는 좋은 글 올려주셔서 감사합니다. 따뜻한 마음의 양식 얻어갑니다. 저만 알고싶은 글 맛집이네요.^^. 5 열새람의 한걸음 24회째 행사 감동입니다. 꾸준히 함께 해주시는 걸음 감사합니다. 김희현 정무부시사님의 방문과 격려도 감사합니다^^ 6 아니 대체 남자든 여자든 당하면 당연히 원래 부서가 있는 건데 첫 시초가 안희정 보낼려고 꼼수썼던 그 정치인것들이지. 한국경찰들도 니들에게도 대놓고 여경 실어주기인데 뭐 됐어 ㅋㅋㅋ 지들만 손해지. 더욱 해서 경찰 아래로 둬. 7 성인지라는 자체가 편법 느낌인데 무슨 북한이냐고. 저런 거 절대 예산 주지마 진짜. 나라 중국처럼 한 순간에 말아먹는 거라고. 8 지역발전의 초석이 되었으면 한다 9 드론은 상용화가 아니라 특수한 공간, 특수한 상황에만 특별하게 사용하도록 하는게 현명한 것이고. 산업 전략화 하는 것이지 이걸 상용화 하는게 아니에요 쫌 제대로 정책을 펼쳐봐요. 그냥 인기영합적인 것만 바라지 말고 김 국장... !!! 노력하 봐요, 초심으로 돌아가서 부이사관이 뭐 이래.... 10 그럼 드론 상공 날아가는 곳을 통제 할 수 있어요? 도민 20만명이 드론을 상용화 해서 하늘에 날린다 그럽시다. 어떻게 20만대가 하늘에 날아다니면 안전해요? 절대적으로 상용화가 안되고 특수한 경우에만 특정한사람들만 사용이 가능한 기계.. 이걸 왜 이런데다가 쓰고 홍보하는지 모르겠어요 도청이 그렇게 할 일이 없나요? 우선 먹고 사는 일부터 해결합시다. 이딴 거는 돈 있는 사람, 특별한 사람 들 개인이 하도록 하고요... 기사제보 광고안내 보도자료 화촉 부고 날씨 항공 헤드라인제주 소개 댓글운영관리기준 이메일무단수집거부 개인정보취급방침 청소년보호정책 facebook twitter RSS e-mail 제호 : 헤드라인제주 제주특별자치도 제주시 서문로 2, 2층(용담1동) 제보 및 문의 대표전화 : 064)727-1919, 1918 팩스 : 064)727-1917 등록번호 : 제주 아 01027호 등록일 : 2010년 11월30일 사업자등록번호 : 616-81-82000 발행인 : 윤철수 편집인 : 원성심 청소년보호책임자 : 윤철수 Copyright© by 헤드라인제주. All rights reserved. 대표메일  headlinejeju@headlinejeju.co.kr 위로</t>
+  </si>
+  <si>
+    <t>5월 황금연휴, 물밀듯 몰아치는 관광객에 제주도 '긴장' &lt; 여행 &lt; 라이프 &lt; 기사본문 - 문화뉴스 주요서비스 바로가기 본문 바로가기 매체정보 바로가기 로그인 바로가기 기사검색 바로가기 전체서비스 바로가기 상단영역 매체소개 기사제보 구독하기 보도자료 등록 naverpost facebook instargram twitter navertv MHN 편집 : 2022-10-11 13:26 (화) 문화 영화 연극 공연 미술·전시 음악 춤 뮤지컬·오페라 뉴스 자동차 전국 정치 정책 정부 법률 국회정당 외교 국방 북한 세계 경제 IT 산업 경제일반 경제정책 금융증권 과학 고용노동 세계경제 사회 사건/사고 부동산 인사/동정 미국 중국 일본 유럽 기타 라이프 패션뷰티 음식맛집 건강 리빙 교육 날씨 강연·문화센터 여행 스포츠 방송 드라마 책 국내 해외 피플 인터뷰 포토 오피니언 기고·칼럼 리뷰 커뮤니티 보도자료 회원정보 로그인 회원가입 전체메뉴 버튼 최신뉴스 현대차그룹, 부산세계박람회 글로벌 SNS 콘텐츠 4천만뷰 돌파 난민 이의신청 절차, 더 투명해지고 공정해 진다 '2022 서울여성합창페스티벌' 개최...코로나19 이후 3년 만에 재개 안방에서 즐기는 궁궐체험 ‘2022 궁온 프로젝트’ 2차 접수 [22 가을 패션 추천] 제니→크리스탈 '패셔니스타'는 다 입었다...'바시티 자켓' 추천 5 문체부, ‘2022 문화의 달’ 기념행사 개최...다양한 공연 열려 [공연소식] 10월 둘째 주, 주목할 만한 클래식/무용 공연 2022년 10월11일(화) 오늘의운세 띠별, 별자리 [이번주뭐입지?] 힙한 룩부터 프레피 룩 까지...'부츠' 활용한 가을 코디 추천 뮤지컬 '캣츠', 오리지널 연출 부활과 함께 내한 공연 기사검색 검색 본문영역 이전 기사보기 다음 기사보기 5월 황금연휴, 물밀듯 몰아치는 관광객에 제주도 '긴장' 바로가기 복사하기 본문 글씨 줄이기 본문 글씨 키우기 스크롤 이동 상태바 현재위치 홈 라이프 여행 5월 황금연휴, 물밀듯 몰아치는 관광객에 제주도 '긴장' 기자명 이솔 기자 입력 2020.04.29 16:18 댓글 0 바로가기 복사하기 본문 글씨 줄이기 본문 글씨 키우기 SNS 기사보내기 페이스북(으)로 기사보내기 트위터(으)로 기사보내기 카카오톡(으)로 기사보내기 URL복사(으)로 기사보내기 이메일(으)로 기사보내기 다른 공유 찾기 기사스크랩하기 이 기사를 공유합니다 페이스북(으)로 기사보내기 트위터(으)로 기사보내기 카카오스토리(으)로 기사보내기 카카오톡(으)로 기사보내기 구글+(으)로 기사보내기 네이버밴드(으)로 기사보내기 네이버블로그(으)로 기사보내기 핀터레스트(으)로 기사보내기 URL복사(으)로 기사보내기 닫기 5월 황금연휴, 김포-제주 항공편 예약률 90%, 호텔 등의 예약률도 70% 달해, 마스크 안 쓰면 가게서 '퇴짜' 출처 : 픽사베이 5월 황금연휴, 물밀듯 몰아치는 관광객에 제주도 '긴장' [문화뉴스 MHN 이솔 기자] 오는 30일부터 시작하는 황금연휴 기간 동안 멀지만 가까운 휴양지인 제주도가 북적댈 것으로 보인다. 국토교통부의 항공통계에 따르면 오는 4월 30일부터 5월 5일에 이르는 6일의 징검다리 연휴 기간 항공사의 국내선 운항 예정 횟수는 모두 6천206회(편도 기준)다. 이 중 제주공항에만 6일간 2천571편의 항공기(국내선 기준)가 뜨고 내릴 예정이다. 한 항공사 관계자는 "김포에서 출발하는 제주행 항공편의 경우 상당수가 매진돼 표를 구하지 못할 정도"라며 "전체적으로 예약률이 90％를 훌쩍 넘었다"고 말했다. 황금연휴 기간 제주신라호텔과 제주롯데호텔 등 일부 특급호텔은 70％ 넘는 예약률을 기록했으며 제주지역 30개 골프장 역시 예약이 끝났다. 인터뷰에 응한 한 20대 관광객은 "그동안 너무나 답답해 친구들과 시간을 내 제주에 일찍 왔다"며 "여행하는 기간 제주도민에게 해가 안되도록 마스크를 반드시 착용하고 사회적 거리두기도 철저히 지키겠다"고 말했다. 출처 ; 제주특별자치도 홈페이지 5월 황금연휴, 물밀듯 몰아치는 관광객에 제주도 '긴장' 제주도는 바짝 긴장하고 있다. 아직 코로나가 완전 종식되지 않은 가운데 코로나 예방을 위한 특별 조치를 할 계획이다. 마스크를 착용하지 않고 음식점, 미용실 등에 방문하거나 적절한 거리 두기 등 방역지침을 지키지 않으면 손님을 받지 말 것을 29일 권고했다. 도는 음식점 등에 가능한 한 서로 마주 보지 않고 일렬이나 지그재그로 손님들이 앉도록 하고 식사를 할 때는 가급적 대화를 하지 않게 하도록 했다. 음식은 각자 개인 접시에 덜어 먹는 등의 방역 지침을 준수할 것을 당부했다. 숙박업소와 미용업소에 대해서는 고위험군(65세 이상)의 경우 가급적 이용을 하지 않도록 권고하고, 2m 거리 두기가 어려운 경우 마스크 착용하고 최소 1m 거리를 유지해 손님들이 방문하도록 권고했다. 대상은 일반음식점 등 1만8천여곳이며 유흥주점 등 1천400여곳, 숙박업 1천300여곳, 이·미용업 2천5여곳, 목욕업 100여곳 등 총 2만3천800여곳이다. ----- 황금 연휴, 물밀듯 몰아치는 관광객에 제주도 '긴장' 김포-제주 항공편 예약률 90%, 호텔 등의 예약률도 70% 달해, 마스크 안 쓰면 가게서 '퇴짜' 주요기사 연금복권의 현재가치 계산! 연금복권 720 +, 일시불로 따지면 얼마? 제임스 웹 망원경이 보내온 첫 번째 사진...허블 망원경과 차이점은? 2022년 9급 공무원 월급과 연봉...과연 최저시급보다 적을까? [포토] 한소희 '예쁜 미소' 관련기사 FA컵 5월 9일 무관중 경기로 개막... 지켜볼만한 대진은?경기도 재난기본소득 소비 본격화... 자영업자 56% “매출 증가”용인부터 제주까지, 방방곡곡 '드라이브 스루 마켓'의 진화전세계 코로나19 현황...대륙별 확진자수...미국, 중국, 일본, 러시아 현황 국립한글박물관, '코로나를 이겨내는 힘, 한글과 의학' 주제로 학술대회 개최 26일부터 실외에서 마스크 완전히 벗는다 [KBS 인간극장] '우리는 행복을 연주하다' 세번째 이야기 [KBS 인간극장] - '우리는 행복을 연주하다' 두 번째 이야기 [KBS 인간극장] 우리는 행복을 연주한다 첫번째 이야기 코로나 재유행, 행안부 4차접종 14.1억 원 지원 부여 주말 가족 나들이 갈만한곳...궁남지·백제문화단지·백마강·정림사지 '청춘유랑극단 시즌2', 3년만에 제주에서 공연 코로나19 재유행, 재감염 증상부터 격리, 생활지원금까지 김해 주말 가족 나들이 갈만한곳...수로왕릉·낙동강레일파크·클레이아크미술관 Tag #제주도 #여행 #코로나 #방역 이솔 기자의 다른 기사 보기 이솔 기자 press@mhns.co.kr 독자와 공감을 통해 더 나은 내일을 만들겠습니다. 최신기사 인기기사 저작권자 © 문화뉴스 무단전재 및 재배포 금지 포토 신하균-한지민-이정은, '욘더'로 만나요 [포토] 신하균, 남다른 품격 [포토] 한지민, '욘더' 색다른 변신 기대하세요 [포토] 한지민, 러블리 가을 패션 [포토] 이정은, 부산국제영화제 첫 참석 [포토] 정진영, '욘더'로 인사드려요 [포토] 신하균, 목폴라도 품격있게 만든다 [포토] '욘더' 이준익 감독 [포토] 댓글삭제 삭제한 댓글은 다시 복구할 수 없습니다. 그래도 삭제하시겠습니까? 비밀번호 삭제 닫기 기사 댓글 0 댓글 접기 댓글 내용입력 0 / 400 비회원 로그인 이름 비밀번호 댓글 내용입력 0 / 400 등록 댓글쓰기 계정을 선택하시면 로그인·계정인증을 통해 댓글을 남기실 수 있습니다. 회원 로그인 비회원 글쓰기 이름 비밀번호 자동등록방지 확인 취소 로그인 옵션 창닫기 최신뉴스 현대차그룹, 부산세계박람회 글로벌 SNS 콘텐츠 4천만뷰 돌파 난민 이의신청 절차, 더 투명해지고 공정해 진다 '2022 서울여성합창페스티벌' 개최...코로나19 이후 3년 만에 재개 안방에서 즐기는 궁궐체험 ‘2022 궁온 프로젝트’ 2차 접수 [22 가을 패션 추천] 제니→크리스탈 '패셔니스타'는 다 입었다...'바시티 자켓' 추천 5 하단영역 하단메뉴 매체소개 기사제보 광고문의 이용약관 개인정보처리방침 청소년보호정책 저작권보호정책 이메일무단수집거부 매체정보 (04050) 서울특별시 마포구 양화로 156 (LG팰리스빌딩) 1727 대표전화 : 0269593256 팩스 : 023221666 법인명 : (주)엠에이치앤미디어 제호 : 문화뉴스 등록번호 : 서울 아 03015 등록일 : 2014-02-18 발행일 : 2014-02-18 발행·편집인 : 주진노 「열린보도원칙」 당 매체는 독자와 취재원 등 뉴스이용자의 권리 보장을 위해 반론이나 정정 보도, 추후보도를 요청할 수 있는 창구를 열어두고 있음을 알려드립니다.고충처리인 권혁재 02-6959-3256 press@mhns.co.kr Copyright © 2022 문화뉴스. All rights reserved. mail to eveleva@naver.com 위로 전체메뉴 전체기사 문화 전체 영화 연극 공연 미술·전시 음악 춤 뮤지컬·오페라 뉴스 자동차 전국 정치 전체 정책 정부 법률 국회정당 외교 국방 북한 세계 경제 전체 IT 산업 경제일반 경제정책 금융증권 과학 고용노동 세계경제 사회 전체 사건/사고 부동산 인사/동정 미국 중국 일본 유럽 기타 라이프 전체 패션뷰티 음식맛집 건강 리빙 교육 날씨 강연·문화센터 여행 스포츠 방송 드라마 책 국내 해외 피플 전체 인터뷰 오피니언 전체 기고·칼럼 리뷰 포토 보도자료 전체메뉴닫기</t>
+  </si>
+  <si>
+    <t>예상보다 많은 관광객 제주도 물론 정부도 긴장 &lt; 관광/항공 &lt; 경제 &lt; 기사본문 - 제민일보 주요서비스 바로가기 본문 바로가기 매체정보 바로가기 로그인 바로가기 기사검색 바로가기 전체서비스 바로가기 상단영역 로그인 회원가입 구독신청 한국어 영어 중국어 일본어 베트남어 스페인어 러시아어 경제 최종편집 2022-10-11 (화) 14:38 facebook twitter instagram youtube 기사검색 검색 제민방송 먼저보는 제민일보 제민현장 궁금한 뉴스 해녀 제민영상 포토뉴스 백록기 뉴스 정치 경제 사회/복지 교육 스포츠/레져 기획 진행 연재 지난 연재 오피니언 사설 사내 칼럼 사외 칼럼 전문가 칼럼 기고 Culture 문화뉴스 공연/전시 출판/문학 방송/영화 Life/건강 WEEK&amp;팡 종교 연예 일과 사람들 동네방네 인사 화촉 부음 WeLove 진행 프로젝트 지난 프로젝트 해녀 특별기획 4∙3 4·3뉴스 4·3은 말한다 4·3기획 WEEK&amp;팡 진행연재 지난연재 コリアニユ-ス 경제종합 관광/항공 농수축산 금융/부동산 감귤 유통 기업 본문영역 이전 기사보기 다음 기사보기 예상보다 많은 관광객 제주도 물론 정부도 긴장 바로가기 복사하기 본문 글씨 줄이기 본문 글씨 키우기 스크롤 이동 상태바 현재위치 홈 경제 관광/항공 예상보다 많은 관광객 제주도 물론 정부도 긴장 기자명 김용현 기자 입력 2020.04.29 17:14 댓글 0 바로가기 복사하기 본문 글씨 줄이기 본문 글씨 키우기 SNS 기사보내기 페이스북(으)로 기사보내기 트위터(으)로 기사보내기 카카오스토리(으)로 기사보내기 URL복사(으)로 기사보내기 이메일(으)로 기사보내기 다른 공유 찾기 기사스크랩하기 이 기사를 공유합니다 페이스북(으)로 기사보내기 트위터(으)로 기사보내기 카카오스토리(으)로 기사보내기 URL복사(으)로 기사보내기 닫기 사진=연합뉴스29일에만 3만5000여명 찾아 당초 2만5000명보다 1만명 많아 제주도와 중앙재난안전대책본부 황금연휴 코로나19 대책 추진코로나19사태가 진정되면서 사회적 거리두기가 다소 완화되면서 당초 예상보다 황금연휴에 제주를 찾는 관광객이 크게 늘어나고 있다. 이에 제주도는 물론 중앙정부까지 나서 제주여행객을 대상으로 코로나19 방역강화에 나서고 있다.제주관광협회는 6일 전까지만 해도 부처님오신날인 30일을 하루 앞둔 29일부터 어린이날인 다음달 5일까지 이어지는 황금연휴 기간 17만9000여명의 내국인 관광객이 제주를 찾을 것으로 예상했다.실제 제주를 찾은 관광객은 기존 예상치인 2만4600여명을 뛰어넘는 3만5000여명이 제주를 찾았다. 이는 전년 동기(4만4669명) 제주를 찾은 관광객의 80％에 육박하는 수치다.제주도는 특별 입도 절차를 통해 제주를 찾는 모든 방문객에 대한 발열과 증상 여부 대한 검사를 하는 등 국경 수준으로 방역을 강화하고 있다.관광공사와 관광협회도 식당과 호텔 등 각 사업장별로 방역에 힘써 줄 것을 당부하고 있다.중앙재난안전대책본부 역시 제주도와 강원도에 많은 관광객이 몰릴 것으로 예상됨에 따라 코로나19 방역을 강화한다고 밝혔다. 사진=연합뉴스도와 중대본은 제주국제공항 국내선 발열감시기준을 기존 37.5도에서 37.3도로 낮춘다. 공항내 도보 이동형 선별진료소에서는 기존 해외 입국자뿐만 아니라 발열 증상자에게도 코로나19를 검사한다.제주여행시 반드시 마스크를 착용해야만 도내 실내관광지 관람을 할 수 있고, 관광지마다 발열체크도 이뤄진다.주요 관광지에는 안내데스크를 설치, 이용자들의 발열 여부를 확인하고 유증상자가 있을 때는 관할 보건소로 통보하기로 했다. 또 관람객 간 거리유지를 위한 동선을 표시하고 구역별로 안내요원도 배치한다. 김용현 기자 noltang@jemin.com 다른기사 보기 저작권자 © 제민일보 무단전재 및 재배포 금지 댓글삭제 삭제한 댓글은 다시 복구할 수 없습니다. 그래도 삭제하시겠습니까? 비밀번호 삭제 닫기 기사 댓글 0 댓글 접기 로그인 후 이용 가능합니다. 댓글 내용입력 0 / 400 비회원 로그인 이름 비밀번호 댓글 내용입력 0 / 400 등록 댓글쓰기 계정을 선택하시면 로그인·계정인증을 통해 댓글을 남기실 수 있습니다. 회원 로그인 비회원 글쓰기 이름 비밀번호 자동등록방지 확인 취소 로그인 옵션 창닫기 최신뉴스 제주대병원 권역정신응급의료센터 개소 [본사내방] 2022년 10월 11일 한경농협, 취약계층 주택용 소방시설 기증 제주, 서울대 지역균형전형 비율 2.4%...전국 최하위 제주타요렌터카, 매월 국·내외 아동에 정기 후원 포토뉴스 [포토뉴스] 은색 물드는 새별오름 [포토뉴스] 오늘은 犬이 주인공 [사진뉴스] "우리의 소중한 유산 무형문화재 함께 즐겨요" [포토뉴스] 추석 분위가 나는 제주시오일장 인기뉴스 1 오늘의운세 10월11일(음력9월16일) 2 제61회 탐라문화제 9일 일부 일정 10일로 연기 3 제103회 전국체전 4일차...메달 레이스 이어가 4 [제민포럼] 테슬라와 한라산소주 5 일본시장 활짝 제주관광 기대감속 우려도 6 1600여명 발 구름에 서귀포 가을 들썩 희망 의지 불끈 7 제주시 수중·핀수영협회 소속 8명 수상구조사 '합격' 8 장 발장 이야기 하단영역 하단메뉴 하단메뉴 매체소개 기사제보 광고문의 이용약관 개인정보처리방침 청소년보호정책 저작권보호정책 이메일무단수집거부 RSS 매체정보 발행·편집인 : 양치석 청소년보호책임자 : 김태음 제주특별자치도 제주시 평화로 2700 제민일보사 등록번호 : 제주특별자치도 아01133 등록일 : 2021-09-06 대표전화 : (064) 741-3111 팩스 : (064) 741-3117 기사제보 : (064) 741-3220 광고문의 : (064) 741-3121 제민일보 모든 콘텐츠(영상,기사, 사진)는 저작권법의 보호를 받는 바, 무단 전재와 복사, 배포 등을 금합니다. Copyright © 2022 제민일보. All rights reserved. mail to edijemin@chol.com 위로 전체메뉴 전체기사 제민방송 전체 먼저보는 제민일보 제민현장 궁금한 뉴스 해녀 제민영상 포토뉴스 백록기 정치 전체 정치종합 행정 제주도의회 청와대/국회 국제/북한 선거 코로나 동선 경제 전체 경제종합 관광/항공 농수축산 금융/부동산 감귤 유통 기업 사회 전체 사회종합 사건/사고 환경 해양 노동 복지 도민기자 마당 청소년기자 마당 날씨 교육 전체 교육종합 대학가 입시정보 우리학교소식 청소년/어린이 스포츠/레져 전체 스포츠종합 축구 야구 농구/배구 골프 경마 평화마라톤 백록기 제민기 기획 전체 진행 연재 지난 연재 오피니언 전체 사설 사내 칼럼 사외 칼럼 전문가 칼럼 기고 Culture 전체 문화뉴스 공연/전시 출판/문학 방송/영화 연예 Life/건강 WEEK&amp;팡 종교 책 읽어주는 남자 강혜명의 제주아리아 일과 사람들 전체 동네방네 인사 화촉 부음 WeLove 전체 진행 프로젝트 지난 프로젝트 해녀 전체 특별기획 4∙3 전체 4·3뉴스 4·3은 말한다 4·3기획 제주4·3 이제는 기록유산으로 コリアニユ-ス 핫뉴스 전체 무공침 제민포커스 와이드 진단 해설 제민현장 지역뉴스 전체 종합 제주시 서귀포시 읍면동 농사정보 WEEK&amp;팡 전체 진행연재 지난연재 News Archive 전체 신년∙창간특집호 Voice 만화/만평 오늘의 운세 기타 독자게시판 제민일보 안내 전체 알림/사고 올해의 제주인 독자위원회의/윤리교육 주요 사업 코로나19 [6·1 지방선거] 안테나 전체 제주도지사 제주도교육감 도의원(제주시) 도의원(서귀포시) 교육의원 제주시을 국회의원 보궐선거 [2022 6·1지방선거] 우리동네 현안 해결사는 [2022 6·1지방선거] 파워인터뷰 [6·1 지방선거 및 보궐선거] 후보 주요 일정 제민일보 소개 회장인사말 비전 연혁 사업 출판 찾아오시는길 PDF 보기 전체메뉴닫기</t>
+  </si>
+  <si>
+    <t>제주도, 관광업소에 "마스크 안 쓴 손님 받지마" 경제 기업 금융·증권 부동산·건설 경제일반 산업 유통 IT 자동차·항공 의료·제약 산업일반 정치사회 정치 사회종합 사건사고 문화연예 문화 연예 더파워LIVE 전체뉴스 제주도, 관광업소에 "마스크 안 쓴 손님 받지마" 종합 2020-04-29 15:57 김선영 기자 &lt;사진=연합뉴스&gt;[더파워 김선영 기자] 30일부터 시작하는 황금연휴 기간 제주도 방문객 중 음식점에 마스크를 착용하지 않고 가는 등 방역지침을 지키지 않으면 이용을 거부당할 수 있다. 제주도는 29일 황금연휴 기간(4월 30일~5월 5일) 동안 음식점 등 도내 다중이용 업소에 대해 종업원 및 손님에게 마스크 착용 등 방역 지침을 준수하도록 하고 방역 지침을 지키지 않는 손님을 받지 말라고 권고하기로 했다. 대상은 일반음식점 등 1만8000여 곳이며 유흥주점 등 1400여 곳, 숙박업 1300여 곳, 이·미용업 2005여 곳, 목욕업 100여 곳 등 총 2만3800여 곳이다. 도는 음식점 등에 가능한 한 서로 마주 보지 않고 일렬이나 지그재그로 손님들이 앉도록 하고 식사를 할 때는 가급적 대화를 하지 않고 개인접시를 사용하도록 권장했다. 숙박업소와 미용업소에 대해 고위험군(65세 이상)의 경우 이용을 피하고, 마스크 2m 거리 두기가 어려운 경우 마스크 착용하고 최소 1m 거리를 유지해 손님들이 방문하도록 권고했다.김선영 기자 news@thepowernews.co.kr 저작권자 © 더파워, 무단 전재 및 재배포 금지 꼭 봐야할 기사 산업 공정위, 발란 등 명품 플랫폼 실태조사... '불공정 약관' 점검 산업 ​한국남부발전 개인정보 유출... "2차 피해 우려에 주의 당부" 많은 독자들이 본 기사 GS건설 '자이' 여성이 가장 관심있는 아파트 '톱'...유보라' 여성 포스팅 비율 1위 경제 검찰, 대장동 닮은꼴 '위례신도시' 개발 관련 호반건설 등 20여곳 압수수색 정치사회 삼성, 협력사 대금 2.1조원 조기 지급... 이재용 "같이 나누고 성장하자" 산업 쿠팡, 참여연대에 내용증명 발송... "홈페이지 게시물 삭제 및 정정공지 요청" 산업 정부, "론스타에 2925억 배상"... ISDS 판정 경제 5년간 첨단기술 유출 83건… 40%가 국가핵심기술 산업 TODAY’S PICKS 포르쉐·벤츠 등 17개사, '안전기준 부적합' 과징금 115억원 SK지오센트릭 폭발 사고로 7명 중상… 중대재해법 적용 검토 THE POWER PICK 금리인상에 2분기 가계 금융자산, 주식 줄고 예금 늘었다 9월 소비자물가 5.6% 상승...두 달 연속 상승세 둔화 이재용·손정의 회동… ARM 지분 매각 등 구체적 논의는 없어 네이버, 북미 최대 패션플랫폼 C2C 포쉬마크 인수...美 커머스 시장 상륙 코레일-SR 간부, 최근 5년간 경조사비 지원금 14억5천만원 받아 SK에코플랜트, 공사현장 경리직원이 7억여원 횡령...130여차례 걸쳐 자금 인출 Editor’s PICK 현대백화점, 아울렛 화재 사고 보상 발표…협력업체에 긴급 생활자금 지원 ‘킹달러’에 외환보유액 197억달러 급감…금융위기후 최대폭 '최대 적자' 한전, 한우·오마카세 회식에 법카 '펑펑'... "요금인상 납득 못할 것" 한전, 30조 적자 위기에 명동땅 등 헐값 급매…1700억원 손해 추산 건보공단, 4년간 임직원 부모 50명 등 197명 친인척 채용 회사소개 광고문의 개인정보취급방침 청소년보호정책 이메일무단수집거부 저작권규약 인터넷윤리강령 등록번호 : 서울 아05063 / 등록일자 : 2012년 6월 10일 / 발행일자 : 2012년 6월 10일 법인명 : 주식회사 더파워미디어 / 제호 : 더파워 / 발행인 : 유석규 / 편집인 : 최일혁 고문변호사 : 안형진 (법무법인건우) / 청소년보호책임자 : 이경호 CONTACT Tel : 02-784-7717 / Fax : 02-780-7719 / Email : news@thepowernews.co.kr Address : 서울 영등포구 국회대로70길 22, 408호(여의도동, 금강빌딩) Copyright©더파워. All rights reserved.</t>
+  </si>
+  <si>
+    <t>마스크 미착용 관광객은 ‘NO’...제주도 방역지침 업소 권고 &lt; 전국 &lt; 기사본문 - BBS NEWS 주요서비스 바로가기 본문 바로가기 매체정보 바로가기 로그인 바로가기 기사검색 바로가기 전체서비스 바로가기 상단영역 최종편집 : 2022-10-11 14:47 (화) 로그인 회원가입 BBS불교방송 홈페이지 바로가기 상세검색 facebook twitter kakaostory youtube 전체 경제 정치 제 20대 대통령 선거 사회 문화ㆍ스포츠 불교 국제 전국 BBS 인터뷰 BBS 칼럼 BBS 취재수첩 BBS PLAZA 인사/부고 검색 기사검색 검색 본문영역 이전 기사보기 다음 기사보기 마스크 미착용 관광객은 ‘NO’...제주도 방역지침 업소 권고 바로가기 복사하기 본문 글씨 줄이기 본문 글씨 키우기 스크롤 이동 상태바 현재위치 홈 전국 마스크 미착용 관광객은 ‘NO’...제주도 방역지침 업소 권고 기자명 이병철 기자 입력 2020.04.29 10:43 수정 2020.04.29 11:08 댓글 0 바로가기 복사하기 본문 글씨 줄이기 본문 글씨 키우기 SNS 기사보내기 페이스북(으)로 기사보내기 트위터(으)로 기사보내기 카카오스토리(으)로 기사보내기 카카오톡(으)로 기사보내기 네이버밴드(으)로 기사보내기 URL복사(으)로 기사보내기 이메일(으)로 기사보내기 다른 공유 찾기 기사스크랩하기 이 기사를 공유합니다 페이스북(으)로 기사보내기 트위터(으)로 기사보내기 카카오스토리(으)로 기사보내기 카카오톡(으)로 기사보내기 네이버밴드(으)로 기사보내기 URL복사(으)로 기사보내기 닫기 제주도가 황금연휴를 맞아 사회적 거리두기 방역 지침을 도내 다중이용업소에 권고한다고 오늘(29일) 밝혔습니다.대상은 일반음식점과 유흥주점, 숙박업, 미용업, 목욕업 등 모두 2만3천833개소입니다.제주도는 중앙재난안전대책본부의 생활 속 거리두기 세부지침을 활용해 업소별 방역 매뉴얼을 마련하고 배포합니다.권고 내용을 살펴보면 종업원과 관광객 마스크 착용 의무화, 발열과 호흡기 증상이 있거나 14일 이내 해외여행을 한 경우 방문하지 않기, 머무르는 시간 최소화, 유증상자 발생 즉시 격리 조치와 보건당국 신고 등입니다. 이병철 기자 taiwan0812@hanmail.net 다른기사 보기 저작권자 © BBS NEWS 무단전재 및 재배포 금지 당신만 안 본 뉴스 정토사회문화회관 개관, '사회공헌·포교'의 전당 ‘모두의 행복 발원’ 영평사에서 낙화전통문화축제 서울의 첫 수도 "한성백제문화제"...9/30~10/3 올림픽공원에서 공군 블랙이글스, 한강공원 에어쇼 우천으로 취소 미륵도량 봉덕사 "희망의 노래 전통차 축전" "건강한 자연 음식을"...봉녕사 사찰음식 대향연 개막 조계종 제37대 총무원장 진우스님 5일 취임 법회...BBS 생중계 정토사회문화회관 개관, '사회공헌·포교'의 전당 댓글삭제 삭제한 댓글은 다시 복구할 수 없습니다. 그래도 삭제하시겠습니까? 비밀번호 삭제 닫기 기사 댓글 0 댓글 접기 로그인 후 이용 가능합니다. 댓글 내용입력 0 / 400 비회원 로그인 이름 비밀번호 댓글 내용입력 0 / 400 등록 댓글쓰기 계정을 선택하시면 로그인·계정인증을 통해 댓글을 남기실 수 있습니다. 회원 로그인 비회원 글쓰기 이름 비밀번호 자동등록방지 확인 취소 로그인 옵션 창닫기 주요기사 취임 100일 하윤수 부산교육감 "공교육 새로운 모델 만들 것" 부산 산업단지 통근버스 6개 노선 신설 제주, 1천억원 혈세 투입된 ‘버스 준공영제’...업체 반발로 ‘스톱’ 마포구, 이제 쓰레기 소각장 불필요..."분쇄 매립+재활용 고도화 대안" 제시 검찰, '서해 공무원 피격' 안영호 전 합참 작전본부장 조사 학생들에게 성적인 농담한 교사...법원, "해임 적법" 최신뉴스 전국 취임 100일 하윤수 부산교육감 "공교육 새로운 모델 만들 것" 전국 부산 산업단지 통근버스 6개 노선 신설 전국 제주, 1천억원 혈세 투입된 ‘버스 준공영제’...업체 반발로 ‘스톱’ 사회 마포구, 이제 쓰레기 소각장 불필요..."분쇄 매립+재활용 고도화 대안" 제시 사회 검찰, '서해 공무원 피격' 안영호 전 합참 작전본부장 조사 포토뉴스 취임 100일 하윤수 부산교육감 "공교육 새로운 모델 만들 것" 부산 산업단지 통근버스 6개 노선 신설 제주, 1천억원 혈세 투입된 ‘버스 준공영제’...업체 반발로 ‘스톱’ 마포구, 이제 쓰레기 소각장 불필요..."분쇄 매립+재활용 고도화 대안" 제시 인기뉴스 1 조계종 제6대 군종교구장에 능원스님 단독 추천 2 김기선 팀장 “11월 24일부터 종이컵 등 일회용품 무상제공 금지” 3 관음성지 양양 낙산사, 가을 맞이 사찰음식 나눔 잔치 4 무주 일가족 사상사고...보일러 배기관 막혀 5 [뉴스파노라마 한글날 특집] 김영수 관장 "한글, 한국문화 직조하는 씨줄 날줄...귀하게 여겨 잘 썼으면" 6 러시아, 우크라 전역에 미사일 보복 공습...백여명 사상 7 '하루가 멀다 하고 또'…충북 교육계 성추문 얼룩 8 조계종 제18대 직능대표와 비구니 중앙종회의원 30명 선출 BBS 칼럼 전경윤의 ‘세상살이’ 전영신의 ‘시선’ 신두식의 ‘공감노트’ 배재수의 ‘크로키’ 이현구의 ‘스윗 스팟’ 선임기자 칼럼 하단영역 하단메뉴 매체소개 기사제보 광고문의 이용약관 개인정보처리방침 청소년보호정책 저작권보호정책 이메일무단수집거부 매체정보 BBS불교방송(재) 서울특별시 마포구 마포대로 20 (다보빌딩) 대표전화 : 02-705-5114 팩스 : 02-705-5229 청소년보호책임자 : 배재수 제호 : BBS NEWS 등록번호 : 서울 아 01259 등록일 : 2010-06-03 발행일 : 2001-09-01 발행인 : 서주영(금호) 편집인 : 전경윤 BBS NEWS 모든 콘텐츠(영상,기사, 사진)는 저작권법의 보호를 받는 바, 무단 전재와 복사, 배포 등을 금합니다. Copyright © 2022 BBS NEWS. All rights reserved. mail to webmaster@bbsi.co.kr 위로 전체메뉴 전체기사 경제 정치 전체 20대 국회 국정감사 트럼프 당선 2017 국회 국정감사 2018 남북정상회담 6.12 북미 정상회담 제7회 전국동시지방선거 2차 북미정상회담 21대 국회의원 총선거 제20대 대통령 선거 제8회 전국동시지방선거 사회 전체 2018학년도 대입 수능 뉴스줌인 인터넷 야단법석 문화ㆍ스포츠 전체 2016 리우올림픽 2018 동계올림픽 2018 동계 패럴림픽 2018 러시아월드컵 2018 아시안게임 2020 도쿄올림픽 불교 전체 2018 무술년 신년인사 스리랑카 대통령 방한 제35대 총무원장 설정스님 2017 올해의 사자성어 당신이 연꽃입니다 기획보도 전통사찰을 가다 단박인터뷰 2018 부처님 오신날 2019 차문화대축제 3.1운동 100주년 월주 대종사 원적 2021 신축년 불교계 플랜 국제 전국 전체 전국네트워크 BBS 인터뷰 전체 BBS 전영신의 아침저널 BBS 뉴스파노라마 지방사 인터뷰 BBS 화쟁토론 BBS 경제토크 BBS 뉴스와 사람들 BBS 기획/단독 BBS 칼럼 전체 박경수의 '삼개나루' 전영신의 '시선' 신두식의 '공감노트' 배재수의 '크로키' 전경윤의 '세상살이' 선임기자 칼럼 이현구의 '북악산 자락' 권예진의 거꾸로 세상보기 양창욱의 ‘야단법석(野壇法席)’ 명사 칼럼 김호준의 '내시경' 이현구의 스윗 스팟 BBS 취재수첩 BBS 개국 30주년 BBS 장군죽비 BBS PLAZA 인사/부고 기타 BBS 라디오 TV 알찬뉴스 지난 뉴스 다시보기 이전기사 전체메뉴닫기</t>
+  </si>
+  <si>
+    <t>황금연휴 첫날, 제주도를 찾은 관광객은 신종 코로나 사태 이후 가장 많았다 &lt; 뉴스&amp;이슈 &lt; 기사본문 - 허프포스트코리아 주요서비스 바로가기 본문 바로가기 매체정보 바로가기 로그인 바로가기 기사검색 바로가기 전체서비스 바로가기 상단영역 전체기사보기 facebook twitter kakaostory youtube instagram 검색버튼 검색 검색 검색닫기 Login Join 글로벌 뉴스&amp;이슈 보이스 라이프 엔터테인먼트 허프트렌드 허프피디아 닫기 전체기사 글로벌 전체 미국 아시아 유럽 뉴스&amp;이슈 전체 정치 경제 사회 보이스 전체 여성 성소수자 장애인 동물 환경 라이프 전체 섹스&amp;건강 테크&amp;머니 여행 음식 스타일 코로나19 엔터테인먼트 전체 연예인&amp;셀럽 TV 영화 OTT 유튜브 음악 K-POP 공연&amp;미술 스포트라이트 허프트렌드 허프피디아 전체 반려동물 여행과 사람 메타버스&amp;NFT AI해외주식 기사검색 검색 독자제보 약관 및 정책 본문영역 이전 기사보기 다음 기사보기 황금연휴 첫날, 제주도를 찾은 관광객은 신종 코로나 사태 이후 가장 많았다 바로가기 복사하기 본문 글씨 줄이기 본문 글씨 키우기 스크롤 이동 상태바 현재위치 뉴스&amp;이슈 황금연휴 첫날, 제주도를 찾은 관광객은 신종 코로나 사태 이후 가장 많았다 ‘사회적 거리두기’가 지켜지지 않고 있다. 김현유 입력 2020.04.30 15:39 SNS 기사보내기 페이스북(으)로 기사보내기 트위터(으)로 기사보내기 카카오스토리(으)로 기사보내기 카카오톡(으)로 기사보내기 URL복사(으)로 기사보내기 다른 공유 찾기 부처님이 은덕을 내리신 받은 황금연휴 첫날, 제주도에 수많은 관광객들이 몰려들었다. 코로나19 사태 이후 최다치다. 30일 제주도관광협회에 따르면 이날 하루 입도객은 4만5000명에 다를 것으로 예상된다. 당초 예상인 3만명을 훌쩍 뛰어넘는 수치로, 황금연휴 기간 동안 관광객은 최대 22만명에 달할 것으로 전망된다. 이날 인천국제공항 국제선이 텅 빈 것에 반해, 김포국제공항 국내선 청사에는 수많은 인파가 몰렸다. 관광객으로 가득 찬 김포공항 국내선. 2020. 4. 30. ⓒ뉴스1 관광객으로 붐비는 제주 협재해수욕장. 2020. 4. 30. ⓒ뉴스1		 현재 제주를 대표하는 관광지인 성산일출봉, 송악산, 해수욕장 등은 코로나19 사태 이전과 크게 달라 보이지 않는 상황이다. 마스크를 챙기지 않은 관광객도 있었고, ‘사회적 거리두기’ 역시 지켜지지 않았다. 렌터카로 붐비는 제주시 애월읍 한담해변 인근 도로. 2020. 4. 29. ⓒ뉴스1		 제주도 방역당국은 특별 입도 절차 등을 통해 입도하고자 하는 방문객에 대한 발열 및 코로나19 증상 여부에 대한 검사를 진행하고 있다. 제주도 방역당국은 또 음식점 등 도내 다중이용 업소에 마스크 착용 등 방역 지침을 지키지 않는 손님을 받지 말라고 권고한 상태다. 광고 허프포스트코리아 오리지널 비디오 원희룡 제주지사는 연휴 전날 ”모든 입도객은 국경을 넘는다는 마음가짐으로 방역 절차에 협조해 달라”고 당부한 바 있다. 김현유 에디터: hyunyu.kim@huffpost.kr SCRAP SHARE 저작권자 © 허프포스트코리아 무단전재 및 재배포 금지 이 기사를 공유합니다 페이스북(으)로 기사보내기 트위터(으)로 기사보내기 카카오스토리(으)로 기사보내기 카카오톡(으)로 기사보내기 URL복사(으)로 기사보내기 닫기 구독 및 팔로우 주요 기사와 블로그를 매일 이메일로 받으세요. 뉴스레터에는 맞춤형 콘텐츠나 광고가 들어갈 수 있습니다. 더 알아보기 뉴스레터 구독신청 이메일 주소를 정확히 입력해 주세요 Facebook Twitter 오늘의 인기기사 안철수 국민의힘 의원은 유승민과 나경원에게 당 대표에 출마하라고 권유했고, 이를 보던 홍준표는 뼈 때리는 일침을 가했다 영화 '라스베가스를 떠나며' 만든 니콜라스 케이지와 감독 마이클 피기스는 흥행 대박 나고도 한 푼도 못 받았다 (ft.반응) "기독교 신자라는 공통점" 배우 선우은숙이 4살 연하 아나운서 유영재와 결혼한다 "한밤중 잠에서 깨 화장실에 가고 싶다면?" 숙면을 위해 잠자기 전에 하지 말아야 하는 꿀잠 팁을 방출한다 (연구 결과) 우상호 더불어민주당 의원은 윤석열 대통령의 조문 취소에 대해 "이XX', '저XX' 하는 사람한테 어떻게 감히 건의하겠나"라고 말했다 김현유 연관 검색어 클릭하면 연관된 모든 기사를 볼 수 있습니다 #코로나19 #신종 코로나바이러스 #여행 #제주 하단영역 하단메뉴 회사소개 수시채용 독자제보 광고상품 오시는 길 약관 및 정책 매체정보 서울특별시 마포구 토정로 310 (한국카본빌딩) 4층 대표전화 : 02-6958-9012 팩스 : 070-8299-5157 청소년보호책임자 : 신철 법인명 : 허프포스트코리아(유) 제호 : 허프포스트코리아 등록번호 : 서울 아 03003 등록일 : 2014-02-10 발행·편집인 : 최태형 편집장 : 강나연 Copyright © 2022 허프포스트코리아. All rights reserved. mail to ps@nativelab.co.kr / huffkorea@gmail.com 위로 전체메뉴 전체기사 글로벌 전체 미국 아시아 유럽 뉴스&amp;이슈 전체 정치 경제 사회 보이스 전체 여성 성소수자 장애인 동물 환경 라이프 전체 섹스&amp;건강 테크&amp;머니 여행 음식 스타일 코로나19 엔터테인먼트 전체 연예인&amp;셀럽 TV 영화 OTT 유튜브 음악 K-POP 공연&amp;미술 스포트라이트 허프피디아 전체 반려동물 여행과 사람 메타버스&amp;NFT AI해외주식 전체메뉴닫기</t>
+  </si>
+  <si>
+    <t>제주도처럼…골든위크 맞은 日오키나와도 '관광객 공포' - 머니투데이 본문영역 바로가기 로그인 전체 뉴스 경제정책 증권 정치 부동산 국제경제 사회 산업 IT 금융 벤처·스타트업 블록체인 문화 포토 포토 더차트 더그래픽 영상 MT 영상 더영상 전체기사 증권 뉴스 시세/공시 코스피 코스닥 코넥스 상승/하락 상하한가 시가총액 거래량상위 신규상장 주요공시 포인트&amp;전략 펀드 펀드IR 국내펀드 해외펀드 유형종합 종목대해부 베스트리포트 MY스톡 정치 법률 유니콘팩토리 칼럼 데스크칼럼 사내칼럼 현장리포트 사외칼럼 SUCCESS SCIENCE 자동차 최신기사 신차소식 시승기 카라이프 연예 연예 스포츠 이슈 핫이슈 전체핫이슈 이슈키워드 연중기획 실시간급상승 베스트클릭 사람&amp; 피플 MT초대석 인터뷰 대표선배 인사 부고 MT리포트 뉴스 경제정책 증권 정치 부동산 국제경제 사회 산업 IT 금융 벤처·스타트업 블록체인 문화 포토 영상 전체기사 증권 뉴스 시세/공시 포인트&amp;전략 펀드 종목대해부 베스트리포트 MY스톡 정치 - the300 법률 - the L 칼럼 데스크칼럼 사내칼럼 현장리포트 사외칼럼 SUCCESS SCIENCE 자동차 최신기사 신차소식 시승기 카라이프 연예 연예 스포츠 이슈 핫이슈 실시간급상승 베스트클릭 사람&amp; VIP VIP Only VIP Story T.O.M 투자디렉터 런치리포트 the L ICT &amp; Tech Culture FULL TEXT 초판/e-신문보기 서비스 신청 전체보기 닫기 속보 나희승 코레일 사장 "KTX 이용 유출 대상 민간인에 사과" "왜 신고했어" 앙심에 지인 때린 60대 구속…피해자는 시력잃어 포스코홀딩스, 아르헨티나 염수 리튬 2단계 투자 결정 롯데제과 '빵빠레 샌드 카스타드' 회수, 세균수 기준 초과 "'연준 피벗' 없이는 증시 상황 안 바뀔 것…현금 비중 높여라" "용돈 줄게"…여고생 2명 집으로 유인해 추행한 40대 수세 몰리자 '무차별 미사일'…푸틴의 선택이 키운 우려, 다음은? 웰바이오텍, 매니 파퀴아오 vs D.K. YOO 매치 후원 "우크라이나 지원 나선다" 北 저수지 아래 잠수함 없었다…'전대미문 SLBM', 왜 '러브 액추얼리'처럼 메모 써서 보이스피싱 구출…은행원 감사패 나희승 코레일 사장 "KTX 이용 유출 대상 민간인에 사과" "왜 신고했어" 앙심에 지인 때린 60대 구속…피해자는 시력잃어 포스코홀딩스, 아르헨티나 염수 리튬 2단계 투자 결정 롯데제과 '빵빠레 샌드 카스타드' 회수, 세균수 기준 초과 "'연준 피벗' 없이는 증시 상황 안 바뀔 것…현금 비중 높여라" "용돈 줄게"…여고생 2명 집으로 유인해 추행한 40대 수세 몰리자 '무차별 미사일'…푸틴의 선택이 키운 우려, 다음은? 웰바이오텍, 매니 파퀴아오 vs D.K. YOO 매치 후원 "우크라이나 지원 나선다" 北 저수지 아래 잠수함 없었다…'전대미문 SLBM', 왜 '러브 액추얼리'처럼 메모 써서 보이스피싱 구출…은행원 감사패 검색창 열기 통합검색 검색 닫기 전체 뉴스 경제정책 증권 정치 부동산 국제경제 사회 산업 IT 금융 벤처·스타트업 블록체인 문화 포토 영상 전체기사 증권 뉴스 시세/공시 포인트&amp;전략 펀드 종목대해부 베스트리포트 MY스톡 정치 - the300 법률 - the L 칼럼 데스크칼럼 사내칼럼 현장리포트 사외칼럼 SUCCESS SCIENCE 자동차 최신기사 신차소식 시승기 카라이프 연예 연예 스포츠 이슈 핫이슈 실시간급상승 베스트클릭 사람&amp; VIP VIP Only VIP Story T.O.M 투자디렉터 런치리포트 the L ICT &amp; Tech Culture FULL TEXT 초판/e-신문보기 서비스 신청 전체보기 닫기 제주도처럼…골든위크 맞은 日오키나와도 '관광객 공포' sns공유 더보기 제주도처럼…골든위크 맞은 日오키나와도 '관광객 공포' 머니투데이 박수현 인턴기자 기자 더보기 sns공유 더보기 VIEW 5,131 2020.04.27 11:18 글자크기 글자크기조절 가나다라마 가나다라마 가나다라마 가나다라마 가나다라마 의견 남기기 [도쿄=AP/뉴시스]지난 1일 도쿄의 아사쿠사 거리에 신종 코로나바이러스 감염증(코로나19) 확산을 막기 위해 "불필요하고 급하지 않은 외출은 자제해주세요"라는 표시판이 걸려있다. 2020.04.02. 일본 최대의 휴일인 골든위크가 '공포의 한 주'로 바뀌었다. 일본 정부와 지자체의 '외출자제' 권고에도 불구하고 골든위크 기간 휴가를 즐기기 위한 움직임이 보이고 있어서다. 일본 곳곳의 우려 목소리도 커지고 있다. 다마키 데니 오키나와 도지사는 지난 26일 자신의 트위터에 "항공사 예약에 의하면 이번 골든위크에 오키나와에 오는 관광객이 6만명 남짓이라고 한다"며 "유감스럽지만, 오키나와는 비상사태 선포 체제로 충분한 대접을 도저히 할 수 없다"고 밝혔다. 그는 "의료체제도 비상이다. 아무쪼록 지금의 오키나와 여행을 취소하고 수용 가능한 시기까지 기다려 달라. (골든위크가 아닌) '스테이 홈 위크(Stay home week)'를 해달라"고 호소했다. 일본의 '골든위크'란 4월29일 쇼와의 날을 시작으로 5월3일 헌법기념일, 5월4일 녹색의 날, 5월5일 어린이날 등 5월 6일까지 한 주 넘게 이어지는 공휴일을 뜻한다. 예년의 골든위크는 관광업계 대목으로 불리며 경제에 활기를 불어넣어 왔지만, 이번에는 방역 구멍이 될 수 있다는 우려를 낳고 있다. 아베 총리는 지난 17일 기자회견에서 "곧 있으면 연휴가 오지만 감염자가 많은 도시와 지방으로의 이동은 반드시 피해야 한다. 이렇게 되면 가장 두려워해야 할 사태인 '전국적이고 급속한 확산'이 일어날 것"이라고 경고했다. 이즈미 가몬 도쿠시마현 지사는 지난 24일 영상회의에서 "골든위크 기간 동안 정부가 관리하는 도로를 막아달라"고 요청하기도 했다. 그러나 일본 정부는 아직까지 외출 자제 권고를 할 뿐 봉쇄 조치는 시행하지 않겠다는 입장이다. 일본 정부는 코로나19 유행에 따라 지난 7일 수도 도쿄도 등 7개 도부현에 긴급사태선언을 발령했으며, 16일엔 발령 지역을 전국으로 확대하고 각 지자체를 통해 주민들의 외출자제와 재택근무, 비필수 상점 휴업 등을 요청했다. 다만 모든 정책은 권고일 뿐 강제성이 없어 사람들의 이동을 막지 못한다는 지적이 나왔다. 긴급사태선언 후 3주가량이 지난 지금도 일본의 코로나19 확진자 수는 매일 큰 폭으로 증가하고 있다. 아사히신문에 따르면 지난 26일 오후 10시 30분 기준 일본의 코로나19 확진자는 크루즈선 감염자를 포함해 1만 4158명으로, 전날보다 210명 증가했다. &lt;저작권자 © ‘돈이 보이는 리얼타임 뉴스’ 머니투데이, 무단전재 및 재배포 금지&gt; 공감 0% 비공감 0% 박수현 literature1028@mt.co.kr 기자의 다른기사 "매일 밤 아내가 보챕니다" 결혼 10년차 남편의 비결은? 머니투데이 댓글 작성을 위해 JavaScript를 활성화해주세요 머니투데이 주요뉴스 "코스피 바닥 근접, 팔지 마라…반등은 내년 2분기 이후" 연준 "4.5% 위에서 금리 인상 중단"…급격한 경기 둔화 위험 언급 미국 연준(연방준비제도)의 주요 인사 2명이 지난달 예고한 대로 금리를 올릴 계획이라고 밝히면서 향후 금리 인상에 주의할 필요가 있다는 점을 인정했다.10일(현지시간) 월스트리트 저널(WSJ)에 따르면 라엘 브레이너드 연준 부의장과 찰스 에반스 시카고 연방준비은행 총재는 이날 시카고에서 열린 전미 실물경제협회(NABE) 연레회의에 참석해 이같이 밝혔다.이들은 인플레이션을 연준의 목표치인 2%로 끌어내리는 데는 시간이 걸리고 지난달 공개된 연준의 금리 전망치에 따라 내년 초까지 금리를 4.5% 위로 올릴 것이라는 입장에는 변함이 없었... 52주 신저가만 470개…코스피 2%대·코스닥 4%대 급락 한은, 내일 빅스텝 유력…기준금리 3% 시대 온다 中 '반도체 굴기' 때린 미국…삼성·SK하이닉스 '호재' 단독 세계 최대 '교육계 다보스포럼', 처음으로 한국서 열린다 "주식 팔고 OO 샀다"…개미도 외국인도 몰려간 곳 단독 맞춤 패키지로 K원전 수출한다 '의문의 죽음' 英 신생아 7명의 공통점은… '아이폰14 프로' 들고 놀이기구 탔더니 911 출동 "삽시간에 쓸어" 베네수엘라 대규모 산사태 실시간 급상승 9.9 베스트클릭 종합 국제 "걸리면 절반 사망, 백신도 없다"…코로나 잠잠해지자 '에볼라 주의보' "횡령 내가 했다" 큰아들 감싼 박수홍 父, 계좌 비밀번호도 몰라 '풀소유 논란'에 사라진 혜민스님, 2년 만에 포착된 근황 "9억 아파트·11억 주택 있다" 대리기사 말에 격분해 폭행한 60대 "돈 많으면 때려" 말에 35차례 종업원 폭행 사망…업주 '징역 7년' '만취' 신혜성 왜 도난車 운전?…"발레파킹 직원이 열쇠 줘서 착각" "클럽서 따라 놓은 술 마셨다가…" 마약의 늪에 빠진 사람들 "이번주 금리 0.5%p 더 올린다"...전문가 10명 만장일치 [속보]사실상 일제고사 부활, 尹 "줄 세우기 비판에 아이들 방치, 미래 어두워" "日지배로 韓 발전했다"던 美하버드대…항의하자 돌아온 답변 이전 다음 9, 18, 27, 36, 45, 54…이 번호로 로또 1등 433명 나온 필리핀 손주 4명 한꺼번에 호적에서 파낸 여왕…유럽 군주제 소멸하나 [영상] 경찰 포위되자…1살 친아들 '인간 방패' 삼은 美 20대 아빠 [더영상] 1살 아들 '인간 방패' 삼은 美 아빠…파리 달군 '스프레이' 드레스 "허리통증 싹 사라져" 수백명 엉금엉금…中서 '악어걸음' 열풍 "日지배로 韓 발전했다"던 美하버드대…항의하자 돌아온 답변 칠순 맞은 푸틴, 절친 대통령이 보낸 선물은 '트랙터·수박' 푸틴 손에 넘어갔던 '4곳' 다 뚫렸다…우크라군, 루한스크 첫 진입 美 탈의실서 '대변' 본 손님…손으로 만진 직원은 충격에 퇴사 사라진 러시아 핵어뢰 잠수함…푸틴이 '버튼' 누르면 벌어지는 일 이전 다음 MT리포트 '여가부 폐지' 약속 지킨 尹정부…"오히려 기능 강화" 기대와 우려 이슈패키지 2022 국정감사 "농진청 쌀 생산량 예측 능력 정확도 높여야" 野 "금감원, 도이치모터스 경찰 공조 부적절"…이복현 "공식 공문 없었다" 독일 헤리티지 분쟁 조정 왜 늦어지나... 이복현 원장 "신속히 처리 노력" 그린비즈니스위크 2022 K-탄소중립 현재·미래 한 눈에, GBW 2022 D-5.."등록하세요" 탄소중립 미래도 보고 일자리도 잡을 기회…그린 전환 잡콘서트 D-7 기후협상 산증인부터 벽안 석학, 글로벌기업까지..GBW 개막총회 총출동 2023년 예산안 "허리띠 졸라매고"...尹정부 첫 예산안, '역대 최대' 24조 칼질 尹대통령은 반도체 초강대국 주문했는데…'기재부' 벽 못넘은 지원 예산 장관 없어도 '100조 부처' 등극한 복지부·교육부 이전 다음 최신뉴스 국제 마켓 수세 몰리자 '무차별 미사일'…푸틴의 선택이 키운 우려, 다음은? '의문의 죽음' 英 신생아 7명의 공통점…담당 간호사 같았다 실리콘밸리의 '러시아인 최고 갑부', 러 국적 포기했다 [영상] "딸 겁 먹어 우는데" 흔들다리 움직이던 中아빠…여아 결국 추락 中배터리 CATL, 올해 3분기까지 '작년 순익' 넘게 벌었다 "주식 팔고 OO 샀다"…개미도 외국인도 몰려간 곳 노장 성장호르몬의 '회춘'…동아에스티 바이오 성장 이끈다 일시적 2주택 미처분 가산세 없애고 하이브리드車 취득세 면제 연장 한올바이오파마 HL161 중국사업권, 하버바이오에서 CSPC로 이전 주가 70% 빠진 카카오…"4만원대로 추락" 장초반 신저가도 오늘의 꿀팁 많이 본 뉴스 일주일 1개월 6개월 1년 김영민, 윤형빈과 갈등…"나를 죽이려고 해, 10년 넘게 안봤다" '방송 퇴출' 조형기, 한국 떠났나…美 한인타운서 찍힌 사진 보니 박수홍, 父 폭행 후 속병 고백…"약물 치료, 아내와 같이 욕한다" 공감 "김신영 첫 녹화인데 서럽다"…'전국노래자랑' 대구서 불만 터진 이유 비공감 유혜영, '옥중 이혼' 나한일과 재결합했지만…"따로 산다" 왜? 내가 알던 안성기 맞아?…확 달라진 모습에 '건강 이상' 우려까지 이휘재, 데뷔 30년만에 활동 중단→가족과 캐나다행…무슨 일? "곽도원, 술상 엎고 후배 배우 비하·폭언…가족까지 괴롭혀" 주장 나와 공감 "벨 눌러 아이 깨면 환불" 황당 요청에 '주문 취소' 응징한 사장님 비공감 이휘재, 주요 예능 사실상 퇴출→캐나다행…"큰 상실감 느껴" 정선희 "장례 치르는데 김건모 오빠가 김영철 쫓아냈다"… 왜? 이휘재, 데뷔 30년만에 활동 중단→가족과 캐나다행…무슨 일? 고명환, 교통사고로 시한부 판정→"연매출 13억원" 사업가 변신 공감 김신영, '평생 직장' 전국노래자랑 출연료는?…"회당 OOO만원" 비공감 '故안재환과 사별' 정선희 "나 정도면 미혼…문란하게 살고파" 이휘재, 주요 예능 사실상 퇴출→캐나다행…"큰 상실감 느껴" 고명환, 교통사고로 시한부 판정→"연매출 13억원" 사업가 변신 '방송 퇴출' 조형기, 한국 떠났나…美 한인타운서 찍힌 사진 보니 공감 아내에 쓴 편지, 우표 대신 천원 넣었다가…우체국서 온 '감동' 답변 비공감 53세女 "30대 남성들이 너무 대시해"…서장훈 "이해 안돼" 오피니언 '복합경제위기' 해법은 없어도 돌파구는 있다 광화문 원희룡, '집값 너무 높다'고 말했을 뿐인데 우리가 보는 세상 포켓몬, 열풍이 역풍 된다? 기자수첩 티타임즈 [30년 개발자의 애플 주식강의] 누가 차를 장악할까? 테슬라의 자율주행 vs 애플의 자동차 OS? 더리더 '여야 동수' 경기도의회 … 염종현 의장이 그리는 '협치' 스타일M 선미 vs 모델, 어깨 드러낸 오프숄더 룩…같은 옷 다른 느낌 스타뉴스 음주 재범+상습도박 재조명..신혜성, 하루아침에 날벼락[★NEWSing] MoneyS [르포] 제약바이오 채용박람회… 인사담당자가 강조한 '이것'은? IZE “내 맘이다!” 시원하게 외치는 개성만점 여성버디... the300 나희승 코레일 사장 "KTX 이용 유출 대상 민간인에 사과" theL 故 이예람 특검, 수사 결과 13일 오후 발표…전익수 기소 여부 주목 포토 / 영상 7 올가을 최저 기온에 목도리 패딩 등장 6 오늘부터 무비자 일본 관광 재개 9 전여빈 '4차원 미모' 15 '주먹 쥔 파퀴아오' 킹받게 매운 고추, 맵찔이도 외국인도 맛있게 먹을 수 있는 요리법 1020 울리는 댈입 댈구, 연 이자가 무려... '이 번호'로 로또 1등 433명 나온 필리핀 4K 시대에 게임 방송은 720p로 봐야 한다고?! 16 '아이폰14' 국내 출시 6 코스닥 700선 회복, 환율 1402.4원 마감 9 레드벨벳 예리 '패딩+미니스커트 귀여운 공항패션' 45 화려한 'TMA 레드카펫' 커피 없는 일상, 현실이 될 수 있다고? 할머니도 놀란다는 요즘 애들 입맛 요즘 명품 로고들이 다 똑같아 보이는 이유 Q. 어제는 900원 오늘은 1000원인 것은? 7 '여가부 폐지·보훈부 격상·재외동포청 신설' 6 北, 이틀만에 또 탄도미사일 발사 20 부산국제영화제 찾은 이지은 9 김유정 'BIFF 반가워요' '아이폰14' 공개 동시에 조롱거리 된 이유 포토카드 하나가 20만원? 팬덤이 키운 포카 시장 '진짜 한국 같아!' 도한놀이에 빠진 일본 MZ들 찍었다하면 인생샷! 핫플레이스의 정체는? 이전 다음 머니투데이 SERVICE 뉴스 경제정책 증권 정치 부동산 국제경제 사회 산업 IT 금융 벤처·스타트업 블록체인 문화 포토 영상 전체기사 증권 뉴스 시세/공시 포인트&amp;전략 펀드 종목대해부 베스트리포트 MY스톡 칼럼 데스크칼럼 사내칼럼 현장리포트 사외칼럼 SUCCESS SCIENCE 자동차 최신기사 신차소식 시승기 카라이프 연예 연예 스포츠 이슈 핫이슈 실시간급상승 베스트클릭 사람&amp; MT리포트 시세판 속보창 전문지·서비스 VIP 머니투데이 스타뉴스 스타일M 스포탈코리아 OSEN 키플랫폼 티타임즈 MnB창업 MT해양 자전거 the300 thebell theL 유니콘팩토리 MTN 노트펫 앱어워드 이로운넷 PIXTA 매거진 머니S 더리더 대학경제 로피시엘 레옹 IZE 캠페인 U클린 쿨머니 머니투데이 공식 SNS 채널 SNS MT 페이스북 MT 인스타그램 MT 트위터 MT 틱톡 MT 네이버포스트 MT 유튜브 싱글파이어 유튜브 부릿지 유튜브 부꾸미 유튜브 MT 비즈센터 머니투데이 회사소개 구독신청 개인정보처리방침 청소년보호정책 이용약관 광고안내 제휴안내 저작권규약 기사제보 고충처리 주소 서울특별시 종로구 청계천로 11 청계한국빌딩 (서린동)   제호 머니투데이   등록번호 서울 아 01084   등록일 2009.12.24사업자등록번호 101-81-50419   발행일 2020.01.01   ISSN 2636-0055대표이사/발행인/편집인 박종면   대표번호 02-724-7700   청소년 보호책임자 신택균 머니투데이의 모든 기사(콘텐츠)는 저작권법의 보호를 받으며, 무단 전재 복사 배포 등을 금지합니다.COPYRIGHT © MONEYTODAY ALL RIGHTS RESERVED. [인증범위]온라인 뉴스 서비스 운영(머니투데이)[유효기간]2020.11.04~2023.11.03</t>
+  </si>
+  <si>
+    <t>황금연휴 시작, 제주도 방역 강화…“관광객 18만명..마스크 미착용자 제한" - 뉴스인사이드 × 전체기사 연예 전체 인터뷰 기획 방송 가요 영화 스포츠 경제 전체 가상화폐 환율인사이드 주식종합 정치 사회 생활 전체 잡인사이드 미세먼지 날씨뉴스 공연정보 물가정보 유가정보 게임 English 中國語 포토 영상 2022-10-11 14:50 (화) 모바일웹 검색버튼 기사검색 검색 전체 연예 전체 방송 가요 영화 기획 스포츠 경제 정치 사회 라이프 인터뷰 GOLF GOLMATE 페이스북 네이버 포스트 네이버 블로그 카카오스토리 카카오채널 유튜브 이전 다음 황금연휴 시작, 제주도 방역 강화…“관광객 18만명..마스크 미착용자 제한" 기사공유하기 프린트 메일보내기 글씨키우기 가나다라마바사 가나다라마바사 가나다라마바사 가나다라마바사 가나다라마바사 가나다라마바사 HOME 연예 황금연휴 시작, 제주도 방역 강화…“관광객 18만명..마스크 미착용자 제한" 승인 2020.04.30 07:13 댓글 0 기사공유하기 프린트 메일보내기 글씨키우기 가나다라마바사 가나다라마바사 가나다라마바사 가나다라마바사 가나다라마바사 가나다라마바사 이 기사를 공유합니다 페이스북 트위터 카카오스토리 구글+ 네이버밴드 네이버블로그 네이버폴라 핀터레스트 URL복사 × 사진=MBN 뉴스 캡처 정부는 4월말~5월초 황금연휴를 맞아 제주도 관광객이 늘 것을 대비해 방역을 강화한다고 밝혔다. 지난 29일 김강립 중앙재난 안전대책본부 1총괄조정관은 "제주도는 이번 연휴기간 동안 관광객 약 18만 명이 입도할 것으로 예상하고 있다"라고 밝혔다. 이어 "전년 대비 43% 감소한 규모이지만 여전히 방역측면에서 대규모 관광객 이동에 대한 우려가 있다"라고 말했다. 이에 제주도는 오늘(30일)부터 제주공항 입도검역을 강화한다. 입도객 발열감지 기준을 기존 37.5도(℃)에서 37.3도로 하향 조정하고, 공항 내 도보이동용 선별진료소(워킹스루)에서 해외 발 입국자뿐 아니라 발열증상자도 진단검사를 실시할 계획이다. 아울러 제주도 내 실내 관광지는 발열검사기와 체온계를 비치하고 마스크 미착용자의 관람을 제한할 예정이다. 김강립 1총괄조정관은 "이러한 준비에도 불구하고 5월5일까지 이어지는 사회적 거리두기에 따라 가능한 한 모임과 행사, 여행 등은 자제해 주길 거듭 요청 한다"라고 말했다. 이어 "불가피하게 외부활동을 하더라도 개인위생수칙과 안전여행수칙을 사전에 숙지하고 실천해주길 바란다"라고 당부했다. [뉴스인사이드 김희선 기자 news@newsinside.kr] 모바일 보기 신문사소개 기사제보 광고문의 RSS 불편신고 개인정보취급방침 청소년보호정책 이메일무단수집거부 서울특별시 종로구 새문안로5길 13, 변호사회관빌딩 501-1호 대표전화 : 070-4639-1163 뉴스인사이드는 인터넷신문 위원회 윤리강령을 준수합니다. 콘텐츠(영상,기사, 사진)는 저작권법의 보호를 받으며, 무단전재, 복사, 배포 등을 금지 신문사소개 기사제보 광고문의 불편신고 개인정보취급방침 청소년보호정책 이메일무단수집거부 RSS 서울특별시 종로구 새문안로5길 13, 변호사회관빌딩 501-1호 대표전화 : 070-4639-1163 팩스 : 02-6455-7740 청소년보호책임자 : 김윤현 제호 : 뉴스인사이드 등록번호 : 서울 아 00380 등록일 : 2007-06-04 발행일 : 2007-02-01 발행인 : 천태영 편집인 : 천태영 편집국장 : 홍준성 부사장 : 조병권 뉴스인사이드는 인터넷신문 위원회 윤리강령을 준수합니다. 뉴스인사이드의 모든 콘텐츠(영상,기사, 사진)는 저작권법의 보호를 받으며, 무단전재, 복사, 배포 등을 금지합니다. Copyright © 2022 뉴스인사이드. All rights reserved. mail to news@newsinside.kr 위로</t>
+  </si>
+  <si>
+    <t>제주도 축제·문화예술·관광 활성화 위한 업무협약 체결 &lt; Culture &lt; 기사본문 - 제민일보 주요서비스 바로가기 본문 바로가기 매체정보 바로가기 로그인 바로가기 기사검색 바로가기 전체서비스 바로가기 상단영역 로그인 회원가입 구독신청 한국어 영어 중국어 일본어 베트남어 스페인어 러시아어 Culture 최종편집 2022-10-11 (화) 14:38 facebook twitter instagram youtube 기사검색 검색 제민방송 먼저보는 제민일보 제민현장 궁금한 뉴스 해녀 제민영상 포토뉴스 백록기 뉴스 정치 경제 사회/복지 교육 스포츠/레져 기획 진행 연재 지난 연재 오피니언 사설 사내 칼럼 사외 칼럼 전문가 칼럼 기고 Culture 문화뉴스 공연/전시 출판/문학 방송/영화 Life/건강 WEEK&amp;팡 종교 연예 일과 사람들 동네방네 인사 화촉 부음 WeLove 진행 프로젝트 지난 프로젝트 해녀 특별기획 4∙3 4·3뉴스 4·3은 말한다 4·3기획 WEEK&amp;팡 진행연재 지난연재 コリアニユ-ス 문화뉴스 공연/전시 출판/문학 방송/영화 연예 Life/건강 WEEK&amp;팡 종교 책 읽어주는 남자 강혜명의 제주아리아 본문영역 이전 기사보기 다음 기사보기 제주도 축제·문화예술·관광 활성화 위한 업무협약 체결 바로가기 복사하기 본문 글씨 줄이기 본문 글씨 키우기 스크롤 이동 상태바 현재위치 홈 Culture 제주도 축제·문화예술·관광 활성화 위한 업무협약 체결 기자명 김수환 기자 입력 2020.04.28 19:14 댓글 0 바로가기 복사하기 본문 글씨 줄이기 본문 글씨 키우기 SNS 기사보내기 페이스북(으)로 기사보내기 트위터(으)로 기사보내기 카카오스토리(으)로 기사보내기 URL복사(으)로 기사보내기 이메일(으)로 기사보내기 다른 공유 찾기 기사스크랩하기 이 기사를 공유합니다 페이스북(으)로 기사보내기 트위터(으)로 기사보내기 카카오스토리(으)로 기사보내기 URL복사(으)로 기사보내기 닫기 ㈔한국예총 제주특별자치도연합회(회장 김선영, 이하 제주예총)와 ㈔세계축제협회 한국지부(회장 정강환), ㈔한국문화관광포럼(대표이사 최상규)은 27일 제주예총 회의실에서 '제주도 축제와 문화예술 및 관광 활성화를 위한 전략적 파트너십 구축'을 위한 협약을 체결했다.이번 협약을 통해 각 기관은 세계적인 축제와의 네트워크 구축과 축제운영 정보 및 아이디어를 공유하고 제주지역 관광거점 활성화를 통해 국내·외 관광객 유치와 지역경제 활성화를 도모할 예정이다. 김수환 기자 suhwan.2zy@gmail.com 다른기사 보기 저작권자 © 제민일보 무단전재 및 재배포 금지 댓글삭제 삭제한 댓글은 다시 복구할 수 없습니다. 그래도 삭제하시겠습니까? 비밀번호 삭제 닫기 기사 댓글 0 댓글 접기 로그인 후 이용 가능합니다. 댓글 내용입력 0 / 400 비회원 로그인 이름 비밀번호 댓글 내용입력 0 / 400 등록 댓글쓰기 계정을 선택하시면 로그인·계정인증을 통해 댓글을 남기실 수 있습니다. 회원 로그인 비회원 글쓰기 이름 비밀번호 자동등록방지 확인 취소 로그인 옵션 창닫기 최신뉴스 제주대병원 권역정신응급의료센터 개소 [본사내방] 2022년 10월 11일 한경농협, 취약계층 주택용 소방시설 기증 제주, 서울대 지역균형전형 비율 2.4%...전국 최하위 제주타요렌터카, 매월 국·내외 아동에 정기 후원 포토뉴스 [포토뉴스] 은색 물드는 새별오름 [포토뉴스] 오늘은 犬이 주인공 [사진뉴스] "우리의 소중한 유산 무형문화재 함께 즐겨요" [포토뉴스] 추석 분위가 나는 제주시오일장 인기뉴스 1 오늘의운세 10월11일(음력9월16일) 2 제61회 탐라문화제 9일 일부 일정 10일로 연기 3 제103회 전국체전 4일차...메달 레이스 이어가 4 [제민포럼] 테슬라와 한라산소주 5 일본시장 활짝 제주관광 기대감속 우려도 6 1600여명 발 구름에 서귀포 가을 들썩 희망 의지 불끈 7 제주시 수중·핀수영협회 소속 8명 수상구조사 '합격' 8 장 발장 이야기 하단영역 하단메뉴 하단메뉴 매체소개 기사제보 광고문의 이용약관 개인정보처리방침 청소년보호정책 저작권보호정책 이메일무단수집거부 RSS 매체정보 발행·편집인 : 양치석 청소년보호책임자 : 김태음 제주특별자치도 제주시 평화로 2700 제민일보사 등록번호 : 제주특별자치도 아01133 등록일 : 2021-09-06 대표전화 : (064) 741-3111 팩스 : (064) 741-3117 기사제보 : (064) 741-3220 광고문의 : (064) 741-3121 제민일보 모든 콘텐츠(영상,기사, 사진)는 저작권법의 보호를 받는 바, 무단 전재와 복사, 배포 등을 금합니다. Copyright © 2022 제민일보. All rights reserved. mail to edijemin@chol.com 위로 전체메뉴 전체기사 제민방송 전체 먼저보는 제민일보 제민현장 궁금한 뉴스 해녀 제민영상 포토뉴스 백록기 정치 전체 정치종합 행정 제주도의회 청와대/국회 국제/북한 선거 코로나 동선 경제 전체 경제종합 관광/항공 농수축산 금융/부동산 감귤 유통 기업 사회 전체 사회종합 사건/사고 환경 해양 노동 복지 도민기자 마당 청소년기자 마당 날씨 교육 전체 교육종합 대학가 입시정보 우리학교소식 청소년/어린이 스포츠/레져 전체 스포츠종합 축구 야구 농구/배구 골프 경마 평화마라톤 백록기 제민기 기획 전체 진행 연재 지난 연재 오피니언 전체 사설 사내 칼럼 사외 칼럼 전문가 칼럼 기고 Culture 전체 문화뉴스 공연/전시 출판/문학 방송/영화 연예 Life/건강 WEEK&amp;팡 종교 책 읽어주는 남자 강혜명의 제주아리아 일과 사람들 전체 동네방네 인사 화촉 부음 WeLove 전체 진행 프로젝트 지난 프로젝트 해녀 전체 특별기획 4∙3 전체 4·3뉴스 4·3은 말한다 4·3기획 제주4·3 이제는 기록유산으로 コリアニユ-ス 핫뉴스 전체 무공침 제민포커스 와이드 진단 해설 제민현장 지역뉴스 전체 종합 제주시 서귀포시 읍면동 농사정보 WEEK&amp;팡 전체 진행연재 지난연재 News Archive 전체 신년∙창간특집호 Voice 만화/만평 오늘의 운세 기타 독자게시판 제민일보 안내 전체 알림/사고 올해의 제주인 독자위원회의/윤리교육 주요 사업 코로나19 [6·1 지방선거] 안테나 전체 제주도지사 제주도교육감 도의원(제주시) 도의원(서귀포시) 교육의원 제주시을 국회의원 보궐선거 [2022 6·1지방선거] 우리동네 현안 해결사는 [2022 6·1지방선거] 파워인터뷰 [6·1 지방선거 및 보궐선거] 후보 주요 일정 제민일보 소개 회장인사말 비전 연혁 사업 출판 찾아오시는길 PDF 보기 전체메뉴닫기</t>
+  </si>
+  <si>
+    <t>코로나19 경기회복, 제주도 관광에 치킨집이 견인 뉴스투데이 소개 보도자료 2022-10-11 14:51 회원가입 로그인 Home JOB 최신 취준생 창직/창업 직장인 미래일자리 일자리정책 ESG 최신 환경 Environment 사회 Social 지배구조 Governance 종합 경제 최신 경제정책 금융증권 글로벌경제 거꾸로 읽는 경제 기획 종합 비즈 최신 산업 재계 유통 IT/게임 부동산 기획 종합 라이프 최신 헬스/과학 패션/뷰티 여행/레저 음식/요리 기획 종합 스페셜기획 최신 국내 직장분석 ESG포럼 굿잡코리아포럼 직업혁명 글로벌기획 이태희의 JOB채 올해의 10대 JOB뉴스 창간기획 심층기획 사람들 최신 JOB인터뷰 CEO인터뷰 CEO리포트 인물탐구 뉴스 속 직업 인생 2막의 창업자들 인사·부음 지난기획 이야기쉼터 최신 칼럼 기자의 눈 포토뉴스 동영상뉴스 전체뉴스 로그인 JOB 취준생 창직/창업 직장인 미래일자리 일자리정책 ESG 환경 Environment 사회 Social 지배구조 Governance 종합 경제 경제정책 금융증권 글로벌경제 거꾸로 읽는 경제 기획 종합 비즈 산업 재계 유통 IT/게임 부동산 기획 종합 라이프 헬스/과학 패션/뷰티 여행/레저 음식/요리 기획 종합 스페셜기획 국내 직장분석 ESG포럼 굿잡코리아포럼 직업혁명 글로벌기획 이태희의 JOB채 올해의 10대 JOB뉴스 창간기획 심층기획 사람들 JOB인터뷰 CEO인터뷰 CEO리포트 인물탐구 뉴스 속 직업 인생 2막의 창업자들 인사·부음 지난기획 이야기쉼터 칼럼 기자의 눈 전국 일자리 지자체 사건/사고 종합 공기업 미네르바의 눈 시큐리티팩트 방위산업 사이버안보 소통시대 종합 일자리포털 인사혁신처 고용노동부 직원훈련포털 한국고용정보원 워크넷 한국직업능력개발원 한국노동연구원 서울시 일자리 서울일자리포털 청년희망재단 창조경제혁신센터 크레딧잡 사람인 잡코리아 인크루트 잡플래닛 알바천국 알바몬 벼룩시장 교차로 독취사 공취사 메디잡 덴탈잡 널스잡 간호잡 히든스타우트 &gt; JOB ESG 경제 비즈 라이프 스페셜기획 사람들 이야기쉼터 전국 미네르바의 눈 시큐리티팩트 섹션 선택 섹션 선택 이동 코로나19 경기회복, 제주도 관광에 치킨집이 견인 이상호 전문기자 입력 : 2020.04.29 06:07 ㅣ 수정 : 2020.04.29 06:07 네이버 빅데이터랩, 제주렌트카 상위권, 치킨집 검색 급증 [뉴스투데이=이상호 전문기자] 코로나19 추가 확진자가 급격히 줄어들고 따뜻한 날씨의 행락철에 황금연휴까지 겹치면서 움츠렸던 사람들이 기지개를 켜고 있다. 아직 방심하기는 이르지만 사람들의 활동 재개와 더불어 꽁꽁 얼어붙은 경기도 풀리기를 기대하는 국민적 염원이 높다. 그래서일까? 오는 30일 부처님 오신날부터 시작해서 5월1일 근로자의 날, 주말과 5월5일 어린이날까지 이어지는 황금연휴를 앞두고 많은 사람들이 떠날 채비를 하고 있다. 코로나19 예방 캠페인으로 제주공항 청사앞 돌하루방에 마스크를 착용한 모습 [사진=연합뉴스] ■ 황금연휴 제주도 항공권 매진, 가격도 치솟아 가장 눈에 띄는 것은 제주도 여행이다. 원희룡 제주지사가 연휴를 앞두고 무분별한 제주방문 자제를 호소했지만 각 항공사의 연휴기간 중 제주행 티켓은 이미 매진됐다. 김포에서 제주로 향하는 항공권 가격도 치솟았다.  코로나19로 해외로 나갈 수 없는 여행수요가 국내 대표 관광지인 제주로 몰린 것으로 풀이된다. 황금연휴 시작인 오는 30일 항공권은 얼마전까지만 해도 1만원 하던 것이 10만~13만원으로 급등했다. 국내 항공사들은 이미 4월 둘째 주부터 국내선 운항 횟수를 코로나19 사태 이전의 70∼80%까지 늘렸다. 제주도 관광협회는 황금연휴를 하루 앞둔 29일부터 다음 달 5일까지 7일간 17만9000여 명이 제주를 방문할 것으로 예상했다. 네이버 빅데이터랩에서도 제주도에 대한 관심이 그대로 드러났다. 최근 몇일간 연일 ‘제주도 렌트카’ 가 검색어 최상단을 차지하고 있는 것이다. ■ 빅데이터상 치킨집 검색 폭증...요식업 경기 회복 견인 이와함께 최근들어 네이버 빅데이터랩의 검색통계상 치킨집이 급상승하고 있다. 코로나19가 한창이던 2월 중순 무렵 최저치를 기록했던 치킨집에 대한 검색통계는 4월들어 급상승하는 추세를 나타내고 있는 것이다. 물론 코로나가 극성을 부렸던 대구 지역에서의 빅데이터상 관심은 여전히 조심스러운 모습을 보였다. 하지만 대부분 배달로 먹는 치킨집의 특성상 다른 요식업종에 비해 경기방어 뿐 아니라 회복능력도 강한 것으로 풀이된다. 코로나19로 가장 타격이 심했던 업종 중 하나가 요식업이었는데 치킨과 같은 배달 업종이 요식업 경기회복에 기여할 것으로 보인다. 아울러 5월5일 프로야구 개막을 시작으로 프로축구나 프로골프 등 각종 스포츠 경기가 재개되면 치킨과 같은 요식업을 중심으로 한 골목상권의 활성화까지 기대할 수 있어 이런 기대감은 더욱 높아지고 있다. sanglee365@news2day.co.kr 이 기자의 다른 기사 보기 Copyright ⓒ 뉴스투데이. 무단전재 &amp; 재배포 금지 BEST 뉴스 [N2 모닝 경제 브리핑-10월 4일] 美 증시, 국채금리 하락에 상승...인텔·AMD 4%대↑ [오늘날씨] 개천절, 수도권 중심 강한 비...도로 미끄럼, 강풍 예보 대비 [주말쇼핑정보] 신세계‧롯데‧현대‧갤러리아, 백화점 ‘가을 정기세일’ 돌입 빗썸, 베일 속 실소유주 등장?...지배구조 재조명 [N2 모닝 경제 브리핑-9월 30일] 美 증시, 시총1위 애플 휘청 속 하락...테슬라·루시드·AMD 6%대 급락 댓글 (0) - 띄어 쓰기를 포함하여 250자 이내로 써주세요. - 건전한 토론문화를 위해, 타인에게 불쾌감을 주는 욕설/비방/허위/명예훼손/도배 등의 댓글은 표시가 제한됩니다. 0 /250 등록 JOB뉴튜브 더보기 [신재훈의 광고썰전 (100)] 성동일 표 패러디 광고 종합세트 2탄 알바몬 [신재훈의 광고썰전 (99)] 손석구 범죄도시 2 빌런에서 광고계의 블루칩으로 변신 [신재훈의 광고썰전 (98)] 임영웅, TS샴프 모델 맡으며 글로벌 스타 대열에 합류 [신재훈의 광고썰전 (97)] 한석규, 박은빈, 손석구의 “슬기로운 추석생활” 반전 있는 정관장 추석선물 광고 [신재훈의 광고썰전 (96)] 우영우 박은빈의 은밀한 이중생활(?) KT x 갤럭시Z플립4 광고 신문사소개 제휴광고문의 기사제보 회원약관 개인정보처리방침 청소년보호정책 이메일주소무단수집거부 저작권정책 고객센터 RSS (주)뉴스투데이코퍼레이션 | (06646) 서울시 서초구 반포대로26길 35 뉴스투데이빌딩 2층 | TEL 02-501-6901 | FAX 02-521-6909 | 사업자번호: 220-88-24977 정기간행물등록번호: 서울 아 01931 | 등록일: 2012년 01월 18일 | 발행인: 강남욱 | 편집인 : 이태희 | 편집국장 : 장원수 | 정보책임자: 우현진 copyright ⓒ 2011 news2day.co.kr All right reserved. | info@news2day.co.kr</t>
+  </si>
+  <si>
+    <t>‘황금연휴’ 코로나 19 비상...제주도로 18만 관광객 이동 &lt; 코로나브리핑 &lt; 사회일반 &lt; 사회 &lt; 기사본문 - 뉴스포스트 주요서비스 바로가기 본문 바로가기 매체정보 바로가기 로그인 바로가기 기사검색 바로가기 전체서비스 바로가기 상단영역 Korea Home English Home 기사제보 2022-10-11 14:51 (화) Log In 포스트 유튜브 페이스북 전체 소통광장 세대별뉴스 1020’s Pick 3040’s Pick 5060’s Pick 팩트체크 특별연재 단독 현장패트롤 도시탐구 필환경 시대 미래먹거리 꽃보다인권 입법리포트 마이리틀히어로 위드코로나 비주얼스토리 한입TV NP그래픽 NP포토 인터뷰 기사검색 검색 본문영역 이전 기사보기 다음 기사보기 ‘황금연휴’ 코로나 19 비상...제주도로 18만 관광객 이동 바로가기 복사하기 본문 글씨 줄이기 본문 글씨 키우기 스크롤 이동 상태바 현재위치 홈 사회 사회일반 코로나브리핑 ‘황금연휴’ 코로나 19 비상...제주도로 18만 관광객 이동 기자명 이별님 기자 입력 2020.04.29 14:29 댓글 0 바로가기 복사하기 본문 글씨 줄이기 본문 글씨 키우기 SNS 기사보내기 페이스북(으)로 기사보내기 트위터(으)로 기사보내기 카카오스토리(으)로 기사보내기 URL복사(으)로 기사보내기 이메일(으)로 기사보내기 다른 공유 찾기 기사스크랩하기 이 기사를 공유합니다 페이스북(으)로 기사보내기 트위터(으)로 기사보내기 카카오스토리(으)로 기사보내기 URL복사(으)로 기사보내기 닫기 [뉴스포스트=이별님 기자] 석가탄신일과 근로자의 날, 주말 등이 한데 모인 황금연휴가 하루 앞으로 다가왔다. 이 때문에 제주도 등 주요 관광지에서는 휴가를 가려는 인파들이 모일 것으로 예상돼 코로나 19 확산 우려가 커지고 있다. (사진=뉴시스) 19일 한국공항공사에 따르면 이날부터 다음 달 6일까지 8일간 김포와 제주공항을 오가는 항공편은 1,908편으로 하루 평균 238편이 운항한다. 이날은 238편 ▲ 30일 254편 ▲ 내달 1일 240편 ▲ 2일 236편 ▲ 3일 250편 ▲ 4일 241편 ▲ 5일 243편 ▲ 6일 206편의 항공기가 운항할 예정이다. 특히 주요 관광지인 제주도는 이번 연휴 기간 입도하는 관광객이 17만 9천여 명에 달할 것으로 전망된다. 코로나 19 신규 확진 환자 수가 열흘 이상 10명 안팎에 그치면서 묶여있던 관광객들의 발이 다시 관광지로 쏠리고 있는 것이다. 제주도는 코로나 19 재확산이 우려되는 만큼 방역 강화 분위기를 조성해 관광객을 맞이할 방침이다. 휴게·제과·일반음식점 1만 8,392곳, 유흥·단란주점 1,407곳, 숙박업 1,339곳, 이·미용업 2,541곳, 목욕업 154곳 등 총 2만 3,833곳을 대상으로 ‘황금연휴 기간 관광객 증가 대비 사회적 거리 두기 실천계획’을 운영한다. 업소와 이용자에게 ▲ 방역관리자 지정 ▲ 종업원 및 관광객 마스크 착용 의무화 ▲ 발열, 호흡기 증상이 있거나 14일 이내 해외여행을 한 경우 제주 방문하지 않기 ▲ 머무르는 시간 최소화 ▲ 유증상자 발생 즉시 격리 조치 및 보건당국 신고 ▲ 철저한 방역 소독 등을 지켜달라고 제주도는 요청했다. 아울러 이날부터 제주도에 들어오는 관광객에 대한 발열 감지 기준을 37.5도에서 37.3도로 낮췄다. 제주공항에서 37.3도 이상 발열이 확인될 경우 공항 내 선별진료소에서 코로나 19 진단 검사를 받게 된다. 그 밖에도 연휴 기간 중 속초와 강릉 지역 숙박시설 예약률이 97%에 이르는 강원도는 현재 외부 유입이 많은 터미널이나 기차역에 열화상 카메라를 설치해 운영하고 있다. 방역 소독 역시 병행 중이다. 이별님 기자 leestarnim@nate.com 다른기사 보기 저작권자 © 뉴스포스트 무단전재 및 재배포 금지 댓글삭제 삭제한 댓글은 다시 복구할 수 없습니다. 그래도 삭제하시겠습니까? 비밀번호 삭제 닫기 기사 댓글 0 댓글 접기 댓글 내용입력 0 / 400 비회원 로그인 이름 비밀번호 댓글 내용입력 0 / 400 등록 댓글쓰기 계정을 선택하시면 로그인·계정인증을 통해 댓글을 남기실 수 있습니다. 회원 로그인 비회원 글쓰기 이름 비밀번호 자동등록방지 확인 취소 로그인 옵션 창닫기 최신기사 윤 대통령 “北핵 위협에 어떤 우려가 정당화될 수 있나” 하이트진로, ‘하이트진로 챔피언십’ 선수들과 함께 나눔 활동 흥국생명, ‘숨은 내 보험금 찾아주기’ 실시 [뉴스포스트 그래픽] 尹 대통령 지지율 32.0%...전주보다 0.8%p 증가 인기기사 [실적풍향계] 한화건설, 건축 실적 자신감 업고 '친환경' 투자 한국전력, 결국 전기요금 인상...4인가구 기준 月2270원 [전문] “부자감세·민영화 막겠다”...이재명 교섭단체 대표연설 강원랜드는 비리종합선물세트?...국감 앞두고 벼랑 끝 주요기사 [뉴스포스트 그래픽] 尹 대통령 지지율 32.0%...전주보다 0.8%p 증가 [뉴스포스트 그래픽] 정당지지도...국민의힘 35.2% 민주당 49.2% ‘가갸날’을 아시나요?...한글의 여정 美 상무부, 對中 반도체 수출통제 강화...삼성·SK 영향 제한적 [도시탐구] 가을철 악취 풍기는 은행나무, 가로수로 심는 이유 삼성전자·LG전자 3분기 실적, 삼성 ‘줄고’ LG ‘실제로 줄고’ 소통광장 [소통광장-검수완박법]④ 돌고 돌아...‘검수원복’ 된다고? [소통광장-검수완박법]③ “검찰 수사권이 박탈됐다는 건 흑색선전” [소통광장-검수완박법]② “검찰청법·형사소송법 개정안, 위헌적 요소 많아” 세대별뉴스 1020’s Pick 도박으로 멍드는 청소년...병원 치료만 5년새 3배 증가 3040’s Pick 알코올 중독에 극단적 생각까지...30대 정신건강 ‘적신호’ 5060’s Pick 코로나19 후유증 환자만 5만 4천...60대 환자가 최다 팩트체크 ‘직원 땅 투기’ 사태 LH...지난해 징계만 100여건 [팩트체크] 조선족은 은행 ATM 수수료 면제 받는다? 뉴스포스트 기획&amp; 하단영역 하단메뉴 매체소개 토론장제안 기사제보 광고문의 이용약관 개인정보처리방침 청소년보호정책 저작권보호정책 이메일무단수집거부 유튜브 페이스북 트위터 네이버블로그 네이버포스트 매체정보 서울특별시 송파구 백제고분로 114 (잠실동, 우남빌딩 6층) 대표전화 : 02-780-7778~9 팩스 : 02-780-7688 법인명 : (주)뉴스포스트신문사 제호 : 뉴스포스트 정기간행물등록번호 : 서울 다07569 인터넷신문등록번호 : 서울 아01131 등록일 : 2006-12-14 발행일 : 2006-12-14 발행·편집인 : 강중구 편집국장 : 박은미 부사장 : 원필환 청소년보호책임자 : 정명자 뉴스포스트 모든 콘텐츠(영상,기사, 사진)는 저작권법의 보호를 받는 바, 무단 전재와 복사, 배포 등을 금합니다. Copyright © 2022 뉴스포스트. All rights reserved. mail to webmaster@newspost.kr 위로 전체메뉴 전체기사 정치 전체 정부/청와대 국회/정당 국제/안보 정치일반 비쥬얼스토리 경제 전체 금융 산업/기업 건설/부동산 경제일반 유통 공기업 비쥬얼스토리 사회 전체 사건/사고 교육/복지 인사/동정 사회일반 건강의료 비주얼스토리 문화 전체 공연/전시 책/음악 운세 연예 스포츠 국제 오피니언 전체 기자수첩 이인권 칼럼 컬러리스트 김민경의 색 이야기 김필수의 CAR&amp;LIFE 전문가칼럼 온기운 칼럼 이완수 칼럼 강응선 칼럼 이준철 칼럼 이대성 칼럼 NP속보 PR/AD 인터뷰 전체메뉴닫기</t>
+  </si>
+  <si>
+    <t>황금연휴 관광객 폭발에 제주도 공항 '워크스루' 강화 &lt; 사회일반 &lt; 사회 &lt; 기사본문 - 제주의소리 상단영역 최종편집 : 2022-10-11 14:42 (화) 뉴스 전체 정치·행정 사회·교육 경제·관광 문화 소리TV 오피니언·매거진 독자의소리 Book世通 기사제보 광고안내 로그인 기사검색 검색 상세검색 NOTICE 제주도, 유상증자 불참 제주항공 신주인수권 전량 매도 제5회 제주국제현대음악제, 20~21일 제주대서 개최 2022 세계유산축전 ‘제주 화산섬과 용암동굴’, 16일까지 진행 법원, 우도 내 삼륜 이동장치 제한 ‘정당’ 제주도 제한 정책 탄력 실업급여 신청자↓, 재취업률↑...제주 고용시장 회복세 더보기 제주의소리 카카오톡 친구가 돼 주세요! 본문영역 이전 기사보기 다음 기사보기 황금연휴 관광객 폭발에 제주도 공항 '워크스루' 강화 바로가기 복사하기 본문 글씨 줄이기 본문 글씨 키우기 스크롤 이동 상태바 현재위치 홈 사회 사회일반 황금연휴 관광객 폭발에 제주도 공항 '워크스루' 강화 기자명 이승록 기자					(leerevol@naver.com) 입력 2020.04.23 11:00 댓글 0 바로가기 복사하기 본문 글씨 줄이기 본문 글씨 키우기 SNS 기사보내기 페이스북(으)로 기사보내기 페이스북 트위터(으)로 기사보내기 트위터 카카오스토리(으)로 기사보내기 카카오스토리 카카오톡(으)로 기사보내기 카카오톡 네이버밴드(으)로 기사보내기 네이버밴드 URL복사(으)로 기사보내기 URL복사 이메일(으)로 기사보내기 다른 공유 찾기 기사스크랩하기 이 기사를 공유합니다 페이스북(으)로 기사보내기 페이스북 트위터(으)로 기사보내기 트위터 카카오스토리(으)로 기사보내기 카카오스토리 카카오톡(으)로 기사보내기 카카오톡 네이버밴드(으)로 기사보내기 네이버밴드 URL복사(으)로 기사보내기 URL복사 닫기 제주도는 입도객들이 몰릴 것으로 예상되는 황금연휴 기간(4월30일~5월5일)를 앞두고 코로나19 확산 차단을 위해 제주국제공항 워크스루 선별진료소 관리를 더욱 강화한다고 23일 밝혔다.제주도는 이를 통해 해외방문이력 입도객의 워크스루 선별진료소 진단검사 및 특별입도절차 참여를 높이겠다는 복안이다.앞서 제주도는 지난 3월24일부터 특별입도절차를 도입했으며, 3월30일부터 제주국제공항 내 워크스루 선별진료소를 설치하고 해외방문이력 입도객을 대상으로 코로나19 검체 채취와 자가 격리 통보 등을 실시해왔다.우선 제주도는 지난 16일부터 질병보건통합관리시스템 내 등록된 해외방문이력 입도객 전원에게 제주국제공항 워크스루 선별진료소 안내 문자를 발송하고 있다.능동감시 관리 대상인 이들에게 제주 입도 후 코로나19 진단검사를 반드시 받아야 한다는 정보를 명확하게 알리는 것이 목적이다. 안내 문자는 한‧중‧영으로 번역해 전송되고 있다.특히 제주도는 한국공항공사 제주지역본부와의 협의를 통해 워크스루 선별진료소 홍보 및 해외방문이력자 신고 안내를 더욱 확대했다.우선 제주도는 한국공항공사 제주지역본부와 공동으로 공항 도착장에 안내판(한‧중‧영‧베트남어)을 추가 마련했고, 공항 여객청사와 횡단보도, 택시 승강장 등에 대형 현수막 등을 설치했다.또한 국내선 항공기 내 뿐만 아니라 도착장 내에서 특별입도절차 안내 방송(한‧중‧영)을 실시하는 등 해외방문신고와 코로나19 진단검사를 유도하고 있다.제주도는 해외방문이력 입도객이 한 줄로 발열 검사를 받을 수 있도록 안내판과 바리게이트 대기줄을 추가 설치했다.발열체크 단계에서부터 촘촘한 방역 대응을 할 수 있는 동시에, 입도객에게 워크스루 선별진료소 검사 안내판 등을 살펴볼 수 있는 대기시간을 제공할 수 있을 것으로 전망하고 있다.아울러 제주도는 제주공항 워크스루 선별진료소에서 코로나19 진단검사를 받지 않고 입도한 해외방문이력자와 4시간 내외 동안 연락이 닿지 않을 경우, 경찰에 GPS 위치 추적을 요청하는 등 더욱 강력하게 대처해 나가고 있다.이 밖에도 제주도는 인천공항에서 김포공항으로 이동하는 해외입국 제주도민 특별수송 지원 단계에서부터 워크스루 선별진료소 방문 방법 등을 담은 특별입도절차 안내문을 배부하고 있다.제주로 입도하는 외국인 근로자의 경우, 외국인고용허가제와 연계해 외국인 근로자 고용주를 통해 코로나19 진단검사 및 의무격리 등 특별입도절차 안내를 진행할 예정이다.제주도 관계자는 “제주의 관문인 제주공항에서 감염 가능성을 철저히 걸러내는데 역량을 더욱 집중하겠다”며 “도민의 안전을 지키는 일에 최선을 다할 것”이라고 밝혔다. 이승록 기자 leerevol@naver.com 다른기사 보기 저작권자 © 제주의소리 무단전재 및 재배포 금지 개의 댓글 회원로그인 작성자 비밀번호 댓글 내용입력 0 / 400 등록 댓글 정렬 최신순 추천순 답글순 더보기 댓글삭제 삭제한 댓글은 다시 복구할 수 없습니다. 그래도 삭제하시겠습니까? 비밀번호 삭제 닫기 댓글수정 댓글 수정은 작성 후 1분내에만 가능합니다. 본문 / 400 비밀번호 수정 닫기 내 댓글 모음 닫기 인기뉴스 댓글설전 실시간댓글 1 증인 출석 요구에 택배 3사 ‘백기’ 600억원 제주 택배비는 ‘깜깜’ 2 휘발유보다 비싼 경유 300원 최대 격차 ‘제주 곳곳서 아우성’ 3 3년 만에 대면 행사 14~15일 제주광어 대축제 4 인사 제주시 2022년 하반기 사무관 6명 승진 의결 5 제주·서귀포 전 시민대상 2022년 주민등록 사실조사 실시 6 ‘섬 속의 섬’ 제주 우도 삼륜 이동장치 제한 정책 향방 ‘촉각’ 7 ‘부의(附議)’ ‘입회(立會)’ 제주 조례 속 일본식 표현 삭제 8 운명의 인천 원정 갖는 제주Utd, ACL ‘경우의 수’ 우위를 점하라! 9 ‘기부와 나눔 축제’ 아름다운제주마라톤 D-14, 3년만에 다시 달린다 10 제주 한림 목조 펜션에서 불…인명피해 없어 1 증인 출석 요구에 택배 3사 ‘백기’ 600억원 제주 택배비는 ‘깜깜’ 2 “모든 관객·시청자가 자막 없이 제주어 대사 알아듣는 날 오길” 3 ‘15분 도시’ 창시한 프랑스 학자, 제주 찾아 “주민 공감대 형성 중요” 4 휘발유보다 비싼 경유 300원 최대 격차 ‘제주 곳곳서 아우성’ 5 한문 대신 알기 쉬운 한글 가득한 절집 제주 남선사 “부처님 좋은 말씀 우리말로” 6 ‘섬 속의 섬’ 제주 우도 삼륜 이동장치 제한 정책 향방 ‘촉각’ 7 ‘부의(附議)’ ‘입회(立會)’ 제주 조례 속 일본식 표현 삭제 8 10억원 투입 제주 마을어장에 종자 91만 마리 방류 9 운명의 인천 원정 갖는 제주Utd, ACL ‘경우의 수’ 우위를 점하라! 10 제주 예외 아닌 교권침해, 일방적 희생 강요 안돼 1 선거꾼 하나.. 선거운동 도와주고서 연봉 1억 넘는 자리 꿀꺽했구나.. 여론조사 전문가가 감사 활동 잘 할거다? 목에서 소리를 낸다고 말이 되거나 글자로 표현한다고 글이 되는 것은 아니다. 2 제주답게 만들기를~~ 3 이런 얼치기 주의자들이 판치는 제주를 언제까지 봐줘야 할건지~~ 4 교권침해? 정말 심각한 현실을 만든 사람은 바로 형평성이나 현실인식이 부족한 어설픈 학생인권론자들 아닌가요? 그동안 학생인권이 어쩌네 하면서 대다수 교사를 범죄자 취급하던 비현실적인 학생인권강화가 지금과 같은 교권 침해를 만들어낸거죠 학생인권이라는 명목하에 벌어지는 교권 침해에 모든 피해는 학생에게 돌아갈 수 밖에 없습니다. 이젠 선생님들이 문제학생들과 상대조차 하기 싫어하고 문제 학부모와는 형식적인 상담 밖에 안이루어집니다. 제주를 대표하는 삼*초 징역8년 사건, 처음에 그 사람말만듣고 해당 교사와 학교당국에게 손가락질 하던 사람들이 누구였나요? 학생의 잘못을 눈감게 만드는 교육현실, 그 피해는 학부모와 학생에게 갈수 밖에 없습니다. 5 아직도 초등학교 애들 구렛나루털을 손으로 쥐어서 한움큼 뽑아서 피부에서 피가 송글송글 맺히게 했던 그 씨발 선생놈이 생각난다 그때 생각하면 너네는 좀 더 당해도 싸다 6 [제주의소리] 관리자입니다. 지적해주신 부분 수정했습니다. 감사합니다. 7 남은 경기 전승하면 58점, 포항이 전패하면 55점 3위 가능합니다 8 못간다 9 놀래기류 어류에 먹이주는 수산자원조사업 이제 그만해야 10 지구온난화 등 기후변화가 계속 되는데 수산자원조성사업은 변화가 없다 … 전복, 오분자기 등 패류종자 방류사업 이제는 그만해야 … 관련 전문가들은 무엇을 하는지? + 기획/특집/칼럼 혼디 골아봅주 ‘티핑 포인트의 세대’ 지금 우리에게 필요한 것은 대한민국의 역사 4·3 성 프란치스코 평화센터, 김종민 위원 초청 ‘4.3과 평화’ 강의 제주특별법 공동기획 68만 중 50만 집중 기형적 제주...“신교통·대중교통 확대 급선무” 제주댁, 음식it수다 제주에선 멩질도 식게도 “먹으러 가게”…함께 나누는 팔월 멩질 제주어로 여는 talk 끗어내엉 써사 달란틉주 서명숙의 올레길 편지 제주올레 여행자센터에서 만난 재외 동포들 아시아 섬의 평화예술 ‘인민의 정의’의 혼란: 다중 해석 소리 시선 기초학력보다 교육 격차와 다양성에 주목해야 하는 이유 코코어멍 동물愛談 잔혹한 동물학대의 섬 제주도 '이대로는 안 된다' 시인이 쓰는 마을책방 가장 멀고도 가장 가까운 책방 인권왓 칼럼 민간위탁은 행정의 외주화, 원청 제주도정은 노동자 위한 책무 다해야 김경희의 노동세상 사업주 지시 없이 일하다가 발생한 사고, 산업재해일까? 김길웅의 借古述今 아이 행실광 몽닌 우던(덥덜)으로 간다 한라산 식물 이야기 척박함에도 꽃 피우는 진실한 사랑·우정 ‘바위떡풀’ BOOK世通, 제주읽기 신실주의(神實主義) 글쓰기의 매혹 살며詩 한 편 가을은 뒷모습의 계절이다 이영웅의 지금 제주는 우리 사회의 지속가능한 미래를 위한 선택 한국전쟁과 제주 제주도·모슬포 ‘부(負)의 유산’ 너머 ‘평화의 길’로 양은희의 예술문화 중광 작고 20주년, 중광미술관의 미래 부모아카데미 “자녀들 글쓰기 습관 어렵죠? 관심과 흥미 갖게 해야” 이어가게, 고치가게 지우개 깎던 ‘목발 소년’ 40여년 수제도장 장인의 길 걷다 장일홍 세상이야기 얼굴에 얽힌 일화 보멍 쉬멍 사람은 나무를 닮는다고 했습니다 주민이 주인이다-제주 마을이야기 ‘풍차와 해녀의 마을’에 깃든 광해의 흔적 양동규의 film·筆·feel 남아있는 기억의 흔적 하승수, 제주와 자치 이야기 ‘불편한 이야기’ 제주 국회의원 선거 이대로 좋은가? 고충석의 칼럼과 에세이 사이 후흑의 정치기술과 박근혜의 몰락 독자의소리 새벽녘 제주 하늘에 신비한 ‘빛기둥’ 수십개 “신기하네” 보·받는 사람 효돈감귤을 제주도에선 젤 알아줍니다 윤봉택의 탐나는 올레 마음 멍 때리며 순례하는 제주올레 15-A코스 제보안내 광고안내 뉴스스탠드 모바일 카카오톡 카카오스토리 페이스북 트위터 유튜브 회사소개 연혁 개인정보취급방침 이메일무단수집거부 청소년보호정책 댓글 관리운영기준 만드는사람들 제주특별자치도 제주시 첨단로 213-65 제주종합비즈니스센터 4층 제보 및 각종문의 : 064-711-7021~2 팩스 : 064-711-7023 사업자등록번호 : 616-81-46760 등록번호 : 제주 아 01002 등록일 : 2005-10-14 발행인 : 문성윤 편집인 : 김봉현 청소년보호책임자 : 김봉현 제주의소리 모든 콘텐츠(영상,기사, 사진)는 저작권법의 보호를 받는 바, 무단 전재와 복사, 배포 등을 금합니다. Copyright © 2022 제주의소리. All rights reserved. mail to news@jejusori.net 위로 전체메뉴 전체기사 우리동네 전체 제주시 서귀포시 제주도 행정 전체 제주특별자치도 제주시 서귀포시 읍면동 정치 전체 도의회 국회·정당 선거 여론조사 4.11 도의원 보궐선거 시민칼럼 박근혜와 제주 한동주 게이트 6.4지방선거 저 출마합니다 6.1지방선거 6.1지방선거 저, 출마합니다 경제 전체 금융 산업·기업 경제일반 사회적경제 MICE&amp;NICE 제주워터페스티벌 제주한라대, 힘내라 가족회사 1회 조합선거 블루오션 제주 특성화고, 인재들이 뛴다 감귤 1차산업 사회 전체 날씨 사회일반 사건사고 법원·검찰 4.3 해군기지 교육 환경 메르스 제2공항 독자위원회 탄핵 지역이 희망이다 소리多 소리後 창간15주년 독자의소리 탐나는가치 맵핑 맛과여행 문화 전체 문화일반 공연·전시 학술·문화재 책 영상·미디어 제주멋&amp;맛 제주여행 UCC 공모전 인문의 바다 사진으로 본 '야스쿠니' 제주비엔날레-탐라순담(耽羅巡談) 밭담, 디자인으로 제주를 담다 관광 전체 관광일반 여행 축제 맛집·쇼핑 오피니언 전체 김국주의 경제칼럼 강종우의 일요편지 고현승 중국통신 박경훈의 제주담론 신용인 칼럼 양길현 칼럼 양영철 칼럼 이재홍의 데스크칼럼 이지훈 칼럼 하승수의 자치이야기 허진영 칼럼 취재수첩 진관훈 칼럼 김호성 칼럼 김승석 칼럼 기고 고운호 칼럼 김동욱 칼럼 이영권의직설화법 고유기 칼럼 김학준 칼럼 김현돈의살며생각하며 고희범 칼럼 의정칼럼 오성 스님의 편지 고병수 칼럼 홍성직의 또다른 눈으로 세상보기 김한욱 칼럼 고충석 칼럼 김경환 칼럼 현문권 칼럼 신재경 칼럼 허남춘 칼럼 박형근 칼럼 문성종 칼럼 권영후 칼럼 김동현 칼럼 박호범 칼럼 인터뷰 강민철 칼럼 다른 밥상 다른 세상 백승주 칼럼 양상호 칼럼 시민칼럼 허영섭 칼럼 정신지 칼럼 숨, 쉼 고홍철 칼럼 문대림 칼럼 고현수의 복지칼럼 홍영철 칼럼 김관후 칼럼 데스크 칼럼 기자 칼럼 정경호 칼럼 김헌범 칼럼 장일홍 세상이야기 강정홍의 또다른 이야기 뉴욕명랑의 제주살래 주강현 칼럼 신백훈, 史記로부터 배우는 인생 허갑중의 '제주, 세계적인 관광지로의 도약' 이유근 칼럼 고성준 칼럼 건강 365 강문규 칼럼 박형근 칼럼 강영삼 칼럼 김의근 칼럼 김수종 칼럼 이종우 칼럼 신재경 칼럼 김승석 칼럼 양기혁 칼럼 양은희의 예술문화 BOOK世通, 제주읽기 황경수 칼럼 강숙영 칼럼 김종민의 다시쓰는 4·3 강종우의 여럿이 함께 홍경희의 점빵 월령가 전문가 칼럼 허남춘 칼럼 제주풍습 속 숨겨진 금융상식 일자리를 위한 새로운 상상력 이영웅의 지금 제주는 소리 시선 김경희의 노동세상 제주 청진기 하간·소리 공동기획-포토파일 김재원의 영어어휘 톡톡 talk-talk 인권왓 칼럼 평화예술칼럼 강충민의 보·받는 사람 짧은 글, 긴 생각 혼디 골아봅주 고충석의 칼럼과 에세이 사이 안재홍의 교육春秋 양동규의 film·筆·feel 하승수, 제주와 자치 이야기 제주 바람과 바람 매거진 전체 아카데미 대학생 기자단 청소년 인문학 기자단 '와랑' 장태욱의 제주 지질기행 김정숙의 제주신화 이야기 강은미의 문학카페 신재경의 일본야구 A to Z 재일동포 그들은 누구인가 초짜여행가 양기혁의 중국횡단기 길을 걸으며 길을 묻다 이승택의 도시읽기 제주, 몽골을 만나다 몽생이 김홍구, 오름속으로 이승안의 클래식 산책 현대예술의 중심, 베를린에서 보낸 편지 함께하는세상 김강임의 제주 오름기행 한라산 만인보 변방의 섬에서 상생의 길을 찾다 착한 경제 제주民의 저항史 강충민의 사람사는 세상 장태욱의 제주기행 오성스님의편지 오르미의 제주여행 제주여성 문화유적 100 제주 세계7대 자연경관 제주사람이 쓰는 제주이야기 고봉선의 꽃과 함께 망장포 귀촌 이야기 양용진의 제주음식이야기 강충민의 제주맛집 김건석의 바당에 살어리랏다 고현주의 꿈꾸는 카메라 정신지의 걸으멍 보멍 들으멍 바람섬 숨, 쉼 김학준의 교육소비자 협동조합 문무병의 제주, 신화 오승주의 책놀이책 Q&amp;A 장태욱의 '野'한이야기 코코어멍 동물愛談 양기혁이 떠난 러시아 여행 나눔의 기쁨 유배, 꽃을 피우다 눈사람 레코드 김동필의 제주전통목기 건강 365 시를 먹고자라는 식물원 2015 나눔보따리 밥집아줌마의 세상엿보기 사진가 이겸, 제주 중산간을 걷다 제주 생태관광 이야기 김수열 시인의 도시락 산책 전기차 콘셉디자인 어워드 오승주의 어·부·가 윤창훈의 과학이야기 장태욱 여행기 부모아카데미 이야기속 제주 표트르의 도시에 가다 박경호의 제주 사람책 제주 항몽유적의 문화자원화 오승주의 어·부·책 조남희, 제주사름으로 살기 어리숙한 농부의 농사일기 2016 제주시민 인문학 강좌 제주 밥상 이야기 질문이 있는 나의 그림책 살며詩 한 편 논어와 동서양 고전의 향연 제주밭담 시간여행 점빵 월령가 한라산 식물 이야기 제주섬의 산물 제주4·3은 대한민국의 역사입니다 4차 산업혁명 제주 아카데미 영화적 인간 세상을 바꾸는 10대들의 글쓰기 2018년 학생 흡연 등 중독예방·치유 프로그램 오승주의 책놀이책 Q&amp;A 정수진의 About 풋볼 김길웅의 借古述今 정은광의 제주 산책 제리뉴스 우리도 교육주체다 4.3 특별법 개정 촉구 릴레이 시화전 제주댁, 정지에書 시인이 쓰는 마을책방 서명숙의 길 위에서 전하는 편지 제주도롱뇽 관찰일기 윤봉택의 탐나는 올레 남북소통공감아카데미 레포츠 전체 스포츠 연예 제주 Utd 경마 마라톤 전국체전 기획/특집 전체 재선충병 전쟁 지금은 제주 주거복지, 해법은 4.3 기획 4.3과 예술 강정영화제 릴레이 기고 제주 영화인 릴레이 기고 곶자왈의 눈물 꿈틀대는 제주 청년 특별자치 10년, 어디까지 왔나 현대극장을 지켜야하는 이유 아트페어 전성시대 하수처리 대란 제주도의원 선거구획정 빚에 짓눌린 제주 위기의 곶자왈 장미대선, 제주 어젠다 5.9대선, 제주의 선택은? 사각지대 놓인 제주 비지정문화재 4.3 70주년 D-1년 대중교통 개편 제주올레 10년 하와이와 제주, 그리고 다크투어리즘 소리多 클낭 2018 지방화시대, 제주 분권을 말하다 창간15주년 숫자로 보는 제주 클낭 2019 소리後 한국전쟁과 제주 제주 ‘女 氣UP’ 창업현장 제주의소리-제주MBC 공동기획 명쾌한 週 제주특별법 공동기획 대선 예비주자 人터뷰 탐라의 나들목 건들개, 다시 피다 주민이 주인이다-제주 마을이야기 제주 스마트시티 챌린지 사람들 전체 화촉 부고 행사·모임 동정 인사 훈훈뉴스 이재홍이 만난 사람 오늘의 운세 사회복지뉴스 인터뷰 미친이웃 사고 소리TV 공모전 전체 그리운 어머니, 보고싶은 아버지 사랑의 사진 공모전 English News 전체 jejuweekly 이도영의 시사영어 세계 7대자연경관 테스트 생중계 갤러리 소리톡 이슈 테크플러스 제주 행정자치위원회 전체 강경식 박규헌 박원철 윤춘광 위성곤 장동훈 현정화 복지안전위원회 전체 고충홍 박주희 박희수 안창남 오영훈 이선화 환경도시위원회 전체 김경진 김명만 김태석 손유원 신영근 한영호 문화관광위원회 전체 강창수 김용범 김진덕 김희현 소원옥 신관홍 농수축·지식산업위원회 전체 구성지 김도웅 방문추 안동우 좌남수 하민철 교육위원회 전체 강경찬 김영심 문석호 오대익 오충진 윤두호 이석문 허진영 현우범 앱 전체 메인탑뉴스 섹션탑뉴스 중요뉴스 갤러리 제외 한줄뉴스 온라인이슈 전체 정치 경제 사회 문화 스포츠 선거 전체 4.13총선 5·9 대선 6.13 지방선거 연재 협약취재 전체 제주형 도시재생, 길을 묻다 세계중요농업유산 제주밭담 한의약, 건강 제주의 꿈 탐라의 중심, 제주의 관문 '용담' 제주6차산업人 소리-현장 전체메뉴닫기</t>
+  </si>
+  <si>
+    <t>제주도 “지역화폐에 관광 포인트 결합” - 농민신문 컨텐츠 바로가기 지역&amp;현장 구독신청 PDF 지면보기 로그인 전체메뉴 농촌사회 지역소식 페이스북 트위터 네이버 블로그 카카오 스토리 인스타그램 유튜브 login 닫기 search2 로그인 회원가입 뉴스 많이 본 기사 최신 기사 이 시간 뉴스 정책 정부 국회 농협·농업단체 정책일반 경제 유통 농산업 축산 금융·재테크 국제 자연&amp;사람 먹을거리 여행 귀농·귀촌 도시&amp; 인터뷰 건강 책 생활정보 문화일반 지역&amp;현장 농촌사회 지역소식 오피니언 사설 사내칼럼 외부칼럼 만평 기획·연재 기획시리즈 포토·동영상 포토 동영상 카드뉴스 정보광장 사고 공모전·행사 지상복덕방 기사제보 신춘문예 당선작 영농·생활수기 수상작 조합장 현황 객원기자방 만화 책방 매거진 전원생활 어린이동산 디지털농업 월간축산 콘텐츠몰 PDF 지면보기 농민신문·월간지 구독신청 책방/신간·베스트셀러 기사·사진 구입 제주도 “지역화폐에 관광 포인트 결합” 입력 : 2020-04-29 00:00 스크랩 프린트 작게 크게 댓글 페이스북 트위터 네이버블로그 카카오톡 링크복사하기 연내 새로운 형태 지역 화폐 도입 추진…사용처 확대도 제주특별자치도(도지사 원희룡)가 올해 안에 획기적인 형태의 지역화폐 도입을 추진하기로 해 주목받고 있다. 원희룡 지사는 23일 열린 제주도의회 제381회 임시회 제4차 본회의 도정질문에서 “올해 안으로 전국에서 가장 앞서 나가는 형태의 지역화폐를 도입하겠다”고 밝혔다. 지역화폐의 일종인 현재의 제주사랑상품권은 전통시장 등으로 사용범위가 한정돼 있는 데다 민간단체인 제주도상인연합회가 발행한다. 정부가 ‘신종 코로나바이러스 감염증(코로나19)’ 여파로 어려움을 겪는 소상공인을 위해 추가경정예산으로 3조원 규모의 지역상품권을 발행하기로 했으나, 발행 주체는 기초지방자치단체, 사용범위는 해당 지역으로 제한하면서 지역상품권을 민간이 발행하는 제주도는 지원 대상에서 제외된 상태다. 도는 관광과 관련한 멤버십 포인트를 지역화폐에 결합해 기존 카드사 포인트처럼 사용할 수 있도록 할 계획이다. 또한 지역화폐 사용처를 확대하기 위해 결제시스템을 갖춘 플랫폼기업이나 카드와 연결된 금융기관 등과 협력하는 방안도 검토 중이다. 원 지사는 “새 지역화폐 발행에 대해 일찍이 필요성을 느끼고 있었다”며 “앞으로 직접 나서 지역화폐 발행을 위한 태스크포스(TF)를 챙기겠다”고 강조했다. 제주=김재욱 기자 ⓒ 농민신문 &amp; nongmin.com, 무단 전재 및 수집, 재배포 금지 댓글 페이스북 트위터 네이버블로그 카카오톡 링크복사하기 게시판 관리기준? 게시판 관리기준? 비방, 욕설, 광고글이나 허위 또는 저속한 내용 등은 사전 통보 없이 삭제되거나 댓글 작성이 금지될 수 있습니다. 농민신문 페이스북 네이버블로그 카카오스토리 농민신문 및 소셜계정으로 댓글을 작성하세요. 로그인 후 댓글 작성이 가능합니다. 0 /200자 등록하기 기획·연재 많이 본 기사 종합 이전 기사보기 1/3 다음 기사보기 이전 기사보기 1/3 다음 기사보기 최신기사 이전 기사보기 1/3 다음 기사보기 공유하기 페이스북 트위터 네이버블로그 카카오톡 링크복사 닫기 농민신문에서 알려드립니다! 오늘 하루 열지 않기 닫기 본문인쇄 프린트 © 농민신문사&amp;nongmin.com, 무단 전재 및 수집, 재배포 금지 인쇄 닫기 맨 위로 이동 서비스 전체보기 뉴스 많이 본 기사 최신 기사 이 시간 뉴스 정책 정부 국회 농협·농업단체 정책 일반 경제 유통 농산업 축산 금융·재테크 국제 자연&amp;사람 먹을거리 여행 귀농·귀촌 도시&amp; 인터뷰 건강 책 생활정보 문화일반 지역&amp;현장 농촌사회 지역소식 오피니언 사설 사내칼럼 외부칼럼 기획·연재 기획시리즈 포토·동영상 포토 동영상 카드뉴스 정보광장 사고 공모전·행사 지상복덕방 기사제보 신춘문예 당선작 영농·생활수기 수상작 조합장 현황 객원기자방 만화 책방 매거진 전원생활 어린이동산 디지털농업 월간축산 콘텐츠몰 PDF 지면보기 농민신문·월간지 구독신청 책방/신간·베스트셀러 기사·사진 구입 회사소개 구독신청 광고문의 PDF 지면보기 기사제보 회원약관 개인정보처리방침 청소년보호정책 윤리강령 저작권규약 고충처리인 인터넷신문 등록번호 서울 아04964등록일자 2018년 2월 9일창간일자 1964년 8월 15일발행인 (사)농민신문사 이성희편집인 대표자 하승봉 주소 서울특별시 서대문구 독립문로 59 (사)농민신문사사업자등록번호 102-82-05549통신판매신고번호 2018-서울서대문-0118 한국기자협회 회원사한국신문윤리위원회 서약사인터넷신문위원회 자율심의 준수서약사 copyright ⓒThe Farmers Newspaper. All rights reserved. 02)3703-6114master@nongmin.com 관련사이트 농림축산식품부 한국농수산식품유통공사(aT) 농촌진흥청 국립축산과학원 축산물품질평가원 농협중앙회 농협미래농업지원센터 농협축산정보센터 NH여행 한국농촌경제연구원 KREI농업관측본부 한국농어촌공사 귀농귀촌종합센터 전국귀농운동본부</t>
+  </si>
+  <si>
+    <t>제주도 등 관광객 급증…각 지자체, 방역조치 마련 중 메인메뉴 바로가기 컨텐츠 바로가기 닫기 구독 지면 My 초판 로그인 로그아웃 NAVER FACEBOOK TWITTER YOUTUBE RSS EMAIL 이데일리 이데일리 2022년 10월 11일 화요일 닫기 특별영역 배너 menu 경제 정책 금융 채권 외환 조세 산업·통상 사회 복지·노동·환경 교육 지자체 법조·경찰 의료·건강 사회공헌 사회일반 기업 전자 자동차 생활 산업 중소기업 아웃도어·캠핑 기업일반 증권 주식 종목 펀드 국제시황 부동산 부동산시황 재테크 분양정보 건설업계동향 부동산정책 개발·건설 오피니언 사설 데스크칼럼 서소문칼럼 인사이드칼럼 기자수첩 인터뷰 인사·부고 정치 청와대·행정 정당 국방·외교 IT·과학 모바일 방송통신 IT·인터넷 게임 과학일반 연예 방송 음악 영화 스포츠 야구 축구 골프 스포츠일반 글로벌 경제·금융 증권 기업 정치 해외토픽 국제일반 문화 공연·뮤지컬 미술·전시 책 여행·레저 패션·뷰티 웰빙·음식 라이프 문화일반 이슈 포토 영상 오토in 골프in 팜이데일리 마켓in 글로벌마켓 스냅타임 기자뉴스룸 사진공모전 search search #인기검색어 특징주 디지털화폐 이재명 테슬라 G6 e 경제 이데일리 로봇 단독 사회 복지·노동·환경 교육 지자체 법조·경찰 의료·건강 사회공헌 사회일반 팜이데일리 마켓in 스냅타임 제주도 등 관광객 급증…각 지자체, 방역조치 마련 중 등록 2020-04-24 오전 11:26:07 수정 2020-04-24 오전 11:26:07 가 가 김기덕 기자 기자구독 페이스북 트위터 메일 프린트 스크랩 url복사 [이데일리 김기덕 기자] 김강립 중앙재난안전대책본부 1총괄조정관은 24일 코로나19 브리핑에서 “최근 제주도 여행을 계획하시는 분들이 상당히 많은 것으로 보고가 되고 있다”며 “5월 5일까지는 사회적 거리두기에 대한 행정조치들이 계속 유효하기 때문에 해당 권고에 기초한 위험시설에 대한 각 지자체가 행정명령 조치는 유효하다”고 말했다. 김강립 총괄조정관은 이어 “제주도가 자체적으로 여행객 증가에 따른 방역지침을 준비하고 있는 것으로 알고 있다”고 말했다. 김강립 중앙재난안전대책본부 제1총괄조정관.(연합뉴스 제공) 주요뉴스 똥값 된 금(金)값…이젠 금 사도 되지 않을까 "저 죽어요? 우리 애들은" 대낮 남편에 살해된 아내 뒤늦게 알려진 이유 선우은숙, 4살 연하 유영재 아나운서와 재혼 혼인신고 마쳐 [공식] 저작권자 © 이데일리 - 무단전재, 재배포 금지 뉴스레터 구독 | 지면 구독 실시간급상승 뉴스 1전광훈 "이대로면 朴처럼 탄핵돼"…'정권 엄호' 보수집회 2선우은숙, 4살 연하 유영재 아나운서와 재혼 "혼인신고 마쳐" [공식] 3"저 죽어요? 우리 애들은" 대낮 남편에 살해된 아내 뒤늦게 알려진 이유 4[누구집]남궁민 7년 열애끝 웨딩마치, 신혼집은? 53선 구청장의 비밀…그는 고문 수사관이었다[그해 오늘] 카드뉴스[카드뉴스] 2022년 10월 11일 오늘의 운세 오늘의포토 왼쪽 오른쪽 [포토]'인사하는 정진석-주호영' [포토] 살 맛나는 가격 60% 할인 [포토] 2022 제약바이오 채용박람회 개막식 [포토]필리핀 복싱 영웅 파키아오의 미소 [포토]깊어가는 가을을 즐기세요! [포토]'국정감사 출석하는 최재해 감사원장' [포토]간담회에서 발언하는 김현숙 여가부 장관 [포토]오세훈 시장, 2022 서울워크에서 청년들과 '토크 콘서트' [포토]대체공휴일에 열린 집회 [포토]건강한마당, 댄스 배우는 시민들 소셜 댓글by LiveRe 많이 본 뉴스 뉴스 증권 연예 1 전광훈 "이대로면 朴처럼 탄핵돼"…'정권 엄호' 보수집회 2 그녀의 비밀계약… 90년대 ‘강남 큰손’ 조춘자의 거짓말이었다 3 3선 구청장의 비밀…그는 고문 수사관이었다[그해 오늘] 4 "저 죽어요? 우리 애들은" 대낮 남편에 살해된 아내 뒤늦게 알려진 이유 5 '월급 500만원' 아이엠 택시기사 "콜·예약 시스템으로 수익 다변화" 6 대통령 직접 방문했지만…국공립 어린이집 예산 19% 삭감 7 "한날 떠나면 어쩌나" 일순간 고아로…무주 일가족 가스 참변 8 인터넷 포털에서 ‘윤석열차’ 검색해 봤더니… 9 송가인, 목포콘서트→팬미팅 '바쁘다 바빠' 10 “키스 5단계는” “치마 짧으면...”..선생님이 이런 농담을 1 삼성전자마저…코스피, 3분기 실적 대참사 시작되나 2 "금리 급등하는 지금이 적기" vs "섣불리 덤볐다가 큰코다쳐" 3 스팩합병 전성시대…역대급 흥행에 덩치 커진다 4 글로벌 기업들 ESG 속도 내는데 G에 발묶인 한국 5 KPMG, '아시아 최우수 리스크 컨설팅펌' 선정 6 [미리보는 이데일리 신문] 수리남 제작사도 참패…고금리에 기업 돈줄 마른다 7 HLB생활건강 "새치 커버 샴푸에 논란중인 염모제 성분 없어" 8 美 CFA협회 "ESG 자격증 도입, 韓 거버넌스 개선 기대" 9 김태현 국민연금 이사장 "공모주 기계적 투자, 수정 여부 검토할 것"[2022국감] 10 [뉴스새벽배송]월가 황제 “S&amp;P 3000선 붕괴”…미 증시 또 약세 1 선우은숙, 4살 연하 아나운서와 재혼 "혼인신고 마쳐" 2 임창정·서하얀, 고급 빌라서 아파트로… "이사만 7번째" 3 '역설의 장미'…장밋빛에도 저마다 사연이 있다 [e갤러리] 4 [e갤러리] '헝가리식' 우연이 만든 주름…시몬 한타이 '수채화' 5 선우은숙, 유영재와 재혼 소식에 전 남편 이영하 반응은? 6 '작은 아씨들' 김고은, 10월 배우 브랜드 평판 1위 7 공효진♥케빈오 11일(현지시간) 뉴욕 결혼식…정려원·엄지원 미국行 8 '얼죽연' 최시원, 장난→진중 퍼펙트 남사친 열연…역시 '로코' 장인 9 '아바드림' 오승근, 故 김자옥과 생사초월 듀엣 감동 10 '고딩엄빠2' 19세 엄마 김가연, 4세 딸 발달 장애 검사 결과에 '오열' 바이오 투자 길라잡이 팜이데일리 왼쪽 오른쪽 알지노믹스, 간암 치료제 美FDA 임상시험계획 승인 퓨쳐켐, 전립선암 치료제 'FC705' 멕시코 특허 취득 에이비엘바이오, 암 단백질 'B7-H3' 타깃 단독항체 일본 특허 취득 지씨씨엘 "당화혈색소측정 'NGSP' 최고 레벨 획득" 코아스템 “자사 루게릭병 치료제, 대조군比 생존기간 5.6년 길어”...FDA 통과 ‘청신호’ 스무살의 설레임 스냅타임 왼쪽 오른쪽 유튜브 고유 아이디 ‘핸들’ 기능 추가...이름쟁탈전 벌어질까 2022년 10월 11일 오늘의 운세 2022년 10월 10일 오늘의 운세 경기도, 도민과 함께 576돌 ‘한글아 놀자’ 행사 ‘고딩엄빠’는 환상, 이 잔인한 통계를 보라 재미에 지식을 더하다 영상+ 왼쪽 오른쪽 이제부터가 진짜 하락장이다 JW중외제약, 1500억 혈우병 치료제 시장 통째로 삼킨다 아름다운 빛으로 풀어낸 정조의 꿈 수원, 정조의 발자취를 따라서 1기 신도시 마스터플랜이 뭐길래 두근두근 핫포토 우승 가자! '드레스를 조심해' 남다른 주먹 北 전술핵운용부대 왼쪽 오른쪽 당신의 드림카는?ㅣ오토in 한국타이어, 발달장애 특수학교 학생 위한 ‘우리들의 숲 조성’ 나이스 샤아앗~ㅣ골프in [포토]박민지 '시즌 5승 만들어준 볼입니다' 왼쪽 오른쪽 이슈기획 ㅣ 2022 국정감사 문화재 보존구역 소송 25건…"허술한 관리" 지적[2022 국감] 이슈기획 ㅣ 금리 인상 여파 "한은 금통위, 10월 이어 11월도 빅스텝 나설 듯" 이슈기획 ㅣ 집값, 폭락 vs 그래도 상승? 수억씩 `뚝뚝`…부동산 한파에 뉴타운도 ‘악’ 소리 이슈기획 ㅣ 尹 대통령 비속어 파문 尹대통령 “그냥 먹어도 되나?”… 김남국 “큰형님 마냥 습관적 반말” 이슈기획 ㅣ 신당역 역무원 피살 사건 '신당역 스토킹 살인' 전주환, 오는 18일 재판절차 시작 오늘의 주요 기사 똥값 된 금(金)값…이젠 금 사도 되지 않을까 아이폰은 왜 갤럭시로 충전 못하나요[궁즉답] [단독] KB국민은행 알뜰폰, SKT 망까지 쓴다…금융+통신 가속화 .실리콘밸리서 가장 부유한 러시아인, 러 시민권 포기 .선우은숙, 유영재와 재혼 소식에 전 남편 이영하 반응은? .“사는 게 힘들어서…” 어린 자녀 살해 후 극단 선택한 엄마들 .문화재청 4명중 1명, 청와대 행사 동원…"업무 부담" 비판 .北 대형 잠수함 개발 실패했나…유례없는 '저수지 수중 발사' .이재명, 한미일 군사훈련에 "국방 참사이자 안보 자해행위"(종합) 알립니다 2022년 하반기 경력기자 모집 제9회 이데일리 사진공모전 당선작 안내 이데일리 주식회사 제22기 결산공고 뉴스레터를 신청하세요 확인 IR 멤버스 - 포스코아르헨티나, 2단계 염수리튬 사업 개시…1.5조원 투자 - 한국조선해양, 연료전지 대형선박 실증 나선다 - 한국조선해양, 오세아니아 지역서 LNG선 3486억원에 수주 이데일리ON - 2020년 9월 19일 모닝브리핑 - 2022년 9월 16일 모닝브리핑 - [이데일리ON 강민] 9/15 매매전략 문화 · 행사 문화대상 전략포럼 W페스타 마라톤대회 캠핑요리 국제금융컨퍼런스 문화재단 이데일리 04517 서울시 중구 통일로 92 케이지타워 18F, 19F 이데일리 대표전화 02-3772-0114 I 이메일 webmaster@edaily.co.krI 사업자번호 107-81-75795 등록번호 서울 아 00090 I 등록일자 2005.10.25 I 발행인 곽재선 I 편집인 이익원 Family site 이데일리TV 스냅타임 팜이데일리 마켓in 오토in 골프in 일간스포츠 이코노미스트 이데일리ON 이데일리 포럼 이데일리 문화재단 KG써닝리더십센터 써닝포인트C.C 이데일리 인재채용 ⓒ 이데일리. All rights reserved 회사소개 회사공고 오시는길 업무문의 이용약관 청소년보호정책 고충처리인제도안내 저작권보호 오류제보 기사제보 개인정보처리방침</t>
+  </si>
+  <si>
+    <t>제주도, 황금연휴 관광객 입도행렬 '비상'...비상체제 돌입 - 헤드라인제주 × 전체기사 정치/행정 전체 도의회 선거 21대 총선 지방선거 제20대 총선 도의원 보궐선거 제19대 대선 경제 전체 소비자상담 Q &amp; A 이성돈의 제주농업의 뿌리를 찾아서 김용호의 제주감귤 이야기 사회 전체 사건사고 날씨 사랑의열매 프로젝트 교육 전체 학교소식 관광 문화 전체 전시·축제 서명숙의 로드 다큐멘터리 최연실의 문학산책 스포츠 오피니언 전체 데스크논단 취재수첩 미디어칼럼 기고 김진옥의 시선: 삶과 경제 양길현의 제주 미래담론 양용호의 시사문화칼럼 장신옥의 가족친화문화로 여는 새 제주 강문상의 미디어칼럼 고성협의 추자도이야기 기획특집 전체 열사람의한걸음 특성화고 세계人제주 기획취재 제주 예술가, 섬에 '혼'을 불어넣다 제주사랑의열매 복지현안지원사업 제주4.3, 김호진 편집국장 생애 타는목마름으로 지방선거 후보자 대담 영상 후보자 토론회 영상 여론조사 마음건강캠페인 미디어 전체 English News 피플 전체 한정선의 작은 프리즘 한정희의 행복한 미술 이성복의 일상 이야기 홍화각 중수기 기문(記文) '궷물' 정호가 조천을 그리며 이상식의 소비자상담 Q &amp; A 양영수의 꽁트 읍면동소식 전체 읍면동소식-제주시 읍면동소식-서귀포시 포토 전체 김환철의 포토뉴스 포토에세이 연예 온라인커뮤니티 국제 연재 전체 제2공항 희망나눔 캠페인 외국인의눈 강정국제평화영화제 신년대담 시민기자 기사쓰기 기사제보 로그인 회원가입 모바일웹 최종편집 : 2022-10-11 14:46 (화) 전체메뉴 뉴스 정치/행정 경제 사회 교육 관광 문화 스포츠 오피니언 미디어 피플 해설/초점 해설 초점 설왕설래 현장취재 논단/칼럼 데스크논단 취재수첩 미디어칼럼 연재칼럼 기고 기획특집 특성화고 열사람의한걸음 외국인커뮤니티제전 타는목마름으로 커뮤니티 시민기자뉴스 읍면동 뉴스 학교뉴스 보도자료 검색 기사검색 검색 검색확장 정치/행정 도의회 선거 21대 총선 지방선거 제20대 총선 도의원 보궐선거 제19대 대선 경제 소비자상담 Q &amp; A 이성돈의 제주농업의 뿌리를 찾아서 김용호의 제주감귤 이야기 사회 사건사고 날씨 사랑의열매 프로젝트 교육 학교소식 관광 문화 전시·축제 서명숙의 로드 다큐멘터리 최연실의 문학산책 스포츠 오피니언 데스크논단 취재수첩 미디어칼럼 기고 김진옥의 시선: 삶과 경제 양길현의 제주 미래담론 양용호의 시사문화칼럼 장신옥의 가족친화문화로 여는 새 제주 강문상의 미디어칼럼 고성협의 추자도이야기 기획특집 동행 특성화고 세계人제주 기획취재 제주 예술가, 섬에 '혼'을 불어넣다 제주사랑의열매 복지현안지원사업 제주4.3, 김호진 편집국장 생애 타는목마름으로 지방선거 후보자 대담 영상 후보자 토론회 영상 여론조사 마음건강캠페인 미디어 English News 피플 한정선의 작은 프리즘 한정희의 행복한 미술 이성복의 일상 이야기 홍화각 중수기 기문(記文) '궷물' 정호가 조천을 그리며 이상식의 소비자상담 Q &amp; A 양영수의 꽁트 읍면동소식 읍면동소식-제주시 읍면동소식-서귀포시 포토 김환철의 포토뉴스 포토에세이 연예 온라인커뮤니티 국제 연재 제2공항 희망나눔 캠페인 외국인의눈 강정국제평화영화제 신년대담 이전 다음 제주도, 황금연휴 관광객 입도행렬 '비상'...비상체제 돌입 페이스북 트위터 카카오스토리 URL복사 기사공유하기 상태바 HOME 경제 제주도, 황금연휴 관광객 입도행렬 '비상'...비상체제 돌입 원성심 기자 headlinejeju@headlinejeju.co.kr 승인 2020.04.23 12:34 댓글 1 페이스북 트위터 카카오스토리 URL복사 기사공유하기 스크랩 프린트 메일보내기 글씨키우기 이 기사를 공유합니다 페이스북 트위터 카카오스토리 URL복사 × 관광 비상상황실 운영...제주공항 입도시스템 강화 제주국제공항 도착장. 부처님 오신날인 30일부터 어린이날인 5월5일까지 이어지는 황금연휴 기간 제주도를 찾는 관광객이 17만명에 이를 것으로 예상되면서, 제주특별자치도가 코로나19 유입 차단을 위해 총력적 방역에 나선다. 제주특별자치도는 이번 황금연휴 기간 입도관광객이 급증할 것으로 예상됨에 따라 관광업계 및 유관기관과 협력체계를 구축해 '청정제주 안전관광 지키기'에 총력적으로 대응한다고 23일 밝혔다. 이번 연휴기간 제주도를 찾는 관광객은 17만 9000여명으로 추산되고 있다. 이는 지난해 같은기간과 비교해 43.2% 감소한 수치이나 이번 코로나19 사태가 심각상황으로 격상된 이후에는 가장 많은 입도행렬이다. 제주도 관광객은 지난해까지는 1일 4만5000명 내외가 입도했으나 코로나19 사태 후에는 반토막 수준으로 줄었는데, 이번 연휴기간에는 1일 2만여명에서 많게는 3만명의 관광객이 들어올 것으로 예상됐다. 코로나19 유입차단을 위해 24일부터 5월5일까지 '관광 비상 상황실'을 설치해 운영하기로 했다. 특히 제주도 1차적 관문인 제주국제공항의 입도객 관리 시스템을 강화하기로 했다. 또 24일부터 관광사업체 865개소에 대한 방역 현황을 일제 점검하고, 연휴 기간 내내 코로나19 방역체계를 집중적으로 관리하기로 했다. 숙박업소 및 관광지 주기적 방역, 종사자 위생관리 등 방역지침을 철저히 준수할 것을 점검하는 한편, 실내 관광지의 경우에는 마스크를 필히 착용하도록 안내할 계획이다. 긴급 상황에 대비해, 업종별 대응 매뉴얼을 제작․배부하는 한편, 보건소와의 신고체계 구축 등 입도 관광객 대상 방역 관리를 강화하기로 했다. 공항과 항만에서는 29일부터 5월1일까지 '사회적 거리두기' 및 '안전한 제주관광 즐기기' 캠페인을 전개하기로 했다. 강영돈 제주도 관광국장은 "정부의 '사회적 거리두기' 완화 분위기에도 세심한 방역 조치가 뒷받침돼야 하는 시기"라며 "제주를 찾는 관광객이 증가함에 따라 관광사업체의 방역 철저와 입도객들의 예방수칙 준수, 안전거리 확보 등에 더욱 만전을 기하겠다"고 밝혔다. &lt;헤드라인제주&gt; 저작권자 © 헤드라인제주 (headlinejeju@headlinejeju.co.kr) 무단전재 및 재배포 금지 원성심 기자 다른기사 보기 페이스북 트위터 카카오스토리 URL복사 기사공유하기 관련기사 황금연휴 제주도 관광객 17만명 온다...코로나 방역 '비상' 제주공항 워크스루 선별진료소, 해외방문 입도객 검사안내 강화 원희룡 지사 "황금연휴 기간, 제주도 여행 자제해 달라" [전문] 원희룡 지사, ‘황금연휴’ 앞두고 국민들께 드리는 말씀 정세균 총리 "제주도, 황금연휴 긴장감 갖고 방역 임해달라" 댓글삭제 삭제한 댓글은 다시 복구할 수 없습니다. 그래도 삭제하시겠습니까? 비밀번호 삭제 × 댓글수정 비밀번호 내용 수정 × 댓글 1 로그인 이름 비밀번호 내용 0 / 400 등록 댓글쓰기 계정을 선택하시면 로그인·계정인증을 통해 댓글을 남기실 수 있습니다. 회원 로그인 비회원 글쓰기 이름 비밀번호 자동등록방지 확인 × 최신순 추천순 제주도민 2020-04-24 10:24:14 | 211.***.***.28 더보기 삭제하기 수정하기 제발 입도민들에 대해서 사전 발열체크를 잘해서 확진자가 제주도에 입도하는 일이 없도록 처저를 기해주셨으면 좋겠네요. 제주항공에서 탑승구에서 발열체크를 한다는 소식이 있는데 타항공사에서도 같은 방법으로 해주셨으면 좋겠습니다. 답글쓰기 4 0 오늘의 주요 뉴스 제주 병설유치원 매운급식 논란..."아이들이 밥을 못 먹어" 제주, 택배 추가배송비 부당 요구사례 접수 창구 운영 제주, 전국에서 가장 비싼 기름값 문제 대응 시장조사 나선다 제주도 실업급여 수급자↓...고용상황 회복세 전환 설왕설래 說往說來 '밀어내고 아파트 개발하면서'...제주, 도시숲 확대 조성하겠다? 사건사고 제주 한림읍 목조 펜션에서 화재...인명피해 없어 제주, 구좌읍 단독주택 화재...6300여만원 상당 재산 피해 제주, 인사 안했다고 학생 폭행 모 중학교 교사 입건 제주 함덕서 '탄저균' 우편물 배송 소동...두 차례 키트 검사 '음성' 제주해경, 주유하다 바다에 기름 유출한 어선 적발 많이 본 뉴스 실시간 댓글 1 나의 다짐 2 제103회 전국체전, 제주 선수단 메달 누적 59개 획득 3 서귀포시, 2022년 교통유발부담금 21억원 부과 4 제61회 탐라문화제 폐막...걸궁 '조천읍 민속보존회' 최우수상 5 소방공무원노조, 인사혁신처에 소방공무원 33년 이상 ‘보국훈장’ 수여 요청 6 제주도, 새해 50억원 상당 제주항공 주식 매입 추진 7 세상을 웃게 만드는 친절 8 제주시, 하반기 사무관 승진의결자 6명 승진 임용 9 서귀포시, 사무관 승진의결자 8명 승진임용 10 주민자치 위원이 되기 위한 필수과정 '주민자치 교육' 1 안녕하세요 2 네 3 네 4 지난 회차 이후 오랜만에 글 올려주셔서 너무 반가운 마음에 푹 빠져들어 읽었습니다. 오늘도 공감가는 좋은 글 올려주셔서 감사합니다. 따뜻한 마음의 양식 얻어갑니다. 저만 알고싶은 글 맛집이네요.^^. 5 열새람의 한걸음 24회째 행사 감동입니다. 꾸준히 함께 해주시는 걸음 감사합니다. 김희현 정무부시사님의 방문과 격려도 감사합니다^^ 6 아니 대체 남자든 여자든 당하면 당연히 원래 부서가 있는 건데 첫 시초가 안희정 보낼려고 꼼수썼던 그 정치인것들이지. 한국경찰들도 니들에게도 대놓고 여경 실어주기인데 뭐 됐어 ㅋㅋㅋ 지들만 손해지. 더욱 해서 경찰 아래로 둬. 7 성인지라는 자체가 편법 느낌인데 무슨 북한이냐고. 저런 거 절대 예산 주지마 진짜. 나라 중국처럼 한 순간에 말아먹는 거라고. 8 지역발전의 초석이 되었으면 한다 9 드론은 상용화가 아니라 특수한 공간, 특수한 상황에만 특별하게 사용하도록 하는게 현명한 것이고. 산업 전략화 하는 것이지 이걸 상용화 하는게 아니에요 쫌 제대로 정책을 펼쳐봐요. 그냥 인기영합적인 것만 바라지 말고 김 국장... !!! 노력하 봐요, 초심으로 돌아가서 부이사관이 뭐 이래.... 10 그럼 드론 상공 날아가는 곳을 통제 할 수 있어요? 도민 20만명이 드론을 상용화 해서 하늘에 날린다 그럽시다. 어떻게 20만대가 하늘에 날아다니면 안전해요? 절대적으로 상용화가 안되고 특수한 경우에만 특정한사람들만 사용이 가능한 기계.. 이걸 왜 이런데다가 쓰고 홍보하는지 모르겠어요 도청이 그렇게 할 일이 없나요? 우선 먹고 사는 일부터 해결합시다. 이딴 거는 돈 있는 사람, 특별한 사람 들 개인이 하도록 하고요... 기사제보 광고안내 보도자료 화촉 부고 날씨 항공 헤드라인제주 소개 댓글운영관리기준 이메일무단수집거부 개인정보취급방침 청소년보호정책 facebook twitter RSS e-mail 제호 : 헤드라인제주 제주특별자치도 제주시 서문로 2, 2층(용담1동) 제보 및 문의 대표전화 : 064)727-1919, 1918 팩스 : 064)727-1917 등록번호 : 제주 아 01027호 등록일 : 2010년 11월30일 사업자등록번호 : 616-81-82000 발행인 : 윤철수 편집인 : 원성심 청소년보호책임자 : 윤철수 Copyright© by 헤드라인제주. All rights reserved. 대표메일  headlinejeju@headlinejeju.co.kr 위로</t>
+  </si>
+  <si>
+    <t>"“과잉관광으로 고통”…제주도, 면세점 추가 진입에 결사 반대"- 헤럴드경제 기후위기시계 × News 정치 경제 사회 국제 IT/과학 생활/문화 연예/스포츠 오피니언 지역뉴스 호남취재본부 대구&amp;경북 PR Newswire Special Section D;Con HeMil(밀리터리) Global Insight ●실시간 뉴스 기획기사 포토 신문구독 뉴스레터 최신기사 “과잉관광으로 고통”…제주도, 면세점 추가 진입에 결사 반대 2020.04.26 15:01 -신세계 면세점 들어서면 도심 400m 이내에 대형 면세점만 3개 -지역 소상공인 피해·출혈경쟁 우려…원희룡 지사는 "부정적 입장" 신세계면세점 명동점 [연합][헤럴드경제=박로명 기자] 제주관광공사가 만성 적자로 어려움을 겪던 시내면세점 사업에서 철수하기로 한 가운데 신세계그룹이 제주에 대규모 시내면세점을 추진하면서 지역사회가 출렁이고 있다.롯데면세점과 신라면세점이 제주시 도심에서 영업하는 상황에서 또 다른 대기업 면세점이 들어서게 된다면 지역 소상공인의 피해는 물론 면세업체 간 출혈경쟁이 심화할 것이란 우려의 목소리가 나온다.제주관광공사는 이달 23일 외국인 전용 시내면세점 사업 철수를 공식적으로 밝혔다. 관광공사는 중국의 사드(THAAD·고고도미사일방어체계) 보복에 따른 중국인 관광객 감소로 시내면세점 개점 이후 4년 간 154억원의 적자를 기록하며 경영난을 겪었다. 관광공사는 재고 상품 판매 및 특허 반납 절차를 마무리한 뒤 오는 29일 자로 사업을 종료할 예정이다.관광공사가 빠진 이 빈틈을 신세계그룹이 노리고 있다. 신세계그룹은 제주시 연동에 위치한 교육재단 소유 호텔 건물을 철거한 뒤 새로 면세점 건물을 지을 예정이다. 그 규모가 지상 7층(연면적 1만9978㎡), 지하 7층(1만8226㎡) 등 3만8205㎡에 이른다. 이 중 판매시설 면적은 1만5400㎡로 제주에서 영업 중인 롯데와 신라면세점의 2배에 달하는 규모다.제주 지역사회는 즉각 반발하고 있다. 먼저 신세계그룹이 면세사업과 연관성 없는 서울의 한 교육재단 명의로 제주도에 교통영향평가를 신청하면서 우회진출 논란이 불거졌다.신세계그룹 계열사가 지난해 7월 해당 호텔을 소유한 A교육재단에 69억6000만원을 빌려주고 근저당을 설정한 사실이 알려지면서 신세계그룹이 교육재단을 앞세워 인허가를 쉽게 받은 후 이를 다시 인수하는 방법을 통해 제주 면세 사업에 우회 진출하려는 것 아니냐는 비판이 제기됐다.신세계그룹은 면세점 특허권에 대한 정부 계획이 나올 경우를 대비해 부득이하게 사전 준비를 해야 했다며 긴급히 진화에 나섰지만, 논란은 가라앉지 않았다. 지역 소상공인과 언론, 도의회 등은 "대기업 면세점이 추가로 들어올 경우 지역소상공인의 피해가 심각해지고, 면세업체간 출혈경쟁이 심화할 것"이라고 주장하며 반대했다.시민단체는 "반경 400ｍ 안에 롯데와 신라, 신세계까지 대형면세점 3개가 들어서게 된다"며 교통혼잡과 과잉관광으로 인해 제주도민의 삶의 질이 추락하게 될 것이라며 반대의 목소리를 높였다.결국 원희룡 제주지사는 최근신세계그룹의 제주 면세점 진출에 부정적인 입장을 공식적으로 밝혔다.원 지사는 지난 21일 제주도의회 임시회 도정질의에서 "지난해 기획재정부에서 제주지역 면세점 추가 여부에 대해 제주도의 의견을 물어오자 지역환원 부족과 관광질서, 지역상권과의 이익 균형 문제 등을 이유로 부정적인 답변을 했다"며 "올해도 역시 기재부에서 추가로 면세사업자를 하나 더 지정할지에 대해 6~7월 되면 절차를 진행할 것 같은데 작년과 똑같은 입장을 제시할 것"이라고 말했다.지역사회의 반발에도 불구하고 대기업들이 제주에 면세점 사업을 하려는 이유는 무엇일까. 2010년대 들어 중국 단체관광객이 대규모로 제주에 몰려오면서 면세점 사업은 '황금알을 낳는 거위'로 일컬어졌다.도내 면세점 사업은 해마다 성장했다. 제주관광공사에 따르면 2018년 제주관광조수입은 6조5390억원(내국인 4조300억원, 외국인 2조5090억원)으로 잠정 집계됐다. 특히 외국인 조수입이 2017년(1조5260억원)에 비해 9830억원 늘어났는데, 이중 면세점을 포함한 소매업 분야에서 전년 대비 6100억원(54.8％)이 증가한 1조7230억원으로 조사됐다.공사는 2017년(123만명)과 2018(122만명)년 제주방문 외국인 관광객 수에 큰 변화가 없었던 것으로 볼 때 소매업 조수입 증가는 면세점을 이용한 외국인의 구매액이 증가한 것에서 원인을 찾아볼 수 있다고 분석하고 있다. 제주는 무비자 입국과 낮은 체류 비용으로 중국의 대형 보따리상(따이공, 代工)들이 쉽게 찾을 수 있는 곳으로 꼽힌다.더불어민주당 소속 김경미 제주도의원은 "면세점 매출 규모가 2018년 1조6000억원을 넘어서면서 2013년 8000억원 수준에서 5년 만에 두배 늘어난 셈"이라며 "한중 사드갈등 국면에도 불구하고 도내 대기업 면세점 영업실적은 큰 폭의 성장세를 보인다"고 밝혔다.dodo@heraldcorp.com 맞춤 정보 당신을 위한 추천 정보 많이 본 정보 오늘의 인기정보 이슈 &amp; 토픽 비즈 링크 회사소개 광고 및 제휴 안내 구독신청 인재채용 개인정보취급방침 이용약관 저작권규약 고충처리인제도 이메일수집거부 FAMILY SITE FAMILY SITE 코리아헤럴드 헤럴드POP K-POP헤럴드 리얼푸드 헤럴드에코 헤럴드디자인 더인베스터 (주)헤럴드 주소:서울시 용산구 후암로4길 10 헤럴드스퀘어 제호:헤럴드경제 인터넷신문등록번호:서울 아03710 발행인ㆍ편집인:전창협 청소년보호책임자:홍승완 대표전화:02-727-0114 | 독자문의 : 1588-0533 Copyright Herald Corporation. All Rights Reserved.</t>
+  </si>
+  <si>
+    <t>제주도관광협회, 제주국제관광마라톤축제 9월로 연기 | 연합뉴스 연합뉴스 본문 바로가기 메뉴 바로가기 연합뉴스 최신기사 일시정지 목록 펼치기 국가기간뉴스 통신사 연합뉴스 최신기사 정치 북한 경제 산업 사회 전국 세계 문화 라이프 연예 스포츠 오피니언 사람들 비주얼뉴스 제보 이전 다음 정치 전체기사 대통령실/총리실 국회/정당 외교 국방 북한 전체기사 인물 학술/연구 영상 경제 전체기사 경제/정책 금융 증시 재테크 부동산 취업/창업 소비자 국제경제 산업 전체기사 산업/기업 전기전자 중화학 자동차 건설 에너지/자원 IT/과학 게임 유통/서비스 중기/벤처 바이오/헬스 농림축산 해양수산 사회 전체기사 사건/사고 법원/검찰 교육 복지/노동 환경 여성/아동 재외동포 다문화 전국 전체기사 경기 인천 부산 울산 경남 대구/경북 광주/전남 전북 대전/충남/세종 충북 강원 제주 세계 전체기사 특파원 미국/북미 중국 일본 아시아/호주 유럽 중남미 중동/아프리카 국제기구 문화 전체기사 책/문학 만화/웹툰 종교 공연/전시 학술/문화재 미디어 라이프 전체기사 생활 건강 패션/뷰티 레저 여행/축제 연예 전체기사 방송 영화 가요 해외연예 스포츠 전체기사 야구 축구 농구/배구 골프 오피니언 연합시론 논&amp;설 사람들 전체기사 인사 부고 동정/게시판 CEO 인터뷰 스타트업 발언대 비주얼뉴스 영상 포토 화보 #D 그래픽 재난포털 기사제보 연합뉴스 TV Live 방송 검색창 열기 로그인 로그아웃 정보수정 뉴스 검색어 입력 양식 검색어 검색어 자동 완성 목록 접기 검색 결과 보기 자동완성 기능이 켜져 있습니다. 자동완성기능 켜기 국가기간뉴스 통신사 연합뉴스 제주도관광협회, 제주국제관광마라톤축제 9월로 연기 카카오톡에 공유 페이스북에 공유 트위터에 공유 공유 더보기 닫기 카카오톡에 공유 페이스북에 공유 트위터에 공유 카카오 스토리에 공유 페이스북 메신저에 공유 네이버 밴드에 공유 네이버 블로그에 공유 핀터레스트에 공유 댓글 화면 상단으로 이동 뉴스홈 최신기사 제주도관광협회, 제주국제관광마라톤축제 9월로 연기 송고시간2020-04-14 11:06 공유 닫기 카카오톡에 공유 페이스북에 공유 트위터에 공유 카카오 스토리에 공유 페이스북 메신저에 공유 네이버 밴드에 공유 네이버 블로그에 공유 핀터레스트에 공유 댓글 글자크기조정 닫기 폰트 1단계 14px 폰트 2단계 15px 폰트 3단계 16px (기본설정) 폰트 4단계 17px 폰트 5단계 18px 폰트 6단계 19px 폰트 7단계 20px 인쇄 변지철 기자 기자 페이지 (제주=연합뉴스) 변지철 기자 = 아름다운 제주 해안 절경을 즐기며 달리는 국제 관광 마라톤축제가 연기됐다. 제주국제관광마라톤축제 (제주=연합뉴스) 제주도관광협회는 내달 24일 개최 예정이던 제25회 제주국제관광마라톤축제를 9월 6일로 연기하기로 결정했다. [제주도관광협회 제공, 재판매 및 DB 금지] 제주도관광협회는 내달 24일 개최 예정이던 제25회 제주국제관광마라톤축제를 9월 6일로 연기한다고 14일 밝혔다. 도관광협회는 "신종 코로나바이러스 감염증(코로나19) 사태가 전 세계적으로 확산하고, 국내에서도 고강도 사회적 거리두기가 이어짐에 따라 불가피하게 행사를 9월로 연기하게 됐다"고 설명했다. 광고 오는 9월로 연기된 마라톤축제는 코로나19 사태로 침체한 지역경제 위기 극복을 위해 '다 함께 달리는 제주관광, 다시 도약하는 제주관광'의 의미를 담아 진행된다. 제주국제관광마라톤축제는 지난 1995년 일반시민들이 참가하는 마라톤 대회로 시작해 올해로 25회째를 맞는다. 지난해 30여개국 5천여명이 참가했다. bjc@yna.co.kr 제보는 카카오톡 okjebo &lt;저작권자(c) 연합뉴스, 무단 전재-재배포 금지&gt; 2020/04/14 11:06 송고 #제주국제관광마라톤축제 #연기 #제주 당신이 함께 보면 좋은 콘텐츠 댓글쓰기 광고 당신이 좋아할 만한 콘텐츠 현장 영상 영상 기사 재생시간 02:58 [영상] 푸틴, 미사일 보복 인정…바이든 "러시아, 비용 치르게 할 것" 영상 기사 재생시간 02:32 [영상] 미 스탠퍼드대학서 성폭행 사건 잇따라 "학교가 책임 회피" 영상 기사 재생시간 02:14 [영상] 젤렌스키, 러 미사일 공격 속 야외서 대국민 메시지 영상 기사 재생시간 02:46 [영상] 러, 우크라 전역에 대규모 보복 공격…70여명 사상·인프라 파괴 영상 기사 재생시간 01:34 [영상] 우크라전 '맹활약' M777 곡사포…'가성비 갑' 평가에 문의 폭주 영상 기사 재생시간 01:25 [영상] 푸틴 보복 시작됐나…"키이우서 미사일 소리 후 수차례 폭발음" 당신이 함께 보면 좋은 영상 광고 광고 핫뉴스 "바위야 호박이야?" 미국서 1.1t 넘는 초대형 호박 수확돼 서울서 50대 권총에 맞아…"극단적 선택 추정" 선우은숙, 4살 연하 아나운서 유영재와 재혼 공효진, 가수 케빈오와 미국 뉴욕서 비공개 결혼 신혜성 소속사 "만취 상태로 본인 차 아닌지도 모르고 운전" 출동 경찰관 가슴 밀치고 상의 흔든 30대, 테이저건 맞고 검거 천연기념물 된 '우영우 팽나무'…배우 정규수, 명예 이장 위촉 '팩맨' 파키아오, 한국 무술가 상대로 12월 복싱 복귀전 광고 많이 본 뉴스 종합 정치 경제 사회 세계 스포츠 연예 이전 다음 박수홍父 불붙인 친족상도례 존폐 논쟁…69년만에 바뀌나 선우은숙, 4살 연하 아나운서 유영재와 재혼 공효진, 가수 케빈오와 미국 뉴욕서 비공개 결혼 서울 잠원동서 50대 권총에 맞아…극단적 선택 추정 신화 신혜성, 도난차량서 음주측정 거부하다가 체포 北 리설주, 한미 겨냥 미사일 발사장에 첫 모습…위상 과시(종합) "남북철도 착공식, 文참석으로 바뀌니…예산 1억→8억대 껑충" 법사위 등 10개 상임위 국감…'유병호 문자' 감사원이 최대 쟁점 "유해를 그토록 찾길 원했는데"…6·25참전 故박태인 경사 김정은 '전술핵부대 훈련' 핵위협 노골화…핵부대 첫 언급(종합) 비트코인 채굴 난도, 사상 최고치 기록…13.55% 급등 심화하는 서울 역전세난…2년 전 시세보다 싼 전세 매물 속출 "택시 연매출 3천만원…9천만원 버는 배달사업자 3분의 1" 판피린·활명수·가그린…'새 옷' 갈아입은 전통의 효자상품 뉴욕증시, CPI·실적 대기 속에 하락…나스닥 1%↓마감 박수홍父 불붙인 친족상도례 존폐 논쟁…69년만에 바뀌나 서울 잠원동서 50대 권총에 맞아…극단적 선택 추정 신화 신혜성, 도난차량서 음주측정 거부하다가 체포 경북 구미 원룸서 40대 여성 숨져…함께 있던 남성 긴급체포 신혜성 소속사 "만취 상태로 본인 차 아닌지도 모르고 운전" 미 서부 명문 스탠퍼드대학 캠퍼스에서 대낮 성폭행 사건 잇따라 北 리설주, 한미 겨냥 미사일 발사장에 첫 모습…위상 과시(종합) 70일만에 공격받은 키이우, 출근길 도심 피투성이에 곳곳 불바다 러 노벨평화상 수상자 "전쟁은 우크라 승리로만 끝날 수 있어" "바위야 호박이야?" 미국서 1.1t 넘는 초대형 호박 수확돼 KLPGA 3년 출장 정지 윤이나, 재심 청구 안 했다…"반성하겠다" 'UCL 무승 끊자' 손흥민, 프랑크푸르트와 홈 경기 득점포 정조준 '팩맨' 파키아오, 한국 무술가 상대로 12월 복싱 복귀전 [전국체전] 황선우, 자유형 200ｍ서 두 번째 금메달…대회 신기록 두산과 작별한 김태형 감독, 5개 구단 제의 가능…태풍 되나(종합) 선우은숙, 4살 연하 아나운서 유영재와 재혼 공효진, 가수 케빈오와 미국 뉴욕서 비공개 결혼 신혜성 소속사 "만취 상태로 본인 차 아닌지도 모르고 운전" 아슬아슬 수위 높이는 연애 예능…"유해하고 불쾌하다" 반응도 천연기념물 된 '우영우 팽나무'…배우 정규수, 명예 이장 위촉 광고 광고 에디터스 픽Editor's Picks 영상 영상 기사 재생시간 01:34 [영상] 우크라전 '맹활약' M777 곡사포…'가성비 갑' 평가에 문의 폭주 영상 기사 재생시간 02:14 [영상] 젤렌스키, 러 미사일 공격 속 야외서 대국민 메시지 영상 기사 재생시간 02:32 [영상] 미 스탠퍼드대학서 성폭행 사건 잇따라 "학교가 책임 회피" 뉴스 학업성취도 자율평가 대상 늘린다…2024년까지 초3∼고2로 확대 '화약고' 감사원 국감, '감사위원 배석' 놓고 오전 내내 파행 러 "서방의 우크라 개입 확대에 적절히 맞대응" 경고 대통령실, 北국지도발 가능성도 염두…"성동격서식 도발할 수도" 北, 저수지·열차서 미사일 쏴…더 어려워진 원점타격·대북감시 광고 댓글 많은 뉴스 정진석 "이재명의 '일본군 주둔설', 안보 망치는 망언" 댓글수 35 박수홍父 불붙인 친족상도례 존폐 논쟁…69년만에 바뀌나 댓글수 28 北 리설주, 한미 겨냥 미사일 발사장에 첫 모습…위상 과시(종합) 댓글수 15 70일만에 공격받은 키이우, 출근길 도심 피투성이에 곳곳 불바다 댓글수 15 "남북철도 착공식, 文참석으로 바뀌니…예산 1억→8억대 껑충" 댓글수 15 광고 뭐하고 놀까?#흥 광고 광고 광고 유튜브 채널 연합뉴스 유튜브채널 통통컬쳐 유튜브채널 통통테크 유튜브채널 통통리빙 유튜브채널 코리아나우 유튜브채널 한반도N 유튜브채널 SNS 연합뉴스 페이스북 연합뉴스 트위터 연합뉴스 인스타그램 뉴스 홈 최신기사 정치 북한 경제 산업 사회 전국 세계 문화 라이프 연예 스포츠 오피니언 사람들 비주얼뉴스 영상 포토 화보 #D 그래픽 테마별뉴스 핫뉴스 톱뉴스 주요뉴스 긴급뉴스 단독뉴스 많이본뉴스 뉴스+ 이슈돋보기 팩트체크 재난포털 날씨 주요신문 톱뉴스/사설 이시각 헤드라인 모바일뉴스 모바일앱 모바일웹 외국어 English 中文 日本語 عربي Español Français 뉴스 상품 프리미엄뉴스 뉴스리더 인터넷맞춤형 보도자료 해외배포 보도자료 국내배포 출판물 이매진 연합연감 영문연감 한국인물사전 단행본 월간 마이더스 광고 KTX 열차 AREX 공항철도 모바일 PC/홈페이지 출판물 콘텐츠 판매 보도사진 이미지 그래픽 동영상 인물 관련사이트 연합뉴스TV 인포맥스 한민족센터 K컬처기획단(K-ODYSSEY) 채용 IR 클럽 #흥 계약사/제휴문의 회사소개 윤리헌장 저작권규약 수용자권익위원회 모바일모니터링위원회 콘텐츠자문위원회 고충처리 이용약관 개인정보처리방침 독자게시판 기사제보(02-398-3000) 사이트맵 연합뉴스 서울시 종로구 율곡로 2길 25등록번호 문화, 나00009등록일자 1980.12.29발행일자 1980.12.29Tel. 02-398-3114 (C) Yonhapnews[대표이사] 성기홍[편집인] 조채희 모바일 버전으로 보기</t>
+  </si>
+  <si>
+    <t>제주도관광협회 사랑나눔봉사단, 이웃 사랑 기부금 전달 - 헤드라인제주 × 전체기사 정치/행정 전체 도의회 선거 21대 총선 지방선거 제20대 총선 도의원 보궐선거 제19대 대선 경제 전체 소비자상담 Q &amp; A 이성돈의 제주농업의 뿌리를 찾아서 김용호의 제주감귤 이야기 사회 전체 사건사고 날씨 사랑의열매 프로젝트 교육 전체 학교소식 관광 문화 전체 전시·축제 서명숙의 로드 다큐멘터리 최연실의 문학산책 스포츠 오피니언 전체 데스크논단 취재수첩 미디어칼럼 기고 김진옥의 시선: 삶과 경제 양길현의 제주 미래담론 양용호의 시사문화칼럼 장신옥의 가족친화문화로 여는 새 제주 강문상의 미디어칼럼 고성협의 추자도이야기 기획특집 전체 열사람의한걸음 특성화고 세계人제주 기획취재 제주 예술가, 섬에 '혼'을 불어넣다 제주사랑의열매 복지현안지원사업 제주4.3, 김호진 편집국장 생애 타는목마름으로 지방선거 후보자 대담 영상 후보자 토론회 영상 여론조사 마음건강캠페인 미디어 전체 English News 피플 전체 한정선의 작은 프리즘 한정희의 행복한 미술 이성복의 일상 이야기 홍화각 중수기 기문(記文) '궷물' 정호가 조천을 그리며 이상식의 소비자상담 Q &amp; A 양영수의 꽁트 읍면동소식 전체 읍면동소식-제주시 읍면동소식-서귀포시 포토 전체 김환철의 포토뉴스 포토에세이 연예 온라인커뮤니티 국제 연재 전체 제2공항 희망나눔 캠페인 외국인의눈 강정국제평화영화제 신년대담 시민기자 기사쓰기 기사제보 로그인 회원가입 모바일웹 최종편집 : 2022-10-11 14:46 (화) 전체메뉴 뉴스 정치/행정 경제 사회 교육 관광 문화 스포츠 오피니언 미디어 피플 해설/초점 해설 초점 설왕설래 현장취재 논단/칼럼 데스크논단 취재수첩 미디어칼럼 연재칼럼 기고 기획특집 특성화고 열사람의한걸음 외국인커뮤니티제전 타는목마름으로 커뮤니티 시민기자뉴스 읍면동 뉴스 학교뉴스 보도자료 검색 기사검색 검색 검색확장 정치/행정 도의회 선거 21대 총선 지방선거 제20대 총선 도의원 보궐선거 제19대 대선 경제 소비자상담 Q &amp; A 이성돈의 제주농업의 뿌리를 찾아서 김용호의 제주감귤 이야기 사회 사건사고 날씨 사랑의열매 프로젝트 교육 학교소식 관광 문화 전시·축제 서명숙의 로드 다큐멘터리 최연실의 문학산책 스포츠 오피니언 데스크논단 취재수첩 미디어칼럼 기고 김진옥의 시선: 삶과 경제 양길현의 제주 미래담론 양용호의 시사문화칼럼 장신옥의 가족친화문화로 여는 새 제주 강문상의 미디어칼럼 고성협의 추자도이야기 기획특집 동행 특성화고 세계人제주 기획취재 제주 예술가, 섬에 '혼'을 불어넣다 제주사랑의열매 복지현안지원사업 제주4.3, 김호진 편집국장 생애 타는목마름으로 지방선거 후보자 대담 영상 후보자 토론회 영상 여론조사 마음건강캠페인 미디어 English News 피플 한정선의 작은 프리즘 한정희의 행복한 미술 이성복의 일상 이야기 홍화각 중수기 기문(記文) '궷물' 정호가 조천을 그리며 이상식의 소비자상담 Q &amp; A 양영수의 꽁트 읍면동소식 읍면동소식-제주시 읍면동소식-서귀포시 포토 김환철의 포토뉴스 포토에세이 연예 온라인커뮤니티 국제 연재 제2공항 희망나눔 캠페인 외국인의눈 강정국제평화영화제 신년대담 이전 다음 제주도관광협회 사랑나눔봉사단, 이웃 사랑 기부금 전달 페이스북 트위터 카카오스토리 URL복사 기사공유하기 상태바 HOME 관광 제주도관광협회 사랑나눔봉사단, 이웃 사랑 기부금 전달 김재연 기자 headlinejeju@headlinejeju.co.kr 승인 2020.04.24 13:12 댓글 0 페이스북 트위터 카카오스토리 URL복사 기사공유하기 스크랩 프린트 메일보내기 글씨키우기 이 기사를 공유합니다 페이스북 트위터 카카오스토리 URL복사 × 제주특별자치도관광협회(회장 부동석) 사랑나눔봉사단은 지난 23일 제주도사회복지협의회(회장 고승화)가 운영하는 기부식품물류센터를 찾아 어려운 이웃들을 위한 기부금 200만원을 전달했다고 24일 밝혔다. 부동석 회장은 "코로나19로 어려운 시기에 주변 이웃들을 위한 나눔활동에 조금이나마 보탬이 됐으면 좋겠다"며 "올해부터 협회에서도 제주사회복지협의회가 추진 중인 제주지역 기업 사회공헌네트워크 활동에도 적극 참여하겠다"고 말했다. &lt;헤드라인제주&gt; 저작권자 © 헤드라인제주 (headlinejeju@headlinejeju.co.kr) 무단전재 및 재배포 금지 김재연 기자 다른기사 보기 페이스북 트위터 카카오스토리 URL복사 기사공유하기 댓글삭제 삭제한 댓글은 다시 복구할 수 없습니다. 그래도 삭제하시겠습니까? 비밀번호 삭제 × 댓글수정 비밀번호 내용 수정 × 댓글 0 로그인 이름 비밀번호 내용 0 / 400 등록 댓글쓰기 계정을 선택하시면 로그인·계정인증을 통해 댓글을 남기실 수 있습니다. 회원 로그인 비회원 글쓰기 이름 비밀번호 자동등록방지 확인 × 오늘의 주요 뉴스 제주 병설유치원 매운급식 논란..."아이들이 밥을 못 먹어" 제주, 택배 추가배송비 부당 요구사례 접수 창구 운영 제주, 전국에서 가장 비싼 기름값 문제 대응 시장조사 나선다 제주도 실업급여 수급자↓...고용상황 회복세 전환 설왕설래 說往說來 '밀어내고 아파트 개발하면서'...제주, 도시숲 확대 조성하겠다? 사건사고 제주 한림읍 목조 펜션에서 화재...인명피해 없어 제주, 구좌읍 단독주택 화재...6300여만원 상당 재산 피해 제주, 인사 안했다고 학생 폭행 모 중학교 교사 입건 제주 함덕서 '탄저균' 우편물 배송 소동...두 차례 키트 검사 '음성' 제주해경, 주유하다 바다에 기름 유출한 어선 적발 많이 본 뉴스 실시간 댓글 1 나의 다짐 2 제103회 전국체전, 제주 선수단 메달 누적 59개 획득 3 서귀포시, 2022년 교통유발부담금 21억원 부과 4 제61회 탐라문화제 폐막...걸궁 '조천읍 민속보존회' 최우수상 5 소방공무원노조, 인사혁신처에 소방공무원 33년 이상 ‘보국훈장’ 수여 요청 6 제주도, 새해 50억원 상당 제주항공 주식 매입 추진 7 세상을 웃게 만드는 친절 8 제주시, 하반기 사무관 승진의결자 6명 승진 임용 9 서귀포시, 사무관 승진의결자 8명 승진임용 10 주민자치 위원이 되기 위한 필수과정 '주민자치 교육' 1 안녕하세요 2 네 3 네 4 지난 회차 이후 오랜만에 글 올려주셔서 너무 반가운 마음에 푹 빠져들어 읽었습니다. 오늘도 공감가는 좋은 글 올려주셔서 감사합니다. 따뜻한 마음의 양식 얻어갑니다. 저만 알고싶은 글 맛집이네요.^^. 5 열새람의 한걸음 24회째 행사 감동입니다. 꾸준히 함께 해주시는 걸음 감사합니다. 김희현 정무부시사님의 방문과 격려도 감사합니다^^ 6 아니 대체 남자든 여자든 당하면 당연히 원래 부서가 있는 건데 첫 시초가 안희정 보낼려고 꼼수썼던 그 정치인것들이지. 한국경찰들도 니들에게도 대놓고 여경 실어주기인데 뭐 됐어 ㅋㅋㅋ 지들만 손해지. 더욱 해서 경찰 아래로 둬. 7 성인지라는 자체가 편법 느낌인데 무슨 북한이냐고. 저런 거 절대 예산 주지마 진짜. 나라 중국처럼 한 순간에 말아먹는 거라고. 8 지역발전의 초석이 되었으면 한다 9 드론은 상용화가 아니라 특수한 공간, 특수한 상황에만 특별하게 사용하도록 하는게 현명한 것이고. 산업 전략화 하는 것이지 이걸 상용화 하는게 아니에요 쫌 제대로 정책을 펼쳐봐요. 그냥 인기영합적인 것만 바라지 말고 김 국장... !!! 노력하 봐요, 초심으로 돌아가서 부이사관이 뭐 이래.... 10 그럼 드론 상공 날아가는 곳을 통제 할 수 있어요? 도민 20만명이 드론을 상용화 해서 하늘에 날린다 그럽시다. 어떻게 20만대가 하늘에 날아다니면 안전해요? 절대적으로 상용화가 안되고 특수한 경우에만 특정한사람들만 사용이 가능한 기계.. 이걸 왜 이런데다가 쓰고 홍보하는지 모르겠어요 도청이 그렇게 할 일이 없나요? 우선 먹고 사는 일부터 해결합시다. 이딴 거는 돈 있는 사람, 특별한 사람 들 개인이 하도록 하고요... 기사제보 광고안내 보도자료 화촉 부고 날씨 항공 헤드라인제주 소개 댓글운영관리기준 이메일무단수집거부 개인정보취급방침 청소년보호정책 facebook twitter RSS e-mail 제호 : 헤드라인제주 제주특별자치도 제주시 서문로 2, 2층(용담1동) 제보 및 문의 대표전화 : 064)727-1919, 1918 팩스 : 064)727-1917 등록번호 : 제주 아 01027호 등록일 : 2010년 11월30일 사업자등록번호 : 616-81-82000 발행인 : 윤철수 편집인 : 원성심 청소년보호책임자 : 윤철수 Copyright© by 헤드라인제주. All rights reserved. 대표메일  headlinejeju@headlinejeju.co.kr 위로</t>
+  </si>
+  <si>
+    <t>제주도-황금연휴 대비 ‘청정제주 안전관광’ 사수 총력 &lt; 경제 &lt; 기사본문 - 내외경제TV 주요서비스 바로가기 본문 바로가기 매체정보 바로가기 로그인 바로가기 기사검색 바로가기 전체서비스 바로가기 상단영역 로그인 회원가입 기사제보 2022-10-11 13:35 (화) facebook naver post 종합 정치 일반 종합 경제 일반 국내 주가 국제 사회 일반 교육 사건·사고 국제 산업 일반 부동산 금융 제약·바이오 항공·자동차 게임 블록체인 AI·로봇 유통 종합 전국 수도권 영남 호남 충청 생활·문화 종합 스포츠 연예 생활·문화 포토 내외경제TV 오피니언 칼럼 동정 사고/알림 기자수첩 속보 On Air 검색 기사검색 검색 본문영역 이전 기사보기 다음 기사보기 제주도-황금연휴 대비 ‘청정제주 안전관광’ 사수 총력 바로가기 복사하기 본문 글씨 줄이기 본문 글씨 키우기 스크롤 이동 상태바 현재위치 홈 경제 제주도-황금연휴 대비 ‘청정제주 안전관광’ 사수 총력 기자명 정인성 입력 2020.04.24 10:21 댓글 0 바로가기 복사하기 본문 글씨 줄이기 본문 글씨 키우기 SNS 기사보내기 페이스북(으)로 기사보내기 트위터(으)로 기사보내기 카카오스토리(으)로 기사보내기 URL복사(으)로 기사보내기 이메일(으)로 기사보내기 다른 공유 찾기 기사스크랩하기 이 기사를 공유합니다 페이스북(으)로 기사보내기 트위터(으)로 기사보내기 카카오스토리(으)로 기사보내기 URL복사(으)로 기사보내기 닫기 4월 24일 ~ 5월 5일까지 관광 비상 상황실 운영/ 유관기관 합동 관광사업체 방역상황 현장 점검 및 생활 속 거리두기 실천 지속 [내외경제TV-경제3본부] 제주특별자치도가 오는 4월 30일부터 5월 5일까지 황금연휴 기간 내 입도관광객이 급증할 것으로 예상됨에 따라, 관광업계 유관기관과 ‘청정제주 안전관광 지키기’에 총력전을 펼치고 있다.  제주도는 그동안 코로나19 확산 방지를 위해 유관기관과 함께 관광사업체 방역체계를 구축하는 한편, 매주 금요일마다 관광사업체 일제 방역의 날을 운영하는 등 고강도 방역을 실시해 오고 있다. 특히 오는 4월 말부터 5월 초까지 예정된 황금연휴 기간 동안 약 17만9천여 명이 제주를 찾을 것으로 예상(제주도관광협회)됨에 따라, 관광사업체 고강도 방역 강화와 코로나19 예방수칙 이행 철저, 사회적 거리두기 등 안전한 제주를 지키기 위한 방역 활동을 보다 더 강화할 계획이다.  이와 관련해 제주도는 오늘(23일) 오후 3시 관광국내 회의실에서 유관기관 및 관계부서 방역체계 구축 협력 회의를 개최한다. 이를 통해 숙박업, 음식업 등 관광사업체의 철저한 방역은 물론 생활 속 거리두기 안정적 관리로 청정하고 안전한 제주 만들기에 적극 동참할 것을 협의할 계획이다. 또한 관광객 유입으로 인한 코로나19 확산 방지를 위해 오는 24일부터 관광사업체 865개소에 대한 방역 현황 일제 점검을 시작으로 관광사업체 코로나19 방역 특별 지도점검에 들어간다. 더불어 5월 5일까지 관광 비상 상황실을 운영할 예정이다. 이로써 입도객 증가에 대비한 공항 입도 시스템을 강화하고, 숙박업소 및 관광지 주기적 방역, 종사자 위생관리 등 방역지침을 철저히 준수할 것을 점검하는 한편, 실내 관광지의 경우에는 마스크를 필히 착용하도록 안내할 계획이다. 만일에 대비해 업종별 대응 매뉴얼을 4월 24일까지 제작․배부할 예정이며, 보건소와의 신고체계 구축 등 입도 관광객 대상 방역 관리를 강화한다. 공항 및 항만 입도객을 대상으로 ‘사회적 거리두기’동참을 유도하기 위해 오는 4월 29일부터 5월 1일간 ‘안전한 제주관광 즐기기’ 캠페인을 전개하고 유관기관 홈페이지 및 밴드 등을 활용해 “청정 안전관광 제주”를 홍보할 예정이다.강영돈 관광국장은 “정부의‘사회적 거리두기’완화 분위기에도 세심한 방역 조치가 뒷받침되어야 하는 시기”라며 “제주를 찾는 관광객이 증가함에 따라 관광사업체의 방역 철저 와 입도객들의 예방수칙 준수, 안전거리 확보 등에 더욱 만전을 기하겠다”고 밝혔다. 정인성 cis@nbntv.co.kr 다른기사 보기 저작권자 © 내외경제TV 무단전재 및 재배포 금지 당신만 안 본 뉴스 '나는 솔로' 9기 영자 인스타 파격 노출에 "해킹 당한 거?" '나는 솔로' 9기 옥순 인스타, 수영복 패션에 정숙 "언니, 너무 섹시" '나는 솔로' 9기 정숙 인스타 "이렇게 단아하니 협찬 모델" '나는 솔로' 9기 영자 인스타, "선 넘네" 악플에 경고장? '나는 솔로' 옥순 완전체 결성되나 "7, 10기 옥순님들 들어와" '나는 솔로' 10기 영숙 인스타, 꿀피부 자랑…골프 협찬 모델 예고? '나는 솔로' 10기 현숙 인스타 "포00에서 뭐 하나" 협찬 모델 예고 '나는 솔로' 9기 영자 인스타 파격 노출에 "해킹 당한 거?" 댓글삭제 삭제한 댓글은 다시 복구할 수 없습니다. 그래도 삭제하시겠습니까? 비밀번호 삭제 닫기 기사 댓글 0 댓글 접기 댓글입력 권한이 없습니다. 댓글 내용입력 0 / 400 비회원 로그인 이름 비밀번호 댓글 내용입력 0 / 400 등록 댓글쓰기 계정을 선택하시면 로그인·계정인증을 통해 댓글을 남기실 수 있습니다. 회원 로그인 이름 비밀번호 자동등록방지 확인 취소 로그인 옵션 창닫기 주요기사 류호정 의원 "청와대 오픈빨 떨어져…전방위 재정비 시급" 성범죄 가장 많이 발생한 철도역사는 '수원역' 오버워치2 PC방 3위 진입…본격적인 FPS 게임 경쟁에 돌입 전라남도의회, 제366회 임시회 12일 개회 업비트 싱가포르, 'ETH·USDT' SGD 마켓서 부활 [서머너즈 워] SWC2022, RAIGEKI 미주 지역 최강자 등극 최신뉴스 류호정 의원 "청와대 오픈빨 떨어져…전방위 재정비 시급" 성범죄 가장 많이 발생한 철도역사는 '수원역' 오버워치2 PC방 3위 진입…본격적인 FPS 게임 경쟁에 돌입 전라남도의회, 제366회 임시회 12일 개회 업비트 싱가포르, 'ETH·USDT' SGD 마켓서 부활 포토뉴스 류호정 의원 "청와대 오픈빨 떨어져…전방위 재정비 시급" 성범죄 가장 많이 발생한 철도역사는 '수원역' 오버워치2 PC방 3위 진입…본격적인 FPS 게임 경쟁에 돌입 전라남도의회, 제366회 임시회 12일 개회 인기뉴스 1 류호정 의원 "청와대 오픈빨 떨어져…전방위 재정비 시급" 2 성범죄 가장 많이 발생한 철도역사는 '수원역' 3 오버워치2 PC방 3위 진입…본격적인 FPS 게임 경쟁에 돌입 4 전라남도의회, 제366회 임시회 12일 개회 5 업비트 싱가포르, 'ETH·USDT' SGD 마켓서 부활 6 카드 빅4 앱 오픈페이 서비스 진행 예정 …앱 사용자 분포는? 7 네이버, 임원의 직장 내 괴롭힘 익명 제보에도 늦장 조사 8 청와대 개방에 커져만 가는 업무부담...285명의 문화재청 직원들 하단영역 하단메뉴 매체소개 기사제보 광고문의 이용약관 개인정보처리방침 청소년보호정책 저작권보호정책 이메일무단수집거부 rss 매체정보 서울특별시 금천구 가산디지털1로 168, C동 12층 1209-1호(가산동, 우림라이온스밸리) 대표전화 : 070-4252-5497 청소년보호책임자 : 정동진 법인명 : (주)내외경제미디어 제호 : 내외경제TV 등록번호 : 서울 아 02225 등록일 : 2012-08-06 발행일 : 2012-08-06 발행·편집인 : 정동진 내외경제TV 모든 콘텐츠(영상,기사, 사진)는 저작권법의 보호를 받는 바, 무단 전재와 복사, 배포 등을 금합니다. Copyright © 2022 내외경제TV. All rights reserved. mail to msn06s@nbntv.co.kr 위로 전체메뉴 종합 정치 일반 종합 경제 일반 국내 주가 국제 사회 일반 교육 사건·사고 국제 산업 일반 부동산 금융 제약·바이오 항공·자동차 게임 블록체인 AI·로봇 유통 종합 전국 수도권 영남 호남 충청 생활·문화 종합 스포츠 연예 생활·문화 포토 내외경제TV 오피니언 칼럼 동정 사고/알림 기자수첩 속보 On Air 전체메뉴닫기</t>
+  </si>
+  <si>
+    <t>황금연휴 제주도 관광객 17만명 온다...코로나 방역 '비상' - 헤드라인제주 × 전체기사 정치/행정 전체 도의회 선거 21대 총선 지방선거 제20대 총선 도의원 보궐선거 제19대 대선 경제 전체 소비자상담 Q &amp; A 이성돈의 제주농업의 뿌리를 찾아서 김용호의 제주감귤 이야기 사회 전체 사건사고 날씨 사랑의열매 프로젝트 교육 전체 학교소식 관광 문화 전체 전시·축제 서명숙의 로드 다큐멘터리 최연실의 문학산책 스포츠 오피니언 전체 데스크논단 취재수첩 미디어칼럼 기고 김진옥의 시선: 삶과 경제 양길현의 제주 미래담론 양용호의 시사문화칼럼 장신옥의 가족친화문화로 여는 새 제주 강문상의 미디어칼럼 고성협의 추자도이야기 기획특집 전체 열사람의한걸음 특성화고 세계人제주 기획취재 제주 예술가, 섬에 '혼'을 불어넣다 제주사랑의열매 복지현안지원사업 제주4.3, 김호진 편집국장 생애 타는목마름으로 지방선거 후보자 대담 영상 후보자 토론회 영상 여론조사 마음건강캠페인 미디어 전체 English News 피플 전체 한정선의 작은 프리즘 한정희의 행복한 미술 이성복의 일상 이야기 홍화각 중수기 기문(記文) '궷물' 정호가 조천을 그리며 이상식의 소비자상담 Q &amp; A 양영수의 꽁트 읍면동소식 전체 읍면동소식-제주시 읍면동소식-서귀포시 포토 전체 김환철의 포토뉴스 포토에세이 연예 온라인커뮤니티 국제 연재 전체 제2공항 희망나눔 캠페인 외국인의눈 강정국제평화영화제 신년대담 시민기자 기사쓰기 기사제보 로그인 회원가입 모바일웹 최종편집 : 2022-10-11 14:46 (화) 전체메뉴 뉴스 정치/행정 경제 사회 교육 관광 문화 스포츠 오피니언 미디어 피플 해설/초점 해설 초점 설왕설래 현장취재 논단/칼럼 데스크논단 취재수첩 미디어칼럼 연재칼럼 기고 기획특집 특성화고 열사람의한걸음 외국인커뮤니티제전 타는목마름으로 커뮤니티 시민기자뉴스 읍면동 뉴스 학교뉴스 보도자료 검색 기사검색 검색 검색확장 정치/행정 도의회 선거 21대 총선 지방선거 제20대 총선 도의원 보궐선거 제19대 대선 경제 소비자상담 Q &amp; A 이성돈의 제주농업의 뿌리를 찾아서 김용호의 제주감귤 이야기 사회 사건사고 날씨 사랑의열매 프로젝트 교육 학교소식 관광 문화 전시·축제 서명숙의 로드 다큐멘터리 최연실의 문학산책 스포츠 오피니언 데스크논단 취재수첩 미디어칼럼 기고 김진옥의 시선: 삶과 경제 양길현의 제주 미래담론 양용호의 시사문화칼럼 장신옥의 가족친화문화로 여는 새 제주 강문상의 미디어칼럼 고성협의 추자도이야기 기획특집 동행 특성화고 세계人제주 기획취재 제주 예술가, 섬에 '혼'을 불어넣다 제주사랑의열매 복지현안지원사업 제주4.3, 김호진 편집국장 생애 타는목마름으로 지방선거 후보자 대담 영상 후보자 토론회 영상 여론조사 마음건강캠페인 미디어 English News 피플 한정선의 작은 프리즘 한정희의 행복한 미술 이성복의 일상 이야기 홍화각 중수기 기문(記文) '궷물' 정호가 조천을 그리며 이상식의 소비자상담 Q &amp; A 양영수의 꽁트 읍면동소식 읍면동소식-제주시 읍면동소식-서귀포시 포토 김환철의 포토뉴스 포토에세이 연예 온라인커뮤니티 국제 연재 제2공항 희망나눔 캠페인 외국인의눈 강정국제평화영화제 신년대담 이전 다음 황금연휴 제주도 관광객 17만명 온다...코로나 방역 '비상' 페이스북 트위터 카카오스토리 URL복사 기사공유하기 상태바 HOME 사회 황금연휴 제주도 관광객 17만명 온다...코로나 방역 '비상' 홍창빈 기자 headlinejeju@headlinejeju.co.kr 승인 2020.04.22 18:09 댓글 1 페이스북 트위터 카카오스토리 URL복사 기사공유하기 스크랩 프린트 메일보내기 글씨키우기 이 기사를 공유합니다 페이스북 트위터 카카오스토리 URL복사 × 30일부터 5월5일까지, 많은 관광객 입도 예상제주도 '사회적 거리두기' 유지...공.항만 차단방역 강화 부처님 오신날인 30일부터 어린이날인 5월5일까지 이어지는 황금연휴 기간 제주도를 찾는 관광객이 17만명에 이를 것으로 예상되면서, 제주국제공항 도착장의 코로나19 차단방역에 비상이 걸렸다. 22일 제주도 관광업계에 따르면 제주도내 특급호텔과 관광호텔, 리조트 등의 예약률은 50%에서 70% 수준으로 나타났다. 또 코로나19 이후 최저 2만원대까지 떨어졌던 김포-제주노선 항공권은 항공사마다 일부 차이는 있지만 연휴 기간 가격이 7~10만원대에 이르고, 예약률도 90%대에 달하고 있다. 연휴 기간 입도객 수는 아직 정확히 집계되지는 않았으나, 5일간 17만명에 근접할 것으로 전망되고 있다. 이처럼 코로나19로 주춤했던 제주 관광시장이 기지개를 펼 것으로 예상되고 있으나, 제주도 방역당국은 초비상이다. 제주에는 그동안 코로나19 사태 이후 확진자가 13명에 불과했고, 이들 대부분이 대구나 미국, 스페인 등 확진자가 폭발적으로 증가했던 지역을 방문했던 경우로 지역내 감염은 없는 상황이다. 그런데 코로나19 사태로 인한 사회적 거리두기가 진행되는 상황에서 제주를 찾는 관광객이 늘어나면서, 혹시라도 확진자가 발생할 경우 안 그래도 어려움을 겪고 있는 제주 관광시장에 더 큰 부담으로 돌아올 수 있다는 우려가 제기되고 있다. 이에 제주도는 정부의 사회적 거리 두기 연장 여부와 관계없이 현재의 고강도 거리 두기 체제를 유지하기로 결정했다. 또 관광객 증가에 대비해 제주공항과 항만의 방역을 강화하고, 특히 제주공항 선별진료소에 인력과 장비를 추가 투입해 유증상 입도객은 공항에서 검사를 받도록 한다는 방침이다. 앞서 원희룡 제주도지사는 지난 19일 코로나19 대응상황 브리핑에서 "아직 방심하기는 이르다"면서 "강화된 코로나 방역 대응 체제를 당분간 유지하겠다"고 밝혔다. 원 지사는 "전국적으로 '사회적 거리두기'의 강도가 완화되면, 관광객이 늘어날 가능성이 높다"고 전제, "오랜 기간 '사회적 거리두기를 강조하면서 피로와 스트레스가 많이 쌓여 있다는 것을 잘 알고 있지만 전면 중단할 수 없는 상황"이라고 설명했다. 그는 "공동체의 안전을 위한 조치인 점을 이해해주시고 동참해달라"고 호소하면서 "도민과 국민의 안전을 지키는 일에 소홀함이 없도록 최선을 다하겠다"고 말했다.&lt;헤드라인제주&gt; 저작권자 © 헤드라인제주 (headlinejeju@headlinejeju.co.kr) 무단전재 및 재배포 금지 홍창빈 기자 다른기사 보기 페이스북 트위터 카카오스토리 URL복사 기사공유하기 관련기사 제주도, 황금연휴 관광객 입도행렬 '비상'...비상체제 돌입 원희룡 지사 "황금연휴 기간, 제주도 여행 자제해 달라" [전문] 원희룡 지사, ‘황금연휴’ 앞두고 국민들께 드리는 말씀 정세균 총리 "제주도, 황금연휴 긴장감 갖고 방역 임해달라" 댓글삭제 삭제한 댓글은 다시 복구할 수 없습니다. 그래도 삭제하시겠습니까? 비밀번호 삭제 × 댓글수정 비밀번호 내용 수정 × 댓글 1 로그인 이름 비밀번호 내용 0 / 400 등록 댓글쓰기 계정을 선택하시면 로그인·계정인증을 통해 댓글을 남기실 수 있습니다. 회원 로그인 비회원 글쓰기 이름 비밀번호 자동등록방지 확인 × 최신순 추천순 삐삐언냐 2020-04-23 01:23:47 | 106.***.***.181 더보기 삭제하기 수정하기 많은 확진자가 생길텐데 걱정입니다. 경제활동, 문화활동을 안할수도 없고, 코로나 언제면 잡히련지..에휴ㅠㅠ 답글쓰기 8 1 오늘의 주요 뉴스 제주 병설유치원 매운급식 논란..."아이들이 밥을 못 먹어" 제주, 택배 추가배송비 부당 요구사례 접수 창구 운영 제주, 전국에서 가장 비싼 기름값 문제 대응 시장조사 나선다 제주도 실업급여 수급자↓...고용상황 회복세 전환 설왕설래 說往說來 '밀어내고 아파트 개발하면서'...제주, 도시숲 확대 조성하겠다? 사건사고 제주 한림읍 목조 펜션에서 화재...인명피해 없어 제주, 구좌읍 단독주택 화재...6300여만원 상당 재산 피해 제주, 인사 안했다고 학생 폭행 모 중학교 교사 입건 제주 함덕서 '탄저균' 우편물 배송 소동...두 차례 키트 검사 '음성' 제주해경, 주유하다 바다에 기름 유출한 어선 적발 많이 본 뉴스 실시간 댓글 1 나의 다짐 2 제103회 전국체전, 제주 선수단 메달 누적 59개 획득 3 서귀포시, 2022년 교통유발부담금 21억원 부과 4 제61회 탐라문화제 폐막...걸궁 '조천읍 민속보존회' 최우수상 5 소방공무원노조, 인사혁신처에 소방공무원 33년 이상 ‘보국훈장’ 수여 요청 6 제주도, 새해 50억원 상당 제주항공 주식 매입 추진 7 세상을 웃게 만드는 친절 8 제주시, 하반기 사무관 승진의결자 6명 승진 임용 9 서귀포시, 사무관 승진의결자 8명 승진임용 10 주민자치 위원이 되기 위한 필수과정 '주민자치 교육' 1 안녕하세요 2 네 3 네 4 지난 회차 이후 오랜만에 글 올려주셔서 너무 반가운 마음에 푹 빠져들어 읽었습니다. 오늘도 공감가는 좋은 글 올려주셔서 감사합니다. 따뜻한 마음의 양식 얻어갑니다. 저만 알고싶은 글 맛집이네요.^^. 5 열새람의 한걸음 24회째 행사 감동입니다. 꾸준히 함께 해주시는 걸음 감사합니다. 김희현 정무부시사님의 방문과 격려도 감사합니다^^ 6 아니 대체 남자든 여자든 당하면 당연히 원래 부서가 있는 건데 첫 시초가 안희정 보낼려고 꼼수썼던 그 정치인것들이지. 한국경찰들도 니들에게도 대놓고 여경 실어주기인데 뭐 됐어 ㅋㅋㅋ 지들만 손해지. 더욱 해서 경찰 아래로 둬. 7 성인지라는 자체가 편법 느낌인데 무슨 북한이냐고. 저런 거 절대 예산 주지마 진짜. 나라 중국처럼 한 순간에 말아먹는 거라고. 8 지역발전의 초석이 되었으면 한다 9 드론은 상용화가 아니라 특수한 공간, 특수한 상황에만 특별하게 사용하도록 하는게 현명한 것이고. 산업 전략화 하는 것이지 이걸 상용화 하는게 아니에요 쫌 제대로 정책을 펼쳐봐요. 그냥 인기영합적인 것만 바라지 말고 김 국장... !!! 노력하 봐요, 초심으로 돌아가서 부이사관이 뭐 이래.... 10 그럼 드론 상공 날아가는 곳을 통제 할 수 있어요? 도민 20만명이 드론을 상용화 해서 하늘에 날린다 그럽시다. 어떻게 20만대가 하늘에 날아다니면 안전해요? 절대적으로 상용화가 안되고 특수한 경우에만 특정한사람들만 사용이 가능한 기계.. 이걸 왜 이런데다가 쓰고 홍보하는지 모르겠어요 도청이 그렇게 할 일이 없나요? 우선 먹고 사는 일부터 해결합시다. 이딴 거는 돈 있는 사람, 특별한 사람 들 개인이 하도록 하고요... 기사제보 광고안내 보도자료 화촉 부고 날씨 항공 헤드라인제주 소개 댓글운영관리기준 이메일무단수집거부 개인정보취급방침 청소년보호정책 facebook twitter RSS e-mail 제호 : 헤드라인제주 제주특별자치도 제주시 서문로 2, 2층(용담1동) 제보 및 문의 대표전화 : 064)727-1919, 1918 팩스 : 064)727-1917 등록번호 : 제주 아 01027호 등록일 : 2010년 11월30일 사업자등록번호 : 616-81-82000 발행인 : 윤철수 편집인 : 원성심 청소년보호책임자 : 윤철수 Copyright© by 헤드라인제주. All rights reserved. 대표메일  headlinejeju@headlinejeju.co.kr 위로</t>
+  </si>
+  <si>
+    <t>제주도, 신혼 여행지 급부상..숙박시설들도 관광객 특별행사 - 파이낸셜뉴스 메뉴 펼치기 기사 검색 검색 취소 검색 파이낸셜뉴스닫기 검색 경제 정치 사회 IT 국제 라이프 기자ON 사설 칼럼 fnSURVEY 구독신청 광고/제휴문의 네이버 MY뉴스 설정 부산파이낸셜뉴스 블록포스트 가이드포스트 fn아이포커스 파이낸셜뉴스재팬 fnMICE fn이노에듀 fn투어 파이낸셜뉴스 사회 이벤트메뉴 경제 금융 증권 부동산 산업 경제 일반 정치 청와대 국회·정당 북한 외교·국방 사회 사건·사고 검찰·법원 행정·지자체 교육 IT 통신·방송 게임 인터넷 블록체인 의학·과학 국제 국제경제 국제정치 국제사회 라이프 생활경제 연예 스포츠 푸드·리빙 레저·문화 Special 기자ON 파인애플 fnSurvey 검색 경제 금융 증권 부동산 산업 경제 일반 정치 청와대 국회·정당 북한 외교·국방 사회 사건·사고 검찰·법원 행정·지자체 교육 IT 통신·방송 게임 인터넷 블록체인 의학·과학 국제 국제경제 국제정치 국제사회 라이프 생활경제 연예 스포츠 푸드·리빙 레저·문화 Special 기자ON 파인애플 fnSurvey fn특별기획 검색 사회 &gt; 제주도, 신혼 여행지 급부상..숙박시설들도 관광객 특별행사 파이낸셜뉴스입력 2020.04.18 18:38수정 2020.04.18 18:39 페이스북 공유하기 트위터 공유하기 블로그 공유하기 카카오톡 공유하기 파인애플 페이지 URL 복사하기 인쇄 글자 작게 글자 크게 페이스북 공유하기 트위터 공유하기 블로그 공유하기 카카오톡 공유하기 파인애플 페이지 URL 복사하기 /사진=뉴스1 [파이낸셜뉴스] 80~90년대 신혼부부들의 신혼 여행지로 각광을 받았던 제주도가 최근 다시 급부상하고 있다. 코로나19 사태로 해외여행을 취소한 신혼부부들이 차선책으로 제주도를 선택하고 있기 때문이다. 이에 따라 호텔 등 제주도 숙박시설도 국내 관광객들을 맞이하기 위해 가격 인하 등 맞춤형 서비스에 주력하고 있다. 이 가운데 포도호텔은 올인클루시브 성격의 프리미엄 ‘로맨틱 허니문’ 패키지를 선보인다. 42℃ 아라고나이트 고온천을 객실 안에서 프라이빗하게 즐길 수가 있으며, 디럭스룸 2박에 조식 2회, 중식 3회, 제주의 신선한 회와 해산물, BBQ, 한우 등 퀄리티 있는 풍성한 식사가 제공된다. 식사 시 음료 서비스와 프리미엄 와인 2병, 코코아의 달콤한 풍미로 가득한 레드벨벳 케이크(1개)까지 포함이다. 더불어 통창으로 황홀한 제주 풍경을 바라보며 수영을 즐길 수 있는 디아넥스 호텔의 실내 수영장을 자유롭게 이용할 수 있다. 이밖에 호텔 측은 코로나로 인한 감염 위험을 사전에 봉쇄하고 예방하기 위해 호텔 전 시설에 신종 코로나바이러스 예방을 위한 조치가 완벽히 시행돼 있다. 호텔 프런트에 열화상 카메라를 설치하여 매뉴얼에 따라 모든 방문자를 대상으로 실시간 모니터링을 진행한다. 로비와 레스토랑 부대시설에는 손 소독제를 비치하고, 객실을 포함한 호텔 전 시설 및 집기를 매일 소독하며, 전 직원의 감염 질환에 대한 교육 및 건강 상태를 실시간 모니터링 한다. 특히 객실 전 직원이 손 소독과 건강상태를 철저히 확인하고 있다. 레스토랑에서는 사용 후 즉시 테이블과 의자를 살균 소독하며, 에피타이저 및 찬 류를 개인별로 제공하고 있다. rsunjun@fnnews.com 유선준 기자 ※ 저작권자 ⓒ 파이낸셜뉴스, 무단전재-재배포 금지 fn 회사소개 광고/제휴문의 개인정보취급방침 저작권규약 이메일주소무단수집거부 구독신청 고충처리 rss 사이트맵 주소: 서울 서초구 강남대로 315 Tel. 02-2003-7114 인터넷신문 등록번호: 서울 아04510 등록일자: 2017.05.08 회장: 전재호 부회장·발행인: 전선익 사장·인쇄인·편집인: 변동식 편집국장: 양형욱 청소년보호정책(책임자:이대율) Copyright ⓒ파이낸셜뉴스. All rights reserved. 회사소개 지면보기 사이트맵 Copyright ⓒ파이낸셜뉴스. All rights reserved.</t>
+  </si>
+  <si>
+    <t>제주도 관광진흥기금 특별융자 지원 확대 - 노컷뉴스 전체메뉴보기 노컷뉴스메인가기 제주도 관광진흥기금 특별융자 지원 확대 뉴스듣기 0 페이스북 트위터 밴드 카카오톡 URL 폰트사이즈 - + 인쇄 CBS 전국 네트워크 강원 경남 광주 대구 대전 부산 영동 울산 전남 전북 제주 청주 포항 닫기 크리스천뉴스 노컷비즈 노컷TV 노컷뉴스 전국 최신 정치 사회 전국 경제 산업 국제 문화 연예 스포츠 오피니언 포토 그래픽 노컷브이 핫이슈 스페셜 기획 제보 네이버 구독 다음 구독 카카오 구독 삭제 검색 자동완성 끄기 뉴스 정치 사회 전국 경제 산업 국제 문화 연예 스포츠 지역 서울 경인 강원 경남 광주 대구 대전 부산 영동 울산 전남 전북 제주 청주 포항 일반 이슈 핫이슈 스페셜 기획 딥뉴스 노컷체크 인터랙티브 타임라인 시사 김현정의 뉴스쇼 한판승부 김덕기의 아침뉴스 정다운의 뉴스톡 530 오피니언 칼럼 뒤끝작렬 기고 노컷브이 그래픽 포토 노컷TV 씨리얼 팟캐스트 닫기 전국 제주 제주도 관광진흥기금 특별융자 지원 확대 제주CBS 박정섭 기자 메일보내기 2020-04-10 11:26 뉴스듣기 0 페이스북 트위터 밴드 카카오톡 URL 폰트사이즈 - + 인쇄 행정처분 사업체와 투자진흥지구 지정사업체도 신청 가능만기 상환유예 1→2년 연장…융자 금리 0.75%→0.62%인하 행정처분을 받은 사업체나 5성 호텔도 제주관광진흥기금을 받을 수 있게 됐고, 거치기간도 확대됐다. 제주도는 코로나19 장기화로 인한 관광업계 경영난 해소를 위해 제주관광진흥기금 특별융자 대상과 업종별 범위를 확대한다고 10일 밝혔다.대상자 자격제한 완화에 따라 2년 이내 과징금과 영업정지 등 행정처분을 받은 사업체와 투자진흥지구 지정 사업체도 신청이 가능하다.자본금 50억원 미만의 융자신청 자격 폐지에 따라 도내에 본점 또는 지점이 등록된 관광사업체와 5성 호텔도 대상에 포함됐다.대상 업종도 확대돼 생활형‧분양형 숙박시설, 국제회의기획업, 관광식당업, 관광사진업, 마리나 업종, 수상‧수중레저업, 관광지원서비스업 등도 융자지원이 가능해졌다. 경영안정자금 거치기간도 현재 1년 거치 3년 상환에서, 2년 거치 3년으로 연장했다. 매출이 적은 업체에 대해서도 최저 5000만원의 융자추천서를 발급하기로 했다.융자 금리도 0.75%에서 0.62%로 인하됐다.제주관광진흥기금 특별융자 지원 확대로 도내 330여 사업체가 혜택을 볼 것으로 예상된다.제주관광진흥기금은 특별융자 3000억원, 상환유예 2700억원 등 5700억원 규모로, 신청은 오는 5월18일까지다.9일까지 1101건 1412억원이 접수됐고, 이 중 989건 1208억원의 융자추천서가 발급됐다. 더 클릭 정진석 "조선, 안에서 썩어 망해…日, 조선왕조와 전쟁 한 적 없다" 동료들 보는 앞에서 엉덩이 때려도…'정직 1개월' 지적장애 가진 동거녀 딸 엉덩이 깨물고 학대한 50대 신화 신혜성, 도난 차량서 음주측정 거부 혐의…현행범 체포 손목에 체인 묶은 남녀?…아슬아슬 수위 높이는 연애 예능 복지장관 340만원, 청년 120만원…연금의 '세대격차' 이재명 "종북몰이 공세, 친일파 같아…한미일 훈련, 尹 소명해야" "주가 폭락에 올 들어 국내 상장사 시가총액 633조원 증발" 금감원 '수상한 외환거래' 이달 중 검사 마무리 윤 대통령 "청년들이 좌절 않게 희망의 사다리 놓아야" 제주CBS 박정섭 기자 메일 0 0 이 시각 주요뉴스 오늘의 기자 많이 본 뉴스 실시간 댓글 투데이 핫포토 오늘의 핫뉴스닫기 / 이전 다음 닫기 노컷뉴스 회사소개 사업 제휴 광고안내 콘텐츠 구매 제보 이용약관 개인정보 취급방침 편집규약 지역노컷 강원 경남 광주 대구 대전 부산 영동 울산 전남 전북 제주 청주 포항 서울시 양천구 목동서로 159-1 7층 (주)씨비에스미디어캐스트 ☎02-2650-0500 | 사업자번호 : 117-81-28867 | 인터넷신문 등록번호 : 서울 아00030 | 등록일자 : 2005.08.30(노컷뉴스), 2007.11.05(노컷TV) 발행·편집인 : 하근찬 | 청소년보호책임자 : 조태훈 | ISSN : 2636-0373 노컷뉴스의 모든 콘텐츠는 저작권법의 보호를 받은 바, 무단전재, 복사, 배포 등을 금합니다. © 2003 CBS M&amp;C, 노컷뉴스 all rights reserved. 서울시 양천구 목동서로 159-1 7층 (주)씨비에스미디어캐스트 ☎02-2650-0500 | 사업자번호 : 117-81-28867 | 노컷스포츠 | 인터넷신문 등록번호 : 서울 아04480 | 등록일자 : 2017.04.20 발행·편집인 : 하근찬 | 청소년보호책임자 : 조태훈 노컷스포츠의 모든 콘텐츠는 저작권법의 보호를 받은 바, 무단전재, 복사, 배포 등을 금합니다. © 2003 CBS M&amp;C, 노컷스포츠 all rights reserved. 서울시 양천구 목동서로 159-1 7층 (주)씨비에스미디어캐스트 ☎02-2650-0500 | 사업자번호 : 117-81-28867 | 노컷연예 | 인터넷신문 등록번호 : 서울 아04479 | 등록일자 : 2017.04.20 발행·편집인 : 하근찬 | 청소년보호책임자 : 조태훈 노컷연예의 모든 콘텐츠는 저작권법의 보호를 받은 바, 무단전재, 복사, 배포 등을 금합니다. © 2017 by CBS M&amp;C, 노컷연예 all rights reserved.</t>
+  </si>
+  <si>
+    <t>제주도 "중국 춘추항공 통해 제주 오는 해외 관광객 없다" | 연합뉴스 연합뉴스 본문 바로가기 메뉴 바로가기 연합뉴스 최신기사 일시정지 목록 펼치기 국가기간뉴스 통신사 연합뉴스 최신기사 정치 북한 경제 산업 사회 전국 세계 문화 라이프 연예 스포츠 오피니언 사람들 비주얼뉴스 제보 이전 다음 정치 전체기사 대통령실/총리실 국회/정당 외교 국방 북한 전체기사 인물 학술/연구 영상 경제 전체기사 경제/정책 금융 증시 재테크 부동산 취업/창업 소비자 국제경제 산업 전체기사 산업/기업 전기전자 중화학 자동차 건설 에너지/자원 IT/과학 게임 유통/서비스 중기/벤처 바이오/헬스 농림축산 해양수산 사회 전체기사 사건/사고 법원/검찰 교육 복지/노동 환경 여성/아동 재외동포 다문화 전국 전체기사 경기 인천 부산 울산 경남 대구/경북 광주/전남 전북 대전/충남/세종 충북 강원 제주 세계 전체기사 특파원 미국/북미 중국 일본 아시아/호주 유럽 중남미 중동/아프리카 국제기구 문화 전체기사 책/문학 만화/웹툰 종교 공연/전시 학술/문화재 미디어 라이프 전체기사 생활 건강 패션/뷰티 레저 여행/축제 연예 전체기사 방송 영화 가요 해외연예 스포츠 전체기사 야구 축구 농구/배구 골프 오피니언 연합시론 논&amp;설 사람들 전체기사 인사 부고 동정/게시판 CEO 인터뷰 스타트업 발언대 비주얼뉴스 영상 포토 화보 #D 그래픽 재난포털 기사제보 연합뉴스 TV Live 방송 검색창 열기 로그인 로그아웃 정보수정 뉴스 검색어 입력 양식 검색어 검색어 자동 완성 목록 접기 검색 결과 보기 자동완성 기능이 켜져 있습니다. 자동완성기능 켜기 국가기간뉴스 통신사 연합뉴스 제주도 "중국 춘추항공 통해 제주 오는 해외 관광객 없다" 카카오톡에 공유 페이스북에 공유 트위터에 공유 공유 더보기 닫기 카카오톡에 공유 페이스북에 공유 트위터에 공유 카카오 스토리에 공유 페이스북 메신저에 공유 네이버 밴드에 공유 네이버 블로그에 공유 핀터레스트에 공유 댓글 화면 상단으로 이동 뉴스홈 최신기사 제주도 "중국 춘추항공 통해 제주 오는 해외 관광객 없다" 송고시간2020-04-06 11:53 中文 공유 닫기 카카오톡에 공유 페이스북에 공유 트위터에 공유 카카오 스토리에 공유 페이스북 메신저에 공유 네이버 밴드에 공유 네이버 블로그에 공유 핀터레스트에 공유 댓글 글자크기조정 닫기 폰트 1단계 14px 폰트 2단계 15px 폰트 3단계 16px (기본설정) 폰트 4단계 17px 폰트 5단계 18px 폰트 6단계 19px 폰트 7단계 20px 인쇄 변지철 기자 기자 페이지 "해외 항공기 입국은 인천공항으로 일원화"도, 코로나19 예방 국제선 특별기 운항 모니터링 (제주=연합뉴스) 변지철 기자 = 제주도는 제주와 중국 상하이를 잇는 춘추항공 항공기를 통해 곧바로 제주에 입국하는 승객은 없다고 6일 밝혔다. 제주국제공항 워킹 스루 진료소 운영 [연합뉴스 자료사진] 도에 따르면 춘추항공은 이날 중국에서 승객 130여명을 태운 뒤 인천공항에 내려다 주고, 이어 오후 8시 25분께 제주공항을 경유해 중국행 예약 승객 130여명을 태우고 본국으로 돌아갈 예정이다. 이날 곧바로 제주로 들어오는 중국발 승객은 없는 셈이다. 광고 도는 "국토부가 최근 해외 항공사에 공문을 보내 국내로 들어오는 해외 항공기가 인천공항으로만 들어올 수 있도록 일원화했다"고 밝혔다. 춘추항공은 자진 출국을 신청한 중국인 불법체류자 등을 위해 특별기를 운항하고 있다. 제주공항에 몰린 중국인 출국자들 [연합뉴스 자료사진] 춘추항공은 오는 27일까지 매주 월요일 주 1회 중국 상하이와 제주를 잇는다. 제주공항 국제선 운항은 신종 코로나바이러스 감염증(코로나19) 사태로 일본과 홍콩을 비롯한 중국·대만 등 중화권 노선, 태국 노선 등이 전면 중단돼 있다. 도는 제주와 해외를 잇는 국제선 항공기 운항 스케줄 모니터링을 통해 코로나19 확산 예방에 노력하고 있다. 도는 지난달 24일부터 도내 공·항만을 통해 입도한 해외방문 이력자들을 대상으로 특별입도절차를 실시하고 있다. 증상발현 여부와 관계없이 제주공항 개방형 선별진료소(오픈 워킹 스루·Open Walking Thru)에서 검체 채취 및 검사를 진행하고 있다. 또 이들을 대상으로 14일간 자가격리를 진행하고 있으며, 특별입도절차에 비협조할 경우 특별행정명령을 적용할 방침이다. bjc@yna.co.kr 제보는 카카오톡 okjebo &lt;저작권자(c) 연합뉴스, 무단 전재-재배포 금지&gt; 2020/04/06 11:53 송고 #제주 #춘추항공 #공항 #코로나19 #모니터링 당신이 함께 보면 좋은 콘텐츠 댓글쓰기 광고 당신이 좋아할 만한 콘텐츠 현장 영상 영상 기사 재생시간 02:58 [영상] 푸틴, 미사일 보복 인정…바이든 "러시아, 비용 치르게 할 것" 영상 기사 재생시간 02:32 [영상] 미 스탠퍼드대학서 성폭행 사건 잇따라 "학교가 책임 회피" 영상 기사 재생시간 02:14 [영상] 젤렌스키, 러 미사일 공격 속 야외서 대국민 메시지 영상 기사 재생시간 02:46 [영상] 러, 우크라 전역에 대규모 보복 공격…70여명 사상·인프라 파괴 영상 기사 재생시간 01:34 [영상] 우크라전 '맹활약' M777 곡사포…'가성비 갑' 평가에 문의 폭주 영상 기사 재생시간 01:25 [영상] 푸틴 보복 시작됐나…"키이우서 미사일 소리 후 수차례 폭발음" 당신이 함께 보면 좋은 영상 광고 광고 핫뉴스 "바위야 호박이야?" 미국서 1.1t 넘는 초대형 호박 수확돼 서울서 50대 권총에 맞아…"극단적 선택 추정" 선우은숙, 4살 연하 아나운서 유영재와 재혼 공효진, 가수 케빈오와 미국 뉴욕서 비공개 결혼 신혜성 소속사 "만취 상태로 본인 차 아닌지도 모르고 운전" 출동 경찰관 가슴 밀치고 상의 흔든 30대, 테이저건 맞고 검거 천연기념물 된 '우영우 팽나무'…배우 정규수, 명예 이장 위촉 '팩맨' 파키아오, 한국 무술가 상대로 12월 복싱 복귀전 광고 많이 본 뉴스 종합 정치 경제 사회 세계 스포츠 연예 이전 다음 박수홍父 불붙인 친족상도례 존폐 논쟁…69년만에 바뀌나 선우은숙, 4살 연하 아나운서 유영재와 재혼 공효진, 가수 케빈오와 미국 뉴욕서 비공개 결혼 서울 잠원동서 50대 권총에 맞아…극단적 선택 추정 신화 신혜성, 도난차량서 음주측정 거부하다가 체포 北 리설주, 한미 겨냥 미사일 발사장에 첫 모습…위상 과시(종합) "남북철도 착공식, 文참석으로 바뀌니…예산 1억→8억대 껑충" 법사위 등 10개 상임위 국감…'유병호 문자' 감사원이 최대 쟁점 "유해를 그토록 찾길 원했는데"…6·25참전 故박태인 경사 김정은 '전술핵부대 훈련' 핵위협 노골화…핵부대 첫 언급(종합) 비트코인 채굴 난도, 사상 최고치 기록…13.55% 급등 심화하는 서울 역전세난…2년 전 시세보다 싼 전세 매물 속출 "택시 연매출 3천만원…9천만원 버는 배달사업자 3분의 1" 판피린·활명수·가그린…'새 옷' 갈아입은 전통의 효자상품 뉴욕증시, CPI·실적 대기 속에 하락…나스닥 1%↓마감 박수홍父 불붙인 친족상도례 존폐 논쟁…69년만에 바뀌나 서울 잠원동서 50대 권총에 맞아…극단적 선택 추정 신화 신혜성, 도난차량서 음주측정 거부하다가 체포 경북 구미 원룸서 40대 여성 숨져…함께 있던 남성 긴급체포 신혜성 소속사 "만취 상태로 본인 차 아닌지도 모르고 운전" 미 서부 명문 스탠퍼드대학 캠퍼스에서 대낮 성폭행 사건 잇따라 北 리설주, 한미 겨냥 미사일 발사장에 첫 모습…위상 과시(종합) 70일만에 공격받은 키이우, 출근길 도심 피투성이에 곳곳 불바다 러 노벨평화상 수상자 "전쟁은 우크라 승리로만 끝날 수 있어" "바위야 호박이야?" 미국서 1.1t 넘는 초대형 호박 수확돼 KLPGA 3년 출장 정지 윤이나, 재심 청구 안 했다…"반성하겠다" 'UCL 무승 끊자' 손흥민, 프랑크푸르트와 홈 경기 득점포 정조준 '팩맨' 파키아오, 한국 무술가 상대로 12월 복싱 복귀전 [전국체전] 황선우, 자유형 200ｍ서 두 번째 금메달…대회 신기록 두산과 작별한 김태형 감독, 5개 구단 제의 가능…태풍 되나(종합) 선우은숙, 4살 연하 아나운서 유영재와 재혼 공효진, 가수 케빈오와 미국 뉴욕서 비공개 결혼 신혜성 소속사 "만취 상태로 본인 차 아닌지도 모르고 운전" 아슬아슬 수위 높이는 연애 예능…"유해하고 불쾌하다" 반응도 천연기념물 된 '우영우 팽나무'…배우 정규수, 명예 이장 위촉 광고 광고 에디터스 픽Editor's Picks 영상 영상 기사 재생시간 01:34 [영상] 우크라전 '맹활약' M777 곡사포…'가성비 갑' 평가에 문의 폭주 영상 기사 재생시간 02:14 [영상] 젤렌스키, 러 미사일 공격 속 야외서 대국민 메시지 영상 기사 재생시간 02:32 [영상] 미 스탠퍼드대학서 성폭행 사건 잇따라 "학교가 책임 회피" 뉴스 학업성취도 자율평가 대상 늘린다…2024년까지 초3∼고2로 확대 '화약고' 감사원 국감, '감사위원 배석' 놓고 오전 내내 파행 러 "서방의 우크라 개입 확대에 적절히 맞대응" 경고 대통령실, 北국지도발 가능성도 염두…"성동격서식 도발할 수도" 北, 저수지·열차서 미사일 쏴…더 어려워진 원점타격·대북감시 광고 댓글 많은 뉴스 정진석 "이재명의 '일본군 주둔설', 안보 망치는 망언" 댓글수 35 박수홍父 불붙인 친족상도례 존폐 논쟁…69년만에 바뀌나 댓글수 28 北 리설주, 한미 겨냥 미사일 발사장에 첫 모습…위상 과시(종합) 댓글수 15 70일만에 공격받은 키이우, 출근길 도심 피투성이에 곳곳 불바다 댓글수 15 "남북철도 착공식, 文참석으로 바뀌니…예산 1억→8억대 껑충" 댓글수 15 광고 뭐하고 놀까?#흥 광고 광고 광고 유튜브 채널 연합뉴스 유튜브채널 통통컬쳐 유튜브채널 통통테크 유튜브채널 통통리빙 유튜브채널 코리아나우 유튜브채널 한반도N 유튜브채널 SNS 연합뉴스 페이스북 연합뉴스 트위터 연합뉴스 인스타그램 뉴스 홈 최신기사 정치 북한 경제 산업 사회 전국 세계 문화 라이프 연예 스포츠 오피니언 사람들 비주얼뉴스 영상 포토 화보 #D 그래픽 테마별뉴스 핫뉴스 톱뉴스 주요뉴스 긴급뉴스 단독뉴스 많이본뉴스 뉴스+ 이슈돋보기 팩트체크 재난포털 날씨 주요신문 톱뉴스/사설 이시각 헤드라인 모바일뉴스 모바일앱 모바일웹 외국어 English 中文 日本語 عربي Español Français 뉴스 상품 프리미엄뉴스 뉴스리더 인터넷맞춤형 보도자료 해외배포 보도자료 국내배포 출판물 이매진 연합연감 영문연감 한국인물사전 단행본 월간 마이더스 광고 KTX 열차 AREX 공항철도 모바일 PC/홈페이지 출판물 콘텐츠 판매 보도사진 이미지 그래픽 동영상 인물 관련사이트 연합뉴스TV 인포맥스 한민족센터 K컬처기획단(K-ODYSSEY) 채용 IR 클럽 #흥 계약사/제휴문의 회사소개 윤리헌장 저작권규약 수용자권익위원회 모바일모니터링위원회 콘텐츠자문위원회 고충처리 이용약관 개인정보처리방침 독자게시판 기사제보(02-398-3000) 사이트맵 연합뉴스 서울시 종로구 율곡로 2길 25등록번호 문화, 나00009등록일자 1980.12.29발행일자 1980.12.29Tel. 02-398-3114 (C) Yonhapnews[대표이사] 성기홍[편집인] 조채희 모바일 버전으로 보기</t>
+  </si>
+  <si>
+    <t>확산 차단…제주도 대표 관광 ‘유채꽃 길’ 갈아엎어 Internet Explorer 지원 종료 안내 사용 중이신 인터넷 익스플로러(Internet Explorer)에서는 일부 기능 사용에 제한이 발생할 수 있습니다.크롬(Google Chrome), 엣지(Microsoft Edge) 등 최신 브라우저에 최적화되어 있습니다. 오늘 하루 열지 않기 메뉴 바로가기 본문 바로가기 푸터 바로가기 KBS NEWS 제보 ON AIR 재난포털 로그인 마이페이지 유튜브 페이스북 인스타그램 kbs 찾기 전체메뉴 분야별 뉴스9 TV뉴스 디지털K 스포츠 시사다큐 지역뉴스 어떤 기사를 찾으시나요? 뉴스 검색 검색어 입력 검색 버튼 많이 본 뉴스 동영상 - 검색창 숨기기 분야별 분야별- 대분류타이틀 전체 정치 경제 사회 문화 IT·과학 국제 생활·건강 스포츠 연예 날씨 특보 이슈 TV뉴스 1TV 뉴스 06:00 뉴스광장 1부 07:00 뉴스광장 2부 09:30 930뉴스 12:00 뉴스 12 14:00 뉴스 2 16:00 사사건건 17:00 뉴스 5 19:00 뉴스 7 21:00 뉴스 9 23:30 뉴스라인 2TV 뉴스 09:00 아침뉴스타임 10:40 지구촌뉴스 15:00 뉴스타임 17:50 통합뉴스룸ET 1TV 경인 뉴스광장(경인) 930 뉴스(경인) 뉴스7(경인) 뉴스9(경인) 디지털K 취재K 취재후·사건후 여심야심 데이터룸 팩트체크K 탐사K 스포츠K 글로벌K 특파원 리포트 세계는 지금 영상K 현장영상 속보영상 친절한뉴스K 기타 제대로 보겠습니다 크랩 용감한라이브 속고살지마 News Today(영어뉴스) 시사·다큐 시사 시사기획 창 일요진단 라이브 남북의 창 시사멘터리 추적 특파원 보고 세계는 지금 재난방송센터 인사이드 경인 라디오 최경영의 최강시사 주진우 라이브 최영일의 시사본부 성공예감 김방희입니다 지역뉴스 지역별- 대분류 부산 울산 창원 진주 대구 안동 포항 광주 목포 지역별- 대분류 순천 전주 대전 청주 충주 춘천 강릉 원주 제주 바로가기 바로가기 메뉴 좋아요 클립 제보 재난포털 ON AIR 뉴스 아카이브 정치합시다 글로벌 돋보기 경제한방 2022 지방선거 질문하는 기자들Q 2022 대통령선거 2022 베이징올림픽 2022 베이징패럴림픽 2020 도쿄올림픽 2020 도쿄패럴림픽 4·7 재보궐선거 저널리즘 토크쇼 J 박광식의 건강 365 한국언론 오도독 GO현장 고봉순 여의도 책방 2020 총선 2019 북미정상회담 3.1운동 100년 2018 남북정상회담 2018 북미정상회담 6.13 지방선거 러시아 월드컵 [특집] 평창동계올림픽 [특집] 평창동계패럴림픽 지진대피요령 뉴스 검색 검색어 입력 검색 버튼 기사 본문 영역 상세페이지 이슈 ‘코로나19’ 팬데믹 확산 차단…제주도 대표 관광 ‘유채꽃 길’ 갈아엎어 입력 2020.04.08 (18:14) 수정 2020.04.09 (10:03) 통합뉴스룸ET 댓글 좋아요 공유하기 인쇄하기 글씨 크게보기 가 글씨 작게보기 고화질 표준화질 자동재생 키보드 컨트롤 안내 동영상영역 시작 동영상 시작 동영상영역 끝 동영상 고정 취소 이전기사 다음기사 고화질 표준화질 자동재생 키보드 컨트롤 안내 동영상영역 시작 동영상 시작 동영상영역 끝 동영상설명 동영상 고정 취소 [앵커] 우리나라 아름다운 길 100선의 하나인 제주의 녹산로 유채꽃 길이 자취를 감췄습니다. 코로나19 확산을 막기 위해 꽃 축제까지 취소했지만, 상춘객 발길이 끊이지 않자 유채꽃밭을 아예 갈아엎은 겁니다. 신익환 기자의 보도입니다. [리포트] 유채꽃과 벚꽃이 아름다운 풍경을 만들어 낸 제주 녹산로. 넓은 광장의 유채꽃밭도 노란 물결로 장관을 이룹니다. 하지만 갑자기 트랙터 넉 대가 나타나 갈아엎기 시작합니다. 몰려드는 상춘객들로 인해 코로나19 차단 노력이 물거품이 될까 봐 취해진 조치입니다. 5월 초순쯤 꽃이 진 뒤 베어내던 평년과 달리 올해는 한 달이나 앞당겨졌습니다.[정윤수/가시리 이장 : "마을로서는 굉장히 서운하죠. 서운하지만 지금 상황이 이렇고, 사회적 거리두기도 정부 시책이고 그러니까 어쩔 수 없이..."] 8시간 만에 모두 갈아엎은 유채꽃밭 면적은 9.5 헥타르, 축구장 13개 크기에 달합니다.트랙터가 지나간 자리입니다. 유채꽃이 가득했던 들판이 이렇게 허허벌판이 됐습니다. 유채꽃을 보러 온 관광객들은 아쉬운 마음을 감추지 못합니다.[김수자/경기도 안산시 : "길에 (꽃이) 없으니까 안타깝고요. 원래 제주도가 아름다우니까 경관도 예쁜데, 꽃이 있었으면 더 아름다웠을 텐데."][이은경/경기도 안산시 : "안타까운 마음이 크고요. 앞으로 마음 놓고 외출할 수 있는 날이 빨리 왔으면 좋겠습니다."] 애써 키운 유채꽃을 갈아엎은 주민들이나, 아쉬운 마음으로 발길을 돌린 상춘객들 모두 코로나19 사태가 하루빨리 끝나기를 바라는 마음은 같았습니다. KBS 뉴스 신익환입니다. 확산 차단…제주도 대표 관광 ‘유채꽃 길’ 갈아엎어 입력 2020-04-08 18:18:07 수정2020-04-09 10:03:51 통합뉴스룸ET [앵커] 우리나라 아름다운 길 100선의 하나인 제주의 녹산로 유채꽃 길이 자취를 감췄습니다. 코로나19 확산을 막기 위해 꽃 축제까지 취소했지만, 상춘객 발길이 끊이지 않자 유채꽃밭을 아예 갈아엎은 겁니다. 신익환 기자의 보도입니다. [리포트] 유채꽃과 벚꽃이 아름다운 풍경을 만들어 낸 제주 녹산로. 넓은 광장의 유채꽃밭도 노란 물결로 장관을 이룹니다. 하지만 갑자기 트랙터 넉 대가 나타나 갈아엎기 시작합니다. 몰려드는 상춘객들로 인해 코로나19 차단 노력이 물거품이 될까 봐 취해진 조치입니다. 5월 초순쯤 꽃이 진 뒤 베어내던 평년과 달리 올해는 한 달이나 앞당겨졌습니다.[정윤수/가시리 이장 : "마을로서는 굉장히 서운하죠. 서운하지만 지금 상황이 이렇고, 사회적 거리두기도 정부 시책이고 그러니까 어쩔 수 없이..."] 8시간 만에 모두 갈아엎은 유채꽃밭 면적은 9.5 헥타르, 축구장 13개 크기에 달합니다.트랙터가 지나간 자리입니다. 유채꽃이 가득했던 들판이 이렇게 허허벌판이 됐습니다. 유채꽃을 보러 온 관광객들은 아쉬운 마음을 감추지 못합니다.[김수자/경기도 안산시 : "길에 (꽃이) 없으니까 안타깝고요. 원래 제주도가 아름다우니까 경관도 예쁜데, 꽃이 있었으면 더 아름다웠을 텐데."][이은경/경기도 안산시 : "안타까운 마음이 크고요. 앞으로 마음 놓고 외출할 수 있는 날이 빨리 왔으면 좋겠습니다."] 애써 키운 유채꽃을 갈아엎은 주민들이나, 아쉬운 마음으로 발길을 돌린 상춘객들 모두 코로나19 사태가 하루빨리 끝나기를 바라는 마음은 같았습니다. KBS 뉴스 신익환입니다. ■ 제보하기 ▷ 카카오톡 : 'KBS제보' 검색 ▷ 전화 : 02-781-1234 ▷ 이메일 : kbs1234@kbs.co.kr ▷ 뉴스홈페이지 : https://goo.gl/4bWbkG 통합뉴스룸ET 전체보기 기자 정보 신익환 기자 sih@kbs.co.kr 신익환 기자의 기사 모음 댓글 좋아요 공유하기 ‘코로나19’ 팬데믹 동영상 신규확진 1만 명대…오늘부터 개량백신 접종 시작 경기 4399명 신규 확진…하루 전보다 1766명 증가 신규 확진 1만 5,476명…사망 10명, 석달 만에 ‘최저’ 동영상 오늘부터 무비자 일본 관광…항공 등 예약 급증 더보기 오늘의 HOT클릭! 동영상 Ai pick 맞춤 뉴스 8개 더보기 이 시각 헤드라인 배너 많이 본 뉴스 푸터영역 KBS소개 주소/연락처 수신료 채용 About KBS KBS소개 시청자권익센터 사이버 감사실 광고 이용약관 법적고지 개인정보처리방침 KBS N 채널 KBS Drama KBS W KBS Kids KBS N Sports KBS Joy KBS N 채널 KBS WORLD Global KBS WORLD KBS WORLD KBS / 07235 서울특별시 영등포구 여의공원로 13(여의도동) / 대표전화 02-781-1000 / 기사배열 책임자, 청소년보호책임자 : 윤상 KBS뉴스 인터넷 서비스 / 서울특별시 마포구 매봉산로 45 KBS미디어센터 / 시청자상담실 02-781-1000 / 등록번호 서울 자00297 (2010년 6월 23일) Copyright © KBS All Rights Reserved.</t>
+  </si>
+  <si>
+    <t>제주도 폭설에 관광객 7명 고립됐다 전원 구조 : 국제신문 2 본문 바로가기 페이스북 트위터 카카오채널 유튜브 로그인 회원가입 지면보기 초판보기 구독신청 주요메뉴 뉴스 전체기사 주말엔 근교산 맛 여행 오피니언 최신칼럼 사설 도청도설 국제칼럼 외부칼럼 포토·동영상 동영상종합 포토종합 게시판 알림 · 사고 독자투고 독자제보 회사소개 구독신청 전화안내 광고안내 부산말사전 다큐멘터리 ‘청년’ 사회 정치 국제 경제 해양수산 문화 주말엔 근교산 스포츠 기획 인터뷰 TV국제 비디토리 국제유튜브 전체기사 대통령실 국회/정당 남북한 선거 지방정치 국방 정책 외교 전체기사 부동산 증권/금융/보험 쇼핑/유통 기업/창업 구인구직 복권 해양수산 자동차 항공 조세 통상/무역 정책 전체기사 사건사고 교육 보건/복지 환경 교통 날씨 법조 노동 행정 미디어 전체기사 미국 일본 중국 중동 유럽 기타 전체기사 미술 책/문학 음악/음반/공연 연예 영화/방송 문화재 종교 바둑 전시 만화 전체기사 건강정보 여성생활 스타일 트렌드 게임 맛집 레저여행 전체기사 환경 과학 IT 전체기사 부산 경남 대구경북 비영남권 산행후기 산행사진 산행안내 자유게시판 강동진 칼럼 이지훈 칼럼 김정현 칼럼 강명관 칼럼 전체기사 사설 칼럼 시론 도청도설 데스크시각 기자수첩 독자칼럼 제언 기고 전체보기 주제토론방 자유게시판 공지사항 활동현황 세상읽기 해양수산칼럼 메디칼럼 기명칼럼 감성터치 조영석의 음악이야기 최태호의 와인 한 잔 박상현의 끼니 황정수의 그림산책 김지윤의 우리음악 이야기 화요경제 항산항심 과학에세이 CEO칼럼 아침숲길 인문학칼럼 청년의 소리 기고 뉴스와 현장 기자수첩 옴부즈맨칼럼 독자권익위원회 제주도 폭설에 관광객 7명 고립됐다 전원 구조 정은진 기자 jej87@kookje.co.kr |   입력 : 2020-04-12 19:01:05 글자 크기 페이스북 공유 트위터 공유 카카오스토리 공유 네이버 공유 인쇄 기사 주소 복사 스크랩 12일 제주소방안전본부에 따르면 오후 5시 26분께 제주 1100도로 어리목 입구 삼거리에서 A씨 등 관광객 7명이 폭설에 고립돼 119에 구조를 요청했다. 눈길을 뚫고 현장에 다다른 119구조대는 이들을 전원 구조했다. 제주 산지에는 이날 오후 3시 30분께 대설주의보가 발효됐다. 오후 6시 기준 제주 어리목에는 18㎝의 많은 눈이 쌓였다. 제주도 산지의 예상적설량은 5∼10㎝이며, 많은 곳에는 20㎝ 이상 쌓이는 곳도 있겠다고 기상청은 예보했다. 기상청은 관계자는 “13일 새벽까지 많은 눈이 내려 쌓이겠다”며 산지를 통과하는 차량은 안전에 유의할 것을 당부했다정은진 기자 jej87@kookje.co.kr ⓒ국제신문(www.kookje.co.kr), 무단 전재 및 재배포 금지 ▶[국제신문 페이스북] [국제신문 인스타그램] ■ 푸틴 “우크라이나 자포리자 원전 국유화” ■ 부산록페 3년 만에 찾았는데…휴대폰·음향 먹통에 분통만 ■ “부울경 더 강력한 특별연합 형태로 메가시티 결성을” ■ 근무복 입고 식당서 소주 한 병…부산교통공사 직원 2명 징계 의결 ■ 하동군 국내 최대 ‘성혈’, 학술가치 높아 보존추진 ■ 우크라이나 점령지 러시아 합병…푸틴, 서명으로 공식화 ■ 김해, 낙동강권 지자체 상생모델 만든다 ■ 놀이마루에 교육청? 학생·시민공간 대안 논의는 없었다 ■ 현대백화점, 에코델타시티 유통부지 매입…아울렛 서나 ‘금융위기 연구 기여’ 버냉키 등 미국 3명 노벨경제학상 크름대교 폭발에 보복…러시아, 우크라 곳곳 공습 ‘지석’ ‘왕자’ 구하는 주체적 여성…스칼렛이 선사할 마법 기대하세요 ‘우영우’ 박은빈 아시아콘텐츠어워즈 2관왕 시내·공원 야외상영 인파…BIFF 예전의 열기 되살아났다 “스크린 독과점 대기업 상영·배급 제한 규제 필요” 천우희 “부산 3대 떡볶이 먹고 싶어” 정지연 감독 “그녀의 연기 놀라워” 벨라루스 독재 맞선 인권 활동가, 러-우크라 반전단체와 공동수상 “송강호 좋아요…언어 해결되면 한국 영화 찍고파” ‘죽어도 자이언츠’ 본지 제작 부산야구 40년 다큐 개봉박두 뭐 볼까…오늘의 TV- 2022년 10월 6일 노벨 물리학상 ‘양자역학 권위자’ 아스페·클라우저·차일링거 일본 신칸센 멈추고 주민 대피령…삿포로·아오모리 등 혼비백산 ‘수리남’의 하정우 우리 동네 사람들이 만든 영화, BIFF에서 데뷔한대요 라이브리 댓글 작성을 위해 JavaScript를 활성화해주세요 오늘이슈 부산국제영화제 2030 부산엑스포 오늘의 BIFF 많이 본 뉴스 종합 정치 경제 사회 스포츠 1"백신 못 맞게 말릴 걸…" 엄마 유골함 앞에서 회한의 눈물 2부산 조정지역 해제 후 첫 분양…브랜드아파트 ‘착한 가격’에 공급 3與 "조선 왜 망했는가" 발언에 여론 싸늘..."이완용도 애국자?" 4“아미 떴다” 달아오른 부산 관광·유통업계 5‘보행하려는 사람의 기준’ 우회전 운전자는 아직 헷갈린다 6"가족 보살피며, 한국도 지키러 간 형은 나의 영웅" 7이재명 '일본군 주둔설'에 정진석 "조선 일본군 침략으로 망했나?" 8부산 아파트 매매량 10년 만에 최저 9[이준영 기자의 전지적 롯데 시점] ‘포스트 이대호’ 한동희뿐?…거포자원 더 키워라 10디자인진흥원이 키운 육아앱, 5억 투자 낳았다 1與 "조선 왜 망했는가" 발언에 여론 싸늘..."이완용도 애국자?" 2이재명 '일본군 주둔설'에 정진석 "조선 일본군 침략으로 망했나?" 3장낙대교 건설에 학회서 퇴짜맞은 논문 환경영향평가서 인용 4국감 2주차 격전지 법사위...尹 '대감게이트'vs文 '회전문인사' 5尹 "핵 위협 앞에서 어떤 우려도 정당화 안돼" 6최근 5년 부산시 해킹시도 건수 서울보다 많았다 7北 저수지 발사장, 전투기 150대 비행 공개..."훈련 내용 이례적" 8“‘부산 프로젝트’ 가동해 엑스포 반드시 유치할 것” 9북한 핵위협 노골화, 전투기 150대 시위…남북 강대강 대치 10유승민 떨어뜨린 불씨에 달아오른 안철수 나경원...공세 치열 1부산 조정지역 해제 후 첫 분양…브랜드아파트 ‘착한 가격’에 공급 2“아미 떴다” 달아오른 부산 관광·유통업계 3부산 아파트 매매량 10년 만에 최저 4디자인진흥원이 키운 육아앱, 5억 투자 낳았다 5정부, “2025년까지 HMM 민영화 완료” 6공감 이끄는 무대, 3세대 엑스포로 전환…부산이 나아갈 길 7부산시, 관광객 전용 동백전 출시 8쇠락 위기 속 세계박람회…공정한 역사관 바탕으로 과거의 열기 되찾아주길 9"원전 '수선유지비' 5년간 5조 투입에도 매년 가동정지" 10올해 누계 무역적자 300억 달러 돌파…1~10일 수출 20%↓ 1"백신 못 맞게 말릴 걸…" 엄마 유골함 앞에서 회한의 눈물 2‘보행하려는 사람의 기준’ 우회전 운전자는 아직 헷갈린다 3"가족 보살피며, 한국도 지키러 간 형은 나의 영웅" 4장기미제 양산 사송IC 청신호…나동연 시장 취임 100일 성과 5오미크론 변이 대응 개량백신 접종 시작...이상반응은? 6BTS 글로벌콘서트 한 치의 빈틈 없이 7부울경 아침 찬공기 유입...경남 북서 내륙 서리까지 8오늘의 날씨- 2022년 10월 11일 9[박기철의 낱말로 푸는 인문생태학] &lt;585&gt; 분화와 분류 ; 여섯 가지 킹덤 10하윤수 부산교육감, ‘공교육 바로 세우기 프로젝트’ 시행 1[이준영 기자의 전지적 롯데 시점] ‘포스트 이대호’ 한동희뿐?…거포자원 더 키워라 220살 김주형 PGA 2승 달성…‘골프 황제’ 우즈보다 빨랐다 3김하성, 한국 빅리거 첫 PS 도루…샌디에이고 NLDS행 견인 4‘포스트 장미란’ 김수현 용상 한국 신기록 번쩍 5“조선의 4번 타자 눈물을 닦아요” 사직벌 울음바다 6“널 믿어라” “야구 더 집중을” 떠나는 이대호의 마지막 조언 7박민지 “나도 이제 가을의 여왕”…시즌 5승 올리며 ‘대세’ 굳히기 8김하성 침묵…샌디에이고, WC 2차전 패배 9에어로빅 차지원 무난히 2관왕…다이빙 우하람도 부상 딛고 金 10롯데 ‘외인 삼총사’ 내년에도 함께할래? 독자참여 게시판 독자투고  |  기사제보 인사 | 모임 | 개업 | 결혼 | 출산 | 동정 | 부고 산행안내  |  산행후기  |  산행사진 등산가이드  |  낚시가이드 [핫이슈] 코로나19 연휴 진단 검사량 급감…코로나 98일 만에 1만 명 밑으로 코로나 이틀째 1만 명대…14주 만에 일요일 최저치 코로나 사망자 닷새 만에 40명대로 올라 코로나 위중증 59일 만에 최저…신규확진 2만 명대 코로나 위중증 58일 만에 최저…해외유입도 감소세 뚜렷 요양병원 대면 면회 재개… 다시 맞잡은 엄마 손 ‘뭉클’ 코로나 이틀째 1만 명대…사망자 63일 만에 10명대 확진자 급감에 한산해진 선별진료소 사람이 안전한 교통문화를 ‘보행하려는 사람의 기준’ 우회전 운전자는 아직 헷갈린다 코로나 백신 피해 리포트 "백신 못 맞게 말릴 걸…" 엄마 유골함 앞에서 회한의 눈물 기획시리즈 고영삼의 인생 이모작…한 번 더 현역 기후위기는 아동권리 위기 김해창교수의 에너지전환 이야기 난치병 환우에 새 생명을 &lt;&gt; 내고장 문화현장 뒤집힌 정치 지형에 지역 현안 어떻게 되나 '명품마을' 혁신을 찾아서 부산시장노년일자리지원센터 부울경을 빛낸 출향인 사람이 안전한 교통문화를 사진가 김홍희의 Korea Now 어린이가 바라는 공약 위기가정 긴급 지원 이야기 공작소-피란수도 부산…1023일간의 이야기 일상 속 수학…산업 속 수학 지금 법원에선 지역이 주도하는 지역혁신 코로나 백신 피해 리포트 해피-업 희망 프로젝트 BTS 엑스포 콘서트 부산 알릴 기회다 UN공원에 잠든 용사들…아직 끝나지 않은 이야기 눈높이 사설 [전체보기] 역대 최악 출산율, 코앞에 닥친 지방소멸 일찍 온 열대야…폭염 피해 예방을 뉴스 분석 [전체보기] 서부산 ‘쇼핑몰 삼각편대(롯데·신세계·현대百)’ 시너지…유통상권 팽창 예고 “지금 임금으론 생활 어렵다” vs “매일 출근도 아니면서…” 박기철의 낱말로 푸는 인문생태학 [전체보기] 분화와 분류 ; 여섯 가지 킹덤 근원과 원천: 에너지의 구분 부산 교육 현장에서 [전체보기] 늘어나는 다문화 학생, 편견과 차별 벗어나 꿈 이룰 수 있게 돕자 50분의 수업, 학생들 꿈과 가능성을 확인하는 시간 스토리텔링&amp;NIE [전체보기] ‘헌책방 골목’ 미군 만화책이 인기만점이었대요 NFT(대체불가토큰)는 복제 불가능한 저작권 증명서랍니다 신통이의 신문 읽기 [전체보기] 지구촌 기후 이변, 탄소배출 줄여달라는 SOS 뉴스인물에 던질 질문 만들면 대화의 기술 쑥쑥 어떻게 생각하십니까 [전체보기] BTS 軍면제 “국격 높여 자격” vs “상대적 박탈감” 포토뉴스 [전체보기] “희귀종 댕구알버섯, 또 찾았어요” 지리산 자락 산양삼 씨앗 따기 오늘의 날씨- [전체보기] 오늘의 날씨- 2022년 10월 11일 오늘의 날씨- 2022년 10월 10일 알립니다 · 성우하이텍과 함께하는 제24회 부산마라톤대회 ‘버추얼 레이스’ · 제22회 최계락문학상 작품 공모 · 호우 및 태풍 피해 이웃 돕기 성금 모금 제휴사 부산스토리텔링협의회 부산과학기술협의회 걷고싶은부산 제휴서비스 국제신문대관안내 회사소개 전화안내 광고안내 구독신청 독자투고 기사제보 개인정보취급방침 언론윤리강령 고충처리 모바일국제신문 주소 : 부산광역시 연제구 중앙대로 1217대표전화 : 051-500-5114편집인 : 배재한발행인·인쇄인 : 윤규황 Copyright ⓒ kookje.co.kr All rights reserved.</t>
+  </si>
+  <si>
+    <t>제주도문화관광해설사협회, 코로나19 성금 기탁 - 헤드라인제주 × 전체기사 정치/행정 전체 도의회 선거 21대 총선 지방선거 제20대 총선 도의원 보궐선거 제19대 대선 경제 전체 소비자상담 Q &amp; A 이성돈의 제주농업의 뿌리를 찾아서 김용호의 제주감귤 이야기 사회 전체 사건사고 날씨 사랑의열매 프로젝트 교육 전체 학교소식 관광 문화 전체 전시·축제 서명숙의 로드 다큐멘터리 최연실의 문학산책 스포츠 오피니언 전체 데스크논단 취재수첩 미디어칼럼 기고 김진옥의 시선: 삶과 경제 양길현의 제주 미래담론 양용호의 시사문화칼럼 장신옥의 가족친화문화로 여는 새 제주 강문상의 미디어칼럼 고성협의 추자도이야기 기획특집 전체 열사람의한걸음 특성화고 세계人제주 기획취재 제주 예술가, 섬에 '혼'을 불어넣다 제주사랑의열매 복지현안지원사업 제주4.3, 김호진 편집국장 생애 타는목마름으로 지방선거 후보자 대담 영상 후보자 토론회 영상 여론조사 마음건강캠페인 미디어 전체 English News 피플 전체 한정선의 작은 프리즘 한정희의 행복한 미술 이성복의 일상 이야기 홍화각 중수기 기문(記文) '궷물' 정호가 조천을 그리며 이상식의 소비자상담 Q &amp; A 양영수의 꽁트 읍면동소식 전체 읍면동소식-제주시 읍면동소식-서귀포시 포토 전체 김환철의 포토뉴스 포토에세이 연예 온라인커뮤니티 국제 연재 전체 제2공항 희망나눔 캠페인 외국인의눈 강정국제평화영화제 신년대담 시민기자 기사쓰기 기사제보 로그인 회원가입 모바일웹 최종편집 : 2022-10-11 14:46 (화) 전체메뉴 뉴스 정치/행정 경제 사회 교육 관광 문화 스포츠 오피니언 미디어 피플 해설/초점 해설 초점 설왕설래 현장취재 논단/칼럼 데스크논단 취재수첩 미디어칼럼 연재칼럼 기고 기획특집 특성화고 열사람의한걸음 외국인커뮤니티제전 타는목마름으로 커뮤니티 시민기자뉴스 읍면동 뉴스 학교뉴스 보도자료 검색 기사검색 검색 검색확장 정치/행정 도의회 선거 21대 총선 지방선거 제20대 총선 도의원 보궐선거 제19대 대선 경제 소비자상담 Q &amp; A 이성돈의 제주농업의 뿌리를 찾아서 김용호의 제주감귤 이야기 사회 사건사고 날씨 사랑의열매 프로젝트 교육 학교소식 관광 문화 전시·축제 서명숙의 로드 다큐멘터리 최연실의 문학산책 스포츠 오피니언 데스크논단 취재수첩 미디어칼럼 기고 김진옥의 시선: 삶과 경제 양길현의 제주 미래담론 양용호의 시사문화칼럼 장신옥의 가족친화문화로 여는 새 제주 강문상의 미디어칼럼 고성협의 추자도이야기 기획특집 동행 특성화고 세계人제주 기획취재 제주 예술가, 섬에 '혼'을 불어넣다 제주사랑의열매 복지현안지원사업 제주4.3, 김호진 편집국장 생애 타는목마름으로 지방선거 후보자 대담 영상 후보자 토론회 영상 여론조사 마음건강캠페인 미디어 English News 피플 한정선의 작은 프리즘 한정희의 행복한 미술 이성복의 일상 이야기 홍화각 중수기 기문(記文) '궷물' 정호가 조천을 그리며 이상식의 소비자상담 Q &amp; A 양영수의 꽁트 읍면동소식 읍면동소식-제주시 읍면동소식-서귀포시 포토 김환철의 포토뉴스 포토에세이 연예 온라인커뮤니티 국제 연재 제2공항 희망나눔 캠페인 외국인의눈 강정국제평화영화제 신년대담 이전 다음 제주도문화관광해설사협회, 코로나19 성금 기탁 페이스북 트위터 카카오스토리 URL복사 기사공유하기 상태바 HOME 연재 시민기자뉴스 제주도문화관광해설사협회, 코로나19 성금 기탁 강정윤 7575486@hanmail.net 승인 2020.04.14 14:09 댓글 0 페이스북 트위터 카카오스토리 URL복사 기사공유하기 스크랩 프린트 메일보내기 글씨키우기 이 기사를 공유합니다 페이스북 트위터 카카오스토리 URL복사 × 제주관광산업이 위기에 빠진 가운데 고용불안과 생계위협에 내몰린 제주관광업계 종사자들이 나눔에 앞장서 훈훈함을 더하고 있다. 제주특별자치도문화관광해설사협회(협회장 김태수)는 최근 제주도청에서 도내 코로나19 확산방지 및 피해지원을 위해 성금 200만원을 제주사회복지공동모금회(회장 김남식)에 기탁했다. 김태수 회장은 “코로나19로 관광객이 줄면서 일자리에 큰 타격을 받고 있다”며 “회원들 모두가 힘든 상황이지만 함께 위기를 극복해나가길 바라는 마음에 성금을 기탁하게 됐다”고 말했다. 이날 기탁된 성금은 제주도문화관광해설사협회 회원들이 코로나19로 어려움을 겪고 있는 제주도민을 위해 십시일반 모아 마련한 것으로, 도내 코로나19 예방 ‧ 치료 및 방역물품 지원 등에 사용될 예정이다. 제주도문화관광해설사협회는 제주도내 관광지 역사 ‧ 문화 ‧ 예술 ‧ 자연 등 관광자원 전반에 대한 전문적인 해설을 제공하며 제주의 아름다음을 널리 알리고 있다. &lt;시민기자뉴스&gt; 저작권자 © 헤드라인제주 (headlinejeju@headlinejeju.co.kr) 무단전재 및 재배포 금지 강정윤 다른기사 보기 페이스북 트위터 카카오스토리 URL복사 기사공유하기 댓글삭제 삭제한 댓글은 다시 복구할 수 없습니다. 그래도 삭제하시겠습니까? 비밀번호 삭제 × 댓글수정 비밀번호 내용 수정 × 댓글 0 로그인 이름 비밀번호 내용 0 / 400 등록 댓글쓰기 계정을 선택하시면 로그인·계정인증을 통해 댓글을 남기실 수 있습니다. 회원 로그인 비회원 글쓰기 이름 비밀번호 자동등록방지 확인 × 오늘의 주요 뉴스 제주 병설유치원 매운급식 논란..."아이들이 밥을 못 먹어" 제주, 택배 추가배송비 부당 요구사례 접수 창구 운영 제주, 전국에서 가장 비싼 기름값 문제 대응 시장조사 나선다 제주도 실업급여 수급자↓...고용상황 회복세 전환 설왕설래 說往說來 '밀어내고 아파트 개발하면서'...제주, 도시숲 확대 조성하겠다? 사건사고 제주 한림읍 목조 펜션에서 화재...인명피해 없어 제주, 구좌읍 단독주택 화재...6300여만원 상당 재산 피해 제주, 인사 안했다고 학생 폭행 모 중학교 교사 입건 제주 함덕서 '탄저균' 우편물 배송 소동...두 차례 키트 검사 '음성' 제주해경, 주유하다 바다에 기름 유출한 어선 적발 많이 본 뉴스 실시간 댓글 1 나의 다짐 2 제103회 전국체전, 제주 선수단 메달 누적 59개 획득 3 서귀포시, 2022년 교통유발부담금 21억원 부과 4 제61회 탐라문화제 폐막...걸궁 '조천읍 민속보존회' 최우수상 5 소방공무원노조, 인사혁신처에 소방공무원 33년 이상 ‘보국훈장’ 수여 요청 6 제주도, 새해 50억원 상당 제주항공 주식 매입 추진 7 세상을 웃게 만드는 친절 8 제주시, 하반기 사무관 승진의결자 6명 승진 임용 9 서귀포시, 사무관 승진의결자 8명 승진임용 10 주민자치 위원이 되기 위한 필수과정 '주민자치 교육' 1 안녕하세요 2 네 3 네 4 지난 회차 이후 오랜만에 글 올려주셔서 너무 반가운 마음에 푹 빠져들어 읽었습니다. 오늘도 공감가는 좋은 글 올려주셔서 감사합니다. 따뜻한 마음의 양식 얻어갑니다. 저만 알고싶은 글 맛집이네요.^^. 5 열새람의 한걸음 24회째 행사 감동입니다. 꾸준히 함께 해주시는 걸음 감사합니다. 김희현 정무부시사님의 방문과 격려도 감사합니다^^ 6 아니 대체 남자든 여자든 당하면 당연히 원래 부서가 있는 건데 첫 시초가 안희정 보낼려고 꼼수썼던 그 정치인것들이지. 한국경찰들도 니들에게도 대놓고 여경 실어주기인데 뭐 됐어 ㅋㅋㅋ 지들만 손해지. 더욱 해서 경찰 아래로 둬. 7 성인지라는 자체가 편법 느낌인데 무슨 북한이냐고. 저런 거 절대 예산 주지마 진짜. 나라 중국처럼 한 순간에 말아먹는 거라고. 8 지역발전의 초석이 되었으면 한다 9 드론은 상용화가 아니라 특수한 공간, 특수한 상황에만 특별하게 사용하도록 하는게 현명한 것이고. 산업 전략화 하는 것이지 이걸 상용화 하는게 아니에요 쫌 제대로 정책을 펼쳐봐요. 그냥 인기영합적인 것만 바라지 말고 김 국장... !!! 노력하 봐요, 초심으로 돌아가서 부이사관이 뭐 이래.... 10 그럼 드론 상공 날아가는 곳을 통제 할 수 있어요? 도민 20만명이 드론을 상용화 해서 하늘에 날린다 그럽시다. 어떻게 20만대가 하늘에 날아다니면 안전해요? 절대적으로 상용화가 안되고 특수한 경우에만 특정한사람들만 사용이 가능한 기계.. 이걸 왜 이런데다가 쓰고 홍보하는지 모르겠어요 도청이 그렇게 할 일이 없나요? 우선 먹고 사는 일부터 해결합시다. 이딴 거는 돈 있는 사람, 특별한 사람 들 개인이 하도록 하고요... 기사제보 광고안내 보도자료 화촉 부고 날씨 항공 헤드라인제주 소개 댓글운영관리기준 이메일무단수집거부 개인정보취급방침 청소년보호정책 facebook twitter RSS e-mail 제호 : 헤드라인제주 제주특별자치도 제주시 서문로 2, 2층(용담1동) 제보 및 문의 대표전화 : 064)727-1919, 1918 팩스 : 064)727-1917 등록번호 : 제주 아 01027호 등록일 : 2010년 11월30일 사업자등록번호 : 616-81-82000 발행인 : 윤철수 편집인 : 원성심 청소년보호책임자 : 윤철수 Copyright© by 헤드라인제주. All rights reserved. 대표메일  headlinejeju@headlinejeju.co.kr 위로</t>
+  </si>
+  <si>
+    <t>미디어제주 × 전체기사 뉴스 전체 정치 경제 사회 문화 교육 스포츠 사람들 포토뉴스 Advertorial section 기획특집 전체 생생스포츠현장 박물관, 그리고 제주 이야기 이사람 이주민, 그들을 말한다 다 함께 사는 세상 해외 특파원 보고 교육! 학교 현장 기획특집 미디어누리 전체 어린이기자 시민기자 청소년기자 오피니언 전체 미디어窓 미디어칼럼 건강칼럼 기고 미디어TV 전체 영상뉴스 UCC동영상콘테스트 유치부축구대회 시정가이드 전체 제주시 서귀포시 최종편집 2022-10-11 14:45 (화) 로그인 회원가입 모바일웹 전체 뉴스 전체기사 정치 경제 사회 문화 교육 스포츠 사람들 포토뉴스 Advertorial section 기획특집 박물관, 그리고 제주 이야기 이사람 다 함께 사는 세상 해외 특파원 보고 교육! 학교 현장 미디어누리 어린이기자 시민기자 기사쓰기 오피니언 미디어窓 미디어칼럼 건강칼럼 기고 행사 유치부 축구대회 아름다운 동행 기사검색 검색 S2N2 이전 다음 제주도관광협회, 관광지 편의시설 지원사업 공모 기사공유하기 프린트 메일보내기 글씨키우기 가나다라마바사 가나다라마바사 가나다라마바사 가나다라마바사 가나다라마바사 가나다라마바사 HOME 뉴스 경제 제주도관광협회, 관광지 편의시설 지원사업 공모 김형훈 기자 승인 2020.04.16 14:31 댓글 0 기사공유하기 프린트 메일보내기 글씨키우기 가나다라마바사 가나다라마바사 가나다라마바사 가나다라마바사 가나다라마바사 가나다라마바사 이 기사를 공유합니다 페이스북 트위터 카카오스토리 구글+ 네이버밴드 네이버블로그 네이버폴라 핀터레스트 URL복사 × 제주특별자치도와 제주특별자치도관광협회(회장 부동석)가 사설관광지 관광약자 편의시설 정비지원 사업을 공모한다고 16일 밝혔다. 신청 가능한 업종은 사설관광지, 숙박업, 음식업, 기타 관광약자 편의시설이 필요하다고 요구되는 사업체 등이다. 시설은 주출입구 접근로 등이며, 장비는 휠체어 등에 대한 지원이 이뤄진다. 업체당 지원은 700만원까지 가능하다. 접수 마감은 4월 29일까지이며, 신청할 업체는 제주도관광협회를 직접 찾거나 팩스 또는 이메일로 접수하면 된다. 자세한 내용은 제주도관광협회 홈페이지를 참고하면 된다. 저작권자 © 미디어제주 무단전재 및 재배포 금지 김형훈 기자 다른기사 보기 댓글삭제 삭제한 댓글은 다시 복구할 수 없습니다. 그래도 삭제하시겠습니까? 비밀번호 삭제 × 댓글 0 댓글입력 로그인 이름 비밀번호 내용 0 / 400 등록 댓글쓰기 계정을 선택하시면 로그인·계정인증을 통해 댓글을 남기실 수 있습니다. 회원 로그인 비회원 글쓰기 이름 비밀번호 자동등록방지 확인 × 최신순 추천순 실시간 댓글 동굴 몇개 살리자구 하수처리장 이전하면 그돈은 니그들이 낼거냐 일본 후쿠시마 원전페수 방수하는데가서 아주 죽 욱 살면서 대모혀라 실제 월정리 주민들은 그간 동굴과 하수처리장 문제로 골머리를 앓고 있어 새로운 동굴이 발견되면 보호구역 확대에 의한 토지 수용이나 제한으로 재산상 손해가 생길까봐 동굴이 없는게 오히려 좋겠다는 분들도 계십니다. 월정리가 동굴마을로 지정되어 제한만 할께 아니라 하수처리장 철거로 완전한 동굴보호 마을의 역할을 하게해서 마을에 실질적 도움이 될 수 있는 조처도 취해져야 합니다 오늘 강순석 제주지질연구소장님의 새로운 본류 동굴 존재 할 수 있다는 기자회견은 다년간 지질연구하시면서 현장에서 느끼는 전문가의 촉이 있으신것 같습니다. 제주의회 정밀탐사 촉구도 있었으니 하수처리장 존재에 영향을 받지 않을 학술적 가치에 중점인 정밀 지질 탐사가 다시 이루어지기를 기대해 봅니다. 2009년 이후 탐사기법도 더욱 발전 했으니 더 정밀한 탐사가 가능할 것 입니다. 월정리는 만장굴. 사굴과도 마을 경계상에 위치해 있고 그 밑으로 용천굴. 당처물 동굴. 남지미 동굴이 계속 발견되었는데 올 6월에는 제주 의회에서도 정밀 탐사가 필요하다는 의견이 있었습니다만 구체적 탐사 움직임은 보이지 않는것 같습니다 2007년 탐사 ~2009년 보고서는 매우 과학적 동굴탐사인 지표투과 레이더 탐사도 했다지만 그 당시 현장을 지켜본 마을분 증언에 의하면 하수처리장 근처로는 탐사를 회피하는 듯 했다고도 합니다. 지금까지 과정을 보면 보호구역도 하수처리장 경계로 갑자기 2구역에서 4구역으로 완화되게 설정되어 있습니다. 문제의 하수처리장 보호를 위해 안간힘을 써 온것 같은데 하수처리장 철거가 되어야 동굴 탐사도 객관적으로 학술적으로 실제적으로 가능한게 아닌가 의구심을 가져 봅니다 가장 많이 읽은 기사 1제주시, 청년월세 월 20만원씩 최대 12개월 지원 2일상의 배려, 성숙된 시민의식 빛낸다. 3서귀포시, 올해 교통유발부담금 21억 원 부과 4‘2022 Trans Jeju 국제 트레일러닝대회’ 성황리에 폐막 5&lt;정정보도&gt; 해수부 규정 어긴 영상 공모전 입상 의혹, 사실 아닌 것으로 확인 6코로나19 이후 큰 폭 증가 제주 실업자수, 점차 회복세 7최고가 다투는 제주 휘발유 값, 제주도 2차 민간조사 돌입 SPONSORED 신문사소개 기사제보 광고문의 불편신고 개인정보취급방침 청소년보호정책 이메일무단수집거부 RSS 제주특별자치도 제주시 중앙로 270-1 5층(이도이동, 백두빌딩) 대표전화 : 064-725-3456 팩스 : 064-725-3458 명칭 : (주) 미디어제주 제호 : 미디어제주 등록번호 : 제주 아 01003 등록일 : 2005-10-17 발행인 : 고승영 편집인 : 고승영 청소년보호책임자 : 고승영 미디어제주 모든 콘텐츠(영상,기사, 사진)는 저작권법의 보호를 받은바, 무단 전재와 복사, 배포 등을 금합니다. Copyright © 2022 미디어제주. All rights reserved. mail to mediajeju@mediajeju.com 위로</t>
+  </si>
+  <si>
+    <t>사시사철 제주도의 다양한 매력. 다양한 관광지와 산방산 에 펜션에서 먹고 놀고 즐기는 매력 가득 &lt; 일반 &lt; 사회문화 &lt; 기사본문 - 뉴스저널리즘 주요서비스 바로가기 본문 바로가기 매체정보 바로가기 로그인 바로가기 기사검색 바로가기 전체서비스 바로가기 상단영역 편집. 2022-10-11 14:52 (화) 로그인 회원가입 모바일웹 naver post Mobile 종합뉴스 정치 경제 사회문화 영화 공연·전시 미디어 라이프 일반 대중문학 문학 시·시 비평 소설 작가의 시선 포토 · 영상 전체메뉴 버튼 검색버튼 기사검색 검색 본문영역 이전 기사보기 다음 기사보기 사시사철 제주도의 다양한 매력. 다양한 관광지와 산방산 에 펜션에서 먹고 놀고 즐기는 매력 가득 바로가기 복사하기 본문 글씨 줄이기 본문 글씨 키우기 스크롤 이동 상태바 일반 사시사철 제주도의 다양한 매력. 다양한 관광지와 산방산 에 펜션에서 먹고 놀고 즐기는 매력 가득 기자명 유현정 기자 입력 2020.04.22 11:18 댓글 0 다른 공유 찾기 바로가기 본문 글씨 키우기 본문 글씨 줄이기 이 기사를 공유합니다 페이스북(으)로 기사보내기 트위터(으)로 기사보내기 카카오스토리(으)로 기사보내기 구글+(으)로 기사보내기 네이버밴드(으)로 기사보내기 네이버블로그(으)로 기사보내기 핀터레스트(으)로 기사보내기 URL복사(으)로 기사보내기 닫기 아름다운 자연을 품은 섬, 제주도. 먹거리, 볼거리, 즐길거리 가득한 제주는 힐링의 섬이다. 언제라도 그곳에 가고 싶은 마음이 드는 건 탁 트인 경관과 청정한 공기 등 제주가 지닌 천혜의 자연 덕분이다. 우직하게 솟은 한라산을 중심으로 곳곳에 있는 오름과 서로 다른 빛깔의 바다는 보는 것만으로도 힐링이 된다. 초원에서 말이 뛰노는 풍경, 검은 현무암과 대비를 이루며 더욱 반짝이는 푸른 바다, 맑은 공기를 내뿜는 숲까지 어떤 곳을 가도 아름답고 광활한 자연의 모습 그대로를 간직하고 있다.사시사철 변하는 천변만화의 섬. 겨울에는 겨울에만 즐길 수 있는 겨울 방어축제를. 봄이 다가오면 따뜻할 날씨에 가파도 청보리 축제를. 여름에는 여름만의, 가을에는 가을만의 축제를 즐길 수 있다. 각기 계절마다 그 계절만의 매력을 즐길 수 있는 것이다. 그러면 계절 축제 이외에는 볼 것이 없는가. 사시사철 즐길 수 있는 모슬포 오일 시장. 달의 1일과 6일 마다 즐기는 유명 관광지이다. 이 외에도 수 없이 많은 관광지들이 우리들을 기다리고 있다.그러니, 제주도를 ‘지상낙원’이라고 부르는 것에 그 누구도 이의를 제기하지 않는다. 아름다운 자연과 곳곳의 유명한 관광명소로 가득한 제주도는 단순한 관광지가 아닌, 힐링을 느낄 수 있는 낙원이요, 행복이다. 여행에서 관광 못지않게 중요한 것은 바로 잠자리. 허름한 민박 시설에서 지낸다면 재미있었던 여행길이 끔찍한 기억으로 남고는 한다. 그렇기 때문에 더더욱 숙박에는 신경을 써야한다. 깔끔하고 쾌적한 인테리어를 비롯해 주변 경관까지. 좋은 숙박업소를 찾기 위해 고려해야 할 사항은 수없이 많다.제주 산방산 펜션 ‘산방산에펜션’은 휴양펜션으로 등록되어 있는 제주도의 대표 펜션으로 제주 여행객들에게 편안한 휴식을 제공하는 곳이다. 1600평에 이르는 넙은 대지, 이국적인 야자나무와 과실수가 어우러진 이곳은 마치 제주도 속의 작은 제주도, 제주 본연의 자연을 그대로 옮겨온 듯하다. 총 10개의 객실은 단독형 독채펜션으로 이루어진 덕분에 보다 편안하고 조용한 제주 여행을 즐길 수 있다. 원룸, 1.5룸, 투룸으로 구성된 단독 객실은 커플, 가족, 단체 여행객들이 머무르기에 불편함이 없다.독채형 객실에 마련된 개별 바베큐 시설에서는 아름다운 제주의 자연을 감상하며 소중한 이들과 식사를 즐길 수 있다. 이와 별개로 단체 바베큐시설도 따로 마련되어 있어 따로 또 같이 바비큐 파티를 즐기는 재미가 쏠쏠하다또한 펜션 내에는 숙박객들이 이용할 수 있는 다양한 편의시설들도 잘 갖춰져 있다. 세탁실, 휴게실은 물론 어린이와 함께 방문한 가족 여행객들을 위한 어린이놀이터, 체험농장도 있으니 아이와 제주도에서 특별한 추억을 만들어볼 수 있다.펜션 근처에 가볼만한 곳이 많다는 것 역시 장점이다. 특히, 서귀포시에 위치한 제주 최초의 대주 온천인 산방산 탄산온천이 도보로 5분 거리에 위치해 있다. 국내에서 보기 드문 탄산온천인 만큼, 탄산온천은 제주 여행객에게 추천하는 여행지다. 산방산에펜션은 펜션 숙박객들을 대상으로 산방산 탄산온천 50% 할인권을 제공하고 있으니 저렴한 가격으로 온천에서 여행의 피로를 풀어보자. 숙박한 이후 찌든 피로를 씻어버리고 다시 여행길에 떠나야 한다. 우리나라 최남단에 위치한 섬, 마라도 역시 제주 여행 필수코스다. 작지만 아름다운 이 섬은 해변 산책로가 조성되어 있어 걷기에 좋을 뿐더러 산방산에펜션에서 숙박 시 마라도 여객선 할인권을 받을 수 있다. 할인 혜택을 이용해 가성비 좋은 여행을 즐겨보자.국내 최대 규모의 종합관광단지인 제주 중문 관광단지 역시 뻬놓을 수 없는 선택이다. 숙박시설과 식물원, 골프장, 해수욕장을 비롯한 각종 관광시설이 있어 한층 풍성한 여행을 만들어준다. 이밖에도 용머리해안, 형제섬, 가파도, 송악산, 화순금모래해변, 신화역사공원 등 곳곳에 다양한 관광명소가 있으니 알차게 들러 제주의 매력을 만끽해보자.숙박 문의는 제주 서귀포시 안덕면 사계리에 위치한 ‘산방산에펜션’으로 연락하면 된다. 유현정 기자 info@news-paper.co.kr 저작권자 © 뉴스저널리즘 무단전재 및 재배포 금지 SNS 기사보내기 공유 이메일 기사저장 주요기사 롯데제과, 빵빠레 샌드카스타드 자진회수…"세균 수 기준 초과" 도심 속 장미 축제 '로즈 아워 페스타', 내년 5월 다시 돌아온다 DGB금융지주, 대한민국 교육기부 대상 수상 카카오뱅크 임원진, 자사주 5만 5천주 매입 "주가 부양과 주주 가치 제고" 신한은행, 뉴 쏠 광고모델에 ‘뉴진스’ 발탁 카카오페이손보, 첫 상품 출시 '함께하는 금융안심보험' 이 시각 추천뉴스 카카오뱅크 주가 추락에 우리사주 “신불자 위기” 호소 토요타 노조와 대조되는 현대차·기아 노조 [게임썰전] 출시 2년이 지난 중국게임 '원신'을 왜 지금 얘기해야 하는가 하림펫푸드, 반려동물용 닭고기 가격 인상 도심에서 만나는 장미 축제…'로즈 아워 페스타' 올림픽공원서 개최 NH농협은행 ‘2022년 환율전망 세미나’ 개최 하이트진로, 맥주는 '테라' 소주는 '참이슬과 진로'...사상최대 실적 토요타 노조와 대조되는 현대차·기아 노조 개의 댓글 회원로그인 댓글 내용입력 0 / 400 등록 댓글 정렬 BEST댓글 BEST 댓글 답글과 추천수를 합산하여 자동으로 노출됩니다. 닫기 더보기 댓글삭제 삭제한 댓글은 다시 복구할 수 없습니다. 그래도 삭제하시겠습니까? 비밀번호 삭제 닫기 댓글수정 댓글 수정은 작성 후 1분내에만 가능합니다. 본문 / 400 비밀번호 수정 닫기 내 댓글 모음 닫기 [재계산책] [재계산책] 제약업계 오너 2·3세 전면 배치...'경영권 바통터치' 많이 본 뉴스 1 카카오뱅크 주가 추락에 우리사주 “신불자 위기” 호소 2 토요타 노조와 대조되는 현대차·기아 노조 3 [게임썰전] 출시 2년이 지난 중국게임 '원신'을 왜 지금 얘기해야 하는가 4 하림펫푸드, 반려동물용 닭고기 가격 인상 5 도심에서 만나는 장미 축제…'로즈 아워 페스타' 올림픽공원서 개최 6 NH농협은행 ‘2022년 환율전망 세미나’ 개최 7 하이트진로, 맥주는 '테라' 소주는 '참이슬과 진로'...사상최대 실적 8 뮤지컬 '광주', 美 브로드웨이서 쇼케이스…현지 배우·스태프 참여 9 삼성전자, 2025년 2나노·2027년 1.4나노 양산 돌입 10 CJ제일제당, 삼양식품과 손잡고 불닭소스 컵밥 내놓는다 Opinion [키워드로 본 2021] 재계, 성과급 논란·재벌가 집안 싸움 '시끌' [키워드로 보는 2021] 자동차업계, 반도체 공급부족·현대차그룹 내수지배력 확대·전기차 시대 개화 등 [키워드로 본 2021] IT·전자업계, LG폰 철수·반도체 공급부족·미국 투자 붐·빨라진 세대교체 등 이슈 [재계산책] 제약업계 오너 2·3세 전면 배치...'경영권 바통터치' 이 시각 헤드라인 롯데제과, 빵빠레 샌드카스타드 자진회수…"세균 수 기준 초과" 토요타 노조와 대조되는 현대차·기아 노조 현대차, 수소차 보급으로 제주 그린수소 글로벌 허브 구축 "이기적이고 악랄하다"...현대제철 당진 노조를 바라보는 수요업체의 비판 치킨업계 1위 윤진호 교촌 대표 국감 소환 이유는? NJ Fact Chack [NJ Fact Check] 우리금융 민영화, 비가격 요소로 판가름 [NJ Fact Check] 루이비통, 亞 전초기지 한국에서 중국으로 [NJ Fact Check] 메리츠금융, 주주가치보다 기업가치 생각할 때 매체소개 찾아오시는 길 개인정보처리방침 청소년보호정책 저작권보호정책 기사제보 광고문의 매체정보 서울특별시 중구 서소문로 38 (센트럴타워) 610호 대표전화 : 02-393-9400 팩스 : 02-393-4242 청소년보호책임자 : 이재우 법인명 : (주)이도문화 제호 : 뉴스저널리즘 등록번호 : 경기,아53038 등록일 : 2018-01-03 발행일 : 2018-01-03 발행인 : 원경민 편집인 : 서영백 뉴스저널리즘 모든 콘텐츠(영상,기사, 사진)는 저작권법의 보호를 받은바, 무단 전재와 복사, 배포 등을 금합니다. 「열린보도원칙」 당 매체는 독자와 취재원 등 뉴스이용자의 권리 보장을 위해 반론이나 정정보도, 추후보도를 요청할 수 있는 창구를 열어두고 있음을 알려드립니다. 고충처리인 신용준 02-393-9400 comaritime@naver.com Copyright © 2022 뉴스저널리즘. All rights reserved. mail to mibking@ngetnews.com 위로 전체메뉴 전체기사 정치 경제 사회문화 전체 영화 공연·전시 미디어 라이프 기획특집 대중문학 전체 문학 시·시 비평 소설 작가의 시선 인사동정 포토 · 영상 전체메뉴닫기</t>
+  </si>
+  <si>
+    <t>제주도 · 道관광협회 ″제주국제관광마라톤축제″9월로 개최 연기 &lt; 제주 &lt; 전국 &lt; 기사본문 - 시사매거진 주요서비스 바로가기 본문 바로가기 매체정보 바로가기 로그인 바로가기 기사검색 바로가기 전체서비스 바로가기 상단영역 시작페이지 즐겨찾기 홈 로그인 회원가입 English 中文 日本語 العربية Español Français 번역 제공 검색 기사검색 검색 UPDATED.2022-10-11 14:51 (화) 실시간 뉴스 금융감독원 국정감사 실시하는 정무위 이재명 "일본을 한반도에 끌어들이는 자충수 중단해야" 이재명 "한미일 군사훈련, 좌시할 수 없는 국방참사·안보자해행위" 두산베어스, 김태형 감독과 결별... "조만간 사령탑 인선" 발언하는 양무진 북한대학원대학교 총장 광산구 "올겨울 함께 할 희망의 메시지를 찾습니다" 2022 광산아트페스티벌 ‘별무리 예술장터’ 개최 코웨이, 2022 한국산업의 고객만족도 조사 침대·정수기 2개 부문 1위 선정 긴급 안보대책회의 참석한 황인권 전 육군 제2작전사령관 긴급 안보대책회의 참석한 김준형 전 국립외교원장 긴급안보대책회의 참석하는 이재명 더불어민주당 대표 더불어민주당 긴급 안보대책회의 HOME 뉴스 정치 경제 사회 생활/문화 교육 세계 IT과학 만화 동영상 보도자료 오피니언 인터뷰 칼럼 스페셜 인물열전 명인명사 포토 포토 엔터테인먼트 연예 스포츠 방송 오늘의 날씨 책 여행·레저 제 292호(2022-10) 오세훈 서울시장이 말하는 ‘약자와의 동행, 매력 특별시’ 구독하기 본문영역 이전 기사보기 다음 기사보기 제주도 · 道관광협회 ″제주국제관광마라톤축제″9월로 개최 연기 바로가기 복사하기 본문 글씨 줄이기 본문 글씨 키우기 스크롤 이동 상태바 현재위치 홈 전국 제주 제주도 · 道관광협회 ″제주국제관광마라톤축제″9월로 개최 연기 기자명 김광수 기자 입력 2020.04.16 22:50 댓글 0 바로가기 복사하기 본문 글씨 줄이기 본문 글씨 키우기 SNS 기사보내기 페이스북(으)로 기사보내기 트위터(으)로 기사보내기 URL복사(으)로 기사보내기 이메일(으)로 기사보내기 다른 공유 찾기 기사스크랩하기 이 기사를 공유합니다 페이스북(으)로 기사보내기 트위터(으)로 기사보내기 URL복사(으)로 기사보내기 닫기 -정부·범국민적 차원의 코로나19 조기종식을 위한 노력에 동참 [시사매거진/제주=김광수 기자] 제주도가 주최하고 제주특별자치도관광협회(회장 부동석)가 주관하는 ″제25회 제주국제관광마라톤축제″가 5월 24일에서 9월 6일로 연기하여 개최된다고 밝혔다. 제주도 · 道관광협회 ″제주국제관광마라톤축제″9월로 개최 연기했다. (사진은 전년도 마라톤대회) 관광협회는 최근 신종 코로나 바이러스 감염증(코로나19) 사태가 전 세계적 팬데믹 현상으로 나타나고, 국내에서도 전 국민적으로 「고강도 사회적 거리 두기」유지 및 전 세계 90개국에 대한 무비자 입국 제한 본격 시행 등의 정부 방침, 도내에서도 해외 방문 이력이 있는 사람들이 늘면서 자가격리자가 늘어나는 상황 등을 종합적으로 감안하여, 불가피하게 행사를 9월로 연기하게 되었다고 말했다. 아울러 협회 관계자는, 그 동안 올해 상반기 도내에서 개최될 예정이었던 마라톤 대회들이 취소·연기되면서, 많은 도내외 마라톤 동호인들로부터 국제관광마라톤축제의 예정(5. 24. 일요일) 대로의 개최를 건의(문의)받는 상황에서 축제 개최를 연기·검토하기 까지는 유관기관 및 자원봉사자 등과 많은 고민이 있었음을 전했다. 오는 9월에 개최되는 마라톤축제는 레저·힐링·관광이 융합된 스포츠 이벤트로서, 최근 ‘코로나19’로 인한 지역경제 위기 극복을 위한 ″다 함께 달리는 제주관광, 다시 도약하는 제주관광″의 의미를 담아 풀, 하프, 10㎞코스에서 레이스를 펼치고, 이봉주선수와 함께하는 팬 사인회, 건강 걷기코스, 강생이(犬)마라톤 개최 등 다양한 이벤트 프로그램 개최를 통하여 지역주민과 관광객이 함께하는 축제로 개최될 예정임을 말했다. 올해로 25회째를 맞이하는 ″제주국제관광마라톤축제″는 지난 1995년부터 실시된 도내 최고의 시민 마라톤축제로서, 지난해의 경우 동반 관광객을 포함하여 30여개국 5,000여명이 참가하는 명실상부한 국제대회로 자리매김하게 됐다. 한편, 9월 개최 예정인 ″제주국제관광마라톤축제″ 참가 신청 또는 대회 연기로 인한 참가비 환급 등은 마라톤축제 홈페이지 및 관광협회 마라톤 사무국으로 문의하면 된다. 김광수 기자 sipong666@naver.com 다른기사 보기 저작권자 © 시사매거진 무단전재 및 재배포 금지 당신만 안 본 뉴스 프로골퍼 박결, 갑작스런 누리꾼 관심... 근황·나이·프로필 화제 골프선수 유현주 프로, 인스타 속 여신 자태 '이종범 딸·이정후 여동생' 이가현 누구? 나이·직업·프로필 공개 송가인, 다음 콘서트는 천안...목포 인증샷 "흥겹고 즐거워" 오늘날씨 월요일, 강원도 "첫눈오나" 서울날씨 "8도 기온뚝" [2022 더팩트 뮤직 어워드] 8일 개막 '라인업·중계·시작시간은?' 로또1등당첨지역 1036회 "9명 28억씩" 대박 프로골퍼 박결, 갑작스런 누리꾼 관심... 근황·나이·프로필 화제 주요기사 국회, 감사원 국감 날 선 공방 예고 11일 코로나19 신규 확진자 1만 5476명 '위중증 313명·사망자 10명' 러시아, 우크라이나 미사일 공격... 유엔 긴급특별총회 소집 오늘날씨 화요일, 서울날씨 아침6도 기온뚝 '얼음, 눈오는 경기북부' 대통령실, 이재명 '친일 국방' 겨냥해 "말이 아닌 현실의 문제" 토트넘 손흥민, 케인과 43번째 합작골 '시즌 2호 도움' 팀은 승리 최신뉴스 금융감독원 국정감사 실시하는 정무위 이재명 "일본을 한반도에 끌어들이는 자충수 중단해야" 이재명 "한미일 군사훈련, 좌시할 수 없는 국방참사·안보자해행위" 두산베어스, 김태형 감독과 결별... "조만간 사령탑 인선" 발언하는 양무진 북한대학원대학교 총장 포토뉴스 금융감독원 국정감사 실시하는 정무위 이재명 "일본을 한반도에 끌어들이는 자충수 중단해야" 이재명 "한미일 군사훈련, 좌시할 수 없는 국방참사·안보자해행위" 두산베어스, 김태형 감독과 결별... "조만간 사령탑 인선" 인기뉴스 1 프로골퍼 박결, 갑작스런 누리꾼 관심... 근황·나이·프로필 화제 2 골프선수 유현주 프로, 인스타 속 여신 자태 3 '이종범 딸·이정후 여동생' 이가현 누구? 나이·직업·프로필 공개 4 송가인, 다음 콘서트는 천안...목포 인증샷 "흥겹고 즐거워" 5 오늘날씨 월요일, 강원도 "첫눈오나" 서울날씨 "8도 기온뚝" 6 [2022 더팩트 뮤직 어워드] 8일 개막 '라인업·중계·시작시간은?' 7 로또1등당첨지역 1036회 "9명 28억씩" 대박 8 선우은숙 재혼, 유영재 아나운서와 혼인신고... 나이·프로필 눈길 하단영역 하단메뉴 매체소개 기사제보 광고문의 이용약관 개인정보처리방침 청소년보호정책 저작권보호정책 이메일무단수집거부 매체정보 서울특별시 강남구 테헤란로25길 20, 8층 813호(역삼동,역삼현대벤쳐텔) 대표전화 : 02-790-5116 팩스 : 02-2086-7272 청소년보호책임자 : 김길수 법인명 : 시사매거진 제호 : 시사매거진 등록번호 : 강남 라 00906 등록일 : 1997-09-12 발행일 : 2017-05-01 발행인 : 김길수 편집인 : 김영규 사장 : 천진철 시사매거진 모든 콘텐츠(영상,기사, 사진)는 저작권법의 보호를 받는 바, 무단 전재와 복사, 배포 등을 금합니다. Copyright © 2022 시사매거진. All rights reserved. mail to webmaster@sisamagazine.co.kr 위로 전체메뉴 전체기사 뉴스 전체 정치 경제 사회 생활/문화 교육 세계 IT과학 만화 동영상 오피니언 전체 인터뷰 칼럼 스페셜 인물열전 명인명사 포토 전체 포토 엔터테인먼트 전체 연예 스포츠 방송 책 여행·레저 전체메뉴닫기</t>
+  </si>
+  <si>
+    <t>'유학생 모녀' 논란 직격탄 제주도, 관광객 발길 뚝… 하루 만명 아래 ‘눈앞’ | 세계일보 스포츠월드 세계비즈 세계로컬타임즈 종교신문 구독신청 mPaper RSS 로그인 회원가입 로그아웃 회원정보수정 회원탈퇴 세계일보 페이스북 네이버 포스트 트위터 유튜브 스포츠 선학평화상 환경 드론 전체메뉴 검색 뉴스 정치 일반 청와대 국회ㆍ정당 선거ㆍ선관위 외교ㆍ안보 국방 북한ㆍ통일 사회 일반 검찰·법원 노동·복지 환경·날씨 교통·항공 교육·학교 사건 해외 국제 일반 미국·캐나다 중국 일본 아태 유럽 중동·아프리카 특파원 러시아 중남미 문화 일반 미디어 종교·학술 공연 미술 건강 레저 문학 음식 위크엔드 패션·뷰티 결혼·육아 전국 일반 서울 경기 강원 충청 영남 호남 제주 피플 일반 부음 동정·인사 인터뷰 오피니언 사설 오늘의 칼럼 기자·데스크 논설위원칼럼 전문가칼럼 외부칼럼 기고·독자 월드 이슈 비즈 일반 금융·증권 보험 재테크 부동산 IT / 과학 산업·기업 자동차 쇼핑·유통 취업·창업 연예 일반 스타 TV·방송 영화 대중음악 해외연예 스포츠 일반 야구 축구 농구 배구 골프 포토/영상 핫갤러리 렌즈로보는세상 포토에세이 영상 부가서비스 환경 드론 inno북스 오늘의 운세 해커스톡 파고다 강남 시사일본어 시사중국어 mPaper RSS 뉴스 정치 일반 청와대 국회ㆍ정당 선거ㆍ선관위 외교ㆍ안보 국방 북한ㆍ통일 사회 일반 검찰·법원 노동·복지 환경·날씨 교통·항공 교육·학교 사건 해외 국제 일반 미국·캐나다 중국 일본 아태 유럽 중동·아프리카 특파원 러시아 중남미 문화 일반 미디어 종교·학술 공연 미술 건강 레저 문학 음식 위크엔드 패션·뷰티 결혼·육아 전국 일반 서울 경기 강원 충청 영남 호남 제주 피플 일반 부음 동정·인사 인터뷰 오피니언 사설 오늘의 칼럼 기자·데스크 논설위원칼럼 전문가칼럼 외부칼럼 기고·독자 월드 이슈 비즈 일반 금융·증권 보험 재테크 부동산 IT / 과학 산업 자동차 쇼핑·유통 취업·창업 연예 일반 스타 TV·방송 영화 대중음악 해외연예 스포츠 일반 야구 축구 농구 배구 골프 포토/영상 핫갤러리 렌즈로보는세상 포토에세이 영상 부가서비스 환경 드론 inno북스 오늘의 운세 해커스톡 파고다 강남 시사일본어 시사중국어 mPaper RSS '유학생 모녀' 논란 직격탄 제주도, 관광객 발길 뚝… 하루 만명 아래 ‘눈앞’ 관련이슈 디지털기획 입력 : 2020-04-01 06:00:00 수정 : 2020-04-01 18:17:38 인쇄 메일 글씨 크기 선택 가장 작은 크기 글자 한 단계 작은 크기 글자 기본 크기 글자 한 단계 큰 크기 글자 가장 큰 크기 글자 변덕승 제주도 특별자치 법무담당관 등 제주도가 선임한 법무법인 관계자들이 30일 오후 코로나19 증상에도 제주여행을 강행한 강남구 모녀를 상대로 한 손해배상 청구 소장 제출을 위해 제주지방법원 민원실로 들어오고 있다. 이번 소송의 원고는 모녀의 동선 등에 대한 방역을 담당한 제주도와 임시폐쇄를 했던 2개 업체, 자가격리자 2명으로 청구액은 1억3200여만원이다. 뉴스1 미국 유학생 강남 모녀가 신종 코로나바이러스 감염증(코로나19) 확진을 받기 전 제주도 여행을 다녀가 논란이 인 가운데 제주도의 관광객 감소세가 뚜렷한 것으로 나타났다. 31일 제주도관광협회의 관광객 일일 입도현황을 분석한 결과, 3월 셋째 주 주말인 20∼22일 내국인관광객 1만6000∼1만7000여 명이 제주를 찾았지만, 넷째 주 주말인 27∼29일엔 1만3000∼1만5000여 명으로 뚝 떨어졌다. 날짜별로 보면 금요일인 20일 1만7570명, 21일 1만7540명, 22일 1만6605명으로 지난해 같은 기간보다 29.4%, 54.2%, 56.4% 줄었다. 그러나 일주일 뒤인 27일 1만4653명, 28일 1만5071명, 29일 1만3454명으로 지난해 같은 기간보다 58.5%, 57.5%, 64.6% 감소했다. 급기야 30일엔 올들어 가장 적은 1만1640명으로 지난해보다 69.5%나 급락했다. 미국 유학생 A(19·여·강남구 21번 확진자)씨와 어머니 B(52·강남구 26번 확진자)씨가 20일부터 24일까지 제주도 여행을 하고, 서울로 돌아온 후 코로나19 검사를 받아 두 사람 모두 확진 판정을 받은 사실이 알려진 26일 이후 제주를 찾은 관광객이 지난해보다 60% 가량 감소하는 등 낙폭이 컸다. 지난해와 주말·휴일 관광객 숫자를 비교해보더라도 61.3%나 급락했다. 3월 네번째 주말과 휴일 제주를 찾은 내국인은 27일 1만4653명, 28일 1만5071명, 29일 1만3454명으로, 지난해 세번째 주말인 22일 3만8067명, 23일 3만7392명, 24일 3만6050명으로 각각 61.6%, 59.7%, 62.7%나 줄었다. 관광업계 관계자는 “우연일지는 모르지만 ‘강남 코로나 확진 모녀의 제주여행’이 전국 이슈로 번지고, 제주에서도 해외입국자 확진이 잇따르면서 지난 주말과 휴일 관광객이 급감했다”며 “하루 입도 관광객이 처음으로 만명 아래로 떨어질 수도 있다”고 말했다. 제주국제공항 내 야외 주차장에 설치된 워킹 스루 진료소에서 검사요원들이 한 도민의 검체를 확인하고 있다. 제주도제공 ◆한은 보고서 “메르스 사태와 달리 내국인관광객도 급감…제주경제 큰 타격” 코로나19 여파로 제주 방문 관광객이 큰 폭으로 감소하면서 항공, 여행업을 중심으로 제주경제에 큰 타격이 예상된다는 전망이 나왔다. 한국은행 제주본부가 30일 발표한 지역경제보고서에 따르면 지난해 제주 방문 관광객은 2016년 이후 3년 만에 1500만명 선을 회복했으나 코로나19의 국내 확산이 본격화한 2월 중엔 약 63만명을 기록해 작년 대비 43.4%나 급감한 것으로 파악됐다. 이는 2015년 6월 메르스(중동호흡기증후군) 사태 때 제주 방문 관광객 93만1000명의 67.2%에 그치는 수치다. 감염병 위기 경보가 ‘경계’에서 ‘심각’ 단계로 격상한 지난 2월 3일부터 3월 30일까지 제주를 찾은 관광객은 58만996명으로 지난해 같은 기간 136만6910명보다 57.5% 줄었다. 내국인은 57만4557명으로 52.8% 줄었으며 외국인은 6439명으로 95.7% 급감했다. 한은은 지난해 관광객 회복세의 배경으로 관광여건 개선, 해외여행 대체 수요, 관광객 다변화 정책 등을 꼽고, 그 결과 내외국인 관광객의 제주 방문이 증가했던 것으로 분석했다. 한은은 하지만 전세계적인 코로나19 확산에 따른 여행심리 위축과 무사증 입국제도 운영 중단으로 이같은 관광객 증가 추세가 올해 초 꺾였다고 봤다. 원희룡 제주지사가 30일 오전 제주도청 기자실에서 코로나19 대응방역 상황 브리핑을 하고 있다. 뉴시스 한은은 메르스사태가 있었던 2015년에는 외국인 관광객 감소분을 내국인 관광객이 대체했으나 이번에는 내국인 관광객도 함께 급감했다고 밝혔다. 여객 수요가 급감하면서 제주지역의 여행 관련 업황도 크게 나빠지고 있다. 국내 항공사들은 제주노선 항공편을 일시적으로 줄였고, 2월 중 제주지역 호텔·렌터카 예약 취소율도 80∼90% 수준에 육박하는 것으로 조사됐다. 2월 중 제주지역 소비자심리지수(CCSI)도 전월대비 8.7포인트 하락한 92.3을 기록했다. 한은은 코로나19로 인한 불안이 수학여행 등 단체관광객이 늘어나는 봄철 성수기까지 이어질 경우 올해 중 제주를 찾는 관광객 수의 대폭 감소가 불가피할 것으로 내다봤다. 제주=임성준 기자 jun2580@segye.com [ⓒ 세계일보 &amp; Segye.com, 무단전재 및 재배포 금지] 20200331521939 0101080100000 0 2020-04-01 18:17:38 2020-04-01 18:17:38 0 '유학생 모녀' 논란 직격탄 제주도, 관광객 발길 뚝… 하루 만명 아래 ‘눈앞’ 세계일보 임성준 9a19e7e4-78a9-43d0-9d4a-245149669a84 jun2580@segye.com 오피니언 [설왕설래] 개운치 않은 불꽃축제 9일 오전 한 지인이 보낸 SNS(사회관계망서비스)에 입을 다물지 못했다. 형형색색 불꽃 사진에 탄성이 절로 나왔다. 실제 현장에서의 감동은 어떨까 싶었다. 전날 불꽃놀이를 보러 남산으로 향한다는 한 후배는 “세계일보가 명당자리인데 아이들 데리고 구경 가지 않느냐”고 묻기까지 했다. 회사에서는 이미 직원 가족들과 지인들을 위한 초청행사를 성대히 준비했다. [박완규칼럼] 위기관리 컨트롤타워 바로 세워야 윤석열정부가 출범한 지 5개월이 지났다. ‘국익과 실용’, ‘공정과 상식’을 국정운영 원칙으로 내세웠지만 나라를 어떻게 이끌어나갈지에 대한 구체적인 청사진을 내놓지 않았다. 국정이 나아갈 방향을 가늠하기 어려울 정도다. 이런 상황에서 외교안보와 경제 등에 어두운 그림자가 짙게 드리워져 있다. 국가적 위기감은 날로 커진다. 어느 틈에 위기관리가 최우선 국정 [기자가만난세상] 런던의 ‘인종적 중국인’ 필자는 1년간 영국 런던에서 대학원 과정을 마치고 최근 복귀했다. ‘민주주의에서의 정치 커뮤니케이션’ 수업의 공공외교 분야 세미나 중 중국 친구와 홍콩 친구 사이 벌어진 논쟁이 잊혀지지 않는다. 백신 개발국들이 타국에 백신을 공급·기부하면서 ‘연성권력(soft power)’을 구축하는 행위에 대한 토론을 하던 중이었다. 홍콩 친구가 라틴아메리카와 동남아 지 [김중백의자유롭게세상보기] 포용적 다양성이 필요한 우리 정치 필자가 속한 대학에서 최근 신임교수 환영 간담회가 열렸다. 신종 코로나바이러스 감염증(코로나19)이 전 세계를 강타한 이후 신임교수들은 최근까지 면접부터 오리엔테이션, 그리고 교수회의 등을 온라인으로만 진행해야 했다. 그러다 보니 새롭게 부임한 학교에 소속감도 느끼기 어려웠고 교수 간 지적 교류에 한계를 절감했다. 이런 아쉬움을 떨어내고자 새로 부임하는 교 HOT뉴스 1 "바위야 호박이야?" 1.1t 넘는 초대형 호박 수확 2 23층 지붕 위 기인…양복 입고 활보, 왜? 3 머스크, 440억달러에 트위터 인수…계약파기 철회 4 허리케인 '이언' 지나간 자리 처참…최소 108명 사망 5 에펠탑 아래 숲, 하마터면 사라질뻔∼ 포토 회사소개 지면광고 온라인광고 전광판 광고 사업제휴 독자인권위원회 및 고충처리 정정보도신청 개인정보취급방침 청소년보호정책 이용자약관 디지털뉴스이용규칙 고객센터 제호 : 세계일보 서울특별시 용산구 서빙고로 17 등록번호 : 서울, 아03959 등록일(발행일) : 2015년 11월 2일 발행인 : 정희택 편집인 : 황정미 전화번호 : 02-2000-1234 청소년보호 책임자 : 박광재 Copyright ⓒ 세계일보 All rights reserved. 문화사업 세계농업기술상 세계문학상 신춘문예 음악콩쿠르 글로벌미디어 Washington Times Tiempos Del Mundo 일본 세계일보</t>
+  </si>
+  <si>
+    <t>‘코로나19’ 뚫고 제주도 놀러 갔다가 어제(12일) 내린 폭설에 고립된 관광객 7명 - 인사이트 Insight 정치 경제 핫이슈 엔터 라이프 문화·스포츠 사람들 산업 헬스 증권·금융 16℃ 서울 13℃ 인천 15℃ 춘천 16℃ 강릉 15℃ 수원 15℃ 청주 16℃ 대전 16℃ 전주 17℃ 광주 17℃ 대구 17℃ 부산 16℃ 제주 '코로나19' 뚫고 제주도 놀러 갔다가 어제(12일) 내린 폭설에 고립된 관광객 7명 제주도로 관광을 떠난 관광객 7명이 엄청난 폭설로 인해 고립되는 사고를 당했지만 119구조대에 구조됐다. 최동수 기자 입력 2020.04.13 10:37 글자크기 설정 가 가 가 가 가 공유 카카오톡 페이스북 트위터 카카오스토리 밴드 핀터레스트 URL 복사 메일 기사와 관련 없는 자료 사진 / 뉴스1[인사이트] 최동수 기자 = 제주도에서 관광을 즐기던 관광객 7명이 엄청난 폭설로 인해 고립되는 사고를 당했다.지난 12일 제주소방안전본부에 따르면 이날 A씨 등 관광객 7명은 오후 5시 26분쯤 제주 1100도로 어리목 입구 삼거리에서 내린 눈으로 인해 고립됐다.인천에서 온 A씨는 자동차가 움직이지 못 할 정도로 쌓인 눈에 고립되자 119에 구조 요청을 한 것으로 전해진다.이후 신고를 받은 119구조대가 눈길을 뚫고 와 A씨 등 7명을 모두 구조했으며 이들을 제주 시내로 옮겼다.뉴스1이날 제주 산지에는 뜻밖의 4월 폭설이 내렸으며 제주지방기상청은 오후 7시를 기해 대설경보를 발효했다.이후 밤사이 눈발이 약해져 오후 10시 30분께 산지에 내려진 대설경보를 해제했다.한편, 제주도는 물론 강원 산간에도 4월 폭설이 내리며 대설주의보가 발효되는 상황까지 이어졌다.강원지방기상청은 13일 오전 6시 기준 태백 4.1㎝, 용평 2.9㎝, 왕산(강릉) 2.6㎝,대관령 2.5㎝ 등이라고 밝혔다.현재는 모든 대설주의보가 해제된 상황이며, 밤사이 내린 눈으로 강원 남부를 제외한 지역의 건조주의보 역시 해제됐다.기사와 관련 없는 자료 사진 / 뉴스1 최동수 기자 · webmaster@insight.co.kr 베스트클릭 국제 아들 출근한 사이 차 깨끗이 닦아주고 싶어 '철 수세미'로 세차한 70대 노모 자동차 “아내가 엑셀·브레이크 또 헷갈려서...” 아이오닉6 전국 ‘1호 사고차’가 등장했다 스타 대학 축제서 관객석 ‘다이빙’ 했는데 모두 피해 ‘맨땅 헤딩’한 유명 래퍼 (영상) 스포츠 오늘(9일) 손흥민이 입고 나온 티셔츠 본 콘테 감독...벤치에서 눈물 터져 국제 “중국인은 2명이 모이면 벌레가 된다” 발언한 일본 예술가 민족 비하 논란 연예 “군대 알아서 갈테니까”...국감서 BTS 슈가 자작곡 가사 등장했다 스타 이게 현실에서 가능한 여자 몸매?...반응 터진 몸짱 인플루언서 실제사진 사회 BTS 병역특례 두고 공방...더민주 “국가적 손실” vs 국힘당 “나훈아도 갔다왔다” 국제 “앗 뜨거!” 손목에 차고 있던 애플워치 ‘펑’ 폭발...애플, 누설 말라 강요 스포츠 ‘피겨 프린스’ 차준환, 드디어 세계 정상 우뚝 섰다...“20점차 이상 압도적 스코어” 국제 노출의상 입은 댄서들 공연 후 요양원서 벌어진 충격 상황...“할머니 한 명은 심장마비로 쓰러져” 방송·드라마 엄지원에 살해당했던 추자현, 살아있었다...‘작은 아씨들’ 충격 엔딩 사회 확 달라진 군 교육자료...文 정부가 삭제한 ‘문구’, 다시 추가됐습니다 문화·예술 22년 동안 ‘평일’이었던 한글날, 역시 ‘이 대통령’ 때 빨간날 됐다 사회 2500만원이면 가는 인도 출장, 김정숙 여사 때문에 국민혈세 ‘3억’ 더 썼다 회사소개 이용약관 개인정보 취급방침 윤리강령 독자의견 고충처리인 청소년 보호정책(책임자:김희진) 사업 제휴 문의 광고 안내 문의 서울특별시 강남구 논현로99길 23, 인사이트빌딩 (주)인사이트컴퍼니 | 사업자번호: 119-86-62226 | 02-6734-2207 | 등록번호: 서울 아 02953 | 등록일자: 2014.01.02 | 발행・편집인: 안길수 | 편집국장: 이유리 인사이트의 모든 콘텐츠(기사·사진)는 저작권법의 보호를 받은 바, 무단 전재, 복사, 배포 등을 금합니다. 이를 어길 시 법적 제재를 받을 수 있습니다. Copyright ⓒ 인사이트, Ltd. All Rights Reserved. Insight 정치 정치일반 사회 청와대 국회·정당 전국 경제 생활경제 소비자 정책 외환 부동산 핫이슈 이슈 과학 국제 환경 사건사고 스토리 동물 엔터 연예 방송·드라마 영화 비디오 스타 라이프 라이프 패션 여행 음식·맛집 쇼핑 연애 건강 문화·스포츠 문화·예술 코믹 책·서평 스포츠 공연·전시 게임 사람들 사람들 인사 동정 부음 산업 기업 CEO IT·전자 자동차 모바일·통신 항공·물류 중기·벤처 헬스 제약 의료 뷰티 증권·금융 증시 금융 보험·카드 베스트클릭 아들 출근한 사이 차 깨끗이 닦아주고 싶어 '철 수세미'로 세차한 70대 노모 “아내가 엑셀·브레이크 또 헷갈려서...” 아이오닉6 전국 ‘1호 사고차’가 등장했다 대학 축제서 관객석 ‘다이빙’ 했는데 모두 피해 ‘맨땅 헤딩’한 유명 래퍼 (영상) 오늘(9일) 손흥민이 입고 나온 티셔츠 본 콘테 감독...벤치에서 눈물 터져 “중국인은 2명이 모이면 벌레가 된다” 발언한 일본 예술가 민족 비하 논란 회사소개 이용약관 개인정보 취급방침 윤리강령 독자의견 고충처리인 청소년 보호정책(책임자:김희진) 사업 제휴 문의 광고 안내 문의 Copyright ⓒ 인사이트, Ltd. All Rights Reserved.</t>
+  </si>
+  <si>
+    <t>제주도, 관광진흥기금 특별융자 지원 확대 &lt; 제주 &lt; 전국 &lt; 기사본문 - 시사매거진 주요서비스 바로가기 본문 바로가기 매체정보 바로가기 로그인 바로가기 기사검색 바로가기 전체서비스 바로가기 상단영역 시작페이지 즐겨찾기 홈 로그인 회원가입 English 中文 日本語 العربية Español Français 번역 제공 검색 기사검색 검색 UPDATED.2022-10-11 14:51 (화) 실시간 뉴스 금융감독원 국정감사 실시하는 정무위 이재명 "일본을 한반도에 끌어들이는 자충수 중단해야" 이재명 "한미일 군사훈련, 좌시할 수 없는 국방참사·안보자해행위" 두산베어스, 김태형 감독과 결별... "조만간 사령탑 인선" 발언하는 양무진 북한대학원대학교 총장 광산구 "올겨울 함께 할 희망의 메시지를 찾습니다" 2022 광산아트페스티벌 ‘별무리 예술장터’ 개최 코웨이, 2022 한국산업의 고객만족도 조사 침대·정수기 2개 부문 1위 선정 긴급 안보대책회의 참석한 황인권 전 육군 제2작전사령관 긴급 안보대책회의 참석한 김준형 전 국립외교원장 긴급안보대책회의 참석하는 이재명 더불어민주당 대표 더불어민주당 긴급 안보대책회의 HOME 뉴스 정치 경제 사회 생활/문화 교육 세계 IT과학 만화 동영상 보도자료 오피니언 인터뷰 칼럼 스페셜 인물열전 명인명사 포토 포토 엔터테인먼트 연예 스포츠 방송 오늘의 날씨 책 여행·레저 제 292호(2022-10) 오세훈 서울시장이 말하는 ‘약자와의 동행, 매력 특별시’ 구독하기 본문영역 이전 기사보기 다음 기사보기 제주도, 관광진흥기금 특별융자 지원 확대 바로가기 복사하기 본문 글씨 줄이기 본문 글씨 키우기 스크롤 이동 상태바 현재위치 홈 전국 제주 제주도, 관광진흥기금 특별융자 지원 확대 기자명 김연화 기자 입력 2020.04.11 17:37 댓글 0 바로가기 복사하기 본문 글씨 줄이기 본문 글씨 키우기 SNS 기사보내기 페이스북(으)로 기사보내기 트위터(으)로 기사보내기 URL복사(으)로 기사보내기 이메일(으)로 기사보내기 다른 공유 찾기 기사스크랩하기 이 기사를 공유합니다 페이스북(으)로 기사보내기 트위터(으)로 기사보내기 URL복사(으)로 기사보내기 닫기 신청자격 완화·업종확대 담은 2차 변경계획 마련 10일 공고 만기 상환유예 1→2년 연장… 융자 금리 0.75%→0.62% 인하 제주특별자치도청사 전경 [시사매거진/제주=김연화 기자] 제주특별자치도는 코로나19 장기화로 인한 관광업계 경영난 해소를 위해 제주관광진흥기금 특별융자 대상과 업종별 범위를 확대한다. 앞서 제주도는 지난 2월 28일 중복 지원과 호텔 지원 요건, 농어촌민박 인증시기 등을 완화한 바 있다. 도는 관광사업체 의견과 금융기관과의 협의를 거쳐 융자 대상 및 업종제한 등의 신청자격을 완화하는 관광진흥기금 지원 2차 변경계획을 마련하고 10일 공고했다. 2차 변경 계획에는 ▲대상자 자격제한 완화 ▲업종 확대 ▲경영안정자금 거치기간 연장 ▲융자 추천 최저한도 설정 ▲융자상환 유예 2년 연장 ▲융자금리 인하 등이 담겨 있다. 대상자 자격제한 완화에 따라 2년 이내 과징금·영업정지 등 행정처분 및 융자지침 위반 이력을 지닌 사업체와 투자진흥지구 지정 사업체도 신청 가능하다. 자본금 50억 원 미만의 융자신청 자격 폐지에 따라 도내에 본점 또는 지점이 등록된 관광사업체와 5성 호텔도 대상에 포함됐다. 지원 대상 업종 확대에 따라 생활형‧분양형 숙박시설, 국제회의기획업, 관광식당업, 관광사진업, 마리나 업종, 수상‧수중레저업, 관광지원서비스업 등도 융자지원이 가능해졌다. 이 밖에 경영안정자금 거치기간을 현행 1년 거치 3년 상환에서 2년 거치 3년으로 연장했고, 매출이 적은 업체에 대해서도 최저 5,000만 원의 융자추천서도 발급키로 했다. 제주도는 지난 2월 17일 관광진흥기금을 융자받은 업체에 대해 만기 상환기간을 1년 연장한데 이어 추가로 1년 더 연장했고, 금리도 종전(1분기) 0.75%에서 0.62%(2분기)로 인하했다. 제주도는 이번 제주관광진흥기금 특별융자 지원 확대에 따라 330여 사업체(대상자 제한 완화 76, 생활형/분양형 숙박시설 66, 국제회의기획업 32, 관광식당업 40, 미등급 관광호텔 50, 관광지원서비스업 50, 5성급호텔 15 등) 가 혜택을 볼 것으로 예상하고 있다. 한편, 제주관광진흥기금 융자규모는 5,700억 원(특별융자 3,000억 원, 상환유예 2,700억 원)이며, 신청은 오는 5월 18일까지다. 4월 9일 현재 총 1,101건 1,412억 원이 접수됐고, 이 중 989건 1,208억 원의 융자추천서가 발급됐다. 김연화 기자 kyh5667@daum.net 다른기사 보기 저작권자 © 시사매거진 무단전재 및 재배포 금지 당신만 안 본 뉴스 프로골퍼 박결, 갑작스런 누리꾼 관심... 근황·나이·프로필 화제 골프선수 유현주 프로, 인스타 속 여신 자태 '이종범 딸·이정후 여동생' 이가현 누구? 나이·직업·프로필 공개 송가인, 다음 콘서트는 천안...목포 인증샷 "흥겹고 즐거워" 오늘날씨 월요일, 강원도 "첫눈오나" 서울날씨 "8도 기온뚝" [2022 더팩트 뮤직 어워드] 8일 개막 '라인업·중계·시작시간은?' 로또1등당첨지역 1036회 "9명 28억씩" 대박 프로골퍼 박결, 갑작스런 누리꾼 관심... 근황·나이·프로필 화제 주요기사 국회, 감사원 국감 날 선 공방 예고 11일 코로나19 신규 확진자 1만 5476명 '위중증 313명·사망자 10명' 러시아, 우크라이나 미사일 공격... 유엔 긴급특별총회 소집 오늘날씨 화요일, 서울날씨 아침6도 기온뚝 '얼음, 눈오는 경기북부' 대통령실, 이재명 '친일 국방' 겨냥해 "말이 아닌 현실의 문제" 토트넘 손흥민, 케인과 43번째 합작골 '시즌 2호 도움' 팀은 승리 최신뉴스 금융감독원 국정감사 실시하는 정무위 이재명 "일본을 한반도에 끌어들이는 자충수 중단해야" 이재명 "한미일 군사훈련, 좌시할 수 없는 국방참사·안보자해행위" 두산베어스, 김태형 감독과 결별... "조만간 사령탑 인선" 발언하는 양무진 북한대학원대학교 총장 포토뉴스 금융감독원 국정감사 실시하는 정무위 이재명 "일본을 한반도에 끌어들이는 자충수 중단해야" 이재명 "한미일 군사훈련, 좌시할 수 없는 국방참사·안보자해행위" 두산베어스, 김태형 감독과 결별... "조만간 사령탑 인선" 인기뉴스 1 프로골퍼 박결, 갑작스런 누리꾼 관심... 근황·나이·프로필 화제 2 골프선수 유현주 프로, 인스타 속 여신 자태 3 '이종범 딸·이정후 여동생' 이가현 누구? 나이·직업·프로필 공개 4 송가인, 다음 콘서트는 천안...목포 인증샷 "흥겹고 즐거워" 5 오늘날씨 월요일, 강원도 "첫눈오나" 서울날씨 "8도 기온뚝" 6 [2022 더팩트 뮤직 어워드] 8일 개막 '라인업·중계·시작시간은?' 7 로또1등당첨지역 1036회 "9명 28억씩" 대박 8 선우은숙 재혼, 유영재 아나운서와 혼인신고... 나이·프로필 눈길 하단영역 하단메뉴 매체소개 기사제보 광고문의 이용약관 개인정보처리방침 청소년보호정책 저작권보호정책 이메일무단수집거부 매체정보 서울특별시 강남구 테헤란로25길 20, 8층 813호(역삼동,역삼현대벤쳐텔) 대표전화 : 02-790-5116 팩스 : 02-2086-7272 청소년보호책임자 : 김길수 법인명 : 시사매거진 제호 : 시사매거진 등록번호 : 강남 라 00906 등록일 : 1997-09-12 발행일 : 2017-05-01 발행인 : 김길수 편집인 : 김영규 사장 : 천진철 시사매거진 모든 콘텐츠(영상,기사, 사진)는 저작권법의 보호를 받는 바, 무단 전재와 복사, 배포 등을 금합니다. Copyright © 2022 시사매거진. All rights reserved. mail to webmaster@sisamagazine.co.kr 위로 전체메뉴 전체기사 뉴스 전체 정치 경제 사회 생활/문화 교육 세계 IT과학 만화 동영상 오피니언 전체 인터뷰 칼럼 스페셜 인물열전 명인명사 포토 전체 포토 엔터테인먼트 전체 연예 스포츠 방송 책 여행·레저 전체메뉴닫기</t>
+  </si>
+  <si>
+    <t>[전국]제주도, 자가격리 거부 해외방문 관광객 4명 돌려보내 | YTN 메뉴 바로가기 본문 바로가기 푸터 바로가기 메뉴 YTN HOME 뉴스알림 라이브 편성표 제보 로그인·회원가입 검색하기 분야별 뉴스 와플뉴스 YTN star 다시보기 제보 시청자센터 알립니다 특집 프로젝트 광고·비즈니스 디지털 서비스 분야별뉴스 분야별 뉴스 메인최신뉴스많이 본 뉴스속보·알림단독정치경제사회전국국제과학문화스포츠날씨재난 와플뉴스 와플뉴스 메인최신뉴스자막뉴스제보영상국경 없는 세상한방이슈제보, 그 후뉴스케치소파트래블러와이파일리플레이운세 YTN star YTN star 메인최신뉴스방송가요영화Y이슈해외연예반말인터뷰와이티엔 스타뉴스 다시보기 다시보기 메인 지금 막 올라온 많이 보는 시사 다큐 과학 교양 채널 별 YTN 와플뉴스 YTN 스타 YTN 월드 YTN 코리안 YTN 사이언스 YTN2 YTN 라디오 YTN DMB 제보 제보 메인제보하기제보랭킹최신제보 시청자센터 시청자의견시민데스크시청자브리핑 시시콜콜시청자 위원회고충처리위원회사이버감사실견학신청성폭력 신고센터 알립니다 공지사항채용공고경품이벤트채널 안내위치 및 연락처이용 도움말 특집 프로젝트 리스펙트 프로젝트SMILE TO VOTE뉴미디어 리터러시2020 국회의원선거2021 재보궐선거2020 도쿄올림픽2022 대통령선거2022 베이징올림픽2022 지방선거 광고 비즈니스 TV광고큐톤시간표인터넷·모바일 광고해외 광고사업 제휴동영상 뉴스 판매오디오 음원 판매뉴스·프로그램 공급 디지털 서비스 뉴스알림 모바일APP 리더스 뉴스레터 유튜브 페이스북 트위터 인스타그램 네이버채널 네이버TV 네이버밴드 틱톡 데일리모션 24시간 라이브 방송 [오늘의 운세] 2022년 10월 11일 띠별 운세 [이슈그리고] "뜨고 싶어서?"...한동훈 지휘 의혹 제기에 여당... 신혜성 측 "만취해 남의 차 모르고 운전, 변명의 여지 없다...... 감사원 국감, 시작부터 '파행'...친일 국방 논란 계속 ‘히잡 반대 시위' 이란 여성들 잇따라 숨진 채 발견 메뉴 닫기 YTN 로그인 로그인 회원가입 검색하기 제주도, 자가격리 거부 해외방문 관광객 4명 돌려보내 댓글 달기 공유하기 LIVE 이 시각 주요뉴스 이 시각 주요뉴스 주요뉴스 닫기 尹 "핵 위협 앞에 정당화될 수 있나"...野 '친일 ... 코스피, 2,200선 붕괴...환율, 장중 1,430원 돌파 "낙엽따라 우수수" 탈모의 계절, 자가진단 이렇게 서울 학교 비정규직노조, "폐암으로 죽어가"...급... [이슈그리고] "뜨고 싶어서?"...한동훈 지휘 의혹 제... "자존심 살리려는 절박함"...러시아 보복 공습으로 전... 공유하기 공유창 닫기 페이스북 트위터 밴드 카카오톡 링크 복사하기 메뉴 닫기 검색하기 LIVE 분야별뉴스 와플뉴스 YTN star 다시보기 제보 코로나19 실시간 주요뉴스 이전 이재명 "與, 해방 후 친일파 행태…尹, 국민께 소명해야" 尹 "핵 위협 앞에 정당화될 수 있나"…野 '친일 국방' 공세 일축 정진석 "조선, 내부에서 썩어 문드러져 망해"…발언 놓고 논란 서울청장 "이준석, 지난 주말 소환 조사…무고 혐의 등 곧 결론" 감사원 국감, 오전 내내 '파행'…친일 국방 논란 계속 민주 "여가부 확대·개편 필요"…폐지안에 공식 반대 ‘히잡 반대 시위' 이란 여성들 잇따라 숨진 채 발견 "자존심 살리려는 절박함"…러시아 보복 공습으로 전황 격화 우려 서울 도심에서 50대 권총 맞아…극단적 선택 추정 신혜성 측 "만취해 남의 차 모르고 운전, 변명의 여지 없다…죄송"(전문) 회삿돈 5억 빼돌리고 잠적…안성 지역농협 직원 검찰 송치 동시계약 허점 노려 전세대출금 가로채…'신종 사기' 적발 오늘부터 개량백신 접종…신규 확진 1만 5,476명 체중 20% 쏙…당뇨약→비만약 '대박' 터졌다 국민연금 자발적 가입자 5년만에 첫 감소세…건보개편 영향 우려 물가 오름세에 '구제 시장'도 한숨…"손님 있어도 안 사요" "자격시험 도중 화장실 못하게 하는 건 인권 침해" 학력 전수평가 5년 만에 사실상 부활…초3~고2로 확대 유엔, 러시아 규탄 긴급 총회…사무총장 "위기 고조 용납 못해" "6∼9개월 내로 美·세계 경제는…" JP모건의 경고 日, 2년 7개월 만에 한국인 무비자 관광 재개…전국 여행지원도 다음 전국 제주도, 자가격리 거부 해외방문 관광객 4명 돌려보내 2020년 04월 01일 23시 21분 댓글 글자크기 조정하기 글자크기 조정하기 글자 크기 조정창 닫기 매우 작은 크기 폰트 작은 크기 폰트 보통 크기 폰트 큰 크기 폰트 매우 큰 크기 폰트 인쇄하기 공유하기 공유하기 페이스북 트위터 밴드 카카오톡 링크 복사하기 공유창 닫기 제주도는 2주간 자가격리를 거부한 해외여행 이력이 있는 관광객 4명에 대해 공항에서 곧바로 되돌려 보냈습니다. 공항에서 돌려보내진 사람은 필리핀에서 온 가족 3명과 캐나다에서 온 관광객 1명 등입니다. 제주도는 특별 입도 절차에 따라 이들에게 '2주간 자가격리'를 요구했지만, 거부 의사를 밝혀 결국 되돌려 보냈다고 밝혔습니다. 이들은 제주에서 일정 기간 머무른 뒤 서울로 가려고 했던 것으로 알려졌습니다. 제주도는 이와 함께 자가격리 중 무단이탈해 지인과 30여 분 동안 식당에서 식사한 80대 할머니도 무관용 원칙에 따라 고발 조치할 예정입니다. ※ '당신의 제보가 뉴스가 됩니다' YTN은 여러분의 소중한 제보를 기다립니다. [카카오톡] YTN을 검색해 채널 추가 [전화] 02-398-8585 [메일] social@ytn.co.kr [온라인 제보] www.ytn.co.kr[저작권자(c) YTN 무단전재 및 재배포 금지] 전국 기사목록 전체보기 충북 청주시 '오송역'→'청주 오송역' 변경 추진 [서울] 서울시, 'I·SEOUL·U' 대체 브랜드 12월 개발 완료 [서울] 서울시, 'I·SEOUL·U' 대체 브랜드 12월 개발 완료 경찰, '대전 아웃렛 화재' 관련 현대백화점 본사 압수수색 YTN 미디어그룹 YTN 회사소개 INSIDE YTN YTN 사이언스 YTN 라디오 YTN2 YTN dmb YTN world YTN korean 남산서울타워 시청자센터 시청자의견 시민데스크 시청자브리핑 시시콜콜 시청자 위원회 고충처리위원회 사이버감사실 견학신청 성폭력신고센터 알립니다 공지사항 채용공고 경품이벤트 채널 안내 해외 리포터단 신청 위치 및 연락처 이용 도움말 광고 및 비즈니스 TV광고 큐톤시간표 인터넷·모바일 광고 해외 광고 사업 제휴 동영상 뉴스 판매 오디오 음원 판매 뉴스·프로그램 공급 약관 및 정책 이용약관 개인정보처리방침 청소년보호정책 기사배열 기본방침 디지털 서비스 모바일 APP 뉴스알림 리더스 뉴스레터 유튜브 페이스북 트위터 인스타그램 네이버채널 네이버TV 네이버밴드 틱톡 데일리모션 ㈜와이티엔 서울특별시 마포구 상암산로 76(상암동) | 대표자: 우장균 | 대표전화: 02-398-8000 | 팩스: 02-398-8129사업자등록번호: 102-81-32883 Copyright (c) YTN. All rights reserved. 모든 컨텐츠(기사)는 저작권법의 보호를 받은바, 무단 전재·복사·배포를 금합니다.</t>
+  </si>
+  <si>
+    <t>제주도 중문관광단지 맛집 ‘색달식당 중문본점’ 조미료 사용하지 않은 전통 갈치조림 선보여 경주시17.4℃ 고창16.8℃ 밀양18.4℃ 의령군19.8℃ 양산시20.1℃ 강릉20.4℃ 통영19.7℃ 구미17.3℃ 고창군16.9℃ 서산15.7℃ 백령도14.4℃ 서귀포19.7℃ 제주19.7℃ 금산15.4℃ 울산17.1℃ 임실16.1℃ 청송군15.7℃ 인천13.4℃ 광주17.7℃ 함양군18.4℃ 여수18.2℃ 완도18.7℃ 영월13.8℃ 충주13.3℃ 정읍16.0℃ 전주16.7℃ 합천20.1℃ 대관령12.2℃ 북강릉18.4℃ 고산16.7℃ 부안17.3℃ 동두천14.1℃ 이천15.5℃ 속초18.6℃ 의성15.9℃ 울진16.1℃ 남원16.3℃ 문경14.9℃ 영천16.9℃ 영덕17.1℃ 진주18.9℃ 창원18.2℃ 거제18.5℃ 정선군14.0℃ 서청주(예)14.5℃ 안동14.4℃ 산청18.3℃ 흑산도16.1℃ 대전16.4℃ 남해18.7℃ 추풍령14.0℃ 천안15.3℃ 울릉도16.0℃ 청주15.2℃ 춘천14.8℃ 목포16.1℃ 해남17.5℃ 태백14.8℃ 순창군16.0℃ 파주14.3℃ 상주15.9℃ 부여17.8℃ 강화14.6℃ 보령17.6℃ 봉화13.5℃ 양평15.2℃ 고흥18.2℃ 성산17.9℃ 동해18.9℃ 장수15.4℃ 인제12.5℃ 강진군18.5℃ 원주12.4℃ 보은14.4℃ 부산20.0℃ 서울15.0℃ 수원15.1℃ 거창17.7℃ 북춘천13.1℃ 김해시19.3℃ 홍천13.6℃ 세종16.1℃ 철원12.2℃ 진도군16.8℃ 보성군18.9℃ 광양시19.9℃ 영광군16.6℃ 제천12.7℃ 대구16.9℃ 영주14.3℃ 포항18.0℃ 홍성16.1℃ 순천16.6℃ 북창원18.2℃ 장흥18.3℃ 군산16.6℃ 2022.10.11 (화) 즐겨찾기 모바일버전 전체기사 LOGIN 회원가입 News Hotel&amp;Resort News Photo News 지자체 Product Beverage&amp;Coffee Chef Chef Story Recipe Column Food&amp;Cook Food Delicious Liquor Bakery&amp;Dessert Academy Opinion 신지식인 People Association 소상공인 Column Ent 여행&amp;축제 미용&amp;건강 골프&amp;당구 문화 MENU 검색 HOME &gt; News &gt; Issue 제주도 중문관광단지 맛집 ‘색달식당 중문본점’ 조미료 사용하지 않은 전통 갈치조림 선보여 박노석 기자 / 기사승인 : 2020-04-20 11:44:40 제주도 여행을 계획하면서 서귀포시를 지나치지 않을 순 없다. 보통 제주도를 한 바퀴 돌아서 여행을 다니기 때문에 남쪽에 위치한 서귀포시를 지나야 하는 것이다. 지나지 않으려면 공항 부근에서만 여행을 해야 하므로, 제주도 여행 필수코스가 서귀포시라 할 수 있다.서귀포에 있는 중문관광단지에는 천지연폭포, 오설록 티뮤지엄, 서귀포항, 카멜리아 힐, 소인국테마파크나 테디베어 뮤지엄, 이중섭거리 등 여러 관광지가 있다. 그리고 유명하지 않아도 초콜렛 만들기나 감귤 수확하기 등 다양한 체험을 할 수 있는 관광지도 충분하다.아시아의 괌 제주도는 국내에서는 신혼여행지로도 유명하며 또한 공기부터 경치까지 여러 광관지를 보며 여행을 즐길 수 있다는 것이 장점이며 특히 각각 지역마다 여러 가지 맛집 먹거리 및 볼거리가 많아 젊은 여행객부터 중년, 노년 여행객까지 4계절 내내 많은 방문이 잦다.요즘 들어서는 인터넷에서 많은 것을 미리 확인 할 수 있어서 여행 전 제주도에서 효율적으로 소비지출을 하기 위해 유명한 맛집과 여행 코스를 미리 정해놓기도 한다.'색달식당 중문본점' 은 관광객들이 많이 방문하기도 하지만 제주도민도 많이 찾는 곳이기도 하다. 조미료를 사용하지 않고 자연적인 원료들로만 사용해 만든 음식을 다양하게 맛볼 수 있다.메뉴로는 통갈치조림, 통갈치구이 종류들로 나뉘어 있고 전복뚝배기, 해물뚝배기, 성게미역국, 옥돔구이, 고등어구이, 창전복죽, 전복돌솥, 영양돌솥, 문어통 등을 선택해 먹을 수 있고 다양하게 맛을 볼 수 있는 세트메뉴가 구성되어 있다. 아울러 미리 예약을 할 경우 관광 전 아침식사도 가능하다.한편, 색달식당은 도로변에 위치해 있으며 주차장이 넓어 접근성이 좋다. 또한 서귀포시 내에 숙소가 있다면 픽업이 가능하다. [저작권자ⓒ 쿡앤셰프(Cook&amp;Chef). 무단전재-재배포 금지] 박노석 기자 기자의 인기기사 그랜드 하얏트 서울 호텔, ‘이태원 페스티벌’ 애프터눈 티 선봬 캠핑, 레포츠 박람회 ‘2022 국제아웃도어캠핑&amp;레포츠페스티벌’10월 1일부터 킨텍스에서 개최 네스프레소, 커피 경험을 넓혀줄 버츄오 ‘바리스타 크리에이션’ 신제품 출시 좋아요 공유하기 페이스북 트위터 카카오톡 라인 카카오스토리 밴드 네이버 http://www.cooknchefnews.com/news/view/1065581095590264 URL복사 URL주소가 복사 되었습니다. 뉴스댓글 &gt; 댓글 0 댓글쓰기 이 름 비밀번호 등록 - 띄어 쓰기를 포함하여 250자 이내로 써주세요.- 건전한 토론문화를 위해, 타인에게 불쾌감을 주는 욕설/비방/허위/명예훼손/도배 등의 댓글은 표시가 제한됩니다. 최신기사 호텔학교의 호텔경영학과정 현장맞춤형 실무교육으로 입시생들의 관심집중더위크앤 리조트, 수제 맥주 ‘을왕 라거’와 ‘엘 포 레몬’ 출시대구 메리어트 호텔, 2022년 연말 식음료 프로모션과 연회 상품 선보여한화호텔앤드리조트, 지역 활성화를 위한 팝업스토어 '로컬랜드' 오픈오크밸리CC, 국내 유일의 LPGA 대회 ‘BMW 레이디스 챔피언십 2022’ 개최와인열전 03 / 하나도 남김없이 자연으로, 산크리스피노 바이오 화이트 주요기사 호텔학교의 호텔경영학과정 현장맞춤형 실무교육으로 입시생들의 관심집중더위크앤 리조트, 수제 맥주 ‘을왕 라거’와 ‘엘 포 레몬’ 출시대구 메리어트 호텔, 2022년 연말 식음료 프로모션과 연회 상품 선보여한화호텔앤드리조트, 지역 활성화를 위한 팝업스토어 '로컬랜드' 오픈오크밸리CC, 국내 유일의 LPGA 대회 ‘BMW 레이디스 챔피언십 2022’ 개최와인열전 03 / 하나도 남김없이 자연으로, 산크리스피노 바이오 화이트 HEADLINE 호텔학교의 호텔경영학과정 현장맞춤형 실무교육으로 입시생들의 관심집중 대구 메리어트 호텔, 2022년 연말 식음료 프로모션과 연회 상품 선보여 한화호텔앤드리조트, 지역 활성화를 위한 팝업스토어 '로컬랜드' 오픈 PHOTO NEWS &lt;Photo News / 김일현 사진작가의 '굴렁쇠가 있는 풍경'&gt; 충남 당진 장고항 &lt;쿡앤셰프 / 포토뉴스&gt; aT센터 박람회장에 등장한 ‘섬섬옥수 유기농 쌀 하이아미’ &lt;Photo News / 노랗게 물드는 제주&gt; 섬 전체 유채꽃 활짝 많이 본 기사 1레노마골프,'구름이' 카카오톡 이모티콘 출시2오색단풍만큼 다채로운 호텔 ‘가을 뷰캉스 프로모션’3콘래드 서울, 달콤 짜릿한 할로윈 테마 이색 메뉴 선보여4이비스 스타일 앰배서더 서울 명동, 핼러윈 한정 메뉴 선봬52022 양양연어축제, “연어 희망을 품다”의 슬로건으로 3년 만에 돌아온다! 개인정보취급방침 이용약관 청소년보호정책 기사제보 제휴문의 저작권보호정책 경기도 용인시 수지구 진산로 34번길 24 106-302 | 대표전화 : 010-5503-5464 | 팩스 : 0303-0599-1883 제호 : 쿡앤셰프(Cook&amp;Chef) | 등록번호 : 경기, 아51712 | 등록일 : 2017-10-11 | 발행인 : 조용수 | 편집인 : 조용수 | 청소년보호책임자 : 마종수 「열린보도원칙」 당 매체는 독자와 취재원 등 뉴스이용자의 권리 보장을 위해 반론이나 정정보도, 추후보도를 요청할 수 있는 창구를 열어두고 있음을 알려드립니다.고충처리인 조용수 | 010-5503-5464 | cooknchefnews@naver.com 본 콘텐츠의 저작권은 쿡앤셰프(Cook&amp;Chef) 또는 제공처에 있으며 이를 무단 이용하는 경우 저작권법 등에 따라 법적책임을 질 수 있습니다. Copyright ⓒ 쿡앤셰프(Cook&amp;Chef) All rights reserved. 제보메일 : cooknchefnews@naver.com 검색어 입력폼 Category 전체기사 News 전체Hotel&amp;Resort News Photo News 지자체 Product Beverage&amp;Coffee Chef 전체Chef Story Recipe Column Food&amp;Cook 전체Food Delicious Liquor Bakery&amp;Dessert Academy Opinion 전체신지식인 People Association 소상공인 Column Ent 전체여행&amp;축제 미용&amp;건강 골프&amp;당구 문화</t>
+  </si>
+  <si>
+    <t>미디어제주 × 전체기사 뉴스 전체 정치 경제 사회 문화 교육 스포츠 사람들 포토뉴스 Advertorial section 기획특집 전체 생생스포츠현장 박물관, 그리고 제주 이야기 이사람 이주민, 그들을 말한다 다 함께 사는 세상 해외 특파원 보고 교육! 학교 현장 기획특집 미디어누리 전체 어린이기자 시민기자 청소년기자 오피니언 전체 미디어窓 미디어칼럼 건강칼럼 기고 미디어TV 전체 영상뉴스 UCC동영상콘테스트 유치부축구대회 시정가이드 전체 제주시 서귀포시 최종편집 2022-10-11 14:45 (화) 로그인 회원가입 모바일웹 전체 뉴스 전체기사 정치 경제 사회 문화 교육 스포츠 사람들 포토뉴스 Advertorial section 기획특집 박물관, 그리고 제주 이야기 이사람 다 함께 사는 세상 해외 특파원 보고 교육! 학교 현장 미디어누리 어린이기자 시민기자 기사쓰기 오피니언 미디어窓 미디어칼럼 건강칼럼 기고 행사 유치부 축구대회 아름다운 동행 기사검색 검색 S2N14 이전 다음 제주도문화관광해설사협회, 코로나19 고통분담 기사공유하기 프린트 메일보내기 글씨키우기 가나다라마바사 가나다라마바사 가나다라마바사 가나다라마바사 가나다라마바사 가나다라마바사 HOME 미디어누리 시민기자 제주도문화관광해설사협회, 코로나19 고통분담 제주사랑의열매 승인 2020.04.14 10:52 댓글 0 기사공유하기 프린트 메일보내기 글씨키우기 가나다라마바사 가나다라마바사 가나다라마바사 가나다라마바사 가나다라마바사 가나다라마바사 이 기사를 공유합니다 페이스북 트위터 카카오스토리 구글+ 네이버밴드 네이버블로그 네이버폴라 핀터레스트 URL복사 × 제주관광산업이 위기에 빠진 가운데 고용불안과 생계위협에 내몰린 제주관광업계 종사자들이 나눔에 앞장서 훈훈함을 더하고 있다. 제주특별자치도문화관광해설사협회(협회장 김태수)는 최근 제주도청에서 도내 코로나19 확산방지 및 피해지원을 위해 성금 200만원을 제주사회복지공동모금회(회장 김남식)에 기탁했다. 김태수 회장은 “코로나19로 관광객이 줄면서 일자리에 큰 타격을 받고 있다”며 “회원들 모두가 힘든 상황이지만 함께 위기를 극복해나가길 바라는 마음에 성금을 기탁하게 됐다”고 말했다. 이날 기탁된 성금은 제주도문화관광해설사협회 회원들이 코로나19로 어려움을 겪고 있는 제주도민을 위해 십시일반 모아 마련한 것으로, 도내 코로나19 예방 ‧ 치료 및 방역물품 지원 등에 사용될 예정이다. 제주도문화관광해설사협회는 제주도내 관광지 역사 ‧ 문화 ‧ 예술 ‧ 자연 등 관광자원 전반에 대한 전문적인 해설을 제공하며 제주의 아름다음을 널리 알리고 있다. 저작권자 © 미디어제주 무단전재 및 재배포 금지 제주사랑의열매 다른기사 보기 댓글삭제 삭제한 댓글은 다시 복구할 수 없습니다. 그래도 삭제하시겠습니까? 비밀번호 삭제 × 댓글 0 댓글입력 로그인 이름 비밀번호 내용 0 / 400 등록 댓글쓰기 계정을 선택하시면 로그인·계정인증을 통해 댓글을 남기실 수 있습니다. 회원 로그인 비회원 글쓰기 이름 비밀번호 자동등록방지 확인 × 최신순 추천순 실시간 댓글 동굴 몇개 살리자구 하수처리장 이전하면 그돈은 니그들이 낼거냐 일본 후쿠시마 원전페수 방수하는데가서 아주 죽 욱 살면서 대모혀라 실제 월정리 주민들은 그간 동굴과 하수처리장 문제로 골머리를 앓고 있어 새로운 동굴이 발견되면 보호구역 확대에 의한 토지 수용이나 제한으로 재산상 손해가 생길까봐 동굴이 없는게 오히려 좋겠다는 분들도 계십니다. 월정리가 동굴마을로 지정되어 제한만 할께 아니라 하수처리장 철거로 완전한 동굴보호 마을의 역할을 하게해서 마을에 실질적 도움이 될 수 있는 조처도 취해져야 합니다 오늘 강순석 제주지질연구소장님의 새로운 본류 동굴 존재 할 수 있다는 기자회견은 다년간 지질연구하시면서 현장에서 느끼는 전문가의 촉이 있으신것 같습니다. 제주의회 정밀탐사 촉구도 있었으니 하수처리장 존재에 영향을 받지 않을 학술적 가치에 중점인 정밀 지질 탐사가 다시 이루어지기를 기대해 봅니다. 2009년 이후 탐사기법도 더욱 발전 했으니 더 정밀한 탐사가 가능할 것 입니다. 월정리는 만장굴. 사굴과도 마을 경계상에 위치해 있고 그 밑으로 용천굴. 당처물 동굴. 남지미 동굴이 계속 발견되었는데 올 6월에는 제주 의회에서도 정밀 탐사가 필요하다는 의견이 있었습니다만 구체적 탐사 움직임은 보이지 않는것 같습니다 2007년 탐사 ~2009년 보고서는 매우 과학적 동굴탐사인 지표투과 레이더 탐사도 했다지만 그 당시 현장을 지켜본 마을분 증언에 의하면 하수처리장 근처로는 탐사를 회피하는 듯 했다고도 합니다. 지금까지 과정을 보면 보호구역도 하수처리장 경계로 갑자기 2구역에서 4구역으로 완화되게 설정되어 있습니다. 문제의 하수처리장 보호를 위해 안간힘을 써 온것 같은데 하수처리장 철거가 되어야 동굴 탐사도 객관적으로 학술적으로 실제적으로 가능한게 아닌가 의구심을 가져 봅니다 가장 많이 읽은 기사 1제주시, 청년월세 월 20만원씩 최대 12개월 지원 2일상의 배려, 성숙된 시민의식 빛낸다. 3서귀포시, 올해 교통유발부담금 21억 원 부과 4‘2022 Trans Jeju 국제 트레일러닝대회’ 성황리에 폐막 5&lt;정정보도&gt; 해수부 규정 어긴 영상 공모전 입상 의혹, 사실 아닌 것으로 확인 6코로나19 이후 큰 폭 증가 제주 실업자수, 점차 회복세 7최고가 다투는 제주 휘발유 값, 제주도 2차 민간조사 돌입 SPONSORED 신문사소개 기사제보 광고문의 불편신고 개인정보취급방침 청소년보호정책 이메일무단수집거부 RSS 제주특별자치도 제주시 중앙로 270-1 5층(이도이동, 백두빌딩) 대표전화 : 064-725-3456 팩스 : 064-725-3458 명칭 : (주) 미디어제주 제호 : 미디어제주 등록번호 : 제주 아 01003 등록일 : 2005-10-17 발행인 : 고승영 편집인 : 고승영 청소년보호책임자 : 고승영 미디어제주 모든 콘텐츠(영상,기사, 사진)는 저작권법의 보호를 받은바, 무단 전재와 복사, 배포 등을 금합니다. Copyright © 2022 미디어제주. All rights reserved. mail to mediajeju@mediajeju.com 위로</t>
+  </si>
+  <si>
+    <t>관광약자 여행 플랫폼 휴플, 제주도 SW서비스사업화 선정 StartupSquare Startup News Venturesquare 투자 (157+) FAQ × 검색하기 Ventursquare news 2022년 10월 11일 (화) Venturesquare 투자 (157+) 투자포트폴리오 &amp; 관련기사 FAQ 벤처스퀘어에 궁금한 모든 것 관광약자 여행 플랫폼 휴플, 제주도 SW서비스사업화 선정 주승호 기자 2020년 4월 10일 휴플이 정보통신산업진흥원이 공고한 지역 SW서비스 사업화 지원사업에 제주지역의 스타트업 부문에 최종 선정됐다. 본 사업은 4차산업혁명을 주도할 수 있는 지역기반의 SW기업을 육성을 위한 사업으로 제주테크노파크가 위탁운영기관으로 제주지역의 3년 이상 중소기업 2개와 3년 미만 초기스타트업 1개 기업을 최종 선정했다. 선정기업은 2년간 국비와 제주특별자치도청의 지방비로 구성된 지원예산을 통해 제품개발, 품질관리, 시장진출 등의 사업화를 추진한다. 휴플의 관광약자 동반 일정관리 플랫폼 서비스는 관광약자를 위한 사업계획의 취지와 내용이 적절하고 공공데이터 활용을 통한 제주관광객에 유용한 서비스 제공, 특히 보행이 불편한 노약자 등에게 많은 도움이 될 것으로 관광산업발전의 기여 및 기대의 평가를 받았다. 김홍래 휴플 대표는 “지역SW서비스사업화 지원사업을 통해 제주를 찾는 고령자, 임산부, 휠체어 사용자 등 관광약자를 동반한 개별여행자의 여행계획이 수월히 이루어질 수 있도록 제주지역의 데이터 제공기관과 협력하여 관광지역의 안전과 접근성 정보검색이 용이하게 제공되는 플랫폼 서비스로 거듭나겠다”고 밝혔다 한편 휴플은 지난해 11월, 제주창조경제혁신센터의 W360 입주기업 모집에 빅데이터 분야에 사업성을 인정받아 인큐베이팅 지원을 받고 있으며 제주특별자치도 청년일자리사업 참여기업으로도 선정된 바 있다. FacebookTwitterLinkedInPrintLike this:Like Loading... ← 한국신용데이터, 지역별 매출 추이 ‘데이터포털’서 제공 잡플래닛, 뉴스 서비스 ‘컴퍼니타임스’ 오픈 → 뉴스레터신청 광고상품문의 액셀러레이터 등록번호 : 제 2017-24호 I 사업자등록번호 : 211-88-48126 I 인터넷신문 등록번호: 서울, 아01225 I 제호 : 벤처스퀘어 I 발행일자 : 2010년 4월 29일 I 등록일자 2014년 9월 1일 발행, 편집인 : 명승은 액셀러레이션 · 투자 ㅣ서울시 강남구 영동대로 646, 1604호 (위레벤646) 미디어 · 서비스운영 ㅣ서울시 강남구 논현로 337, 304호 (스톤엘리시온) 투자조합 운영 ㅣ경기도 성남시 분당구 대왕판교로 645번길 12, 5층 Copyright © VENTURESQUARE. All Rights Reserved. editor@venturesquare.net %d bloggers like this:</t>
+  </si>
+  <si>
+    <t>초강경 제주도, 자가격리 거부 해외체류 관광객 4명 '출도 조치' &lt; 제주특별자치도 &lt; 행정 &lt; 기사본문 - 제주의소리 상단영역 최종편집 : 2022-10-11 14:42 (화) 뉴스 전체 정치·행정 사회·교육 경제·관광 문화 소리TV 오피니언·매거진 독자의소리 Book世通 기사제보 광고안내 로그인 기사검색 검색 상세검색 NOTICE 제주도, 유상증자 불참 제주항공 신주인수권 전량 매도 제5회 제주국제현대음악제, 20~21일 제주대서 개최 2022 세계유산축전 ‘제주 화산섬과 용암동굴’, 16일까지 진행 법원, 우도 내 삼륜 이동장치 제한 ‘정당’ 제주도 제한 정책 탄력 실업급여 신청자↓, 재취업률↑...제주 고용시장 회복세 더보기 제주의소리 카카오톡 친구가 돼 주세요! 본문영역 이전 기사보기 다음 기사보기 초강경 제주도, 자가격리 거부 해외체류 관광객 4명 '출도 조치' 바로가기 복사하기 본문 글씨 줄이기 본문 글씨 키우기 스크롤 이동 상태바 현재위치 홈 행정 제주특별자치도 초강경 제주도, 자가격리 거부 해외체류 관광객 4명 '출도 조치' 기자명 이승록 기자					(leerevol@naver.com) 입력 2020.04.01 12:09 댓글 48 바로가기 복사하기 본문 글씨 줄이기 본문 글씨 키우기 SNS 기사보내기 페이스북(으)로 기사보내기 페이스북 트위터(으)로 기사보내기 트위터 카카오스토리(으)로 기사보내기 카카오스토리 카카오톡(으)로 기사보내기 카카오톡 네이버밴드(으)로 기사보내기 네이버밴드 URL복사(으)로 기사보내기 URL복사 이메일(으)로 기사보내기 다른 공유 찾기 기사스크랩하기 이 기사를 공유합니다 페이스북(으)로 기사보내기 페이스북 트위터(으)로 기사보내기 트위터 카카오스토리(으)로 기사보내기 카카오스토리 카카오톡(으)로 기사보내기 카카오톡 네이버밴드(으)로 기사보내기 네이버밴드 URL복사(으)로 기사보내기 URL복사 닫기 자가격리 이탈 80대 할머니도 무관용 '고발'...원희룡 "안타깝지만 청정제주 지켜야" 코로나19 브리핑하는 원희룡 제주지사 4박5일 제주여행 후 코로나19 확진 판정을 받은 강남 모녀 탓일까? 제주도가 자가격리 이탈자와 거부한 관광객들에게 '초강력' 조치를 취하고 있다. 제주도는 7번 확진자와 비행기 내 접촉자로 분류돼 3월24일부터 자가격리를 하던 중 무단 이탈한 40대 남성을 고발조치 한 가운데 80대 할머니도 자가격리 위반으로 고발 조치한다.80대 할머니는 강남 모녀 접촉자로 지난 3월25일부터 오는 4월6일까지 자가격리를 시행해야 하는 상태다.하지만 할머니는 31일 낮 12시께 격리장소를 이탈해 지인과 30분 동안 식당에서 머물며 식사를 한 것으로 파악됐다. 원희룡 제주지사는 "80대 할머니가 자가격리를 위반하고, 지인과 점심식사를 했다. 답답한 마음 이해하지만 예외도 있을 수 없다는 차원에서 이 할머니도 형사고발하기로 했다""며 "안타깝고 죄송한 마음이지만 무관용 원칙을 지켜나가겠다"고 말했다.이와 별도로 제주도는 3월31일 제주도에 내려왔던 해외여행 이력이 있는 4명에 대해서도 2주간 자가격리를 거부하자 제주공항에서 곧바로 되돌려 보냈다.제주도에 따르면 31일 필리핀에서 온 가족 3명과 캐나다에서 온 1명이 김포공항에서 제주로 내려왔다. 4월1일부터 해외체류 이력자는 '2주간 의무 자가격리'를 해야 한다.이들은 3월31일 국내에 들어왔고, 제주에 왔기 때문에 '의무 자가격리'는 대상은 아니다.하지만 제주도는 '특별입도절차'에 따라 이들 4명에 대해 '2주간 자가격리'를 요구했다. 이들 4명은 제주도의 조치에 대해 '거부' 의사를 밝혔다.제주공항에서 이들은 제주도의 조치에 항의하기도 했지만 제주도는 결국 이들을 '출도 조치'했다.이들은 코로나19에서 비교적 청정지역이라고 할 수 있는 제주에서 일정기간 체류하다가 서울로 가려고 했던 것으로 알려졌다.원희룡 지사는 "의무적 자가격리 조치가 시행되기 전에 제주에 왔지만 제주도는 특별입도절차를 시행하고 있다"며 "이들 4명에게 자가격리를 요청했고, 거부하자 출도 조치를 했다"고 말했다. 이승록 기자 leerevol@naver.com 다른기사 보기 저작권자 © 제주의소리 무단전재 및 재배포 금지 개의 댓글 회원로그인 작성자 비밀번호 댓글 내용입력 0 / 400 등록 댓글 정렬 최신순 추천순 답글순 더보기 댓글삭제 삭제한 댓글은 다시 복구할 수 없습니다. 그래도 삭제하시겠습니까? 비밀번호 삭제 닫기 댓글수정 댓글 수정은 작성 후 1분내에만 가능합니다. 본문 / 400 비밀번호 수정 닫기 내 댓글 모음 닫기 인기뉴스 댓글설전 실시간댓글 1 증인 출석 요구에 택배 3사 ‘백기’ 600억원 제주 택배비는 ‘깜깜’ 2 휘발유보다 비싼 경유 300원 최대 격차 ‘제주 곳곳서 아우성’ 3 3년 만에 대면 행사 14~15일 제주광어 대축제 4 인사 제주시 2022년 하반기 사무관 6명 승진 의결 5 제주·서귀포 전 시민대상 2022년 주민등록 사실조사 실시 6 ‘섬 속의 섬’ 제주 우도 삼륜 이동장치 제한 정책 향방 ‘촉각’ 7 ‘부의(附議)’ ‘입회(立會)’ 제주 조례 속 일본식 표현 삭제 8 운명의 인천 원정 갖는 제주Utd, ACL ‘경우의 수’ 우위를 점하라! 9 ‘기부와 나눔 축제’ 아름다운제주마라톤 D-14, 3년만에 다시 달린다 10 제주 한림 목조 펜션에서 불…인명피해 없어 1 증인 출석 요구에 택배 3사 ‘백기’ 600억원 제주 택배비는 ‘깜깜’ 2 “모든 관객·시청자가 자막 없이 제주어 대사 알아듣는 날 오길” 3 ‘15분 도시’ 창시한 프랑스 학자, 제주 찾아 “주민 공감대 형성 중요” 4 휘발유보다 비싼 경유 300원 최대 격차 ‘제주 곳곳서 아우성’ 5 한문 대신 알기 쉬운 한글 가득한 절집 제주 남선사 “부처님 좋은 말씀 우리말로” 6 ‘섬 속의 섬’ 제주 우도 삼륜 이동장치 제한 정책 향방 ‘촉각’ 7 ‘부의(附議)’ ‘입회(立會)’ 제주 조례 속 일본식 표현 삭제 8 10억원 투입 제주 마을어장에 종자 91만 마리 방류 9 운명의 인천 원정 갖는 제주Utd, ACL ‘경우의 수’ 우위를 점하라! 10 제주 예외 아닌 교권침해, 일방적 희생 강요 안돼 1 선거꾼 하나.. 선거운동 도와주고서 연봉 1억 넘는 자리 꿀꺽했구나.. 여론조사 전문가가 감사 활동 잘 할거다? 목에서 소리를 낸다고 말이 되거나 글자로 표현한다고 글이 되는 것은 아니다. 2 제주답게 만들기를~~ 3 이런 얼치기 주의자들이 판치는 제주를 언제까지 봐줘야 할건지~~ 4 교권침해? 정말 심각한 현실을 만든 사람은 바로 형평성이나 현실인식이 부족한 어설픈 학생인권론자들 아닌가요? 그동안 학생인권이 어쩌네 하면서 대다수 교사를 범죄자 취급하던 비현실적인 학생인권강화가 지금과 같은 교권 침해를 만들어낸거죠 학생인권이라는 명목하에 벌어지는 교권 침해에 모든 피해는 학생에게 돌아갈 수 밖에 없습니다. 이젠 선생님들이 문제학생들과 상대조차 하기 싫어하고 문제 학부모와는 형식적인 상담 밖에 안이루어집니다. 제주를 대표하는 삼*초 징역8년 사건, 처음에 그 사람말만듣고 해당 교사와 학교당국에게 손가락질 하던 사람들이 누구였나요? 학생의 잘못을 눈감게 만드는 교육현실, 그 피해는 학부모와 학생에게 갈수 밖에 없습니다. 5 아직도 초등학교 애들 구렛나루털을 손으로 쥐어서 한움큼 뽑아서 피부에서 피가 송글송글 맺히게 했던 그 씨발 선생놈이 생각난다 그때 생각하면 너네는 좀 더 당해도 싸다 6 [제주의소리] 관리자입니다. 지적해주신 부분 수정했습니다. 감사합니다. 7 남은 경기 전승하면 58점, 포항이 전패하면 55점 3위 가능합니다 8 못간다 9 놀래기류 어류에 먹이주는 수산자원조사업 이제 그만해야 10 지구온난화 등 기후변화가 계속 되는데 수산자원조성사업은 변화가 없다 … 전복, 오분자기 등 패류종자 방류사업 이제는 그만해야 … 관련 전문가들은 무엇을 하는지? + 기획/특집/칼럼 혼디 골아봅주 ‘티핑 포인트의 세대’ 지금 우리에게 필요한 것은 대한민국의 역사 4·3 성 프란치스코 평화센터, 김종민 위원 초청 ‘4.3과 평화’ 강의 제주특별법 공동기획 68만 중 50만 집중 기형적 제주...“신교통·대중교통 확대 급선무” 제주댁, 음식it수다 제주에선 멩질도 식게도 “먹으러 가게”…함께 나누는 팔월 멩질 제주어로 여는 talk 끗어내엉 써사 달란틉주 서명숙의 올레길 편지 제주올레 여행자센터에서 만난 재외 동포들 아시아 섬의 평화예술 ‘인민의 정의’의 혼란: 다중 해석 소리 시선 기초학력보다 교육 격차와 다양성에 주목해야 하는 이유 코코어멍 동물愛談 잔혹한 동물학대의 섬 제주도 '이대로는 안 된다' 시인이 쓰는 마을책방 가장 멀고도 가장 가까운 책방 인권왓 칼럼 민간위탁은 행정의 외주화, 원청 제주도정은 노동자 위한 책무 다해야 김경희의 노동세상 사업주 지시 없이 일하다가 발생한 사고, 산업재해일까? 김길웅의 借古述今 아이 행실광 몽닌 우던(덥덜)으로 간다 한라산 식물 이야기 척박함에도 꽃 피우는 진실한 사랑·우정 ‘바위떡풀’ BOOK世通, 제주읽기 신실주의(神實主義) 글쓰기의 매혹 살며詩 한 편 가을은 뒷모습의 계절이다 이영웅의 지금 제주는 우리 사회의 지속가능한 미래를 위한 선택 한국전쟁과 제주 제주도·모슬포 ‘부(負)의 유산’ 너머 ‘평화의 길’로 양은희의 예술문화 중광 작고 20주년, 중광미술관의 미래 부모아카데미 “자녀들 글쓰기 습관 어렵죠? 관심과 흥미 갖게 해야” 이어가게, 고치가게 지우개 깎던 ‘목발 소년’ 40여년 수제도장 장인의 길 걷다 장일홍 세상이야기 얼굴에 얽힌 일화 보멍 쉬멍 사람은 나무를 닮는다고 했습니다 주민이 주인이다-제주 마을이야기 ‘풍차와 해녀의 마을’에 깃든 광해의 흔적 양동규의 film·筆·feel 남아있는 기억의 흔적 하승수, 제주와 자치 이야기 ‘불편한 이야기’ 제주 국회의원 선거 이대로 좋은가? 고충석의 칼럼과 에세이 사이 후흑의 정치기술과 박근혜의 몰락 독자의소리 새벽녘 제주 하늘에 신비한 ‘빛기둥’ 수십개 “신기하네” 보·받는 사람 효돈감귤을 제주도에선 젤 알아줍니다 윤봉택의 탐나는 올레 마음 멍 때리며 순례하는 제주올레 15-A코스 제보안내 광고안내 뉴스스탠드 모바일 카카오톡 카카오스토리 페이스북 트위터 유튜브 회사소개 연혁 개인정보취급방침 이메일무단수집거부 청소년보호정책 댓글 관리운영기준 만드는사람들 제주특별자치도 제주시 첨단로 213-65 제주종합비즈니스센터 4층 제보 및 각종문의 : 064-711-7021~2 팩스 : 064-711-7023 사업자등록번호 : 616-81-46760 등록번호 : 제주 아 01002 등록일 : 2005-10-14 발행인 : 문성윤 편집인 : 김봉현 청소년보호책임자 : 김봉현 제주의소리 모든 콘텐츠(영상,기사, 사진)는 저작권법의 보호를 받는 바, 무단 전재와 복사, 배포 등을 금합니다. Copyright © 2022 제주의소리. All rights reserved. mail to news@jejusori.net 위로 전체메뉴 전체기사 우리동네 전체 제주시 서귀포시 제주도 행정 전체 제주특별자치도 제주시 서귀포시 읍면동 정치 전체 도의회 국회·정당 선거 여론조사 4.11 도의원 보궐선거 시민칼럼 박근혜와 제주 한동주 게이트 6.4지방선거 저 출마합니다 6.1지방선거 6.1지방선거 저, 출마합니다 경제 전체 금융 산업·기업 경제일반 사회적경제 MICE&amp;NICE 제주워터페스티벌 제주한라대, 힘내라 가족회사 1회 조합선거 블루오션 제주 특성화고, 인재들이 뛴다 감귤 1차산업 사회 전체 날씨 사회일반 사건사고 법원·검찰 4.3 해군기지 교육 환경 메르스 제2공항 독자위원회 탄핵 지역이 희망이다 소리多 소리後 창간15주년 독자의소리 탐나는가치 맵핑 맛과여행 문화 전체 문화일반 공연·전시 학술·문화재 책 영상·미디어 제주멋&amp;맛 제주여행 UCC 공모전 인문의 바다 사진으로 본 '야스쿠니' 제주비엔날레-탐라순담(耽羅巡談) 밭담, 디자인으로 제주를 담다 관광 전체 관광일반 여행 축제 맛집·쇼핑 오피니언 전체 김국주의 경제칼럼 강종우의 일요편지 고현승 중국통신 박경훈의 제주담론 신용인 칼럼 양길현 칼럼 양영철 칼럼 이재홍의 데스크칼럼 이지훈 칼럼 하승수의 자치이야기 허진영 칼럼 취재수첩 진관훈 칼럼 김호성 칼럼 김승석 칼럼 기고 고운호 칼럼 김동욱 칼럼 이영권의직설화법 고유기 칼럼 김학준 칼럼 김현돈의살며생각하며 고희범 칼럼 의정칼럼 오성 스님의 편지 고병수 칼럼 홍성직의 또다른 눈으로 세상보기 김한욱 칼럼 고충석 칼럼 김경환 칼럼 현문권 칼럼 신재경 칼럼 허남춘 칼럼 박형근 칼럼 문성종 칼럼 권영후 칼럼 김동현 칼럼 박호범 칼럼 인터뷰 강민철 칼럼 다른 밥상 다른 세상 백승주 칼럼 양상호 칼럼 시민칼럼 허영섭 칼럼 정신지 칼럼 숨, 쉼 고홍철 칼럼 문대림 칼럼 고현수의 복지칼럼 홍영철 칼럼 김관후 칼럼 데스크 칼럼 기자 칼럼 정경호 칼럼 김헌범 칼럼 장일홍 세상이야기 강정홍의 또다른 이야기 뉴욕명랑의 제주살래 주강현 칼럼 신백훈, 史記로부터 배우는 인생 허갑중의 '제주, 세계적인 관광지로의 도약' 이유근 칼럼 고성준 칼럼 건강 365 강문규 칼럼 박형근 칼럼 강영삼 칼럼 김의근 칼럼 김수종 칼럼 이종우 칼럼 신재경 칼럼 김승석 칼럼 양기혁 칼럼 양은희의 예술문화 BOOK世通, 제주읽기 황경수 칼럼 강숙영 칼럼 김종민의 다시쓰는 4·3 강종우의 여럿이 함께 홍경희의 점빵 월령가 전문가 칼럼 허남춘 칼럼 제주풍습 속 숨겨진 금융상식 일자리를 위한 새로운 상상력 이영웅의 지금 제주는 소리 시선 김경희의 노동세상 제주 청진기 하간·소리 공동기획-포토파일 김재원의 영어어휘 톡톡 talk-talk 인권왓 칼럼 평화예술칼럼 강충민의 보·받는 사람 짧은 글, 긴 생각 혼디 골아봅주 고충석의 칼럼과 에세이 사이 안재홍의 교육春秋 양동규의 film·筆·feel 하승수, 제주와 자치 이야기 제주 바람과 바람 매거진 전체 아카데미 대학생 기자단 청소년 인문학 기자단 '와랑' 장태욱의 제주 지질기행 김정숙의 제주신화 이야기 강은미의 문학카페 신재경의 일본야구 A to Z 재일동포 그들은 누구인가 초짜여행가 양기혁의 중국횡단기 길을 걸으며 길을 묻다 이승택의 도시읽기 제주, 몽골을 만나다 몽생이 김홍구, 오름속으로 이승안의 클래식 산책 현대예술의 중심, 베를린에서 보낸 편지 함께하는세상 김강임의 제주 오름기행 한라산 만인보 변방의 섬에서 상생의 길을 찾다 착한 경제 제주民의 저항史 강충민의 사람사는 세상 장태욱의 제주기행 오성스님의편지 오르미의 제주여행 제주여성 문화유적 100 제주 세계7대 자연경관 제주사람이 쓰는 제주이야기 고봉선의 꽃과 함께 망장포 귀촌 이야기 양용진의 제주음식이야기 강충민의 제주맛집 김건석의 바당에 살어리랏다 고현주의 꿈꾸는 카메라 정신지의 걸으멍 보멍 들으멍 바람섬 숨, 쉼 김학준의 교육소비자 협동조합 문무병의 제주, 신화 오승주의 책놀이책 Q&amp;A 장태욱의 '野'한이야기 코코어멍 동물愛談 양기혁이 떠난 러시아 여행 나눔의 기쁨 유배, 꽃을 피우다 눈사람 레코드 김동필의 제주전통목기 건강 365 시를 먹고자라는 식물원 2015 나눔보따리 밥집아줌마의 세상엿보기 사진가 이겸, 제주 중산간을 걷다 제주 생태관광 이야기 김수열 시인의 도시락 산책 전기차 콘셉디자인 어워드 오승주의 어·부·가 윤창훈의 과학이야기 장태욱 여행기 부모아카데미 이야기속 제주 표트르의 도시에 가다 박경호의 제주 사람책 제주 항몽유적의 문화자원화 오승주의 어·부·책 조남희, 제주사름으로 살기 어리숙한 농부의 농사일기 2016 제주시민 인문학 강좌 제주 밥상 이야기 질문이 있는 나의 그림책 살며詩 한 편 논어와 동서양 고전의 향연 제주밭담 시간여행 점빵 월령가 한라산 식물 이야기 제주섬의 산물 제주4·3은 대한민국의 역사입니다 4차 산업혁명 제주 아카데미 영화적 인간 세상을 바꾸는 10대들의 글쓰기 2018년 학생 흡연 등 중독예방·치유 프로그램 오승주의 책놀이책 Q&amp;A 정수진의 About 풋볼 김길웅의 借古述今 정은광의 제주 산책 제리뉴스 우리도 교육주체다 4.3 특별법 개정 촉구 릴레이 시화전 제주댁, 정지에書 시인이 쓰는 마을책방 서명숙의 길 위에서 전하는 편지 제주도롱뇽 관찰일기 윤봉택의 탐나는 올레 남북소통공감아카데미 레포츠 전체 스포츠 연예 제주 Utd 경마 마라톤 전국체전 기획/특집 전체 재선충병 전쟁 지금은 제주 주거복지, 해법은 4.3 기획 4.3과 예술 강정영화제 릴레이 기고 제주 영화인 릴레이 기고 곶자왈의 눈물 꿈틀대는 제주 청년 특별자치 10년, 어디까지 왔나 현대극장을 지켜야하는 이유 아트페어 전성시대 하수처리 대란 제주도의원 선거구획정 빚에 짓눌린 제주 위기의 곶자왈 장미대선, 제주 어젠다 5.9대선, 제주의 선택은? 사각지대 놓인 제주 비지정문화재 4.3 70주년 D-1년 대중교통 개편 제주올레 10년 하와이와 제주, 그리고 다크투어리즘 소리多 클낭 2018 지방화시대, 제주 분권을 말하다 창간15주년 숫자로 보는 제주 클낭 2019 소리後 한국전쟁과 제주 제주 ‘女 氣UP’ 창업현장 제주의소리-제주MBC 공동기획 명쾌한 週 제주특별법 공동기획 대선 예비주자 人터뷰 탐라의 나들목 건들개, 다시 피다 주민이 주인이다-제주 마을이야기 제주 스마트시티 챌린지 사람들 전체 화촉 부고 행사·모임 동정 인사 훈훈뉴스 이재홍이 만난 사람 오늘의 운세 사회복지뉴스 인터뷰 미친이웃 사고 소리TV 공모전 전체 그리운 어머니, 보고싶은 아버지 사랑의 사진 공모전 English News 전체 jejuweekly 이도영의 시사영어 세계 7대자연경관 테스트 생중계 갤러리 소리톡 이슈 테크플러스 제주 행정자치위원회 전체 강경식 박규헌 박원철 윤춘광 위성곤 장동훈 현정화 복지안전위원회 전체 고충홍 박주희 박희수 안창남 오영훈 이선화 환경도시위원회 전체 김경진 김명만 김태석 손유원 신영근 한영호 문화관광위원회 전체 강창수 김용범 김진덕 김희현 소원옥 신관홍 농수축·지식산업위원회 전체 구성지 김도웅 방문추 안동우 좌남수 하민철 교육위원회 전체 강경찬 김영심 문석호 오대익 오충진 윤두호 이석문 허진영 현우범 앱 전체 메인탑뉴스 섹션탑뉴스 중요뉴스 갤러리 제외 한줄뉴스 온라인이슈 전체 정치 경제 사회 문화 스포츠 선거 전체 4.13총선 5·9 대선 6.13 지방선거 연재 협약취재 전체 제주형 도시재생, 길을 묻다 세계중요농업유산 제주밭담 한의약, 건강 제주의 꿈 탐라의 중심, 제주의 관문 '용담' 제주6차산업人 소리-현장 전체메뉴닫기</t>
+  </si>
+  <si>
+    <t>[전국]제주도, 자가격리 거부 해외방문 관광객 4명 돌려보내 | YTN 메뉴 바로가기 본문 바로가기 푸터 바로가기 메뉴 YTN HOME 뉴스알림 라이브 편성표 제보 로그인·회원가입 검색하기 분야별 뉴스 와플뉴스 YTN star 다시보기 제보 시청자센터 알립니다 특집 프로젝트 광고·비즈니스 디지털 서비스 분야별뉴스 분야별 뉴스 메인최신뉴스많이 본 뉴스속보·알림단독정치경제사회전국국제과학문화스포츠날씨재난 와플뉴스 와플뉴스 메인최신뉴스자막뉴스제보영상국경 없는 세상한방이슈제보, 그 후뉴스케치소파트래블러와이파일리플레이운세 YTN star YTN star 메인최신뉴스방송가요영화Y이슈해외연예반말인터뷰와이티엔 스타뉴스 다시보기 다시보기 메인 지금 막 올라온 많이 보는 시사 다큐 과학 교양 채널 별 YTN 와플뉴스 YTN 스타 YTN 월드 YTN 코리안 YTN 사이언스 YTN2 YTN 라디오 YTN DMB 제보 제보 메인제보하기제보랭킹최신제보 시청자센터 시청자의견시민데스크시청자브리핑 시시콜콜시청자 위원회고충처리위원회사이버감사실견학신청성폭력 신고센터 알립니다 공지사항채용공고경품이벤트채널 안내위치 및 연락처이용 도움말 특집 프로젝트 리스펙트 프로젝트SMILE TO VOTE뉴미디어 리터러시2020 국회의원선거2021 재보궐선거2020 도쿄올림픽2022 대통령선거2022 베이징올림픽2022 지방선거 광고 비즈니스 TV광고큐톤시간표인터넷·모바일 광고해외 광고사업 제휴동영상 뉴스 판매오디오 음원 판매뉴스·프로그램 공급 디지털 서비스 뉴스알림 모바일APP 리더스 뉴스레터 유튜브 페이스북 트위터 인스타그램 네이버채널 네이버TV 네이버밴드 틱톡 데일리모션 24시간 라이브 방송 [오늘의 운세] 2022년 10월 11일 띠별 운세 [이슈그리고] "뜨고 싶어서?"...한동훈 지휘 의혹 제기에 여당... 신혜성 측 "만취해 남의 차 모르고 운전, 변명의 여지 없다...... 감사원 국감, 시작부터 '파행'...친일 국방 논란 계속 ‘히잡 반대 시위' 이란 여성들 잇따라 숨진 채 발견 메뉴 닫기 YTN 로그인 로그인 회원가입 검색하기 제주도, 자가격리 거부 해외방문 관광객 4명 돌려보내 댓글 달기 공유하기 LIVE 이 시각 주요뉴스 이 시각 주요뉴스 주요뉴스 닫기 尹 "핵 위협 앞에 정당화될 수 있나"...野 '친일 ... 코스피, 2,200선 붕괴...환율, 장중 1,430원 돌파 "낙엽따라 우수수" 탈모의 계절, 자가진단 이렇게 서울 학교 비정규직노조, "폐암으로 죽어가"...급... [이슈그리고] "뜨고 싶어서?"...한동훈 지휘 의혹 제... "자존심 살리려는 절박함"...러시아 보복 공습으로 전... 공유하기 공유창 닫기 페이스북 트위터 밴드 카카오톡 링크 복사하기 메뉴 닫기 검색하기 LIVE 분야별뉴스 와플뉴스 YTN star 다시보기 제보 코로나19 실시간 주요뉴스 이전 이재명 "與, 해방 후 친일파 행태…尹, 국민께 소명해야" 尹 "핵 위협 앞에 정당화될 수 있나"…野 '친일 국방' 공세 일축 정진석 "조선, 내부에서 썩어 문드러져 망해"…발언 놓고 논란 서울청장 "이준석, 지난 주말 소환 조사…무고 혐의 등 곧 결론" 감사원 국감, 오전 내내 '파행'…친일 국방 논란 계속 민주 "여가부 확대·개편 필요"…폐지안에 공식 반대 ‘히잡 반대 시위' 이란 여성들 잇따라 숨진 채 발견 "자존심 살리려는 절박함"…러시아 보복 공습으로 전황 격화 우려 서울 도심에서 50대 권총 맞아…극단적 선택 추정 신혜성 측 "만취해 남의 차 모르고 운전, 변명의 여지 없다…죄송"(전문) 회삿돈 5억 빼돌리고 잠적…안성 지역농협 직원 검찰 송치 동시계약 허점 노려 전세대출금 가로채…'신종 사기' 적발 오늘부터 개량백신 접종…신규 확진 1만 5,476명 체중 20% 쏙…당뇨약→비만약 '대박' 터졌다 국민연금 자발적 가입자 5년만에 첫 감소세…건보개편 영향 우려 물가 오름세에 '구제 시장'도 한숨…"손님 있어도 안 사요" "자격시험 도중 화장실 못하게 하는 건 인권 침해" 학력 전수평가 5년 만에 사실상 부활…초3~고2로 확대 유엔, 러시아 규탄 긴급 총회…사무총장 "위기 고조 용납 못해" "6∼9개월 내로 美·세계 경제는…" JP모건의 경고 日, 2년 7개월 만에 한국인 무비자 관광 재개…전국 여행지원도 다음 전국 제주도, 자가격리 거부 해외방문 관광객 4명 돌려보내 2020년 04월 01일 17시 11분 댓글 글자크기 조정하기 글자크기 조정하기 글자 크기 조정창 닫기 매우 작은 크기 폰트 작은 크기 폰트 보통 크기 폰트 큰 크기 폰트 매우 큰 크기 폰트 인쇄하기 공유하기 공유하기 페이스북 트위터 밴드 카카오톡 링크 복사하기 공유창 닫기 제주도는 2주간 자가격리를 거부한 해외여행 이력이 있는 관광객 4명에 대해 공항에서 곧바로 되돌려 보냈습니다. 공항에서 돌려보내진 사람은 필리핀에서 온 가족 3명과 캐나다에서 온 관광객 1명 등입니다. 제주도는 특별 입도 절차에 따라 이들에게 '2주간 자가격리'를 요구했지만, 거부 의사를 밝혀 결국 되돌려 보냈다고 밝혔습니다. 이들은 제주에서 일정 기간 머무른 뒤 서울로 가려고 했던 것으로 알려졌습니다. 제주도는 이와 함께 자가격리 중 무단이탈해 지인과 30여 분 동안 식당에서 식사한 80대 할머니도 무관용 원칙에 따라 고발 조치할 예정입니다. ※ '당신의 제보가 뉴스가 됩니다' YTN은 여러분의 소중한 제보를 기다립니다. [카카오톡] YTN을 검색해 채널 추가 [전화] 02-398-8585 [메일] social@ytn.co.kr [온라인 제보] www.ytn.co.kr[저작권자(c) YTN 무단전재 및 재배포 금지] 전국 기사목록 전체보기 충북 청주시 '오송역'→'청주 오송역' 변경 추진 [서울] 서울시, 'I·SEOUL·U' 대체 브랜드 12월 개발 완료 [서울] 서울시, 'I·SEOUL·U' 대체 브랜드 12월 개발 완료 경찰, '대전 아웃렛 화재' 관련 현대백화점 본사 압수수색 YTN 미디어그룹 YTN 회사소개 INSIDE YTN YTN 사이언스 YTN 라디오 YTN2 YTN dmb YTN world YTN korean 남산서울타워 시청자센터 시청자의견 시민데스크 시청자브리핑 시시콜콜 시청자 위원회 고충처리위원회 사이버감사실 견학신청 성폭력신고센터 알립니다 공지사항 채용공고 경품이벤트 채널 안내 해외 리포터단 신청 위치 및 연락처 이용 도움말 광고 및 비즈니스 TV광고 큐톤시간표 인터넷·모바일 광고 해외 광고 사업 제휴 동영상 뉴스 판매 오디오 음원 판매 뉴스·프로그램 공급 약관 및 정책 이용약관 개인정보처리방침 청소년보호정책 기사배열 기본방침 디지털 서비스 모바일 APP 뉴스알림 리더스 뉴스레터 유튜브 페이스북 트위터 인스타그램 네이버채널 네이버TV 네이버밴드 틱톡 데일리모션 ㈜와이티엔 서울특별시 마포구 상암산로 76(상암동) | 대표자: 우장균 | 대표전화: 02-398-8000 | 팩스: 02-398-8129사업자등록번호: 102-81-32883 Copyright (c) YTN. All rights reserved. 모든 컨텐츠(기사)는 저작권법의 보호를 받은바, 무단 전재·복사·배포를 금합니다.</t>
+  </si>
+  <si>
+    <t>제주도관광협회, ‘관광약자 편의시설 지원사업’ 접수 - 뉴제주일보 × 전체기사 정치/행정 전체 제주도정 청와대 도의회 국회 선거 후보자 정부 도내정가 재·보궐 선거 북한 社告 중앙정가 국정감사 조합장선거 제주시 갑 제주시 을 서귀포시 경제 전체 경제일반 금융 창립기념일 손해사정사 이명헌의보험이야기 사회 전체 사회일반 법원검찰 경찰 기상 사건·사고 사회단체 의료 횡단로 교육/과학 전체 대학 교육청 일반 과학 어린이판 지역 전체 제주시 서귀포시 문화 전체 일반 공연 영화/연예 전시 홈닥터 해연풍 사진으로 본 제주 시와 그림으로 보는 제주어 스포츠 전체 일반 백호기 야구 축구 육상 농구 배구 골프 동계스포츠 태권도 배드민턴 우슈 수영 탁구 체조 레슬링 유도 정구 양궁 격투기 검도 바둑 경마 댄스 올림픽 사람과 사람 전체 동정 프로필 인터뷰 오피니언 전체 사설 부영주 칼럼 "아침" 홍성배 칼럼 제주포럼 기자수첩 기자석 김미영의 뷰티톡 김태윤 박사의 환경, 그리고 인생 이야기 김호성의 정치·행정 이야기 정영민 변호사의 법 이야기 김원현의 아동성장 이야기 제주칼럼 제주시론 제주광장 정흥남 칼럼 강은숙의 가정법률이야기 김종배의 세상털기 배진섭의 공연 이야기 한동명 변호사의 법률 Q&amp;A 제주만평 열린페이지 전체 제주기고 결혼 부음 알림 인사 보도자료 제주 4·3 전체 4.3길을걷다 국제 진행중인 기획 전체 제주어바웃 食(식) 기행 문희주의 제주오롬 스토리 이세끼 주제주일본국총영사가 만난 제주 문화예술산책 송재웅의 책 이야기 김창집의 길이야기 임안순의 농농농 제주&amp;제주인 메이드인 제주 JDC와 함께하는 제주야 시민기자가 뛴다! 창간특집 신년특집 새해설계 기획총괄 특별기획 제주 커피로드 서재철의 섬기행, 섬을 걷다 셰프 인 제주 아이♥제주 제주 농업, 청년이 미래다 종료된 기획 전체 제주미래성장동력,자연에서 찾는다 jdc의 여정과미래 代를 잇는 제주기업 2017 생명을 지키는 약속 내일을 JOB자! 특성화GO! 희망! 나래를 펴다 新제주인 공감愛공간 탐라에서 세계로 제주&amp;제주인 더불어 제주 생존수영 경제매거진 IN제주 메이드인제주ll-향토기업 총선 열전현장 총선 일반 4.13 총선 여론조사 제20대 4.13총선후보에게듣는다 총선브리핑 2017 대권주자에게듣는다 도지사 교육감 도의원(제주시) 도의원(서귀포시) 교육의원 유권자가 주인이다 민심탐방 포토에세이 제주의 독립운동가를 찾아서 제주경제, 위기를 기회로 제주인 life 국제전기자동차 엑스포 나눔ㆍ봉사ㆍ행복 삶다도 실력이 인정받는 제주 시네톡 제주한의약, 그 역사속으로 김창집의 올레이야기 2016 우리는 제주 인포그래픽 제주의 마을속으로 자연의 역습 기후변화 나눔이 희망 입니다 4·3 길을 걷다 희망을 나누는 사람들 특성화고 날개를 달다 10대, 나도 저자다! 위클리 커버 제주동네책방 탐방 사서가 추천하는 이달의 도서 시민 문화기획자를 만나다 서재철의 오지기행 화촉 라이프 전체 레저 건강 출판/문학 부고 동영상 인사 방송동영상 현안 진단 뉴스 전체 방송/연예 6·13 지방선거 LIFE in BIZ 전체 일반 최종편집일. 2022-10-11 14:50 (화) 로그인 회원가입 모바일웹 정치 경제 사회 교육/과학 지역 문화 스포츠 기획 오피니언 화촉 부음 기사검색 검색 제주해경, 겨울철 어선 화재 예방 나선다 제주해경, 겨울철 어선 화재 예방 나선다 제주지방해양경찰청(청장 김인창)은 겨울철 어선 화재 예방 홍보 캠페인과 관계기관 합동 점검에 나선다고 11일 밝혔다.제주해경에 따르면 2019년부터 지난해까지 도내에서 발생한 선박... 제주경찰, 찾아가는 가해자 교화 프로그램 운영 제주경찰, 찾아가는 가해자 교화 프로그램 운영 제주경찰청(청장 이상률)은 11일부터 '찾아가는 가해자 교화 프로그램'을 운영한다.찾아가는 가해자 교화 프로그램은 경찰서 유치장에 유치된 '고위험군 여성폭력 ... SNS P  D  F 지면보기 이전 다음 제주도관광협회, ‘관광약자 편의시설 지원사업’ 접수 기사공유하기 프린트 메일보내기 글씨키우기 가나다라마바사 가나다라마바사 가나다라마바사 가나다라마바사 가나다라마바사 가나다라마바사 HOME 경제 경제일반 제주도관광협회, ‘관광약자 편의시설 지원사업’ 접수 문유미 기자 승인 2020.04.16 18:24 댓글 0 기사공유하기 프린트 메일보내기 글씨키우기 가나다라마바사 가나다라마바사 가나다라마바사 가나다라마바사 가나다라마바사 가나다라마바사 이 기사를 공유합니다 페이스북 트위터 카카오스토리 구글+ 네이버밴드 네이버블로그 네이버폴라 핀터레스트 URL복사 × 도내 관광사업체를 대상으로 관광약자의 접근성 향상을 위한 시설·장비 지원사업이 실시된다. 제주특별자치도와 제주특별자치도관광협회(회장 부동석)는 16일부터 오는 29일까지 ‘사설관광지 관광약자 편의시설 정비지원 사업’에 참여할 업체를을 공개모집한다고 밝혔다. ‘사설관광지 관광약자 편의시설 정비지원 사업’은 관광약자의 이동권 및 접근권 보장을 통해 관광 향유권의 확대와 복지관광 활성화를 도모하기 위한 사업이다. 사업 대상은 사설관광지와 숙박·음식업 등 관광약자 편의시설이 필요하다고 요구되는 도내 관광사업체로, 시설부분(주출입구 접근로 등)과 장비부분(휠체어 등)에 대해 업체당 최대 700만원까지 지원된다. 참여 신청은 제주도관광협회를 직접 방문하거나 팩스·이메일을 통해 접수할 수 있다. 신청서류 등 자세한 내용은 제주도관광협회 홈페이지에서 확인할 수 있다. 문유미 기자  moon@jejuilbo.net 저작권자 © 뉴제주일보 무단전재 및 재배포 금지 문유미 기자 다른기사 보기 댓글삭제 삭제한 댓글은 다시 복구할 수 없습니다. 그래도 삭제하시겠습니까? 비밀번호 삭제 × 댓글 0 제8회 전국동시지방선거 (예비)후보자 및 그의 배우자, 직계존·비속이나 형제자매에 관하여 허위의 사실을 유포하거나, 이들을 비방하는 경우 「공직선거법」에 위반됩니다.대한민국의 깨끗한 선거문화 실현에 동참하여 주시기 바랍니다. - 중앙선거관리위원회- 로그인 이름 비밀번호 내용 0 / 400 등록 댓글쓰기 계정을 선택하시면 로그인·계정인증을 통해 댓글을 남기실 수 있습니다. 회원 로그인 이름 비밀번호 자동등록방지 확인 × 최신순 추천순 인기기사 1파란하늘 2제주 남서부 지역 올 가을 최저기온…당분간 쌀쌀한 날씨 3제주선수단, 전국체육대회 메달 목표 달성 4제주 들개 계속 잡아도 가축 피해 증가세 5오토바이 단독 교통사고로 40대 중상 6‘60돌’ 탐라문화제 대장정 마무리…‘제주인 화합 대축제’ 입증 7외국인 렌터카 과태료 ‘먹튀’, 차단 왜 머뭇거리나 8조선시대 노블레스 오블리주 ‘거상 김만덕’ 나눔행렬 잇따라 9"척박한 제주에서 돕지 않으면 생존 불가능…힘들 때일수록 도와야" 10제주지검 스토킹범 구속률 33.3% 전국 세번째 높아 신문사소개 고충처리인 기사제보 광고문의 불편신고 개인정보취급방침 청소년보호정책 이메일무단수집거부 RSS 제주특별자치도 제주시 서사로 25 3-5층(삼도이동, 수정빌딩) 대표전화 : 064-757-3114 광고·구독 : 064-757-5000 편집국 FAX : 064-756-7114 영업본부 : 064-702-7114 법인명(단체명) : 주식회사 제주일보방송 등록번호 : 제주 아01134 등록일 : 2021-09-07 대표자 : 김대형 발행인 : 김대형 주필 : 부영주 편집인 : 부영주 편집국장 : 부남철 뉴제주일보 모든 콘텐츠(영상,기사, 사진)는 저작권법의 보호를 받은바, 무단 전재와 복사, 배포 등을 금합니다. 청소년보호책임자 : 김대형 Copyright © 2022 뉴제주일보. All rights reserved. mail to webmaster@jejuilbo.net 위로</t>
+  </si>
+  <si>
+    <t>미디어제주 × 전체기사 뉴스 전체 정치 경제 사회 문화 교육 스포츠 사람들 포토뉴스 Advertorial section 기획특집 전체 생생스포츠현장 박물관, 그리고 제주 이야기 이사람 이주민, 그들을 말한다 다 함께 사는 세상 해외 특파원 보고 교육! 학교 현장 기획특집 미디어누리 전체 어린이기자 시민기자 청소년기자 오피니언 전체 미디어窓 미디어칼럼 건강칼럼 기고 미디어TV 전체 영상뉴스 UCC동영상콘테스트 유치부축구대회 시정가이드 전체 제주시 서귀포시 최종편집 2022-10-11 14:45 (화) 로그인 회원가입 모바일웹 전체 뉴스 전체기사 정치 경제 사회 문화 교육 스포츠 사람들 포토뉴스 Advertorial section 기획특집 박물관, 그리고 제주 이야기 이사람 다 함께 사는 세상 해외 특파원 보고 교육! 학교 현장 미디어누리 어린이기자 시민기자 기사쓰기 오피니언 미디어窓 미디어칼럼 건강칼럼 기고 행사 유치부 축구대회 아름다운 동행 기사검색 검색 S2N2 이전 다음 제주도 관광약자 리프트 차량 지원 사업 참여 열기 ‘후끈’ 기사공유하기 프린트 메일보내기 글씨키우기 가나다라마바사 가나다라마바사 가나다라마바사 가나다라마바사 가나다라마바사 가나다라마바사 HOME 뉴스 경제 관광 제주도 관광약자 리프트 차량 지원 사업 참여 열기 ‘후끈’ 홍석준 기자 승인 2020.04.01 10:52 댓글 0 기사공유하기 프린트 메일보내기 글씨키우기 가나다라마바사 가나다라마바사 가나다라마바사 가나다라마바사 가나다라마바사 가나다라마바사 이 기사를 공유합니다 페이스북 트위터 카카오스토리 구글+ 네이버밴드 네이버블로그 네이버폴라 핀터레스트 URL복사 × 도내 53개 전세버스 업체 중 24곳 공모 신청 … 6대1 경쟁률 [미디어제주 홍석준 기자] 제주도가 추진중인 ‘관광 약자를 위한 리프트차량 지원 사업’에 도내 24개 전세버스 업체가 사업을 신청, 6대1의 높은 경쟁률을 기록했다. 제주특별자치도는 지난 3월 13일부터 27일까지 리프트차량 지원 사업에 대한 공개모집 결과 도내 53개 전세버스 업체 가운데 45%가 공모 사업에 신청했다고 1일 밝혔다. 이에 제주도는 부서 내 정량평가(80%)와 제주복지관광위원회 정성평가(20%)를 거쳐 4개 업체를 선정하기로 했다. 사업자 명단은 오는 9일 도청 홈페이지에 게시된다. 선정된 사업자에게는 최대 2억원 범위 내에서 리프트 차량 도입 비용의 90%까지 지원하게 된다. 이 사업이 마무리되면 기존 전세버스 리프트차량 8대를 포함해 모두 12대까지 늘어나 관광약자들의 제주 나들이가 훨씬 수월해질 것으로 보고 있다. 저작권자 © 미디어제주 무단전재 및 재배포 금지 홍석준 기자 다른기사 보기 댓글삭제 삭제한 댓글은 다시 복구할 수 없습니다. 그래도 삭제하시겠습니까? 비밀번호 삭제 × 댓글 0 댓글입력 로그인 이름 비밀번호 내용 0 / 400 등록 댓글쓰기 계정을 선택하시면 로그인·계정인증을 통해 댓글을 남기실 수 있습니다. 회원 로그인 비회원 글쓰기 이름 비밀번호 자동등록방지 확인 × 최신순 추천순 실시간 댓글 동굴 몇개 살리자구 하수처리장 이전하면 그돈은 니그들이 낼거냐 일본 후쿠시마 원전페수 방수하는데가서 아주 죽 욱 살면서 대모혀라 실제 월정리 주민들은 그간 동굴과 하수처리장 문제로 골머리를 앓고 있어 새로운 동굴이 발견되면 보호구역 확대에 의한 토지 수용이나 제한으로 재산상 손해가 생길까봐 동굴이 없는게 오히려 좋겠다는 분들도 계십니다. 월정리가 동굴마을로 지정되어 제한만 할께 아니라 하수처리장 철거로 완전한 동굴보호 마을의 역할을 하게해서 마을에 실질적 도움이 될 수 있는 조처도 취해져야 합니다 오늘 강순석 제주지질연구소장님의 새로운 본류 동굴 존재 할 수 있다는 기자회견은 다년간 지질연구하시면서 현장에서 느끼는 전문가의 촉이 있으신것 같습니다. 제주의회 정밀탐사 촉구도 있었으니 하수처리장 존재에 영향을 받지 않을 학술적 가치에 중점인 정밀 지질 탐사가 다시 이루어지기를 기대해 봅니다. 2009년 이후 탐사기법도 더욱 발전 했으니 더 정밀한 탐사가 가능할 것 입니다. 월정리는 만장굴. 사굴과도 마을 경계상에 위치해 있고 그 밑으로 용천굴. 당처물 동굴. 남지미 동굴이 계속 발견되었는데 올 6월에는 제주 의회에서도 정밀 탐사가 필요하다는 의견이 있었습니다만 구체적 탐사 움직임은 보이지 않는것 같습니다 2007년 탐사 ~2009년 보고서는 매우 과학적 동굴탐사인 지표투과 레이더 탐사도 했다지만 그 당시 현장을 지켜본 마을분 증언에 의하면 하수처리장 근처로는 탐사를 회피하는 듯 했다고도 합니다. 지금까지 과정을 보면 보호구역도 하수처리장 경계로 갑자기 2구역에서 4구역으로 완화되게 설정되어 있습니다. 문제의 하수처리장 보호를 위해 안간힘을 써 온것 같은데 하수처리장 철거가 되어야 동굴 탐사도 객관적으로 학술적으로 실제적으로 가능한게 아닌가 의구심을 가져 봅니다 가장 많이 읽은 기사 1제주시, 청년월세 월 20만원씩 최대 12개월 지원 2일상의 배려, 성숙된 시민의식 빛낸다. 3서귀포시, 올해 교통유발부담금 21억 원 부과 4‘2022 Trans Jeju 국제 트레일러닝대회’ 성황리에 폐막 5&lt;정정보도&gt; 해수부 규정 어긴 영상 공모전 입상 의혹, 사실 아닌 것으로 확인 6코로나19 이후 큰 폭 증가 제주 실업자수, 점차 회복세 7최고가 다투는 제주 휘발유 값, 제주도 2차 민간조사 돌입 SPONSORED 신문사소개 기사제보 광고문의 불편신고 개인정보취급방침 청소년보호정책 이메일무단수집거부 RSS 제주특별자치도 제주시 중앙로 270-1 5층(이도이동, 백두빌딩) 대표전화 : 064-725-3456 팩스 : 064-725-3458 명칭 : (주) 미디어제주 제호 : 미디어제주 등록번호 : 제주 아 01003 등록일 : 2005-10-17 발행인 : 고승영 편집인 : 고승영 청소년보호책임자 : 고승영 미디어제주 모든 콘텐츠(영상,기사, 사진)는 저작권법의 보호를 받은바, 무단 전재와 복사, 배포 등을 금합니다. Copyright © 2022 미디어제주. All rights reserved. mail to mediajeju@mediajeju.com 위로</t>
   </si>
 </sst>
 </file>
@@ -434,7 +686,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C11"/>
+  <dimension ref="A1:C61"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -455,9 +707,6 @@
       <c r="B2" t="s">
         <v>2</v>
       </c>
-      <c r="C2" t="s">
-        <v>11</v>
-      </c>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" s="1">
@@ -467,7 +716,7 @@
         <v>3</v>
       </c>
       <c r="C3" t="s">
-        <v>12</v>
+        <v>58</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -478,7 +727,7 @@
         <v>4</v>
       </c>
       <c r="C4" t="s">
-        <v>13</v>
+        <v>59</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -489,7 +738,7 @@
         <v>5</v>
       </c>
       <c r="C5" t="s">
-        <v>14</v>
+        <v>60</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -500,7 +749,7 @@
         <v>6</v>
       </c>
       <c r="C6" t="s">
-        <v>15</v>
+        <v>61</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -511,7 +760,7 @@
         <v>7</v>
       </c>
       <c r="C7" t="s">
-        <v>16</v>
+        <v>62</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -522,7 +771,7 @@
         <v>8</v>
       </c>
       <c r="C8" t="s">
-        <v>17</v>
+        <v>63</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -530,10 +779,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>4</v>
-      </c>
-      <c r="C9" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -541,10 +787,10 @@
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C10" t="s">
-        <v>19</v>
+        <v>64</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -552,10 +798,536 @@
         <v>9</v>
       </c>
       <c r="B11" t="s">
+        <v>11</v>
+      </c>
+      <c r="C11" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3">
+      <c r="A12" s="1">
         <v>10</v>
       </c>
-      <c r="C11" t="s">
+      <c r="B12" t="s">
+        <v>12</v>
+      </c>
+      <c r="C12" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3">
+      <c r="A13" s="1">
+        <v>11</v>
+      </c>
+      <c r="B13" t="s">
+        <v>13</v>
+      </c>
+      <c r="C13" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3">
+      <c r="A14" s="1">
+        <v>12</v>
+      </c>
+      <c r="B14" t="s">
+        <v>14</v>
+      </c>
+      <c r="C14" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3">
+      <c r="A15" s="1">
+        <v>13</v>
+      </c>
+      <c r="B15" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3">
+      <c r="A16" s="1">
+        <v>14</v>
+      </c>
+      <c r="B16" t="s">
+        <v>16</v>
+      </c>
+      <c r="C16" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3">
+      <c r="A17" s="1">
+        <v>15</v>
+      </c>
+      <c r="B17" t="s">
+        <v>17</v>
+      </c>
+      <c r="C17" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3">
+      <c r="A18" s="1">
+        <v>16</v>
+      </c>
+      <c r="B18" t="s">
+        <v>18</v>
+      </c>
+      <c r="C18" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3">
+      <c r="A19" s="1">
+        <v>17</v>
+      </c>
+      <c r="B19" t="s">
+        <v>19</v>
+      </c>
+      <c r="C19" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3">
+      <c r="A20" s="1">
+        <v>18</v>
+      </c>
+      <c r="B20" t="s">
         <v>20</v>
+      </c>
+      <c r="C20" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3">
+      <c r="A21" s="1">
+        <v>19</v>
+      </c>
+      <c r="B21" t="s">
+        <v>21</v>
+      </c>
+      <c r="C21" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3">
+      <c r="A22" s="1">
+        <v>20</v>
+      </c>
+      <c r="B22" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3">
+      <c r="A23" s="1">
+        <v>21</v>
+      </c>
+      <c r="B23" t="s">
+        <v>23</v>
+      </c>
+      <c r="C23" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3">
+      <c r="A24" s="1">
+        <v>22</v>
+      </c>
+      <c r="B24" t="s">
+        <v>24</v>
+      </c>
+      <c r="C24" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3">
+      <c r="A25" s="1">
+        <v>23</v>
+      </c>
+      <c r="B25" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3">
+      <c r="A26" s="1">
+        <v>24</v>
+      </c>
+      <c r="B26" t="s">
+        <v>26</v>
+      </c>
+      <c r="C26" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3">
+      <c r="A27" s="1">
+        <v>25</v>
+      </c>
+      <c r="B27" t="s">
+        <v>27</v>
+      </c>
+      <c r="C27" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3">
+      <c r="A28" s="1">
+        <v>26</v>
+      </c>
+      <c r="B28" t="s">
+        <v>28</v>
+      </c>
+      <c r="C28" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3">
+      <c r="A29" s="1">
+        <v>27</v>
+      </c>
+      <c r="B29" t="s">
+        <v>29</v>
+      </c>
+      <c r="C29" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3">
+      <c r="A30" s="1">
+        <v>28</v>
+      </c>
+      <c r="B30" t="s">
+        <v>30</v>
+      </c>
+      <c r="C30" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3">
+      <c r="A31" s="1">
+        <v>29</v>
+      </c>
+      <c r="B31" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3">
+      <c r="A32" s="1">
+        <v>30</v>
+      </c>
+      <c r="B32" t="s">
+        <v>32</v>
+      </c>
+      <c r="C32" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3">
+      <c r="A33" s="1">
+        <v>31</v>
+      </c>
+      <c r="B33" t="s">
+        <v>33</v>
+      </c>
+      <c r="C33" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3">
+      <c r="A34" s="1">
+        <v>32</v>
+      </c>
+      <c r="B34" t="s">
+        <v>34</v>
+      </c>
+      <c r="C34" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3">
+      <c r="A35" s="1">
+        <v>33</v>
+      </c>
+      <c r="B35" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3">
+      <c r="A36" s="1">
+        <v>34</v>
+      </c>
+      <c r="B36" t="s">
+        <v>36</v>
+      </c>
+      <c r="C36" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3">
+      <c r="A37" s="1">
+        <v>35</v>
+      </c>
+      <c r="B37" t="s">
+        <v>37</v>
+      </c>
+      <c r="C37" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3">
+      <c r="A38" s="1">
+        <v>36</v>
+      </c>
+      <c r="B38" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3">
+      <c r="A39" s="1">
+        <v>37</v>
+      </c>
+      <c r="B39" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3">
+      <c r="A40" s="1">
+        <v>38</v>
+      </c>
+      <c r="B40" t="s">
+        <v>40</v>
+      </c>
+      <c r="C40" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3">
+      <c r="A41" s="1">
+        <v>39</v>
+      </c>
+      <c r="B41" t="s">
+        <v>41</v>
+      </c>
+      <c r="C41" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3">
+      <c r="A42" s="1">
+        <v>40</v>
+      </c>
+      <c r="B42" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3">
+      <c r="A43" s="1">
+        <v>41</v>
+      </c>
+      <c r="B43" t="s">
+        <v>43</v>
+      </c>
+      <c r="C43" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3">
+      <c r="A44" s="1">
+        <v>42</v>
+      </c>
+      <c r="B44" t="s">
+        <v>44</v>
+      </c>
+      <c r="C44" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3">
+      <c r="A45" s="1">
+        <v>43</v>
+      </c>
+      <c r="B45" t="s">
+        <v>45</v>
+      </c>
+      <c r="C45" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3">
+      <c r="A46" s="1">
+        <v>44</v>
+      </c>
+      <c r="B46" t="s">
+        <v>46</v>
+      </c>
+      <c r="C46" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3">
+      <c r="A47" s="1">
+        <v>45</v>
+      </c>
+      <c r="B47" t="s">
+        <v>47</v>
+      </c>
+      <c r="C47" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3">
+      <c r="A48" s="1">
+        <v>46</v>
+      </c>
+      <c r="B48" t="s">
+        <v>48</v>
+      </c>
+      <c r="C48" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3">
+      <c r="A49" s="1">
+        <v>47</v>
+      </c>
+      <c r="B49" t="s">
+        <v>49</v>
+      </c>
+      <c r="C49" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3">
+      <c r="A50" s="1">
+        <v>48</v>
+      </c>
+      <c r="B50" t="s">
+        <v>50</v>
+      </c>
+      <c r="C50" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3">
+      <c r="A51" s="1">
+        <v>49</v>
+      </c>
+      <c r="B51" t="s">
+        <v>51</v>
+      </c>
+      <c r="C51" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3">
+      <c r="A52" s="1">
+        <v>50</v>
+      </c>
+      <c r="B52" t="s">
+        <v>49</v>
+      </c>
+      <c r="C52" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3">
+      <c r="A53" s="1">
+        <v>51</v>
+      </c>
+      <c r="B53" t="s">
+        <v>50</v>
+      </c>
+      <c r="C53" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3">
+      <c r="A54" s="1">
+        <v>52</v>
+      </c>
+      <c r="B54" t="s">
+        <v>51</v>
+      </c>
+      <c r="C54" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3">
+      <c r="A55" s="1">
+        <v>53</v>
+      </c>
+      <c r="B55" t="s">
+        <v>52</v>
+      </c>
+      <c r="C55" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3">
+      <c r="A56" s="1">
+        <v>54</v>
+      </c>
+      <c r="B56" t="s">
+        <v>53</v>
+      </c>
+      <c r="C56" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3">
+      <c r="A57" s="1">
+        <v>55</v>
+      </c>
+      <c r="B57" t="s">
+        <v>54</v>
+      </c>
+      <c r="C57" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3">
+      <c r="A58" s="1">
+        <v>56</v>
+      </c>
+      <c r="B58" t="s">
+        <v>55</v>
+      </c>
+      <c r="C58" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3">
+      <c r="A59" s="1">
+        <v>57</v>
+      </c>
+      <c r="B59" t="s">
+        <v>51</v>
+      </c>
+      <c r="C59" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3">
+      <c r="A60" s="1">
+        <v>58</v>
+      </c>
+      <c r="B60" t="s">
+        <v>56</v>
+      </c>
+      <c r="C60" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3">
+      <c r="A61" s="1">
+        <v>59</v>
+      </c>
+      <c r="B61" t="s">
+        <v>57</v>
+      </c>
+      <c r="C61" t="s">
+        <v>104</v>
       </c>
     </row>
   </sheetData>
